--- a/Agco.xlsx
+++ b/Agco.xlsx
@@ -490,7 +490,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="17.43357142857143" bestFit="1" customWidth="1" style="10" min="1" max="1"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="11" min="2" max="2"/>
@@ -550,7 +550,7 @@
           <t>MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7465, MF 7475, MF 7480, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 8450, MF 8460, MF 8470, MF 8480, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 7619 Dyna-VT, MF 7620 Dyna-VT, MF 7622 Dyna-VT, MF 7624 Dyna-VT</t>
         </is>
       </c>
-      <c r="D3" s="11" t="n"/>
+      <c r="D3" s="11" t="inlineStr"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
@@ -568,14 +568,14 @@
           <t>8370P, 8400P, 8380P, 8410P, 9300R, 9390R, 9470X, 9490X, MF 135, MF 165, MF 148, MF 168, MF 188, MF 560, MF 575 4WD, MF 590 4WD, MF 595, MF 595 4WD, MF 698, MF 698 4WD, MF 698T, MF 698T 4WD, MF 699, MF 699 4WD, MF 670 4WD, MF 690, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 3630 2WD, MF 3650 2WD, MF 3680 2WD, MF 3645 2WD, MF 3645 4WD, MF 3655 2WD, MF 3655 4WD, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 3635 2WD, MF 3635 4WD, MF 1200, MF 1250, MF 8110 2WD, MF 8110 4WD, MF 8120 2WD, MF 8120 4WD, MF 8130 2WD, MF 8130 4WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4360 2WD, MF 4360 4WD, MF 4365 2WD, MF 4365 4WD, MF 4370 2WD, MF 4370 4WD, MF 4225 2WD, MF 4225 4WD, MF 4235 2WD, MF 4235 4WD, MF 4240 2WD, MF 4240 4WD, MF 4245 2WD, MF 4245 4WD, MF 4255 2WD, MF 4255 4WD, MF 4260 2WD, MF 4260 4WD, MF 4265 2WD, MF 4265 4WD, MF 4270 2WD, MF 4270 4WD, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 3640, MF 5465 Dyna-4, MF 5450 T3, MF 2170XD, MF 2160 CE, MF 2170CE, MF 185 SII, MF 187CE, MF 265, MF 255, MF 260, MF 275 2WD, MF 298 2WD, MF 298 4WD, MF 298, MF 230, MF 270, MF 350 2WD, MF 350 4WD, MF 375 2WD, MF 375 4WD, MF 390 2WD, MF 390 4WD, MF 398 2WD, MF 398 4WD, MF 399 2WD, MF 399 4WD, MF 360 2WD, MF 360 4WD, MF 365 2WD, MF 365 4WD, MF 355 2WD, MF 355 4WD, MF 390T 2WD, MF 390T 4WD, MF 362 2WD, MF 362 4WD, MF 340 4WD, MF 340 2WD, MF 372 N 2WD, MF 372 N 4WD, MF 382 N 4WD, MF 362 N 2WD, MF 362 N 4WD, MF 342 2WD, MF 352 2WD, MF 7382 (04/15 - 03/17), MF 7274, MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7272, MF7380, MF7380AL, MF7382, MF9380</t>
         </is>
       </c>
-      <c r="D4" s="11" t="n"/>
+      <c r="D4" s="11" t="inlineStr"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="4" t="n">
         <v>310200</v>
       </c>
-      <c r="B5" s="11" t="n"/>
-      <c r="C5" s="11" t="n"/>
+      <c r="B5" s="11" t="inlineStr"/>
+      <c r="C5" s="11" t="inlineStr"/>
       <c r="D5" s="11" t="inlineStr">
         <is>
           <t>Пусто</t>
@@ -588,8 +588,8 @@
           <t>281-1750</t>
         </is>
       </c>
-      <c r="B6" s="11" t="n"/>
-      <c r="C6" s="11" t="n"/>
+      <c r="B6" s="11" t="inlineStr"/>
+      <c r="C6" s="11" t="inlineStr"/>
       <c r="D6" s="11" t="inlineStr">
         <is>
           <t>Пусто</t>
@@ -600,9 +600,9 @@
       <c r="A7" s="4" t="n">
         <v>6659609</v>
       </c>
-      <c r="B7" s="11" t="n"/>
-      <c r="C7" s="11" t="n"/>
-      <c r="D7" s="11" t="n"/>
+      <c r="B7" s="11" t="inlineStr"/>
+      <c r="C7" s="11" t="inlineStr"/>
+      <c r="D7" s="11" t="inlineStr"/>
     </row>
     <row r="8" ht="18.75" customHeight="1">
       <c r="A8" s="3" t="inlineStr">
@@ -620,7 +620,7 @@
           <t>MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4360 2WD, MF 4360 4WD, MF 4365 2WD, MF 4365 4WD, MF 4370 2WD, MF 4370 4WD, MF 4225 2WD, MF 4225 4WD, MF 4235 2WD, MF 4235 4WD, MF 4245 2WD, MF 4245 4WD, MF 4255 2WD, MF 4255 4WD, MF 4260 2WD, MF 4260 4WD, MF 4265 2WD, MF 4265 4WD, MF 4270 2WD, MF 4270 4WD, MF 6290 2WD, MF 6290 4WD, MF 6280 2WD, MF 6280 4WD, MF 6270 2WD, MF 6270 4WD, MF 6265 2WD, MF 6265 4WD, MF 6260 2WD, MF 6260 4WD, MF 6255 2WD, MF 6255 4WD, MF 6245 2WD, MF 6245 4WD, MF 6235 2WD, MF 6235 4WD, MF 8220 2WD, MF 8220 4WD, MF 8210 2WD, MF 8210 4WD, MF 6497 T2 Agco Power, MF 6499 T2 Agco Power, MF 6465 T2 Perkins, MF 6475 T2 Perkins, MF 6480 T2 Perkins, MF 6490 T2 Agco Power, MF 6495 T2 Agco Power, MF 6485 T2 Agco Power, MF 6445 T2 Agco Power, MF 6455 T2 Perkins, MF 6460 T2 Perkins, MF 6470 T2 Perkins, MF 6497 XTRA, MF 6499 XTRA, MF 7465, MF 7475, MF 7480, MF 7485, MF 7490, MF 7495, MF 8450, MF 8460, MF 8470, MF 8480, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 5445, MF 5455, 5460, 5465, 5475, 5470, MF 5460 SISU, MF 5470 SISU</t>
         </is>
       </c>
-      <c r="D8" s="11" t="n"/>
+      <c r="D8" s="11" t="inlineStr"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
       <c r="A9" s="4" t="n">
@@ -636,7 +636,7 @@
           <t>9300R, 9390R, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795</t>
         </is>
       </c>
-      <c r="D9" s="11" t="n"/>
+      <c r="D9" s="11" t="inlineStr"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
       <c r="A10" s="3" t="inlineStr">
@@ -644,8 +644,8 @@
           <t>ACP0026520</t>
         </is>
       </c>
-      <c r="B10" s="11" t="n"/>
-      <c r="C10" s="11" t="n"/>
+      <c r="B10" s="11" t="inlineStr"/>
+      <c r="C10" s="11" t="inlineStr"/>
       <c r="D10" s="11" t="inlineStr">
         <is>
           <t>Пусто</t>
@@ -666,7 +666,7 @@
           <t>9300R, 9390R, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795</t>
         </is>
       </c>
-      <c r="D11" s="11" t="n"/>
+      <c r="D11" s="11" t="inlineStr"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
       <c r="A12" s="3" t="inlineStr">
@@ -696,8 +696,16 @@
           <t>W908333-4</t>
         </is>
       </c>
-      <c r="B13" s="11" t="n"/>
-      <c r="C13" s="11" t="n"/>
+      <c r="B13" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C13" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9470X, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), TE20, MF 135, MF 165, MF 175, MF 145, MF 148, MF 168, MF 188, MF 152, MF 158, MF 168 4WD, MF 168F, MF 145 MK3/V, MF 158V, MF 194C, MF 550, MF 575, MF 560, MF 575 4WD, MF 590 4WD, MF 595, MF 595 4WD, MF 565, MF 592, MF 592 4WD, MF 698, MF 698T, MF 699, MF 670 4WD, MF 690, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 394S 2WD, MF 3050 2WD, MF 3050 4WD, MF 3060 2WD, MF 3060 4WD, MF 3070 2WD, MF 3070 4WD, MF 3080 2WD, MF 3080 4WD, MF 3090 2WD, MF 3090 4WD, MF 3115 2WD, MF 3115 4WD, MF 3125 2WD, MF 3125 4WD, MF 3065 2WD, MF 3065 4WD, MF 3120 2WD, MF 3120 4WD, MF 3610 2WD, MF 3610 4WD, MF 3630 2WD, MF 3630 4WD, MF 3650 2WD, MF 3650 4WD, MF 3680 2WD, MF 3680 4WD, MF 3645 2WD, MF 3645 4WD, MF 3655 2WD, MF 3655 4WD, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 3635 2WD, MF 3635 4WD, MF 1200, MF 1250, MF 294 2WD, MF 294 4WD, MF 284S 2WD, MF 284S 4WD, MF 6150 2WD, MF 6180 2WD, MF 6180 4WD, MF 6190 2WD, MF 6190 4WD, MF 8170 4WD, MF 8110 2WD, MF 8110 4WD, MF 8120 2WD, MF 8120 4WD, MF 8130 2WD, MF 8130 4WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 4315 2WD, MF 4315 4WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4360 2WD, MF 4360 4WD, MF 4365 2WD, MF 4365 4WD, MF 4370 2WD, MF 4370 4WD, MF 4215 2WD, MF 4215 4WD, MF 4220 2WD, MF 4220 4WD, MF 4225 2WD, MF 4225 4WD, MF 4235 2WD, MF 4235 4WD, MF 4240 2WD, MF 4240 4WD, MF 4245 2WD, MF 4245 4WD, MF 4255 2WD, MF 4255 4WD, MF 4260 2WD, MF 4260 4WD, MF 4265 2WD, MF 4265 4WD, MF 4270 2WD, MF 4270 4WD, MF 6290 2WD, MF 6290 4WD, MF 6280 2WD, MF 6280 4WD, MF 6270 2WD, MF 8250 2WD, MF 8250 4WD, MF 8260 2WD, MF 8240 2WD, MF 8240 4WD, MF 8220 2WD, MF 8220 4WD, MF 8210 2WD, MF 8210 4WD, 6465 Dyna-6, 6475 Dyna-6, MF 6480 T3 Agco Power, MF 6497 T2 Agco Power, MF 6499 T2 Agco Power, MF 6465 T2 Perkins, MF 6475 T2 Perkins, MF 6480 T2 Perkins, MF 6490 T2 Agco Power, MF 6495 T2 Agco Power, MF 6485 T2 Agco Power, MF 6445 T2 Agco Power, MF 6455 T2 Perkins, MF 6460 T2 Perkins, MF 6470 T2 Perkins, MF 6497 XTRA, MF 6499 XTRA, 6485, MF 6490 T3 Agco Power, MF 6495 T3 Agco Power, MF 6470 T3 Agco Power, MF 6460 T3 Agco Power, 6465, MF 6475 T3 Agco Power, MF 6480 T3 Perkins, MF 6445 T3 Perkins, MF 6455 T3 Perkins, MF 6497 T3 Agco Power, MF 6499 T3 Agco Power, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 2225, MF 2235, MF 2230, MF 6612 Dyna-4, MF 6613 Dyna-6, MF 6613 Dyna-4, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-6, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-6, MF 7618 Dyna-6, MF 7619 Dyna-6, MF 7620 Dyna-6, MF 7622 Dyna-6, MF 7624 Dyna-6, MF 7626 Dyna-6, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, MF 5445, MF 5455, 5460, 5465, 5475, 5470, MF 5425, MF 5435, MF 5470 T3, MF 5480 T3, MF 5465 T3, MF 5475 T3, MF 5445 T3, MF 5455 T3, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 186CE, MF 187CE, MF 2140 CE, MF 245, MF 265, MF 285, MF 235, MF 255, MF 260, MF 275 2WD, MF 298 2WD, MF 298 4WD, MF 290 2WD, MF 298, MF 290 4WD, MF 250, MF 230, MF 270, MF 350 2WD, MF 350 4WD, MF 375 2WD, MF 375 4WD, MF 390 2WD, MF 390 4WD, MF 398 2WD, MF 398 4WD, MF 399 2WD, MF 399 4WD, MF 360 2WD, MF 360 4WD, MF 365 2WD, MF 365 4WD, MF 355 2WD, MF 355 4WD, MF 390T 2WD, MF 390T 4WD, MF 362 2WD, MF 362 4WD, MF 340 4WD, MF 340 2WD, MF 372 N 2WD, MF 372 N 4WD, MF 382 N 4WD, MF 362 N 2WD, MF 362 N 4WD, MF 342 2WD, MF 352 2WD, MF 7274</t>
+        </is>
+      </c>
       <c r="D13" s="11" t="inlineStr">
         <is>
           <t>Пусто</t>
@@ -710,8 +718,8 @@
           <t>907306W1</t>
         </is>
       </c>
-      <c r="B14" s="11" t="n"/>
-      <c r="C14" s="11" t="n"/>
+      <c r="B14" s="11" t="inlineStr"/>
+      <c r="C14" s="11" t="inlineStr"/>
       <c r="D14" s="11" t="inlineStr">
         <is>
           <t>Пусто</t>
@@ -734,7 +742,7 @@
           <t>9300R, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, MF 178, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 184, MF 8280 4WD, MF 8270 4WD, MF 8260 2WD, MF 9690, MF 9790, MF 9695, MF 9795, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 186CE, MF 187CE, MF 2140 CE</t>
         </is>
       </c>
-      <c r="D15" s="11" t="n"/>
+      <c r="D15" s="11" t="inlineStr"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
       <c r="A16" s="3" t="inlineStr">
@@ -752,7 +760,7 @@
           <t>5180E, MF 7265 (2009-2011), MF 7247 S (2008-2011), MF 7240 (2008-2018), MF 7244 (2006-2011), MF 7245 (2006-2011), MF 7246 (2006-2011), MF 7260 (2005-2011), MF 7270 (2005-2011)</t>
         </is>
       </c>
-      <c r="D16" s="11" t="n"/>
+      <c r="D16" s="11" t="inlineStr"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
       <c r="A17" s="3" t="inlineStr">
@@ -770,7 +778,7 @@
           <t>9300R, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), MF 165, MF 155, MF 698, MF 698 4WD, MF 698T, MF 698T 4WD, MF 699, MF 699 4WD, MF 670 4WD, MF 690, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 184, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 186CE, MF 187CE, MF 2140 CE, MF 298 2WD, MF 375 4WD</t>
         </is>
       </c>
-      <c r="D17" s="11" t="n"/>
+      <c r="D17" s="11" t="inlineStr"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
       <c r="A18" s="3" t="inlineStr">
@@ -788,7 +796,7 @@
           <t>A66, A76, MF 2670, MF 2680, MF 9520, MF 9895, MF 9695, MF 9795</t>
         </is>
       </c>
-      <c r="D18" s="11" t="n"/>
+      <c r="D18" s="11" t="inlineStr"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
       <c r="A19" s="3" t="inlineStr">
@@ -806,7 +814,7 @@
           <t>9300R, 9390R, MF 135, MF 165, MF 175, MF 148, MF 168, MF 550, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 245, MF 230, MF 340 4WD</t>
         </is>
       </c>
-      <c r="D19" s="11" t="n"/>
+      <c r="D19" s="11" t="inlineStr"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
       <c r="A20" s="3" t="inlineStr">
@@ -814,9 +822,17 @@
           <t>17C000532B</t>
         </is>
       </c>
-      <c r="B20" s="11" t="n"/>
-      <c r="C20" s="11" t="n"/>
-      <c r="D20" s="11" t="n"/>
+      <c r="B20" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C20" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, MF 9690, MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13)</t>
+        </is>
+      </c>
+      <c r="D20" s="11" t="inlineStr"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
       <c r="A21" s="3" t="inlineStr">
@@ -824,25 +840,45 @@
           <t>47949PF</t>
         </is>
       </c>
-      <c r="B21" s="11" t="n"/>
-      <c r="C21" s="11" t="n"/>
-      <c r="D21" s="11" t="n"/>
+      <c r="B21" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C21" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, MF 9690, MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13)</t>
+        </is>
+      </c>
+      <c r="D21" s="11" t="inlineStr"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
       <c r="A22" s="4" t="n">
         <v>700709140</v>
       </c>
-      <c r="B22" s="11" t="n"/>
-      <c r="C22" s="11" t="n"/>
-      <c r="D22" s="11" t="n"/>
+      <c r="B22" s="11" t="inlineStr"/>
+      <c r="C22" s="11" t="inlineStr"/>
+      <c r="D22" s="11" t="inlineStr"/>
     </row>
     <row r="23" ht="18.75" customHeight="1">
       <c r="A23" s="4" t="n">
         <v>873497</v>
       </c>
-      <c r="B23" s="11" t="n"/>
-      <c r="C23" s="11" t="n"/>
-      <c r="D23" s="11" t="n"/>
+      <c r="B23" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C23" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 375 4WD</t>
+        </is>
+      </c>
+      <c r="D23" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="3" t="inlineStr">
@@ -850,25 +886,53 @@
           <t>SN840</t>
         </is>
       </c>
-      <c r="B24" s="11" t="n"/>
-      <c r="C24" s="11" t="n"/>
-      <c r="D24" s="11" t="n"/>
+      <c r="B24" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C24" s="11" t="inlineStr">
+        <is>
+          <t>7460/7660, MT525D Dyna-VT, MT535D Dyna-VT, MT545D Dyna-VT, PTD12 Spoke, A66, A76, 700 Grain Header, MF 9435, MF 9520, MF 9540 Tier 4 TI, MF 9560 Tier 4 TI, MF 9540 T4F, MF 9560 T4F, MF 9245, MF 9565, MF 9895, MF 9695, MF 9795, MF 3983, MF 3986, MF 5130 Wheel Rake HD, MF WR 9725, MF WR 9735, MF WR 9950, MF WR 9960, MF WR 9970, MF WR 9980, MF WR 9740, MF WR 9760, MF WR 9770, MF WR 9840, MF WR 9860, MF WR 9870</t>
+        </is>
+      </c>
+      <c r="D24" s="11" t="inlineStr"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
       <c r="A25" s="4" t="n">
         <v>70925003</v>
       </c>
-      <c r="B25" s="11" t="n"/>
-      <c r="C25" s="11" t="n"/>
-      <c r="D25" s="11" t="n"/>
+      <c r="B25" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C25" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, MF 155, MF 550, MF 575, MF 560, MF 575 4WD, MF 590 4WD, MF 595, MF 595 4WD, MF 565, MF 592, MF 592 4WD, MF 698, MF 698 4WD, MF 698T, MF 698T 4WD, MF 699, MF 699 4WD, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 1200, MF 8280 4WD, MF 8270 4WD, MF 8260 2WD, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 298 2WD, MF 298 4WD, MF 290 2WD, MF 290 4WD</t>
+        </is>
+      </c>
+      <c r="D25" s="11" t="inlineStr"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="4" t="n">
         <v>70923126</v>
       </c>
-      <c r="B26" s="11" t="n"/>
-      <c r="C26" s="11" t="n"/>
-      <c r="D26" s="11" t="n"/>
+      <c r="B26" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C26" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 3610 2WD, MF 3610 4WD, MF 3630 2WD, MF 3630 4WD, MF 3650 2WD, MF 3650 4WD, MF 3680 2WD, MF 3680 4WD, MF 184, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 2140 CE</t>
+        </is>
+      </c>
+      <c r="D26" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="18.75" customHeight="1">
       <c r="A27" s="3" t="inlineStr">
@@ -876,9 +940,17 @@
           <t>AG551279</t>
         </is>
       </c>
-      <c r="B27" s="11" t="n"/>
-      <c r="C27" s="11" t="n"/>
-      <c r="D27" s="11" t="n"/>
+      <c r="B27" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C27" s="11" t="inlineStr">
+        <is>
+          <t>MF 135, MF 148, MF 550, MF 595, MF 595 4WD, MF 592, MF 592 4WD, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 3640, MF 185 SII, MF 190CE, MF 187CE, MF 1035, MF 1045, MF 245, MF 255, MF 250</t>
+        </is>
+      </c>
+      <c r="D27" s="11" t="inlineStr"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="4" t="n">

--- a/Agco.xlsx
+++ b/Agco.xlsx
@@ -956,9 +956,17 @@
       <c r="A28" s="4" t="n">
         <v>703249</v>
       </c>
-      <c r="B28" s="11" t="n"/>
-      <c r="C28" s="11" t="n"/>
-      <c r="D28" s="11" t="n"/>
+      <c r="B28" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C28" s="11" t="inlineStr">
+        <is>
+          <t>PLNTR MOMENTUM 16-30 FT 40', PLNTR MOMENTUM 16-70 FT 40', PLNTR MOMENTUM 16-76 FT 40', PLNTR MOMENTUM 24-20 FT 40', PLNTR MOMENTUM 24-22 FT 40', PLNTR MOMENTUM 32-15 FT 40', PLNTR MOMENTUM 24-30 FT 60', PLNTR MOMENTUM 24-70 FT 60', PLNTR MOMENTUM 24-76 FT 60', PLNTR MOMENTUM 36-20 FT 60', PLNTR MOMENTUM 36-22 FT 60', PLNTR MOMENTUM 48-15 FT 60', 8370P, 8400P, 9300R, 9390R, 9470X, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, Squadra 1290 UD, MF 35, TE20, MF 135, MF 165, MF 175, MF 145, MF 178, MF 155, MF 175S, MF 148, MF 168, MF 188, MF 152, MF 158, MF 185, MF 165 MK3, MF 168 4WD, MF 168F, MF 145 MK3/V, MF 158V, MF 154S 2WD, MF 154S 4WD, MF 174S 2WD, MF 185 4WD, MF 184S 2WD, MF 185S 4WD, MF 174S, MF 154F, MF 174F, MF 184F, MF 194F, MF 194S, MF 164F, MF 164F 4WD, MF 234S, MF 254S 4WD, MF 294 4WD, MF 264, MF 264 4WD, MF 264S 2WD, MF 264S 4WD, MF 550, MF 575, MF 590, MF 560, MF 575 4WD, MF 590 4WD, MF 595, MF 595 4WD, MF 565, MF 592, MF 592 4WD, MF 698, MF 698 4WD, MF 698T, MF 698T 4WD, MF 699, MF 699 4WD, MF 670 4WD, MF 690, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 354F 2WD, MF 354F 4WD, MF 364F 2WD, MF 364F 4WD, MF 374F 2WD, MF 374F 4WD, MF 384F 2WD, MF 384F 4WD, MF 394F 2WD, MF 394F 4WD, MF 354S 2WD, MF 354S 4WD, MF 364S 2WD, MF 364S 4WD, MF 374S 2WD, MF 374S 4WD, MF 384S 2WD, MF 384S 4WD, MF 394S 2WD, MF 394S 4WD, MF 354V 2WD, MF 354V 4WD, MF 364V 2WD, MF 364V 4WD, MF 374V 2WD, MF 374V 4WD, MF 3610 2WD, MF 3610 4WD, MF 3630 2WD, MF 3630 4WD, MF 3650 2WD, MF 3650 4WD, MF 3680 2WD, MF 3680 4WD, MF 3645 2WD, MF 3645 4WD, MF 3655 2WD, MF 3655 4WD, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 3635 2WD, MF 3635 4WD, MF 1200, MF 1250, MF 194 2WD, MF 194 4WD, MF 294 2WD, MF 284S 2WD, MF 284S 4WD, MF 263, MF 263 4WD, MF 333 2WD, MF 353 2WD, MF 353 4WD, MF 363 2WD, MF 363 4WD, MF 373 2WD, MF 373 4WD, MF 383 2WD, MF 383 4WD, MF 393 2WD, MF 393 4WD, MF 353S 2WD, MF 353S 4WD, MF 363S 4WD, MF 373S 2WD, MF 373S 4WD, MF 377 2WD, MF 377 4WD, MF 387 2WD, MF 387 4WD, MF 397 2WD, MF 397 4WD, MF 8170 4WD, MF 8110 2WD, MF 8110 4WD, MF 8120 2WD, MF 8120 4WD, MF 8130 2WD, MF 8130 4WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 4315 2WD, MF 4315 4WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4360 2WD, MF 4360 4WD, MF 4365 2WD, MF 4365 4WD, MF 4370 2WD, MF 4370 4WD, MF 4215 2WD, MF 4215 4WD, MF 4220 2WD, MF 4220 4WD, MF 4225 2WD, MF 4225 4WD, MF 4235 2WD, MF 4235 4WD, MF 4240 2WD, MF 4240 4WD, MF 4245 2WD, MF 4245 4WD, MF 4255 2WD, MF 4255 4WD, MF 4260 2WD, MF 4260 4WD, MF 4265 2WD, MF 4265 4WD, MF 4270 2WD, MF 4270 4WD, MF 6290 2WD, MF 6290 4WD, MF 6280 2WD, MF 6280 4WD, MF 6270 2WD, MF 6270 4WD, MF 6265 2WD, MF 6265 4WD, MF 6260 2WD, MF 6260 4WD, MF 6255 2WD, MF 6255 4WD, MF 6245 2WD, MF 6245 4WD, MF 6235 2WD, MF 6235 4WD, MF 8260 4WD, MF 8250 2WD, MF 8250 4WD, MF 8280 4WD, MF 8270 4WD, MF 8260 2WD, MF 8240 2WD, MF 8240 4WD, MF 8220 2WD, MF 8220 4WD, MF 8210 2WD, MF 8210 4WD, MF 6465 T2 Perkins, MF 6475 T2 Perkins, MF 6480 T2 Perkins, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 5709 S Dyna-4, MF 5709 S Dyna-6, MF 6612 Dyna-4, MF 6613 Dyna-6, MF 6613 Dyna-4, MF 6614 Dyna-VT, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-VT, MF 6615 Dyna-6, MF 6616 Dyna-VT, MF 6616 Dyna-6, MF 5709 SL Dyna-4, MF 5710 SL Dyna-4, MF 5710 SL Dyna-6, MF 5711 SL Dyna-4, MF 5711 SL Dyna-6, MF 5712 SL Dyna-4, MF 5712 SL Dyna-6, MF 5713 SL Dyna-4, MF 5713 SL Dyna-6, MF 6712 S Dyna-4, MF 6713 S Dyna-4, MF 6714 S Dyna-4 T4F, MF 6715 S Dyna-4 T4F, MF 6713 S Dyna-6, MF 6713 S Dyna-VT, MF 6714 S Dyna-6, MF 6714 S Dyna-VT, MF 6715 S Dyna-6 T4F, MF 6715 S Dyna-VT, MF 6716 S Dyna-6 T4F, MF 6716 S Dyna-VT T4F, MF 6718 S Dyna-6, MF 6718 S Dyna-VT, MF 6714 S Dyna-6 T4F, MF 6714 S Dyna-VT T4F, MF 7719 Dyna-6, MF 7715 DYNA-4, MF 7716 Dyna-6, MF 7714 Dyna-4, MF 7715 Dyna-4, MF 7726 Dyna-VT, MF6713 S Dyna-6 T5, MF 6713 S Dyna-VT T5, MF 6714 S Dyna-6 T5, MF 6714 S Dyna-VT T5, MF 6715 S Dyna-6 T5, MF 6715 S Dyna-VT T5, MF 6716 S Dyna-6 T5, MF 6716 S Dyna-VT T5, MF 6718 S Dyna-6 T5, MF 6718 S Dyna-VT T5, MF 7714 S Dyna-4, MF 7719 S Dyna-VT T5, MF 7714 S Dyna-4 T5, MF 7715 S Dyna-VT T5, MF 7715 S Dyna-6 T5, MF 7716 S Dyna-VT T5, MF 7716 S Dyna-6 T5, MF 7718 S Dyna-VT T5, MF 7718 S Dyna-6 T5, MF 5450 T3, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 186CE, MF 187CE, MF 2140 CE, MF1547, MF 245, MF 265, MF 285, MF 235, MF 255, MF 260, MF 275 4WD, MF 275 2WD, MF 298 2WD, MF 298 4WD, MF 290 2WD, MF 298, MF 290 4WD, MF 250, MF 230, MF 270, MF8727, MF 350 2WD, MF 350 4WD, MF 375 2WD, MF 375 4WD, MF 390 2WD, MF 390 4WD, MF 398 2WD, MF 398 4WD, MF 399 2WD, MF 399 4WD, MF 360 2WD, MF 360 4WD, MF 365 2WD, MF 365 4WD, MF 355 2WD, MF 355 4WD, MF 390T 2WD, MF 390T 4WD, MF 362 2WD, MF 362 4WD, MF 340 4WD, MF 340 2WD, MF 372 N 2WD, MF 372 N 4WD, MF 382 N 4WD, MF 362 N 2WD, MF 362 N 4WD, MF 342 2WD, MF 352 2WD, MF 7274, MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7272</t>
+        </is>
+      </c>
+      <c r="D28" s="11" t="inlineStr"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
       <c r="A29" s="3" t="inlineStr">
@@ -966,9 +974,17 @@
           <t>AG557471</t>
         </is>
       </c>
-      <c r="B29" s="11" t="n"/>
-      <c r="C29" s="11" t="n"/>
-      <c r="D29" s="11" t="n"/>
+      <c r="B29" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C29" s="11" t="inlineStr">
+        <is>
+          <t>12130 (Serial No. JHBxxx001 to JBHxxx999), MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 3050 2WD, MF 3050 4WD, MF 3060 2WD, MF 3060 4WD, MF 3070 2WD, MF 3070 4WD, MF 3080 4WD, MF 3090 2WD, MF 3090 4WD, MF 3065 2WD, MF 3065 4WD, MF 3610 2WD, MF 3610 4WD, MF 3630 2WD, MF 3630 4WD, MF 3650 2WD, MF 3650 4WD, MF 3680 2WD, MF 3680 4WD, MF 3645 2WD, MF 3645 4WD, MF 3655 2WD, MF 3655 4WD, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 3635 2WD, MF 3635 4WD, MF 6150 2WD, MF 6170 2WD, MF 6180 2WD, MF 8170 4WD, MF 8110 2WD, MF 8120 2WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 9690, MF 9790, MF 3640, MF 2170XD, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 187CE, MF 350 2WD, MF 350 4WD, MF 375 2WD, MF 375 4WD, MF 390 2WD, MF 390 4WD, MF 398 2WD, MF 398 4WD, MF 399 2WD, MF 399 4WD, MF 360 2WD, MF 360 4WD</t>
+        </is>
+      </c>
+      <c r="D29" s="11" t="inlineStr"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
       <c r="A30" s="3" t="inlineStr">
@@ -976,9 +992,9 @@
           <t>ACP0015530</t>
         </is>
       </c>
-      <c r="B30" s="11" t="n"/>
-      <c r="C30" s="11" t="n"/>
-      <c r="D30" s="11" t="n"/>
+      <c r="B30" s="11" t="inlineStr"/>
+      <c r="C30" s="11" t="inlineStr"/>
+      <c r="D30" s="11" t="inlineStr"/>
     </row>
     <row r="31" ht="18.75" customHeight="1">
       <c r="A31" s="3" t="inlineStr">
@@ -986,9 +1002,13 @@
           <t>N167577</t>
         </is>
       </c>
-      <c r="B31" s="11" t="n"/>
-      <c r="C31" s="11" t="n"/>
-      <c r="D31" s="11" t="n"/>
+      <c r="B31" s="11" t="inlineStr"/>
+      <c r="C31" s="11" t="inlineStr"/>
+      <c r="D31" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="18.75" customHeight="1">
       <c r="A32" s="3" t="inlineStr">

--- a/Agco.xlsx
+++ b/Agco.xlsx
@@ -1016,9 +1016,17 @@
           <t>V581705490</t>
         </is>
       </c>
-      <c r="B32" s="11" t="n"/>
-      <c r="C32" s="11" t="n"/>
-      <c r="D32" s="11" t="n"/>
+      <c r="B32" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C32" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 9390R, Rogator 635 (MY19), RG 635, 6465 Dyna-6, 6475 Dyna-6, MF 6480 T3 Agco Power, MF 6497 T2 Agco Power, MF 6490 T2 Agco Power, MF 6495 T2 Agco Power, MF 6485 T2 Agco Power, 6485, MF 6490 T3 Agco Power, MF 6495 T3 Agco Power, MF 6470 T3 Agco Power, MF 6460 T3 Agco Power, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 9695, MF 9795, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, 5475, 5470, MF 5470 T3, MF 5480 T3, MF 5470 SISU, MF 7265 (2009-2011), MF 7345 S MCS (2011-2014), MF 7347 S MCS (2012-2014), MF 7360 T4I (2012), MF 7360 PL T4I (2012), MF 7370 T4I (2012), MF 7345 S (2011-2014), MF 7347 S (2012-2014), MF 7360 T4I (2013-2014), MF 7360 PL T4I (2013-2014), MF 7370 T4I (2013-2014), MF 7360 PLI T4I (2013-2014), MF 7345 S (09/14 - 08/17), MF 7345 S MCS (09/14 - 08/17), MF 7347 S (09/14 - 08/17), MF 7347 S MCS (09/14 - 08/17), MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF 7344 TF4 (2018-2021), MF 7345 S T4F (2018-2021), MF 7347 S T4F (2018-2021), MF 7360 T4F (2018-2021), MF 7360 PL/PLI T4F (2018-2021), MF 7370 T4F (2018-2021), MF 7370 ST5 (2021-9999), MF 7344 (09/15 - 08/17), MF 7247 S (2008-2011), MF 7274, MF 7260 (2005-2011), MF 7270 (2005-2011), MF 7370 PLI (2017), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF Activa S 7345 MCS, MF Activa S 7347 MCS, MF Beta 7370 PL, MF Beta 7370 PLI, M120, M120E, M120H, M130, M150, T120, T130, T140E, T150, T160, T170, T180, T190, T120C, T120CH, T130C, T130CH, T140EC, T140ECH, T160C, T160CH, T170C, T170CH, T150C, T150CH, XM130, XM150, T131C, T161C, T171C, T121H, T131H, T151EH, T161H, T171H, T191H, T121C, T161LS, T171LS, T191LS, T132V, T152V, T162EV, T172V, T182V, T202V, T132D, T152D, T162D, T172D, T182D, T202D, T193H, T213V, T183D, T203D</t>
+        </is>
+      </c>
+      <c r="D32" s="11" t="inlineStr"/>
     </row>
     <row r="33" ht="18.75" customHeight="1">
       <c r="A33" s="3" t="inlineStr">
@@ -1026,9 +1034,13 @@
           <t>17C-636</t>
         </is>
       </c>
-      <c r="B33" s="11" t="n"/>
-      <c r="C33" s="11" t="n"/>
-      <c r="D33" s="11" t="n"/>
+      <c r="B33" s="11" t="inlineStr"/>
+      <c r="C33" s="11" t="inlineStr"/>
+      <c r="D33" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="18.75" customHeight="1">
       <c r="A34" s="3" t="inlineStr">
@@ -1036,17 +1048,25 @@
           <t>17C000636B</t>
         </is>
       </c>
-      <c r="B34" s="11" t="n"/>
-      <c r="C34" s="11" t="n"/>
-      <c r="D34" s="11" t="n"/>
+      <c r="B34" s="11" t="inlineStr"/>
+      <c r="C34" s="11" t="inlineStr"/>
+      <c r="D34" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="18.75" customHeight="1">
       <c r="A35" s="4" t="n">
         <v>86564938</v>
       </c>
-      <c r="B35" s="11" t="n"/>
-      <c r="C35" s="11" t="n"/>
-      <c r="D35" s="11" t="n"/>
+      <c r="B35" s="11" t="inlineStr"/>
+      <c r="C35" s="11" t="inlineStr"/>
+      <c r="D35" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="18.75" customHeight="1">
       <c r="A36" s="3" t="inlineStr">
@@ -1054,25 +1074,57 @@
           <t>40502PF</t>
         </is>
       </c>
-      <c r="B36" s="11" t="n"/>
-      <c r="C36" s="11" t="n"/>
-      <c r="D36" s="11" t="n"/>
+      <c r="B36" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C36" s="11" t="inlineStr">
+        <is>
+          <t>9300R, MF 35, TE20, MF 135, MF 165, MF 175, MF 178, MF 155, MF 175S, MF 148, MF 168, MF 188, MF 152, MF 158, MF 185, MF 165 MK3, MF 168 4WD, MF 168F, MF 145 MK3/V, MF 158V, MF 254S 4WD, MF 294 4WD, MF 264, MF 264 4WD, MF 550, MF 575, MF 560, MF 575 4WD, MF 590 4WD, MF 595, MF 595 4WD, MF 565, MF 592, MF 592 4WD, MF 698, MF 698 4WD, MF 698T, MF 698T 4WD, MF 699, MF 699 4WD, MF 670 4WD, MF 690, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 354F 2WD, MF 354F 4WD, MF 364F 2WD, MF 364F 4WD, MF 354S 2WD, MF 354S 4WD, MF 364S 2WD, MF 364S 4WD, MF 394S 2WD, MF 364V 2WD, MF 364V 4WD, MF 3080 2WD, MF 3080 4WD, MF 3090 2WD, MF 3090 4WD, MF 3610 2WD, MF 3610 4WD, MF 3630 2WD, MF 3630 4WD, MF 3650 2WD, MF 3650 4WD, MF 3680 2WD, MF 3680 4WD, MF 1200, MF 1250, MF 333 2WD, MF 353 2WD, MF 353 4WD, MF 363 2WD, MF 363 4WD, MF 353S 2WD, MF 353S 4WD, MF 1114 2WD, MF 1114 4WD, MF 1134 2WD, MF 1134 4WD, MF 1014 2WD, MF 1014 4WD, MF 4315 2WD, MF 4315 4WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4360 2WD, MF 4360 4WD, MF 4365 2WD, MF 4365 4WD, MF 4370 2WD, MF 4370 4WD, MF 4215 2WD, MF 4215 4WD, MF 4220 2WD, MF 4220 4WD, MF 4225 2WD, MF 4225 4WD, MF 4235 2WD, MF 4235 4WD, MF 4240 2WD, MF 4240 4WD, MF 4245 2WD, MF 4245 4WD, MF 4255 2WD, MF 4255 4WD, MF 4260 2WD, MF 4260 4WD, MF 4265 2WD, MF 4265 4WD, MF 4270 2WD, MF 4270 4WD, MF 8250 4WD, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 2210, MF 1035, MF 1045, MF 245, MF 265, MF 285, MF 235, MF 255, MF 260, MF 275 4WD, MF 275 2WD, MF 298 2WD, MF 298 4WD, MF 290 2WD, MF 298, MF 290 4WD, MF 250, MF 230, MF 270, MF 350 2WD, MF 350 4WD, MF 375 2WD, MF 375 4WD, MF 390 2WD, MF 390 4WD, MF 398 2WD, MF 398 4WD, MF 399 2WD, MF 399 4WD, MF 360 2WD, MF 360 4WD, MF 365 2WD, MF 365 4WD, MF 355 2WD, MF 355 4WD, MF 390T 2WD, MF 390T 4WD, MF 362 2WD, MF 362 4WD, MF 340 4WD, MF 340 2WD, MF 372 N 2WD, MF 372 N 4WD, MF 382 N 4WD, MF 362 N 2WD, MF 362 N 4WD, MF 342 2WD, MF 352 2WD</t>
+        </is>
+      </c>
+      <c r="D36" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="18.75" customHeight="1">
       <c r="A37" s="4" t="n">
         <v>7702160</v>
       </c>
-      <c r="B37" s="11" t="n"/>
-      <c r="C37" s="11" t="n"/>
-      <c r="D37" s="11" t="n"/>
+      <c r="B37" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C37" s="11" t="inlineStr">
+        <is>
+          <t>Favorit 920 Vario, Favorit 924 Vario, Favorit 926 Vario, MF 2640/2645 2WD, MF 394S 2WD, MF 3630 2WD, MF 3650 2WD, MF 3680 2WD, MF 3645 2WD, MF 3655 2WD, MF 3670 2WD, MF 3690 2WD, MF 8120 2WD, MF 8140 2WD, MF 8150 2WD, MF 8160 2WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4360 2WD, MF 4360 4WD, MF 4370 2WD, MF 4370 4WD, MF 4225 2WD, MF 4235 2WD, MF 4240 2WD, MF 4245 2WD, MF 4255 2WD, MF 4260 2WD, MF 4265 2WD, MF 4270 2WD, MF 8250 2WD, MF 8250 4WD, MF 8280 4WD, MF 8270 4WD, MF 8260 2WD, MF 8240 2WD, MF 8240 4WD, MF 8220 2WD, MF 8220 4WD, MF 8210 2WD, MF 8210 4WD, MF 9690, MF 185 SII, MF 375 2WD, MF 390 2WD, MF 398 2WD, MF 399 2WD, MF 360 2WD, MF 365 2WD, MF 390T 2WD, MF 362 2WD</t>
+        </is>
+      </c>
+      <c r="D37" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="18.75" customHeight="1">
       <c r="A38" s="4" t="n">
         <v>70921210</v>
       </c>
-      <c r="B38" s="11" t="n"/>
-      <c r="C38" s="11" t="n"/>
-      <c r="D38" s="11" t="n"/>
+      <c r="B38" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C38" s="11" t="inlineStr">
+        <is>
+          <t>PLNTR MOMENTUM 16-30 FT 40', PLNTR MOMENTUM 16-70 FT 40', PLNTR MOMENTUM 16-76 FT 40', PLNTR MOMENTUM 24-20 FT 40', PLNTR MOMENTUM 24-22 FT 40', PLNTR MOMENTUM 32-15 FT 40', PLNTR MOMENTUM 24-30 FT 60', PLNTR MOMENTUM 24-70 FT 60', PLNTR MOMENTUM 24-76 FT 60', PLNTR MOMENTUM 36-20 FT 60', PLNTR MOMENTUM 36-22 FT 60', PLNTR MOMENTUM 48-15 FT 60', 8370P, 8400P, 9300R, 9390R, 9470X, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, Squadra 1290 UD, MF 35, TE20, MF 135, MF 165, MF 175, MF 145, MF 178, MF 155, MF 175S, MF 148, MF 168, MF 188, MF 152, MF 158, MF 185, MF 165 MK3, MF 168 4WD, MF 168F, MF 145 MK3/V, MF 158V, MF 154S 2WD, MF 154S 4WD, MF 174S 2WD, MF 185 4WD, MF 184S 2WD, MF 185S 4WD, MF 174S, MF 154F, MF 174F, MF 184F, MF 194F, MF 194S, MF 164F, MF 164F 4WD, MF 234S, MF 254S 4WD, MF 294 4WD, MF 264, MF 264 4WD, MF 264S 2WD, MF 264S 4WD, MF 550, MF 575, MF 590, MF 560, MF 575 4WD, MF 590 4WD, MF 595, MF 595 4WD, MF 565, MF 592, MF 592 4WD, MF 698, MF 698 4WD, MF 698T, MF 698T 4WD, MF 699, MF 699 4WD, MF 670 4WD, MF 690, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 354F 2WD, MF 354F 4WD, MF 364F 2WD, MF 364F 4WD, MF 374F 2WD, MF 374F 4WD, MF 384F 2WD, MF 384F 4WD, MF 394F 2WD, MF 394F 4WD, MF 354S 2WD, MF 354S 4WD, MF 364S 2WD, MF 364S 4WD, MF 374S 2WD, MF 374S 4WD, MF 384S 2WD, MF 384S 4WD, MF 394S 2WD, MF 394S 4WD, MF 354V 2WD, MF 354V 4WD, MF 364V 2WD, MF 364V 4WD, MF 374V 2WD, MF 374V 4WD, MF 3610 2WD, MF 3610 4WD, MF 3630 2WD, MF 3630 4WD, MF 3650 2WD, MF 3650 4WD, MF 3680 2WD, MF 3680 4WD, MF 3645 2WD, MF 3645 4WD, MF 3655 2WD, MF 3655 4WD, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 3635 2WD, MF 3635 4WD, MF 1200, MF 1250, MF 194 2WD, MF 194 4WD, MF 294 2WD, MF 284S 2WD, MF 284S 4WD, MF 263, MF 263 4WD, MF 333 2WD, MF 353 2WD, MF 353 4WD, MF 363 2WD, MF 363 4WD, MF 373 2WD, MF 373 4WD, MF 383 2WD, MF 383 4WD, MF 393 2WD, MF 393 4WD, MF 353S 2WD, MF 353S 4WD, MF 363S 4WD, MF 373S 2WD, MF 373S 4WD, MF 377 2WD, MF 377 4WD, MF 387 2WD, MF 387 4WD, MF 397 2WD, MF 397 4WD, MF 8170 4WD, MF 8110 2WD, MF 8110 4WD, MF 8120 2WD, MF 8120 4WD, MF 8130 2WD, MF 8130 4WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 4315 2WD, MF 4315 4WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4360 2WD, MF 4360 4WD, MF 4365 2WD, MF 4365 4WD, MF 4370 2WD, MF 4370 4WD, MF 4215 2WD, MF 4215 4WD, MF 4220 2WD, MF 4220 4WD, MF 4225 2WD, MF 4225 4WD, MF 4235 2WD, MF 4235 4WD, MF 4240 2WD, MF 4240 4WD, MF 4245 2WD, MF 4245 4WD, MF 4255 2WD, MF 4255 4WD, MF 4260 2WD, MF 4260 4WD, MF 4265 2WD, MF 4265 4WD, MF 4270 2WD, MF 4270 4WD, MF 6290 2WD, MF 6290 4WD, MF 6280 2WD, MF 6280 4WD, MF 6270 2WD, MF 6270 4WD, MF 6265 2WD, MF 6265 4WD, MF 6260 2WD, MF 6260 4WD, MF 6255 2WD, MF 6255 4WD, MF 6245 2WD, MF 6245 4WD, MF 6235 2WD, MF 6235 4WD, MF 8260 4WD, MF 8250 2WD, MF 8250 4WD, MF 8280 4WD, MF 8270 4WD, MF 8260 2WD, MF 8240 2WD, MF 8240 4WD, MF 8220 2WD, MF 8220 4WD, MF 8210 2WD, MF 8210 4WD, MF 6465 T2 Perkins, MF 6475 T2 Perkins, MF 6480 T2 Perkins, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 5709 S Dyna-4, MF 5709 S Dyna-6, MF 6612 Dyna-4, MF 6613 Dyna-6, MF 6613 Dyna-4, MF 6614 Dyna-VT, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-VT, MF 6615 Dyna-6, MF 6616 Dyna-VT, MF 6616 Dyna-6, MF 5709 SL Dyna-4, MF 5710 SL Dyna-4, MF 5710 SL Dyna-6, MF 5711 SL Dyna-4, MF 5711 SL Dyna-6, MF 5712 SL Dyna-4, MF 5712 SL Dyna-6, MF 5713 SL Dyna-4, MF 5713 SL Dyna-6, MF 6712 S Dyna-4, MF 6713 S Dyna-4, MF 6714 S Dyna-4 T4F, MF 6715 S Dyna-4 T4F, MF 6713 S Dyna-6, MF 6713 S Dyna-VT, MF 6714 S Dyna-6, MF 6714 S Dyna-VT, MF 6715 S Dyna-6 T4F, MF 6715 S Dyna-VT, MF 6716 S Dyna-6 T4F, MF 6716 S Dyna-VT T4F, MF 6718 S Dyna-6, MF 6718 S Dyna-VT, MF 6714 S Dyna-6 T4F, MF 6714 S Dyna-VT T4F, MF 7719 Dyna-6, MF 7715 DYNA-4, MF 7716 Dyna-6, MF 7714 Dyna-4, MF 7715 Dyna-4, MF 7726 Dyna-VT, MF6713 S Dyna-6 T5, MF 6713 S Dyna-VT T5, MF 6714 S Dyna-6 T5, MF 6714 S Dyna-VT T5, MF 6715 S Dyna-6 T5, MF 6715 S Dyna-VT T5, MF 6716 S Dyna-6 T5, MF 6716 S Dyna-VT T5, MF 6718 S Dyna-6 T5, MF 6718 S Dyna-VT T5, MF 7714 S Dyna-4, MF 7719 S Dyna-VT T5, MF 7714 S Dyna-4 T5, MF 7715 S Dyna-VT T5, MF 7715 S Dyna-6 T5, MF 7716 S Dyna-VT T5, MF 7716 S Dyna-6 T5, MF 7718 S Dyna-VT T5, MF 7718 S Dyna-6 T5, MF 5450 T3, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 186CE, MF 187CE, MF 2140 CE, MF1547, MF 245, MF 265, MF 285, MF 235, MF 255, MF 260, MF 275 4WD, MF 275 2WD, MF 298 2WD, MF 298 4WD, MF 290 2WD, MF 298, MF 290 4WD, MF 250, MF 230, MF 270, MF8727, MF 350 2WD, MF 350 4WD, MF 375 2WD, MF 375 4WD, MF 390 2WD, MF 390 4WD, MF 398 2WD, MF 398 4WD, MF 399 2WD, MF 399 4WD, MF 360 2WD, MF 360 4WD, MF 365 2WD, MF 365 4WD, MF 355 2WD, MF 355 4WD, MF 390T 2WD, MF 390T 4WD, MF 362 2WD, MF 362 4WD, MF 340 4WD, MF 340 2WD, MF 372 N 2WD, MF 372 N 4WD, MF 382 N 4WD, MF 362 N 2WD, MF 362 N 4WD, MF 342 2WD, MF 352 2WD, MF 7274, MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7272</t>
+        </is>
+      </c>
+      <c r="D38" s="11" t="inlineStr"/>
     </row>
     <row r="39" ht="18.75" customHeight="1">
       <c r="A39" s="3" t="inlineStr">
@@ -1080,9 +1132,9 @@
           <t>SN1678</t>
         </is>
       </c>
-      <c r="B39" s="11" t="n"/>
-      <c r="C39" s="11" t="n"/>
-      <c r="D39" s="11" t="n"/>
+      <c r="B39" s="11" t="inlineStr"/>
+      <c r="C39" s="11" t="inlineStr"/>
+      <c r="D39" s="11" t="inlineStr"/>
     </row>
     <row r="40" ht="18.75" customHeight="1">
       <c r="A40" s="3" t="inlineStr">
@@ -1090,9 +1142,21 @@
           <t>SN6306</t>
         </is>
       </c>
-      <c r="B40" s="11" t="n"/>
-      <c r="C40" s="11" t="n"/>
-      <c r="D40" s="11" t="n"/>
+      <c r="B40" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C40" s="11" t="inlineStr">
+        <is>
+          <t>LB34BXD, 2270XD, 4200 Pickup Header, MF 9435, MF 3000, MF 4200S-13 Pick Up Header, MF 2170XD, MF 2290, MF 2150</t>
+        </is>
+      </c>
+      <c r="D40" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="18.75" customHeight="1">
       <c r="A41" s="3" t="inlineStr">
@@ -1100,17 +1164,33 @@
           <t>40587PF</t>
         </is>
       </c>
-      <c r="B41" s="11" t="n"/>
-      <c r="C41" s="11" t="n"/>
-      <c r="D41" s="11" t="n"/>
+      <c r="B41" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C41" s="11" t="inlineStr">
+        <is>
+          <t>MF 135, MF 152, MF 158, MF 168 4WD, MF 168F, MF 145 MK3/V, MF 158V, MF 560, MF 595, MF 595 4WD, MF 592, MF 592 4WD, MF 698, MF 698 4WD, MF 698T, MF 698T 4WD, MF 699, MF 699 4WD, MF 8250 2WD, MF 8250 4WD, MF 8240 2WD, MF 8240 4WD, MF 8220 2WD, MF 8220 4WD, MF 8210 2WD, MF 8210 4WD, MF 6497 T2 Agco Power, MF 6499 T2 Agco Power, MF 6490 T2 Agco Power, MF 6495 T2 Agco Power, MF 6485 T2 Agco Power, MF 245, MF 235, MF 255, MF 260, MF 290 2WD, MF 290 4WD, MF 250</t>
+        </is>
+      </c>
+      <c r="D41" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="18.75" customHeight="1">
       <c r="A42" s="4" t="n">
         <v>702035</v>
       </c>
-      <c r="B42" s="11" t="n"/>
-      <c r="C42" s="11" t="n"/>
-      <c r="D42" s="11" t="n"/>
+      <c r="B42" s="11" t="inlineStr"/>
+      <c r="C42" s="11" t="inlineStr"/>
+      <c r="D42" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="18.75" customHeight="1">
       <c r="A43" s="3" t="inlineStr">
@@ -1118,9 +1198,17 @@
           <t>393761X1</t>
         </is>
       </c>
-      <c r="B43" s="11" t="n"/>
-      <c r="C43" s="11" t="n"/>
-      <c r="D43" s="11" t="n"/>
+      <c r="B43" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C43" s="11" t="inlineStr">
+        <is>
+          <t>MF 698, MF 698 4WD, MF 690, MF 3425, MF 3435, MF 3445, MF 3455, MF 3435C, MF 3445C, MF 3455C, MF 3425C, MF 6110 2WD, MF 6110 4WD, MF 6120 2WD, MF 6120 4WD, MF 6130 2WD, MF 6130 4WD, MF 6140 2WD, MF 6140 4WD, MF 6150 2WD, MF 6150 4WD, MF 6160 2WD, MF 6160 4WD, MF 6170 2WD, MF 6170 4WD, MF 6180 2WD, MF 6180 4WD, MF 6190 2WD, MF 6190 4WD, MF 9540, MF 9560, MF 9690</t>
+        </is>
+      </c>
+      <c r="D43" s="11" t="inlineStr"/>
     </row>
     <row r="44" ht="18.75" customHeight="1">
       <c r="A44" s="3" t="inlineStr">
@@ -1128,9 +1216,17 @@
           <t>339139X1</t>
         </is>
       </c>
-      <c r="B44" s="11" t="n"/>
-      <c r="C44" s="11" t="n"/>
-      <c r="D44" s="11" t="n"/>
+      <c r="B44" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Fendt, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C44" s="11" t="inlineStr">
+        <is>
+          <t>RG700, RG700B, MT455D, MT465D, MT445B, MT455B, MT465B, MT445B-T3, MT455B-T3 Dyna-4, MT465B-T3 Dyna-4, MT555D Dyna-6, MT565D Dyna-6, MT575D Dyna-6, MT585D Dyna-6, MT555D CVT, MT565D CVT, MT575D CVT, MT585D CVT, MT515D Dyna-4, MT525D Dyna-4, MT525D Dyna-6, MT535D Dyna-6, MT545D Dyna-6, MT525D Dyna-VT, MT535D Dyna-VT, MT545D Dyna-VT, MT575E Dyna-6, MT525E Dyna-4, MT525E Dyna-6, MT545E Dyna-6, MT545B Dyna-6, MT525B Dyna-6, MT525B Dyna-CVT, MT545B Dyna-CVT, MT555B Dyna-CVT T3 CAT, MT565B Dyna-CVT T3 CAT, MT575B Dyna-CVT T3 CAT, MT555B Dyna-6 T3 CAT, MT565B Dyna-6 T3 CAT, MT575B Dyna-6 T3 CAT, MT525B Dyna-6 T3 CAT, MT545B Dyna-6 T3 CAT, MT525B Dyna-CVT T3 CAT, MT545B Dyna-CVT T3 CAT, MT595B Dyna-6 T3 SISU, MT595B Dyna-CVT T3 SISU , MT645D T4I, MT655D T4I, MT665D T4I / T2, MT675D T4I, MT685D T4I / T2, MT665E, MT645C, MT655C T3 CVT, MT665C T3 / T2 CVT, MT675C T3 CVT, MT645E, MT665E T4F CVT, PTD12 Roller, IDEAL 7, IDEAL 8, IDEAL 9, S96, S97, S98, A66, A76, 5100 Draper Header, 3308 Corn Header, 3312 Corn Header, 3308C Corn Header, 3312C Corn Header, MF 2650, MF 2660, MF 6712 ECO4, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7465 T3, MF 7475 T3, MF 7480 T3, MF 7499, MF 5710 ECO3, MF 5710 ECO4, MF 5711 ECO4, MF 5609 Dyna-4, MF 5610 Dyna-4, MF 5611 Dyna-4, MF 5611 Dyna-6, MF 5612 Dyna-4, MF 5612 Dyna-6, MF 5613 Dyna-4, MF 5613 Dyna-6, MF 6614 Dyna-VT, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-VT, MF 6615 Dyna-6, MF 6616 Dyna-VT, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-VT, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-VT, MF 7616 Dyna-6, MF 7618 Dyna-VT, MF 7618 Dyna-6, MF 7619 Dyna-VT, MF 7619 Dyna-6, MF 7620 Dyna-VT, MF 7620 Dyna-6, MF 7622 Dyna-VT, MF 7622 Dyna-6, MF 7624 Dyna-VT, MF 7624 Dyna-6, MF 5711 SL Dyna-4, MF 5711 SL Dyna-6, MF 5712 SL Dyna-4, MF 5712 SL Dyna-6, MF 5713 SL Dyna-4, MF 5713 SL Dyna-6, MF 6715 S Dyna-4 T4F, MF 6715 S Dyna-6 T4F, MF 6716 S Dyna-6 T4F, MF 7719 Dyna-6, MF 7720 Dyna-6, MF 7722 Dyna-6, MF 7724 Dyna-6, MF 7726 Dyna-6, MF 7714 S Dyna-4, MF 7714 S Dyna-4 T5, MF 7718 S Dyna-VT T5, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, MF 5445, MF 5470 T3, MF 5480 T3, MF 5465 T3, MF 5475 T3, MF 5445 T3, MF 5455 T3, MF 5450 T3, MF 2670, MF 2680, MF 4708 ECO4, MF 4708 ECO3, MF 4709 ECO3, MF 4707 2WD Non Cab, MF 4708 2WD Non Cab 3, MF 4709 2WD Non Cab, MF 4710 2WD Non Cab, MF 1529, MF 1532H, MF 8660 Dyna-VT T2, MF 8670, MF 8680, MF 8690, MF 8727, MF 8730, MF 8732, MF 8735, MF 5100, MF 9520, MF 9540 Tier 4 TI, MF 9560 Tier 4 TI, MF 9540 T4F, MF 9560 T4F, MF 9245, MF 9565, MF 9895, MF 9695, MF 9795, MF 3000-8-30 Corn Header, MF 3000-8-36 Corn Header, MF 3000-8-38 Corn Header, MF 3000-12-20 Corn Header, MF 3000-12-22 Corn Header, MF 3000-12-30 Corn Header, MF 4200S-13 Pick Up Header, MF 9146, MF 9125, MF 9226, MF 9190, MF 9192, MF 1363, MF WR 9950, MF WR 9960, MF WR 9970, MF WR 9980</t>
+        </is>
+      </c>
+      <c r="D44" s="11" t="inlineStr"/>
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="3" t="inlineStr">
@@ -1138,17 +1234,25 @@
           <t>339666X1</t>
         </is>
       </c>
-      <c r="B45" s="11" t="n"/>
-      <c r="C45" s="11" t="n"/>
-      <c r="D45" s="11" t="n"/>
+      <c r="B45" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C45" s="11" t="inlineStr">
+        <is>
+          <t>PLNTR MOMENTUM 16-30 FT 40', PLNTR MOMENTUM 16-70 FT 40', PLNTR MOMENTUM 16-76 FT 40', PLNTR MOMENTUM 24-20 FT 40', PLNTR MOMENTUM 24-22 FT 40', PLNTR MOMENTUM 32-15 FT 40', PLNTR MOMENTUM 24-30 FT 60', PLNTR MOMENTUM 24-70 FT 60', PLNTR MOMENTUM 24-76 FT 60', PLNTR MOMENTUM 36-20 FT 60', PLNTR MOMENTUM 36-22 FT 60', PLNTR MOMENTUM 48-15 FT 60', 5180E, 8370P, 8400P, 8380P, 8410P, 9300R, 9390R, Cutting table PF 12,2m (40'), Cutting table PF 5,5m (18'), Cutting table PF 7,7m (25'), Cutting table PF 9,2m (30'), Cutting table PF 10,7m (35'), Cutting table FF 7,0m, 9470X, 9490X, 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), Squadra 1290 UD, Cutter Middle Attachment, Former 3PT Linkage, Former Lateral Transporter, Former Central Transporter, Former 4r central windr./trans, Former Lateral Swath trailed, Slicer Front Mounted Oscillation, Slicer 3Pt linkage middle attachment, Slicer Mower combinations middle attachment, Slicer trailed, Twister with Transport Chassis, MF 135, MF 165, MF 175, MF 154S 2WD, MF 154S 4WD, MF 174S 2WD, MF 185 4WD, MF 184S 2WD, MF 185S 4WD, MF 174S, MF 154F, MF 174F, MF 184F, MF 194F, MF 194S, MF 154V 2WD, MF 164V, MF 174V 2WD, MF 254S 4WD, MF 294 4WD, MF 264, MF 264 4WD, MF 264S 2WD, MF 264S 4WD, MF 575 4WD, MF 590 4WD, MF 595, MF 595 4WD, MF 592, MF 592 4WD, MF 698, MF 698 4WD, MF 698T, MF 698T 4WD, MF 699, MF 699 4WD, MF 670 4WD, MF 690, MF 3425, MF 3435, MF 3445, MF 3455, MF 354F 2WD, MF 354F 4WD, MF 364F 2WD, MF 364F 4WD, MF 374F 2WD, MF 374F 4WD, MF 384F 2WD, MF 384F 4WD, MF 394F 2WD, MF 394F 4WD, MF 354S 2WD, MF 354S 4WD, MF 364S 2WD, MF 364S 4WD, MF 374S 2WD, MF 374S 4WD, MF 384S 2WD, MF 384S 4WD, MF 394S 2WD, MF 394S 4WD, MF 354V 2WD, MF 354V 4WD, MF 364V 2WD, MF 364V 4WD, MF 374V 2WD, MF 374V 4WD, MF 3435C, MF 3445C, MF 3455C, MF 3425C, MF 3050 2WD, MF 3050 4WD, MF 3060 2WD, MF 3060 4WD, MF 3070 2WD, MF 3070 4WD, MF 3080 2WD, MF 3080 4WD, MF 3090 2WD, MF 3090 4WD, MF 3095 2WD, MF 3095 4WD, MF 3115 2WD, MF 3115 4WD, MF 3125 2WD, MF 3125 4WD, MF 3065 2WD, MF 3065 4WD, MF 3085 2WD, MF 3085 4WD, MF 3120 2WD, MF 3120 4WD, MF 3075 2WD, MF 3075 4WD, MF 3610 2WD, MF 3610 4WD, MF 3630 2WD, MF 3630 4WD, MF 3650 2WD, MF 3650 4WD, MF 3680 2WD, MF 3680 4WD, MF 3645 2WD, MF 3645 4WD, MF 3655 2WD, MF 3655 4WD, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 3635 2WD, MF 3635 4WD, MF 294 2WD, MF 284S 2WD, MF 284S 4WD, MF 263, MF 263 4WD, MF 333 2WD, MF 353 2WD, MF 353 4WD, MF 363 2WD, MF 363 4WD, MF 373 2WD, MF 373 4WD, MF 383 2WD, MF 383 4WD, MF 393 2WD, MF 393 4WD, MF 353S 2WD, MF 353S 4WD, MF 363S 4WD, MF 373S 2WD, MF 373S 4WD, MF 377 2WD, MF 377 4WD, MF 387 2WD, MF 387 4WD, MF 397 2WD, MF 397 4WD, MF 364C, MF 1114 4WD, MF 1134 4WD, MF 1014 2WD, MF 1014 4WD, MF 6110 2WD, MF 6110 4WD, MF 6120 2WD, MF 6120 4WD, MF 6130 2WD, MF 6130 4WD, MF 6140 2WD, MF 6140 4WD, MF 6150 2WD, MF 6150 4WD, MF 6160 2WD, MF 6160 4WD, MF 6170 2WD, MF 6170 4WD, MF 6180 2WD, MF 6180 4WD, MF 6190 2WD, MF 6190 4WD, MF 8170 4WD, MF 8110 2WD, MF 8110 4WD, MF 8120 2WD, MF 8120 4WD, MF 8130 2WD, MF 8130 4WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 4315 2WD, MF 4315 4WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4360 2WD, MF 4360 4WD, MF 4365 2WD, MF 4365 4WD, MF 4370 2WD, MF 4370 4WD, MF 4215 2WD, MF 4215 4WD, MF 4220 2WD, MF 4220 4WD, MF 4225 2WD, MF 4225 4WD, MF 4235 2WD, MF 4235 4WD, MF 4240 2WD, MF 4240 4WD, MF 4245 2WD, MF 4245 4WD, MF 4255 2WD, MF 4255 4WD, MF 4260 2WD, MF 4260 4WD, MF 4265 2WD, MF 4265 4WD, MF 4270 2WD, MF 4270 4WD, MF 6290 2WD, MF 6290 4WD, MF 6280 2WD, MF 6280 4WD, MF 6270 2WD, MF 6270 4WD, MF 6265 2WD, MF 6265 4WD, MF 6260 2WD, MF 6260 4WD, MF 6255 2WD, MF 6255 4WD, MF 6245 2WD, MF 6245 4WD, MF 6235 2WD, MF 6235 4WD, MF 8260 4WD, MF 8250 2WD, MF 8250 4WD, MF 8280 4WD, MF 8270 4WD, MF 8260 2WD, MF 8240 2WD, MF 8240 4WD, MF 8220 2WD, MF 8220 4WD, MF 8210 2WD, MF 8210 4WD, 6465 Dyna-6, 6475 Dyna-6, MF 6480 T3 Agco Power, MF 6497 T2 Agco Power, MF 6499 T2 Agco Power, MF 6465 T2 Perkins, MF 6475 T2 Perkins, MF 6480 T2 Perkins, MF 6490 T2 Agco Power, MF 6495 T2 Agco Power, MF 6485 T2 Agco Power, MF 6445 T2 Agco Power, MF 6455 T2 Perkins, MF 6460 T2 Perkins, MF 6470 T2 Perkins, MF 6497 XTRA, MF 6499 XTRA, 6485, MF 6490 T3 Agco Power, MF 6495 T3 Agco Power, MF 6470 T3 Agco Power, MF 6460 T3 Agco Power, 6465, MF 6475 T3 Agco Power, MF 6480 T3 Perkins, MF 6445 T3 Perkins, MF 6455 T3 Perkins, MF 6497 T3 Agco Power, MF 6499 T3 Agco Power, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7465, MF 7475, MF 7480, MF 7485, MF 7490, MF 7495, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 8450, MF 8460, MF 8470, MF 8480, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 2225, MF 2235, MF 2430, MF 2435, MF 2440, MF 2210, MF 2220, MF 2230, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 5709 S Dyna-4, MF 5709 S Dyna-6, MF 5608 Dyna-4, MF 5609 Dyna-4, MF 5610 Dyna-4, MF 5611 Dyna-4, MF 5611 Dyna-6, MF 5612 Dyna-4, MF 5612 Dyna-6, MF 5613 Dyna-4, MF 5613 Dyna-6, MF 6612 Dyna-4, MF 6613 Dyna-6, MF 6613 Dyna-4, MF 6614 Dyna-VT, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-VT, MF 6615 Dyna-6, MF 6616 Dyna-VT, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-VT, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-VT, MF 7616 Dyna-6, MF 7618 Dyna-VT, MF 7618 Dyna-6, MF 7619 Dyna-VT, MF 7619 Dyna-6, MF 7620 Dyna-VT, MF 7620 Dyna-6, MF 7622 Dyna-VT, MF 7622 Dyna-6, MF 7624 Dyna-VT, MF 7624 Dyna-6, MF 7626 Dyna-6, MF 5709 SL Dyna-4, MF 5710 SL Dyna-4, MF 5710 SL Dyna-6, MF 5711 SL Dyna-4, MF 5711 SL Dyna-6, MF 5712 SL Dyna-4, MF 5712 SL Dyna-6, MF 5713 SL Dyna-4, MF 5713 SL Dyna-6, MF 6712 S Dyna-4, MF 6713 S Dyna-4, MF 6714 S Dyna-4 T4F, MF 6715 S Dyna-4 T4F, MF 6713 S Dyna-6, MF 6713 S Dyna-VT, MF 6714 S Dyna-6, MF 6714 S Dyna-VT, MF 6715 S Dyna-6 T4F, MF 6715 S Dyna-VT, MF 6716 S Dyna-6 T4F, MF 6716 S Dyna-VT T4F, MF 6718 S Dyna-6, MF 6718 S Dyna-VT, MF 6714 S Dyna-6 T4F, MF 6714 S Dyna-VT T4F, MF 7719 Dyna-6, MF 7715 DYNA-4, MF 7716 Dyna-6, MF 7714 Dyna-4, MF 7715 Dyna-4, MF 7726 Dyna-VT, MF6713 S Dyna-6 T5, MF 6713 S Dyna-VT T5, MF 6714 S Dyna-6 T5, MF 6714 S Dyna-VT T5, MF 6715 S Dyna-6 T5, MF 6715 S Dyna-VT T5, MF 6716 S Dyna-6 T5, MF 6716 S Dyna-VT T5, MF 6718 S Dyna-6 T5, MF 6718 S Dyna-VT T5, MF 7714 S Dyna-4, MF 7719 S Dyna-VT T5, MF 7714 S Dyna-4 T5, MF 7715 S Dyna-VT T5, MF 7715 S Dyna-6 T5, MF 7716 S Dyna-VT T5, MF 7716 S Dyna-6 T5, MF 7718 S Dyna-VT T5, MF 7718 S Dyna-6 T5, MF 8737 S, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 8740 S Dyna-VT, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, MF 5445, MF 5455, 5460, 5465, 5475, 5470, MF 5425, MF 5435, MF 5470 T3, MF 5480 T3, MF 5465 T3, MF 5475 T3, MF 5460 SISU, MF 5470 SISU, MF 5445 T3, MF 5455 T3, MF 5410 T3, MF 5420 T3, MF 5430 T3, MF 5440 T3, MF 5450 T3, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 2140 CE, MF RK 451 TR, MF TD 404-576 Alpine, MF TD 1008-1310 TRC, MF TD 1008-1310 TR-Hyd, MF 265, MF 230, MF8727, MF8730, MF8732, MF8735, MF 8737 MR, MF 350 2WD, MF 350 4WD, MF 375 2WD, MF 375 4WD, MF 390 2WD, MF 390 4WD, MF 398 2WD, MF 398 4WD, MF 399 2WD, MF 399 4WD, MF 360 2WD, MF 360 4WD, MF 365 2WD, MF 365 4WD, MF 355 2WD, MF 355 4WD, MF 390T 2WD, MF 390T 4WD, MF 362 2WD, MF 362 4WD, MF 340 4WD, MF 340 2WD, MF 372 N 2WD, MF 372 N 4WD, MF 382 N 4WD, MF 362 N 2WD, MF 362 N 4WD, MF 342 2WD, MF 352 2WD, MF 7345 S MCS (2011-2014), MF 7347 S MCS (2012-2014), MF 7360 T4I (2012), MF 7360 PL T4I (2012), MF 7370 T4I (2012), MF 7345 S (2011-2014), MF 7347 S (2012-2014), MF 7360 T4I (2013-2014), MF 7360 PL T4I (2013-2014), MF 7370 T4I (2013-2014), MF 7360 PLI T4I (2013-2014), MF 7345 S (09/14 - 08/17), MF 7345 S MCS (09/14 - 08/17), MF 7347 S (09/14 - 08/17), MF 7347 S MCS (09/14 - 08/17), MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF 7340 T4F (2018-2021), MF 7344 TF4 (2018-2021), MF 7345 S T4F (2018-2021), MF 7347 S T4F (2018-2021), MF 7360 T4F (2018-2021), MF 7360 PL/PLI T4F (2018-2021), MF 7370 T4F (2018-2021), MF 7340 ST5 (2021-9999), MF 7344 ST5 (2021-9999), MF 7347 S ST5 (2021-9999), MF 7370 ST5 (2021-9999), MF 7344 (09/15 - 08/17), MF 7382 (04/15 - 03/17), MF 7340 (09/15 - 08/17), MF 7274, MF 7240 (2008-2018), MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7370 PLI (2017), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7256, MF 7272, MF Activa S 7345 MCS, MF Activa S 7347 MCS, MF Beta 7360, MF Beta 7370 PL, MF7380, MF7380AL, MF7382, MF9380, MF Beta 7370 PLI, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, No longer used Refer to 11652, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, No longer used Refer to 11650, No longer used Refer to 11651, T195 (replaced by J3591), T210 (replaced by J3592), T230 (replaced by J3593), T250 (replaced by J3594), A74SH 1C7, A84SH 1C7, A94SH 1C7, A104MH 1C7, A114MH 1C7, A124LH 1C7, A134LH 1C7, A104MH4, A114MH4, N101, S233, S263, S293, S323, S353, S294, S374, S324 SmartTouch MR19, S394 SmartTouch MR19</t>
+        </is>
+      </c>
+      <c r="D45" s="11" t="inlineStr"/>
     </row>
     <row r="46" ht="18.75" customHeight="1">
       <c r="A46" s="4" t="n">
         <v>71399779</v>
       </c>
-      <c r="B46" s="11" t="n"/>
-      <c r="C46" s="11" t="n"/>
-      <c r="D46" s="11" t="n"/>
+      <c r="B46" s="11" t="inlineStr"/>
+      <c r="C46" s="11" t="inlineStr"/>
+      <c r="D46" s="11" t="inlineStr"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="3" t="inlineStr">
@@ -1156,9 +1260,21 @@
           <t>354671X1</t>
         </is>
       </c>
-      <c r="B47" s="11" t="n"/>
-      <c r="C47" s="11" t="n"/>
-      <c r="D47" s="11" t="n"/>
+      <c r="B47" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C47" s="11" t="inlineStr">
+        <is>
+          <t>MF 575 4WD, MF 590 4WD, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 3680 4WD, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 9690, MF 9790, MF 375 4WD</t>
+        </is>
+      </c>
+      <c r="D47" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="18.75" customHeight="1">
       <c r="A48" s="3" t="inlineStr">
@@ -1166,9 +1282,17 @@
           <t>365775X1</t>
         </is>
       </c>
-      <c r="B48" s="11" t="n"/>
-      <c r="C48" s="11" t="n"/>
-      <c r="D48" s="11" t="n"/>
+      <c r="B48" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C48" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, MF 155, MF 550, MF 575, MF 560, MF 575 4WD, MF 590 4WD, MF 595, MF 595 4WD, MF 565, MF 592, MF 592 4WD, MF 698, MF 698 4WD, MF 698T, MF 698T 4WD, MF 699, MF 699 4WD, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 1200, MF 8280 4WD, MF 8270 4WD, MF 8260 2WD, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 298 2WD, MF 298 4WD, MF 290 2WD, MF 290 4WD</t>
+        </is>
+      </c>
+      <c r="D48" s="11" t="inlineStr"/>
     </row>
     <row r="49" ht="18.75" customHeight="1">
       <c r="A49" s="3" t="inlineStr">
@@ -1176,9 +1300,17 @@
           <t>369250X1</t>
         </is>
       </c>
-      <c r="B49" s="11" t="n"/>
-      <c r="C49" s="11" t="n"/>
-      <c r="D49" s="11" t="n"/>
+      <c r="B49" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C49" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 186CE, MF 187CE, MF 2140 CE</t>
+        </is>
+      </c>
+      <c r="D49" s="11" t="inlineStr"/>
     </row>
     <row r="50" ht="18.75" customHeight="1">
       <c r="A50" s="3" t="inlineStr">
@@ -1186,9 +1318,17 @@
           <t>WR55261</t>
         </is>
       </c>
-      <c r="B50" s="11" t="n"/>
-      <c r="C50" s="11" t="n"/>
-      <c r="D50" s="11" t="n"/>
+      <c r="B50" s="11" t="inlineStr"/>
+      <c r="C50" s="11" t="inlineStr">
+        <is>
+          <t>7460/7660</t>
+        </is>
+      </c>
+      <c r="D50" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="51" ht="18.75" customHeight="1">
       <c r="A51" s="3" t="inlineStr">
@@ -1196,9 +1336,17 @@
           <t>AG551392</t>
         </is>
       </c>
-      <c r="B51" s="11" t="n"/>
-      <c r="C51" s="11" t="n"/>
-      <c r="D51" s="11" t="n"/>
+      <c r="B51" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C51" s="11" t="inlineStr">
+        <is>
+          <t>PLNTR MOMENTUM 16-30 FT 40', PLNTR MOMENTUM 16-70 FT 40', PLNTR MOMENTUM 16-76 FT 40', PLNTR MOMENTUM 24-20 FT 40', PLNTR MOMENTUM 24-22 FT 40', PLNTR MOMENTUM 32-15 FT 40', PLNTR MOMENTUM 24-30 FT 60', PLNTR MOMENTUM 24-70 FT 60', PLNTR MOMENTUM 24-76 FT 60', PLNTR MOMENTUM 36-20 FT 60', PLNTR MOMENTUM 36-22 FT 60', PLNTR MOMENTUM 48-15 FT 60', 8370P, 8400P, 9300R, 9390R, 9470X, 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, MF 698, MF 699, MF 670 4WD, MF 2640/2645 2WD, MF 3630 2WD, MF 3650 2WD, MF 3680 2WD, MF 3645 2WD, MF 3655 2WD, MF 3670 2WD, MF 3690 2WD, MF 6150 2WD, MF 6170 2WD, MF 6180 2WD, MF 8110 2WD, MF 8120 2WD, MF 8140 2WD, MF 8150 2WD, MF 8160 2WD, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 2140 CE, MF 1220 2WD STD, MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13)</t>
+        </is>
+      </c>
+      <c r="D51" s="11" t="inlineStr"/>
     </row>
     <row r="52" ht="18.75" customHeight="1">
       <c r="A52" s="3" t="inlineStr">
@@ -1206,9 +1354,17 @@
           <t>WR10193</t>
         </is>
       </c>
-      <c r="B52" s="11" t="n"/>
-      <c r="C52" s="11" t="n"/>
-      <c r="D52" s="11" t="n"/>
+      <c r="B52" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C52" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, MF 2640/2645 4WD, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795</t>
+        </is>
+      </c>
+      <c r="D52" s="11" t="inlineStr"/>
     </row>
     <row r="53" ht="18.75" customHeight="1">
       <c r="A53" s="3" t="inlineStr">
@@ -1216,9 +1372,13 @@
           <t>SN4845</t>
         </is>
       </c>
-      <c r="B53" s="11" t="n"/>
-      <c r="C53" s="11" t="n"/>
-      <c r="D53" s="11" t="n"/>
+      <c r="B53" s="11" t="inlineStr"/>
+      <c r="C53" s="11" t="inlineStr"/>
+      <c r="D53" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="54" ht="18.75" customHeight="1">
       <c r="A54" s="3" t="inlineStr">
@@ -1226,9 +1386,13 @@
           <t>SN4906</t>
         </is>
       </c>
-      <c r="B54" s="11" t="n"/>
-      <c r="C54" s="11" t="n"/>
-      <c r="D54" s="11" t="n"/>
+      <c r="B54" s="11" t="inlineStr"/>
+      <c r="C54" s="11" t="inlineStr"/>
+      <c r="D54" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="55" ht="18.75" customHeight="1">
       <c r="A55" s="3" t="inlineStr">
@@ -1236,9 +1400,9 @@
           <t>SNFK150219</t>
         </is>
       </c>
-      <c r="B55" s="11" t="n"/>
-      <c r="C55" s="11" t="n"/>
-      <c r="D55" s="11" t="n"/>
+      <c r="B55" s="11" t="inlineStr"/>
+      <c r="C55" s="11" t="inlineStr"/>
+      <c r="D55" s="11" t="inlineStr"/>
     </row>
     <row r="56" ht="18.75" customHeight="1">
       <c r="A56" s="3" t="inlineStr">
@@ -1246,9 +1410,9 @@
           <t>SNFK350402</t>
         </is>
       </c>
-      <c r="B56" s="11" t="n"/>
-      <c r="C56" s="11" t="n"/>
-      <c r="D56" s="11" t="n"/>
+      <c r="B56" s="11" t="inlineStr"/>
+      <c r="C56" s="11" t="inlineStr"/>
+      <c r="D56" s="11" t="inlineStr"/>
     </row>
     <row r="57" ht="18.75" customHeight="1">
       <c r="A57" s="3" t="inlineStr">
@@ -1256,9 +1420,9 @@
           <t>SN6924</t>
         </is>
       </c>
-      <c r="B57" s="11" t="n"/>
-      <c r="C57" s="11" t="n"/>
-      <c r="D57" s="11" t="n"/>
+      <c r="B57" s="11" t="inlineStr"/>
+      <c r="C57" s="11" t="inlineStr"/>
+      <c r="D57" s="11" t="inlineStr"/>
     </row>
     <row r="58" ht="18.75" customHeight="1">
       <c r="A58" s="3" t="inlineStr">
@@ -1266,9 +1430,21 @@
           <t>SN1918</t>
         </is>
       </c>
-      <c r="B58" s="11" t="n"/>
-      <c r="C58" s="11" t="n"/>
-      <c r="D58" s="11" t="n"/>
+      <c r="B58" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C58" s="11" t="inlineStr">
+        <is>
+          <t>MF 9435</t>
+        </is>
+      </c>
+      <c r="D58" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="59" ht="18.75" customHeight="1">
       <c r="A59" s="3" t="inlineStr">
@@ -1276,9 +1452,13 @@
           <t>SN5530</t>
         </is>
       </c>
-      <c r="B59" s="11" t="n"/>
-      <c r="C59" s="11" t="n"/>
-      <c r="D59" s="11" t="n"/>
+      <c r="B59" s="11" t="inlineStr"/>
+      <c r="C59" s="11" t="inlineStr"/>
+      <c r="D59" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="60" ht="18.75" customHeight="1">
       <c r="A60" s="3" t="inlineStr">
@@ -1286,9 +1466,17 @@
           <t>SN1891</t>
         </is>
       </c>
-      <c r="B60" s="11" t="n"/>
-      <c r="C60" s="11" t="n"/>
-      <c r="D60" s="11" t="n"/>
+      <c r="B60" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C60" s="11" t="inlineStr">
+        <is>
+          <t>MF 190CE</t>
+        </is>
+      </c>
+      <c r="D60" s="11" t="inlineStr"/>
     </row>
     <row r="61" ht="18.75" customHeight="1">
       <c r="A61" s="3" t="inlineStr">
@@ -1296,9 +1484,21 @@
           <t>SN3485</t>
         </is>
       </c>
-      <c r="B61" s="11" t="n"/>
-      <c r="C61" s="11" t="n"/>
-      <c r="D61" s="11" t="n"/>
+      <c r="B61" s="11" t="inlineStr">
+        <is>
+          <t>Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C61" s="11" t="inlineStr">
+        <is>
+          <t>S68, S78, S88, S96, S97, S98, MF 9435</t>
+        </is>
+      </c>
+      <c r="D61" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="62" ht="18.75" customHeight="1">
       <c r="A62" s="3" t="inlineStr">
@@ -1306,9 +1506,17 @@
           <t>40646PF</t>
         </is>
       </c>
-      <c r="B62" s="11" t="n"/>
-      <c r="C62" s="11" t="n"/>
-      <c r="D62" s="11" t="n"/>
+      <c r="B62" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C62" s="11" t="inlineStr">
+        <is>
+          <t>RG900, RG1100, RG1300, RG1100B, RG1300B, 7460/7660, MT525D Dyna-VT, MT535D Dyna-VT, MT545D Dyna-VT, LB34BXD, 2270XD, PTD12 Roller, PTD12 Spoke, 9816 VE, 9824 VE, S67 Super , S77 Super, S68, S78, S88, S96, S97, S98, R65, R66, A66, A76, R76, 5100 Draper Header, 700 Grain Header, 4000 Pickup Header, 4200 Pickup Header, 7000 Grain Header, MF 9435, MF 2670, MF 2680, MF 3000, MF 5100, MF 9520, MF 9540 Tier 4 TI, MF 9560 Tier 4 TI, MF 9540 T4F, MF 9560 T4F, MF 9245, MF 9565, MF 9895, MF 9695, MF 9795, MF 9250-910 DynaFlex SRA, MF 4200S-13 Pick Up Header, MF 1841, MF 1843 N/S, MF 2170XD, MF 2290, MF 2150, MF 2170, MF WR 9430, 9816 VE, 9824 VE</t>
+        </is>
+      </c>
+      <c r="D62" s="11" t="inlineStr"/>
     </row>
     <row r="63" ht="18.75" customHeight="1">
       <c r="A63" s="3" t="inlineStr">

--- a/Agco.xlsx
+++ b/Agco.xlsx
@@ -490,7 +490,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="17.43357142857143" bestFit="1" customWidth="1" style="10" min="1" max="1"/>
     <col width="13.57642857142857" bestFit="1" customWidth="1" style="11" min="2" max="2"/>
@@ -1524,9 +1524,17 @@
           <t>SN1823</t>
         </is>
       </c>
-      <c r="B63" s="11" t="n"/>
-      <c r="C63" s="11" t="n"/>
-      <c r="D63" s="11" t="n"/>
+      <c r="B63" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C63" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 9300R, 9390R, 9470X, 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 187CE, MF 2140 CE, MF 342 2WD, MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13)</t>
+        </is>
+      </c>
+      <c r="D63" s="11" t="inlineStr"/>
     </row>
     <row r="64" ht="18.75" customHeight="1">
       <c r="A64" s="3" t="inlineStr">
@@ -1534,17 +1542,37 @@
           <t>SN6468</t>
         </is>
       </c>
-      <c r="B64" s="11" t="n"/>
-      <c r="C64" s="11" t="n"/>
-      <c r="D64" s="11" t="n"/>
+      <c r="B64" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C64" s="11" t="inlineStr">
+        <is>
+          <t>990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, MF 9690, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 186CE, MF 187CE, MF 2140 CE, MF 375 2WD, MF 375 4WD</t>
+        </is>
+      </c>
+      <c r="D64" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="65" ht="18.75" customHeight="1">
       <c r="A65" s="4" t="n">
         <v>7701014</v>
       </c>
-      <c r="B65" s="11" t="n"/>
-      <c r="C65" s="11" t="n"/>
-      <c r="D65" s="11" t="n"/>
+      <c r="B65" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C65" s="11" t="inlineStr">
+        <is>
+          <t>PTD12 Spoke, 9816 VE, 9824 VE, S67 Super , S77 Super, S68, S78, S88, S96, S97, S98, R65, R66, R76, 5100 Draper Header, 700 Grain Header, 431/415 Pickup Header, 4000 Pickup Header, 4200 Pickup Header, 7000 Grain Header, MF 9435, MF 2625, MF 2670, MF 2680, MF 3000, MF 5100, MF 9245, MF 9565, MF 4200S-13 Pick Up Header, MF 1835, MF 9146, MF 9125, MF 5200, MF 9190, MF 9192, MF WR 9725, MF WR 9735, MF WR 9840, 9816 VE, 9824 VE</t>
+        </is>
+      </c>
+      <c r="D65" s="11" t="inlineStr"/>
     </row>
     <row r="66" ht="18.75" customHeight="1">
       <c r="A66" s="3" t="inlineStr">
@@ -1552,9 +1580,21 @@
           <t>SN1507</t>
         </is>
       </c>
-      <c r="B66" s="11" t="n"/>
-      <c r="C66" s="11" t="n"/>
-      <c r="D66" s="11" t="n"/>
+      <c r="B66" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C66" s="11" t="inlineStr">
+        <is>
+          <t>RG900, RG1100, RG1300, RG1100B, RG1300B, RG900C, RG1100C, RG1300C, TG7300C, TG8400C, TG9300C, 7460/7660, LB34BXD, 2270XD, 9816 VE, 9824 VE, S67 Super , S77 Super, S68, S78, S88, R65, R66, 9325 Draper Header, 9330 Draper Header, 9335 Draper Header, 9340 Draper Header, 9250 Draper Header, 5100 Draper Header, 9255 Draper Header, 700 Grain Header, 4200 Pickup Header, 8200 Grain Header, 7200 Grain Header, 7000 Grain Header, MF 9435, MF 9255, MF 5100, MF 9250-910 DynaFlex SRA, MF 4200S-13 Pick Up Header, MF 7200-760 Rigid Header, MF 8200-600 Flexible Header, MF 1843 N/S, MF 2170XD, MF 2290, MF 2150, MF 9146, MF 9125, MF 5200, MF 9226, MF 1363, MF WR 9950, MF WR 9960, MF WR 9970, MF WR 9980, MF WR 9840, MF WR 9860, MF WR 9870, 9816 VE, 9824 VE</t>
+        </is>
+      </c>
+      <c r="D66" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="67" ht="18.75" customHeight="1">
       <c r="A67" s="3" t="inlineStr">
@@ -1562,25 +1602,49 @@
           <t>SN140</t>
         </is>
       </c>
-      <c r="B67" s="11" t="n"/>
-      <c r="C67" s="11" t="n"/>
-      <c r="D67" s="11" t="n"/>
+      <c r="B67" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C67" s="11" t="inlineStr">
+        <is>
+          <t>RG1100C, LB34BXD, 2270XD, PTD12 Spoke, 9816 VE, 9824 VE, S67 Super , S77 Super, R65, R66, R76, 5100 Draper Header, 4000 Pickup Header, 4200 Pickup Header, MF 9435, MF 5100, MF 4200S-13 Pick Up Header, MF 2170XD, MF 2290, MF 2150, MF 2170, MF 9146, MF 5200, MF 1359, MF 9190, MF 9192, MF WR 9735, MF WR 9840, 9816 VE, 9824 VE</t>
+        </is>
+      </c>
+      <c r="D67" s="11" t="inlineStr"/>
     </row>
     <row r="68" ht="18.75" customHeight="1">
       <c r="A68" s="4" t="n">
         <v>700710984</v>
       </c>
-      <c r="B68" s="11" t="n"/>
-      <c r="C68" s="11" t="n"/>
-      <c r="D68" s="11" t="n"/>
+      <c r="B68" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C68" s="11" t="inlineStr">
+        <is>
+          <t>IDEAL 7, 9390R, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, MF 9540, MF 9560, MF 9690, MF 9790, MF 9695, MF 9795, MF 3640, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 186CE, MF 187CE, MF 2140 CE, MF IDEAL 7</t>
+        </is>
+      </c>
+      <c r="D68" s="11" t="inlineStr"/>
     </row>
     <row r="69" ht="18.75" customHeight="1">
       <c r="A69" s="6" t="n">
         <v>70911255</v>
       </c>
-      <c r="B69" s="11" t="n"/>
-      <c r="C69" s="11" t="n"/>
-      <c r="D69" s="11" t="n"/>
+      <c r="B69" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C69" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795</t>
+        </is>
+      </c>
+      <c r="D69" s="11" t="inlineStr"/>
     </row>
     <row r="70" ht="18.75" customHeight="1">
       <c r="A70" s="3" t="inlineStr">
@@ -1588,9 +1652,17 @@
           <t>364224X1</t>
         </is>
       </c>
-      <c r="B70" s="11" t="n"/>
-      <c r="C70" s="11" t="n"/>
-      <c r="D70" s="11" t="n"/>
+      <c r="B70" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C70" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 3640, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 186CE, MF 187CE, MF 2140 CE, MF 375 2WD, MF 375 4WD</t>
+        </is>
+      </c>
+      <c r="D70" s="11" t="inlineStr"/>
     </row>
     <row r="71" ht="18.75" customHeight="1">
       <c r="A71" s="3" t="inlineStr">
@@ -1598,9 +1670,21 @@
           <t>ACP0010210</t>
         </is>
       </c>
-      <c r="B71" s="11" t="n"/>
-      <c r="C71" s="11" t="n"/>
-      <c r="D71" s="11" t="n"/>
+      <c r="B71" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C71" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 9300R, 9390R, 9470X, MF 595, MF 595 4WD, MF 592, MF 592 4WD, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2680 2WD, MF 2680 4WD, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 375 4WD, MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278</t>
+        </is>
+      </c>
+      <c r="D71" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="72" ht="18.75" customHeight="1">
       <c r="A72" s="3" t="inlineStr">
@@ -1608,9 +1692,21 @@
           <t>40644PF</t>
         </is>
       </c>
-      <c r="B72" s="11" t="n"/>
-      <c r="C72" s="11" t="n"/>
-      <c r="D72" s="11" t="n"/>
+      <c r="B72" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C72" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 9300R, 9470X, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), MF 35, MF 550, MF 560, MF 595, MF 595 4WD, MF 592, MF 592 4WD, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 3610 2WD, MF 3610 4WD, MF 3630 2WD, MF 3630 4WD, MF 3650 2WD, MF 3650 4WD, MF 3680 2WD, MF 3680 4WD, MF 3645 2WD, MF 3645 4WD, MF 3655 2WD, MF 3655 4WD, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 3635 2WD, MF 3635 4WD, MF 1200, MF 1250, MF 184, MF 8170 4WD, MF 8110 2WD, MF 8110 4WD, MF 8120 2WD, MF 8120 4WD, MF 8130 2WD, MF 8130 4WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 8250 2WD, MF 8250 4WD, MF 8240 2WD, MF 8240 4WD, MF 8220 2WD, MF 8220 4WD, MF 8210 2WD, MF 8210 4WD, MF 6497 T2 Agco Power, MF 6499 T2 Agco Power, MF 6490 T2 Agco Power, MF 6495 T2 Agco Power, MF 6485 T2 Agco Power, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 186CE, MF 187CE, MF 2140 CE, MF 260, MF 375 2WD, MF 375 4WD, MF 7274, MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7272</t>
+        </is>
+      </c>
+      <c r="D72" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="73" ht="18.75" customHeight="1">
       <c r="A73" s="3" t="inlineStr">
@@ -1618,9 +1714,17 @@
           <t>SN2750</t>
         </is>
       </c>
-      <c r="B73" s="11" t="n"/>
-      <c r="C73" s="11" t="n"/>
-      <c r="D73" s="11" t="n"/>
+      <c r="B73" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C73" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, MF 35, TE20, MF 135, MF 165, MF 175, MF 145, MF 178, MF 155, MF 148, MF 168, MF 188, MF 152, MF 158, MF 168F, MF 145 MK3/V, MF 158V, MF 154V 4WD, MF 164V 4WD, MF 234S, MF 254S 4WD, MF 550, MF 575, MF 560, MF 575 4WD, MF 590 4WD, MF 595, MF 595 4WD, MF 565, MF 592, MF 592 4WD, MF 698, MF 698 4WD, MF 698T, MF 698T 4WD, MF 699, MF 699 4WD, MF 670 4WD, MF 690, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 3080 2WD, MF 3080 4WD, MF 3090 2WD, MF 3090 4WD, MF 3610 2WD, MF 3610 4WD, MF 3630 2WD, MF 3630 4WD, MF 3650 2WD, MF 3650 4WD, MF 3680 2WD, MF 3680 4WD, MF 1200, MF 1250, MF 154, MF 263, MF 364C, MF 1114 2WD, MF 1114 4WD, MF 1134 2WD, MF 1134 4WD, MF 1014 2WD, MF 1014 4WD, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 186CE, MF 187CE, MF 2140 CE, MF 245, MF 265, MF 285, MF 235, MF 255, MF 260, MF 275 2WD, MF 298 2WD, MF 298 4WD, MF 290 2WD, MF 290 4WD, MF 230, MF 270, MF 375 4WD, MF 399 2WD, MF 399 4WD</t>
+        </is>
+      </c>
+      <c r="D73" s="11" t="inlineStr"/>
     </row>
     <row r="74" ht="18.75" customHeight="1">
       <c r="A74" s="3" t="inlineStr">
@@ -1628,17 +1732,25 @@
           <t>AG550698</t>
         </is>
       </c>
-      <c r="B74" s="11" t="n"/>
-      <c r="C74" s="11" t="n"/>
-      <c r="D74" s="11" t="n"/>
+      <c r="B74" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C74" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, 1270 (Serial No. JHBxxx001 to JBHxxx999), MF 35, TE20, MF 135, MF 165, MF 175, MF 145, MF 178, MF 148, MF 168, MF 188, MF 152, MF 158, MF 185, MF 165 MK3, MF 168 4WD, MF 168F 4WD, MF 168F, MF 145 MK3/V, MF 158V, MF 254S 4WD, MF 550, MF 575, MF 560, MF 575 4WD, MF 590 4WD, MF 595, MF 595 4WD, MF 565, MF 592, MF 592 4WD, MF 698, MF 698 4WD, MF 698T, MF 698T 4WD, MF 699, MF 699 4WD, MF 670 4WD, MF 690, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 364S 2WD, MF 394S 2WD, MF 354V 4WD, MF 3630 4WD, MF 3650 2WD, MF 3650 4WD, MF 1200, MF 1250, MF 154, MF 4315 2WD, MF 4315 4WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4360 2WD, MF 4360 4WD, MF 4365 2WD, MF 4365 4WD, MF 4370 2WD, MF 4370 4WD, MF 4215 2WD, MF 4215 4WD, MF 4220 2WD, MF 4220 4WD, MF 4225 2WD, MF 4225 4WD, MF 4235 2WD, MF 4235 4WD, MF 4240 2WD, MF 4240 4WD, MF 4245 2WD, MF 4245 4WD, MF 4255 2WD, MF 4255 4WD, MF 4260 2WD, MF 4260 4WD, MF 4265 2WD, MF 4265 4WD, MF 4270 2WD, MF 4270 4WD, MF 8250 4WD, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 3640, MF 185 SII, MF 190CE, MF 186CE, MF 187CE, MF 1035, MF 1045, MF 245, MF 265, MF 285, MF 235, MF 255, MF 260, MF 275 2WD, MF 298 2WD, MF 298 4WD, MF 290 2WD, MF 298, MF 290 4WD, MF 250, MF 230, MF 270, MF 350 2WD, MF 350 4WD, MF 375 2WD, MF 375 4WD, MF 390 2WD, MF 390 4WD, MF 398 2WD, MF 398 4WD, MF 399 2WD, MF 399 4WD, MF 360 2WD, MF 360 4WD, MF 365 2WD, MF 365 4WD, MF 355 2WD, MF 355 4WD, MF 390T 2WD, MF 390T 4WD, MF 362 2WD, MF 362 4WD, MF 340 4WD, MF 340 2WD, MF 372 N 2WD, MF 372 N 4WD, MF 382 N 4WD, MF 362 N 2WD, MF 362 N 4WD, MF 342 2WD, MF 352 2WD</t>
+        </is>
+      </c>
+      <c r="D74" s="11" t="inlineStr"/>
     </row>
     <row r="75" ht="18.75" customHeight="1">
       <c r="A75" s="4" t="n">
         <v>70052</v>
       </c>
-      <c r="B75" s="11" t="n"/>
-      <c r="C75" s="11" t="n"/>
-      <c r="D75" s="11" t="n"/>
+      <c r="B75" s="11" t="inlineStr"/>
+      <c r="C75" s="11" t="inlineStr"/>
+      <c r="D75" s="11" t="inlineStr"/>
     </row>
     <row r="76" ht="18.75" customHeight="1">
       <c r="A76" s="3" t="inlineStr">
@@ -1646,9 +1758,21 @@
           <t>SN2568</t>
         </is>
       </c>
-      <c r="B76" s="11" t="n"/>
-      <c r="C76" s="11" t="n"/>
-      <c r="D76" s="11" t="n"/>
+      <c r="B76" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C76" s="11" t="inlineStr">
+        <is>
+          <t>MF 9435</t>
+        </is>
+      </c>
+      <c r="D76" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="77" ht="18.75" customHeight="1">
       <c r="A77" s="3" t="inlineStr">
@@ -1656,33 +1780,57 @@
           <t>40507PF</t>
         </is>
       </c>
-      <c r="B77" s="11" t="n"/>
-      <c r="C77" s="11" t="n"/>
-      <c r="D77" s="11" t="n"/>
+      <c r="B77" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C77" s="11" t="inlineStr">
+        <is>
+          <t>RG900, RG1100, RG1300, RG1100C, 7460/7660, LB34BXD, 2270XD, S67 Super , S77 Super, S68, S78, S88, S96, S97, S98, R65, R66, R76, 5100 Draper Header, 700 Grain Header, 7000 Grain Header, MF 9435, MF 5100, MF 9520, MF 9695, MF 4200S-13 Pick Up Header, MF 2170XD, MF 2290, MF 2150, MF 2170, MF 5200, MF WR 9725, MF WR 9735, MF WR 9430, MF WR 9635, MF WR 9740, MF WR 9760, MF WR 9770, MF WR 9840, MF WR 9860, MF WR 9870</t>
+        </is>
+      </c>
+      <c r="D77" s="11" t="inlineStr"/>
     </row>
     <row r="78" ht="18.75" customHeight="1">
       <c r="A78" s="4" t="n">
         <v>700726841</v>
       </c>
-      <c r="B78" s="11" t="n"/>
-      <c r="C78" s="11" t="n"/>
-      <c r="D78" s="11" t="n"/>
+      <c r="B78" s="11" t="inlineStr"/>
+      <c r="C78" s="11" t="inlineStr"/>
+      <c r="D78" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="79" ht="18.75" customHeight="1">
       <c r="A79" s="4" t="n">
         <v>70927401</v>
       </c>
-      <c r="B79" s="11" t="n"/>
-      <c r="C79" s="11" t="n"/>
-      <c r="D79" s="11" t="n"/>
+      <c r="B79" s="11" t="inlineStr"/>
+      <c r="C79" s="11" t="inlineStr"/>
+      <c r="D79" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="80" ht="18.75" customHeight="1">
       <c r="A80" s="4" t="n">
         <v>700721960</v>
       </c>
-      <c r="B80" s="11" t="n"/>
-      <c r="C80" s="11" t="n"/>
-      <c r="D80" s="11" t="n"/>
+      <c r="B80" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C80" s="11" t="inlineStr">
+        <is>
+          <t>MF 3640</t>
+        </is>
+      </c>
+      <c r="D80" s="11" t="inlineStr"/>
     </row>
     <row r="81" ht="18.75" customHeight="1">
       <c r="A81" s="3" t="inlineStr">
@@ -1690,9 +1838,17 @@
           <t>40508PF</t>
         </is>
       </c>
-      <c r="B81" s="11" t="n"/>
-      <c r="C81" s="11" t="n"/>
-      <c r="D81" s="11" t="n"/>
+      <c r="B81" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C81" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), MF 698, MF 698 4WD, MF 698T, MF 698T 4WD, MF 699, MF 699 4WD, MF 670 4WD, MF 690, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 1200, MF 1250, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 3640, MF 185 SII, MF 186CE, MF 187CE, MF 375 2WD, MF 375 4WD</t>
+        </is>
+      </c>
+      <c r="D81" s="11" t="inlineStr"/>
     </row>
     <row r="82" ht="18.75" customHeight="1">
       <c r="A82" s="3" t="inlineStr">
@@ -1700,9 +1856,17 @@
           <t>354605X1</t>
         </is>
       </c>
-      <c r="B82" s="11" t="n"/>
-      <c r="C82" s="11" t="n"/>
-      <c r="D82" s="11" t="n"/>
+      <c r="B82" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C82" s="11" t="inlineStr">
+        <is>
+          <t>1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), MF 2640/2645 4WD, MF 184, MF 9690, MF 9790, MF 2170XD, MF 2390UHD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 186CE, MF 187CE, MF 2140 CE</t>
+        </is>
+      </c>
+      <c r="D82" s="11" t="inlineStr"/>
     </row>
     <row r="83" ht="18.75" customHeight="1">
       <c r="A83" s="3" t="inlineStr">
@@ -1710,9 +1874,17 @@
           <t>13140AF</t>
         </is>
       </c>
-      <c r="B83" s="11" t="n"/>
-      <c r="C83" s="11" t="n"/>
-      <c r="D83" s="11" t="n"/>
+      <c r="B83" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C83" s="11" t="inlineStr">
+        <is>
+          <t>990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), MF 175, MF 174S, MF 294 4WD, MF 670 4WD, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 3425, MF 3435, MF 3445, MF 3455, MF 374S 2WD, MF 384S 2WD, MF 394S 2WD, MF 3435C, MF 3445C, MF 3455C, MF 3425C, MF 3050 2WD, MF 3060 2WD, MF 3070 2WD, MF 3065 4WD, MF 1200, MF 1250, MF 184, MF 9690, MF 9790, MF 2225, MF 2235, MF 2230, MF 2150 CE, MF 2160 CE, MF 185 SII, MF 186CE, MF 187CE, MF 2140 CE, MF 260, MF 270, MF 375 2WD, MF 375 4WD, MF 390 2WD, MF 398 2WD, MF 365 2WD, MF 390T 2WD, MF 362 2WD</t>
+        </is>
+      </c>
+      <c r="D83" s="11" t="inlineStr"/>
     </row>
     <row r="84" ht="18.75" customHeight="1">
       <c r="A84" s="3" t="inlineStr">
@@ -1720,9 +1892,13 @@
           <t>SN5028</t>
         </is>
       </c>
-      <c r="B84" s="11" t="n"/>
-      <c r="C84" s="11" t="n"/>
-      <c r="D84" s="11" t="n"/>
+      <c r="B84" s="11" t="inlineStr"/>
+      <c r="C84" s="11" t="inlineStr"/>
+      <c r="D84" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="85" ht="18.75" customHeight="1">
       <c r="A85" s="3" t="inlineStr">
@@ -1730,9 +1906,21 @@
           <t>40724PF</t>
         </is>
       </c>
-      <c r="B85" s="11" t="n"/>
-      <c r="C85" s="11" t="n"/>
-      <c r="D85" s="11" t="n"/>
+      <c r="B85" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C85" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), MF 2640/2645 2WD, MF 394S 2WD, MF 3050 2WD, MF 3060 2WD, MF 3070 2WD, MF 3090 2WD, MF 3095 2WD, MF 3125 2WD, MF 3065 4WD, MF 3120 2WD, MF 3075 2WD, MF 3630 2WD, MF 3650 2WD, MF 3680 2WD, MF 3645 2WD, MF 3655 2WD, MF 3670 2WD, MF 3690 2WD, MF 184, MF 6110 2WD, MF 6150 2WD, MF 6170 2WD, MF 6180 2WD, MF 6190 2WD, MF 8110 2WD, MF 8120 2WD, MF 8140 2WD, MF 8150 2WD, MF 8160 2WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4360 2WD, MF 4360 4WD, MF 4370 2WD, MF 4370 4WD, MF 4225 2WD, MF 4235 2WD, MF 4240 2WD, MF 4245 2WD, MF 4255 2WD, MF 4260 2WD, MF 4265 2WD, MF 4270 2WD, MF 6290 2WD, MF 6280 2WD, MF 6270 2WD, MF 6265 2WD, MF 6255 2WD, MF 6245 2WD, MF 6235 2WD, MF 8250 4WD, MF 8220 2WD, MF 8210 2WD, MF 6465 T2 Perkins, MF 6475 T2 Perkins, MF 6480 T2 Perkins, MF 6490 T2 Agco Power, MF 6495 T2 Agco Power, MF 6485 T2 Agco Power, MF 9690, MF 9790, MF 9695, MF 9795, 5465, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 186CE, MF 187CE, MF 2140 CE, MF 375 2WD, MF 390 2WD, MF 398 2WD, MF 399 2WD, MF 360 2WD, MF 365 2WD, MF 390T 2WD, MF 362 2WD</t>
+        </is>
+      </c>
+      <c r="D85" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="86" ht="18.75" customHeight="1">
       <c r="A86" s="3" t="inlineStr">
@@ -1740,9 +1928,17 @@
           <t>SN1220</t>
         </is>
       </c>
-      <c r="B86" s="11" t="n"/>
-      <c r="C86" s="11" t="n"/>
-      <c r="D86" s="11" t="n"/>
+      <c r="B86" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C86" s="11" t="inlineStr">
+        <is>
+          <t>Favorit 920 Vario, Favorit 924 Vario, Favorit 926 Vario, MF 2640/2645 2WD, MF 394S 2WD, MF 3630 2WD, MF 3650 2WD, MF 3680 2WD, MF 3645 2WD, MF 3655 2WD, MF 3670 2WD, MF 3690 2WD, MF 8120 2WD, MF 8140 2WD, MF 8150 2WD, MF 8160 2WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4360 2WD, MF 4360 4WD, MF 4370 2WD, MF 4370 4WD, MF 4225 2WD, MF 4235 2WD, MF 4240 2WD, MF 4245 2WD, MF 4255 2WD, MF 4260 2WD, MF 4265 2WD, MF 4270 2WD, MF 8250 2WD, MF 8250 4WD, MF 8280 4WD, MF 8270 4WD, MF 8260 2WD, MF 8240 2WD, MF 8240 4WD, MF 8220 2WD, MF 8220 4WD, MF 8210 2WD, MF 8210 4WD, MF 9690, MF 185 SII, MF 375 2WD, MF 390 2WD, MF 398 2WD, MF 399 2WD, MF 360 2WD, MF 365 2WD, MF 390T 2WD, MF 362 2WD</t>
+        </is>
+      </c>
+      <c r="D86" s="11" t="inlineStr"/>
     </row>
     <row r="87" ht="18.75" customHeight="1">
       <c r="A87" s="3" t="inlineStr">
@@ -1750,9 +1946,17 @@
           <t>SN6307</t>
         </is>
       </c>
-      <c r="B87" s="11" t="n"/>
-      <c r="C87" s="11" t="n"/>
-      <c r="D87" s="11" t="n"/>
+      <c r="B87" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C87" s="11" t="inlineStr">
+        <is>
+          <t>MF 9690, MF 185 SII, MF 190CE</t>
+        </is>
+      </c>
+      <c r="D87" s="11" t="inlineStr"/>
     </row>
     <row r="88" ht="18.75" customHeight="1">
       <c r="A88" s="3" t="inlineStr">
@@ -1760,9 +1964,13 @@
           <t>SN5731</t>
         </is>
       </c>
-      <c r="B88" s="11" t="n"/>
-      <c r="C88" s="11" t="n"/>
-      <c r="D88" s="11" t="n"/>
+      <c r="B88" s="11" t="inlineStr"/>
+      <c r="C88" s="11" t="inlineStr"/>
+      <c r="D88" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="89" ht="18.75" customHeight="1">
       <c r="A89" s="3" t="inlineStr">
@@ -1770,9 +1978,17 @@
           <t>SN1675</t>
         </is>
       </c>
-      <c r="B89" s="11" t="n"/>
-      <c r="C89" s="11" t="n"/>
-      <c r="D89" s="11" t="n"/>
+      <c r="B89" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C89" s="11" t="inlineStr">
+        <is>
+          <t>7460/7660, LB34BXD, 2270XD, S67 Super , S77 Super, R65, R66, 9325 Draper Header, 9330 Draper Header, 9335 Draper Header, 9340 Draper Header, 9250 Draper Header, 5100 Draper Header, 9255 Draper Header, MF 9255, MF 5100, MF 9250-910 DynaFlex SRA, MF 2170XD, MF 2290, MF 2150, MF WR 9735, MF WR 9430, MF WR 9635, MF WR 9740, MF WR 9760, MF WR 9770, MF WR 9840, MF WR 9860, MF WR 9870</t>
+        </is>
+      </c>
+      <c r="D89" s="11" t="inlineStr"/>
     </row>
     <row r="90" ht="18.75" customHeight="1">
       <c r="A90" s="3" t="inlineStr">
@@ -1780,9 +1996,21 @@
           <t>SN7138</t>
         </is>
       </c>
-      <c r="B90" s="11" t="n"/>
-      <c r="C90" s="11" t="n"/>
-      <c r="D90" s="11" t="n"/>
+      <c r="B90" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C90" s="11" t="inlineStr">
+        <is>
+          <t>9816 VE, 9824 VE, 9816 VE, 9824 VE</t>
+        </is>
+      </c>
+      <c r="D90" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="91" ht="18.75" customHeight="1">
       <c r="A91" s="3" t="inlineStr">
@@ -1790,9 +2018,17 @@
           <t>SN918</t>
         </is>
       </c>
-      <c r="B91" s="11" t="n"/>
-      <c r="C91" s="11" t="n"/>
-      <c r="D91" s="11" t="n"/>
+      <c r="B91" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C91" s="11" t="inlineStr">
+        <is>
+          <t>990 (Serial No. JHBxxx001 to JBHxxx999), MF 9540, MF 9560, MF 9690, MF 9895, MF 9795, MF 3640, MF 185 SII</t>
+        </is>
+      </c>
+      <c r="D91" s="11" t="inlineStr"/>
     </row>
     <row r="92" ht="18.75" customHeight="1">
       <c r="A92" s="3" t="inlineStr">
@@ -1800,9 +2036,21 @@
           <t>40725PF</t>
         </is>
       </c>
-      <c r="B92" s="11" t="n"/>
-      <c r="C92" s="11" t="n"/>
-      <c r="D92" s="11" t="n"/>
+      <c r="B92" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C92" s="11" t="inlineStr">
+        <is>
+          <t>Favorit 920 Vario, Favorit 924 Vario, Favorit 926 Vario, MF 2640/2645 2WD, MF 394S 2WD, MF 3630 2WD, MF 3650 2WD, MF 3680 2WD, MF 3645 2WD, MF 3655 2WD, MF 3670 2WD, MF 3690 2WD, MF 8120 2WD, MF 8140 2WD, MF 8150 2WD, MF 8160 2WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4360 2WD, MF 4360 4WD, MF 4370 2WD, MF 4370 4WD, MF 4225 2WD, MF 4235 2WD, MF 4240 2WD, MF 4245 2WD, MF 4255 2WD, MF 4260 2WD, MF 4265 2WD, MF 4270 2WD, MF 8250 2WD, MF 8250 4WD, MF 8280 4WD, MF 8270 4WD, MF 8260 2WD, MF 8240 2WD, MF 8240 4WD, MF 8220 2WD, MF 8220 4WD, MF 8210 2WD, MF 8210 4WD, MF 9690, MF 185 SII, MF 375 2WD, MF 390 2WD, MF 398 2WD, MF 399 2WD, MF 360 2WD, MF 365 2WD, MF 390T 2WD, MF 362 2WD</t>
+        </is>
+      </c>
+      <c r="D92" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="93" ht="18.75" customHeight="1">
       <c r="A93" s="3" t="inlineStr">
@@ -1810,9 +2058,17 @@
           <t>354708X1</t>
         </is>
       </c>
-      <c r="B93" s="11" t="n"/>
-      <c r="C93" s="11" t="n"/>
-      <c r="D93" s="11" t="n"/>
+      <c r="B93" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C93" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), MF 595, MF 592, MF 698, MF 698 4WD, MF 698T, MF 698T 4WD, MF 699, MF 699 4WD, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 394S 2WD, MF 3050 2WD, MF 3050 4WD, MF 3060 2WD, MF 3060 4WD, MF 3070 2WD, MF 3070 4WD, MF 3080 2WD, MF 3080 4WD, MF 3090 2WD, MF 3090 4WD, MF 3095 2WD, MF 3095 4WD, MF 3115 2WD, MF 3115 4WD, MF 3125 2WD, MF 3125 4WD, MF 3065 2WD, MF 3065 4WD, MF 3085 2WD, MF 3085 4WD, MF 3120 2WD, MF 3120 4WD, MF 3075 2WD, MF 3075 4WD, MF 3610 2WD, MF 3610 4WD, MF 3630 2WD, MF 3630 4WD, MF 3650 2WD, MF 3650 4WD, MF 3680 2WD, MF 3680 4WD, MF 3645 2WD, MF 3645 4WD, MF 3655 2WD, MF 3655 4WD, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 3635 2WD, MF 3635 4WD, MF 184, MF 6110 2WD, MF 6110 4WD, MF 6120 2WD, MF 6120 4WD, MF 6130 2WD, MF 6130 4WD, MF 6140 2WD, MF 6140 4WD, MF 6150 2WD, MF 6150 4WD, MF 6160 2WD, MF 6160 4WD, MF 6170 2WD, MF 6170 4WD, MF 6180 2WD, MF 6180 4WD, MF 6190 2WD, MF 6190 4WD, MF 8170 4WD, MF 8110 2WD, MF 8110 4WD, MF 8120 2WD, MF 8120 4WD, MF 8130 2WD, MF 8130 4WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 4315 2WD, MF 4315 4WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4360 2WD, MF 4360 4WD, MF 4365 2WD, MF 4365 4WD, MF 4370 2WD, MF 4370 4WD, MF 4215 2WD, MF 4215 4WD, MF 4220 2WD, MF 4220 4WD, MF 4225 2WD, MF 4225 4WD, MF 4235 2WD, MF 4235 4WD, MF 4240 2WD, MF 4240 4WD, MF 4245 2WD, MF 4245 4WD, MF 4255 2WD, MF 4255 4WD, MF 4260 2WD, MF 4260 4WD, MF 4265 2WD, MF 4265 4WD, MF 4270 2WD, MF 4270 4WD, MF 6290 2WD, MF 6290 4WD, MF 6280 2WD, MF 6280 4WD, MF 6270 2WD, MF 6270 4WD, MF 6265 2WD, MF 6265 4WD, MF 6260 2WD, MF 6260 4WD, MF 6255 2WD, MF 6255 4WD, MF 6245 2WD, MF 6245 4WD, MF 6235 2WD, MF 6235 4WD, MF 8250 4WD, MF 8220 2WD, MF 8220 4WD, MF 8210 2WD, MF 8210 4WD, MF 6497 T2 Agco Power, MF 6499 T2 Agco Power, MF 6465 T2 Perkins, MF 6475 T2 Perkins, MF 6480 T2 Perkins, MF 6490 T2 Agco Power, MF 6495 T2 Agco Power, MF 6485 T2 Agco Power, MF 6445 T2 Agco Power, MF 6455 T2 Perkins, MF 6460 T2 Perkins, MF 6470 T2 Perkins, MF 9690, MF 9790, MF 9695, MF 9795, 5465, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 186CE, MF 187CE, MF 2140 CE, MF 265, MF 298 2WD, MF 298 4WD, MF 230, MF 350 2WD, MF 350 4WD, MF 375 2WD, MF 375 4WD, MF 390 2WD, MF 390 4WD, MF 398 2WD, MF 398 4WD, MF 399 2WD, MF 399 4WD, MF 360 2WD, MF 360 4WD, MF 365 2WD, MF 365 4WD, MF 355 2WD, MF 355 4WD, MF 390T 2WD, MF 390T 4WD, MF 362 2WD, MF 362 4WD, MF 340 4WD, MF 372 N 2WD, MF 372 N 4WD, MF 382 N 4WD, MF 362 N 2WD, MF 362 N 4WD, MF 342 2WD, MF 352 2WD</t>
+        </is>
+      </c>
+      <c r="D93" s="11" t="inlineStr"/>
     </row>
     <row r="94" ht="18.75" customHeight="1">
       <c r="A94" s="3" t="inlineStr">
@@ -1820,9 +2076,17 @@
           <t>354718X1</t>
         </is>
       </c>
-      <c r="B94" s="11" t="n"/>
-      <c r="C94" s="11" t="n"/>
-      <c r="D94" s="11" t="n"/>
+      <c r="B94" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Fendt, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C94" s="11" t="inlineStr">
+        <is>
+          <t>TG7300C, TG8300C, TG8400C, TG9300C, 7460/7660, LB34BXD, 2270XD, PTD12 Roller, 9816 VE, 9824 VE, Favorit 920 Vario, Favorit 924 Vario, Favorit 926 Vario, R76, MF 9435, MF 9540 Tier 4 TI, MF 9560 Tier 4 TI, MF 9540 T4F, MF 9560 T4F, MF 9245, MF 9565, MF 1843 N/S, MF 2170XD, MF 2290, MF 2150, MF 2170, MF 3983, MF 3986, MF 5200, MF 1359, MF 1363, 9816 VE, 9824 VE</t>
+        </is>
+      </c>
+      <c r="D94" s="11" t="inlineStr"/>
     </row>
     <row r="95" ht="18.75" customHeight="1">
       <c r="A95" s="3" t="inlineStr">
@@ -1830,9 +2094,17 @@
           <t>354722X1</t>
         </is>
       </c>
-      <c r="B95" s="11" t="n"/>
-      <c r="C95" s="11" t="n"/>
-      <c r="D95" s="11" t="n"/>
+      <c r="B95" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C95" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), MF 178, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 184, MF 9690, MF 9790, MF 9695, MF 9795, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 186CE, MF 187CE, MF 2140 CE</t>
+        </is>
+      </c>
+      <c r="D95" s="11" t="inlineStr"/>
     </row>
     <row r="96" ht="18.75" customHeight="1">
       <c r="A96" s="3" t="inlineStr">
@@ -1840,9 +2112,17 @@
           <t>SN6305</t>
         </is>
       </c>
-      <c r="B96" s="11" t="n"/>
-      <c r="C96" s="11" t="n"/>
-      <c r="D96" s="11" t="n"/>
+      <c r="B96" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C96" s="11" t="inlineStr">
+        <is>
+          <t>990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, MF 3610 2WD, MF 3610 4WD, MF 3630 2WD, MF 3630 4WD, MF 3650 2WD, MF 3650 4WD, MF 3680 2WD, MF 3680 4WD, MF 3645 2WD, MF 3645 4WD, MF 3655 2WD, MF 3655 4WD, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 3635 2WD, MF 3635 4WD, MF 6170 2WD, MF 6180 2WD, MF 6190 2WD, MF 8110 2WD, MF 8110 4WD, MF 8120 2WD, MF 8120 4WD, MF 8130 2WD, MF 8130 4WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 6290 2WD, MF 6280 2WD, MF 6270 2WD, MF 8250 2WD, MF 8220 2WD, MF 8210 2WD, MF 6490 T2 Agco Power, MF 6485 T2 Agco Power, 6485, MF 6490 T3 Agco Power, MF 9690, MF 5425, MF 5435, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 186CE, MF 187CE, MF 2140 CE</t>
+        </is>
+      </c>
+      <c r="D96" s="11" t="inlineStr"/>
     </row>
     <row r="97" ht="18.75" customHeight="1">
       <c r="A97" s="3" t="inlineStr">
@@ -1850,9 +2130,17 @@
           <t>SN3806</t>
         </is>
       </c>
-      <c r="B97" s="11" t="n"/>
-      <c r="C97" s="11" t="n"/>
-      <c r="D97" s="11" t="n"/>
+      <c r="B97" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C97" s="11" t="inlineStr">
+        <is>
+          <t>RG900, RG1100, RG1300, RG1100B, RG1300B, RG700, RG700B, RG900C, RG1100C, RG1300C, 7460/7660, MT455D, MT465D, MT445B, MT455B, MT465B, MT445B-T3, MT455B-T3 Dyna-4, MT465B-T3 Dyna-4, MT515D Dyna-4, MT525D Dyna-4, MT525D Dyna-6, MT535D Dyna-6, MT545D Dyna-6, MT545B Dyna-6, MT525B Dyna-6, MT525B Dyna-6 T3 CAT, MT545B Dyna-6 T3 CAT, LB34BXD, 9816 VE, S67 Super , S77 Super, S68, S78, S88, S96, S97, S98, R65, R66, A66, A76, R76, MF 2625, MF 2604H, MF 2605H, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-6, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-6, MF 7618 Dyna-6, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, MF 5445, MF 5470 T3, MF 5480 T3, MF 5465 T3, MF 5475 T3, MF 5445 T3, MF 5455 T3, MF 2670, MF 2680, MF 9895, MF 9695, MF 9795, MF 1841, MF 1843 N/S, MF 2170XD, MF 2290, MF 2150, MF 2170, 9816 VE</t>
+        </is>
+      </c>
+      <c r="D97" s="11" t="inlineStr"/>
     </row>
     <row r="98" ht="18.75" customHeight="1">
       <c r="A98" s="3" t="inlineStr">
@@ -1860,17 +2148,33 @@
           <t>40593PF</t>
         </is>
       </c>
-      <c r="B98" s="11" t="n"/>
-      <c r="C98" s="11" t="n"/>
-      <c r="D98" s="11" t="n"/>
+      <c r="B98" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C98" s="11" t="inlineStr">
+        <is>
+          <t>RG900, RG1100, RG1300, RG1100B, RG1300B, RG700, RG700B, RG900C, RG1100C, RG1300C, 7460/7660, MT455D, MT465D, MT445B, MT455B, MT465B, MT445B-T3, MT455B-T3 Dyna-4, MT465B-T3 Dyna-4, MT515D Dyna-4, MT525D Dyna-4, MT525D Dyna-6, MT535D Dyna-6, MT545D Dyna-6, MT545B Dyna-6, MT525B Dyna-6, MT525B Dyna-6 T3 CAT, MT545B Dyna-6 T3 CAT, LB34BXD, 9816 VE, S67 Super , S77 Super, S68, S78, S88, S96, S97, S98, R65, R66, A66, A76, R76, MF 2625, MF 2604H, MF 2605H, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-6, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-6, MF 7618 Dyna-6, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, MF 5445, MF 5470 T3, MF 5480 T3, MF 5465 T3, MF 5475 T3, MF 5445 T3, MF 5455 T3, MF 2670, MF 2680, MF 9895, MF 9695, MF 9795, MF 1841, MF 1843 N/S, MF 2170XD, MF 2290, MF 2150, MF 2170, 9816 VE</t>
+        </is>
+      </c>
+      <c r="D98" s="11" t="inlineStr"/>
     </row>
     <row r="99" ht="18.75" customHeight="1">
       <c r="A99" s="4" t="n">
         <v>70931806</v>
       </c>
-      <c r="B99" s="11" t="n"/>
-      <c r="C99" s="11" t="n"/>
-      <c r="D99" s="11" t="n"/>
+      <c r="B99" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C99" s="11" t="inlineStr">
+        <is>
+          <t>990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, MF 184, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 187CE, MF 2140 CE, MF 375 2WD, MF 375 4WD</t>
+        </is>
+      </c>
+      <c r="D99" s="11" t="inlineStr"/>
     </row>
     <row r="100" ht="18.75" customHeight="1">
       <c r="A100" s="3" t="inlineStr">
@@ -1878,9 +2182,17 @@
           <t>363958X1</t>
         </is>
       </c>
-      <c r="B100" s="11" t="n"/>
-      <c r="C100" s="11" t="n"/>
-      <c r="D100" s="11" t="n"/>
+      <c r="B100" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C100" s="11" t="inlineStr">
+        <is>
+          <t>990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, MF 184, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 187CE, MF 2140 CE, MF 375 2WD, MF 375 4WD</t>
+        </is>
+      </c>
+      <c r="D100" s="11" t="inlineStr"/>
     </row>
     <row r="101" ht="18.75" customHeight="1">
       <c r="A101" s="3" t="inlineStr">
@@ -1888,17 +2200,33 @@
           <t>SN3565</t>
         </is>
       </c>
-      <c r="B101" s="11" t="n"/>
-      <c r="C101" s="11" t="n"/>
-      <c r="D101" s="11" t="n"/>
+      <c r="B101" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C101" s="11" t="inlineStr">
+        <is>
+          <t>12130 (Serial No. JHBxxx001 to JBHxxx999), MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 3050 2WD, MF 3050 4WD, MF 3060 2WD, MF 3060 4WD, MF 3070 2WD, MF 3070 4WD, MF 3080 4WD, MF 3090 2WD, MF 3090 4WD, MF 3065 2WD, MF 3065 4WD, MF 3610 2WD, MF 3610 4WD, MF 3630 2WD, MF 3630 4WD, MF 3650 2WD, MF 3650 4WD, MF 3680 2WD, MF 3680 4WD, MF 3645 2WD, MF 3645 4WD, MF 3655 2WD, MF 3655 4WD, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 3635 2WD, MF 3635 4WD, MF 6150 2WD, MF 6170 2WD, MF 6180 2WD, MF 8170 4WD, MF 8110 2WD, MF 8120 2WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 9690, MF 9790, MF 3640, MF 2170XD, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 187CE, MF 350 2WD, MF 350 4WD, MF 375 2WD, MF 375 4WD, MF 390 2WD, MF 390 4WD, MF 398 2WD, MF 398 4WD, MF 399 2WD, MF 399 4WD, MF 360 2WD, MF 360 4WD</t>
+        </is>
+      </c>
+      <c r="D101" s="11" t="inlineStr"/>
     </row>
     <row r="102" ht="18.75" customHeight="1">
       <c r="A102" s="4" t="n">
         <v>70920415</v>
       </c>
-      <c r="B102" s="11" t="n"/>
-      <c r="C102" s="11" t="n"/>
-      <c r="D102" s="11" t="n"/>
+      <c r="B102" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C102" s="11" t="inlineStr">
+        <is>
+          <t>RG900, RG1100, RG1300, RG1100B, RG1300B, RG900C, RG1100C, RG1300C, TG8400C, TG9300C, 7460/7660, MT755C, MT455D, MT465D, MT445B, MT455B, MT465B, MT445B-T3, MT455B-T3 Dyna-4, MT465B-T3 Dyna-4, MT555D Dyna-6, MT565D Dyna-6, MT575D Dyna-6, MT585D Dyna-6, MT515D Dyna-4, MT525D Dyna-4, MT525D Dyna-6, MT535D Dyna-6, MT545D Dyna-6, MT525D Dyna-VT, MT535D Dyna-VT, MT545D Dyna-VT, MT575E Dyna-6, MT525E Dyna-4, MT525E Dyna-6, MT545E Dyna-6, MT545B Dyna-6, MT525B Dyna-6, MT555B Dyna-6 T3 CAT, MT565B Dyna-6 T3 CAT, MT575B Dyna-6 T3 CAT, MT525B Dyna-6 T3 CAT, MT545B Dyna-6 T3 CAT, MT595B Dyna-6 T3 SISU, MTS965C, MTS965E, MTS975E, MT955E, MT965E, MT975E, MT945C , MT955C , MT965C , LB34BXD, 2270XD, S67 Super , S77 Super, S68, S78, S88, S96, S97, S98, R65, R66, A66, A76, R76, 9325 Draper Header, 9330 Draper Header, 9335 Draper Header, 9340 Draper Header, 9250 Draper Header, 9255 Draper Header, 700 Grain Header, 4000 Pickup Header, 4200 Pickup Header, 8200 Grain Header, 7200 Grain Header, 7000 Grain Header, MF 9435, MF 2625, MF 4608, MF 4609, MF 4610, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-6, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-6, MF 7618 Dyna-6, MF 7619 Dyna-6, MF 7620 Dyna-6, MF 7622 Dyna-6, MF 7624 Dyna-6, MF 6715 S Dyna-4 T4F, MF 6715 S Dyna-6 T4F, MF 6716 S Dyna-6 T4F, MF 7719 Dyna-6, MF 7720 Dyna-6, MF 7722 Dyna-6, MF 7724 Dyna-6, MF 7726 Dyna-6, MF 7714 S Dyna-4, MF 7714 S Dyna-4 T5, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, MF 5445, MF 5470 T3, MF 5480 T3, MF 5465 T3, MF 5475 T3, MF 5445 T3, MF 5455 T3, MF 2670, MF 2680, MF 4300 Pickup Header, MF 9255, MF 3000, MF 9520, MF 9560 Tier 4 TI, MF 9560 T4F, MF 9245, MF 9565, MF 9895, MF 9695, MF 9795, MF 9250-910 DynaFlex SRA, MF 4200S-13 Pick Up Header, MF 7200-760 Rigid Header, MF 8200-600 Flexible Header, MF 1841, MF 1843 N/S, MF 1837, MF 1835, MF 1839, MF 2170XD, MF 2290, MF 2150, MF 2170, MF 3986, MF 5130 Wheel Rake HD, MF 9146, MF 9125, MF 1363, MF WR 9725, MF WR 9735, MF WR 9430, MF WR 9635</t>
+        </is>
+      </c>
+      <c r="D102" s="11" t="inlineStr"/>
     </row>
     <row r="103" ht="18.75" customHeight="1">
       <c r="A103" s="3" t="inlineStr">
@@ -1906,9 +2234,17 @@
           <t>SN474</t>
         </is>
       </c>
-      <c r="B103" s="11" t="n"/>
-      <c r="C103" s="11" t="n"/>
-      <c r="D103" s="11" t="n"/>
+      <c r="B103" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C103" s="11" t="inlineStr">
+        <is>
+          <t>RG900, RG1100, RG1300, 7460/7660, MT525D Dyna-VT, MT535D Dyna-VT, MT545D Dyna-VT, S67 Super , S77 Super, S68, S78, S88, S96, S97, S98, R65, R66, R76, 9325 Draper Header, 9330 Draper Header, 9335 Draper Header, 9340 Draper Header, 9250 Draper Header, 9255 Draper Header, 700 Grain Header, 4200 Pickup Header, 7000 Grain Header, MF 9435, MF 2670, MF 2680, MF 9255, MF 9540 Tier 4 TI, MF 9560 Tier 4 TI, MF 9540 T4F, MF 9560 T4F, MF 9245, MF 9565, MF 9895, MF 9250-910 DynaFlex SRA, MF 4200S-13 Pick Up Header, MF 1839, MF 5130 Wheel Rake HD, MF 1359</t>
+        </is>
+      </c>
+      <c r="D103" s="11" t="inlineStr"/>
     </row>
     <row r="104" ht="18.75" customHeight="1">
       <c r="A104" s="3" t="inlineStr">
@@ -1916,9 +2252,21 @@
           <t>354273X1</t>
         </is>
       </c>
-      <c r="B104" s="11" t="n"/>
-      <c r="C104" s="11" t="n"/>
-      <c r="D104" s="11" t="n"/>
+      <c r="B104" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C104" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), MF 35, MF 135, MF 165, MF 175, MF 178, MF 148, MF 168, MF 188, MF 165 MK3, MF 194S, MF 550, MF 560, MF 698, MF 698 4WD, MF 698T, MF 698T 4WD, MF 699, MF 699 4WD, MF 670 4WD, MF 690, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 3050 2WD, MF 3050 4WD, MF 3060 2WD, MF 3060 4WD, MF 3070 2WD, MF 3070 4WD, MF 3080 2WD, MF 3080 4WD, MF 3090 2WD, MF 3090 4WD, MF 3095 2WD, MF 3095 4WD, MF 3115 2WD, MF 3115 4WD, MF 3125 2WD, MF 3125 4WD, MF 3065 2WD, MF 3065 4WD, MF 3085 2WD, MF 3085 4WD, MF 3120 2WD, MF 3120 4WD, MF 3075 2WD, MF 3075 4WD, MF 3610 2WD, MF 3610 4WD, MF 3630 2WD, MF 3630 4WD, MF 3650 2WD, MF 3650 4WD, MF 3680 2WD, MF 3680 4WD, MF 3645 2WD, MF 3645 4WD, MF 3655 2WD, MF 3655 4WD, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 3635 2WD, MF 3635 4WD, MF 6110 2WD, MF 6110 4WD, MF 6120 2WD, MF 6120 4WD, MF 6130 2WD, MF 6130 4WD, MF 6140 2WD, MF 6140 4WD, MF 6150 2WD, MF 6150 4WD, MF 6160 2WD, MF 6160 4WD, MF 6170 2WD, MF 6170 4WD, MF 6180 2WD, MF 6180 4WD, MF 6190 2WD, MF 6190 4WD, MF 8170 4WD, MF 8110 2WD, MF 8110 4WD, MF 8120 2WD, MF 8120 4WD, MF 8130 2WD, MF 8130 4WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 6290 2WD, MF 6290 4WD, MF 6280 2WD, MF 6280 4WD, MF 6270 2WD, MF 6270 4WD, MF 6265 2WD, MF 6265 4WD, MF 6260 2WD, MF 6260 4WD, MF 6255 2WD, MF 6255 4WD, MF 6245 2WD, MF 6245 4WD, MF 6235 2WD, MF 6235 4WD, 6465 Dyna-6, 6475 Dyna-6, MF 6480 T3 Agco Power, MF 6465 T2 Perkins, MF 6475 T2 Perkins, MF 6480 T2 Perkins, MF 6445 T2 Agco Power, MF 6455 T2 Perkins, MF 6460 T2 Perkins, MF 6470 T2 Perkins, MF 6470 T3 Agco Power, MF 6460 T3 Agco Power, 6465, MF 6475 T3 Agco Power, MF 6480 T3 Perkins, MF 6445 T3 Perkins, MF 6455 T3 Perkins, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 6612 Dyna-4, MF 6613 Dyna-6, MF 6613 Dyna-4, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-6, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-6, MF 7618 Dyna-6, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, MF 5445, MF 5455, 5460, 5465, MF 5425, MF 5435, MF 5470 T3, MF 5480 T3, MF 5465 T3, MF 5475 T3, MF 5460 SISU, MF 5445 T3, MF 5455 T3, MF 2150 CE, MF 2160 CE, MF 185 SII, MF 190CE, MF 2140 CE, MF 265, MF 375 2WD, MF 375 4WD</t>
+        </is>
+      </c>
+      <c r="D104" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="105" ht="18.75" customHeight="1">
       <c r="A105" s="3" t="inlineStr">
@@ -1926,9 +2274,17 @@
           <t>SN3984</t>
         </is>
       </c>
-      <c r="B105" s="11" t="n"/>
-      <c r="C105" s="11" t="n"/>
-      <c r="D105" s="11" t="n"/>
+      <c r="B105" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C105" s="11" t="inlineStr">
+        <is>
+          <t>RG900, RG1100, RG1300, RG1100B, RG1300B, RG900C, RG1100C, RG1300C, TG8400C, TG9300C, 7460/7660, MT755C, MT455D, MT465D, MT445B, MT455B, MT465B, MT445B-T3, MT455B-T3 Dyna-4, MT465B-T3 Dyna-4, MT555D Dyna-6, MT565D Dyna-6, MT575D Dyna-6, MT585D Dyna-6, MT515D Dyna-4, MT525D Dyna-4, MT525D Dyna-6, MT535D Dyna-6, MT545D Dyna-6, MT525D Dyna-VT, MT535D Dyna-VT, MT545D Dyna-VT, MT575E Dyna-6, MT525E Dyna-4, MT525E Dyna-6, MT545E Dyna-6, MT545B Dyna-6, MT525B Dyna-6, MT555B Dyna-6 T3 CAT, MT565B Dyna-6 T3 CAT, MT575B Dyna-6 T3 CAT, MT525B Dyna-6 T3 CAT, MT545B Dyna-6 T3 CAT, MT595B Dyna-6 T3 SISU, MTS965C, MTS965E, MTS975E, MT955E, MT965E, MT975E, MT945C , MT955C , MT965C , LB34BXD, 2270XD, S67 Super , S77 Super, S68, S78, S88, S96, S97, S98, R65, R66, A66, A76, R76, 9325 Draper Header, 9330 Draper Header, 9335 Draper Header, 9340 Draper Header, 9250 Draper Header, 9255 Draper Header, 700 Grain Header, 4000 Pickup Header, 4200 Pickup Header, 8200 Grain Header, 7200 Grain Header, 7000 Grain Header, MF 9435, MF 2625, MF 4608, MF 4609, MF 4610, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-6, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-6, MF 7618 Dyna-6, MF 7619 Dyna-6, MF 7620 Dyna-6, MF 7622 Dyna-6, MF 7624 Dyna-6, MF 6715 S Dyna-4 T4F, MF 6715 S Dyna-6 T4F, MF 6716 S Dyna-6 T4F, MF 7719 Dyna-6, MF 7720 Dyna-6, MF 7722 Dyna-6, MF 7724 Dyna-6, MF 7726 Dyna-6, MF 7714 S Dyna-4, MF 7714 S Dyna-4 T5, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, MF 5445, MF 5470 T3, MF 5480 T3, MF 5465 T3, MF 5475 T3, MF 5445 T3, MF 5455 T3, MF 2670, MF 2680, MF 4300 Pickup Header, MF 9255, MF 3000, MF 9520, MF 9560 Tier 4 TI, MF 9560 T4F, MF 9245, MF 9565, MF 9895, MF 9695, MF 9795, MF 9250-910 DynaFlex SRA, MF 4200S-13 Pick Up Header, MF 7200-760 Rigid Header, MF 8200-600 Flexible Header, MF 1841, MF 1843 N/S, MF 1837, MF 1835, MF 1839, MF 2170XD, MF 2290, MF 2150, MF 2170, MF 3986, MF 5130 Wheel Rake HD, MF 9146, MF 9125, MF 1363, MF WR 9725, MF WR 9735, MF WR 9430, MF WR 9635</t>
+        </is>
+      </c>
+      <c r="D105" s="11" t="inlineStr"/>
     </row>
     <row r="106" ht="18.75" customHeight="1">
       <c r="A106" s="3" t="inlineStr">
@@ -1936,17 +2292,33 @@
           <t>400252X1</t>
         </is>
       </c>
-      <c r="B106" s="11" t="n"/>
-      <c r="C106" s="11" t="n"/>
-      <c r="D106" s="11" t="n"/>
+      <c r="B106" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C106" s="11" t="inlineStr">
+        <is>
+          <t>RG900, RG1100, RG1300, RG1100B, RG1300B, RG700, RG700B, RG900C, RG1100C, RG1300C, MT835C, MT755C, MTS855C, MTS865C, MTS875C, MTS965C, MT945C , MT955C , MT965C , PTD12 Spoke, S67 Super , S77 Super, R65, R66, R76, MF 3000, MF 9895, MF 4200S-13 Pick Up Header</t>
+        </is>
+      </c>
+      <c r="D106" s="11" t="inlineStr"/>
     </row>
     <row r="107" ht="18.75" customHeight="1">
       <c r="A107" s="4" t="n">
         <v>7770456</v>
       </c>
-      <c r="B107" s="11" t="n"/>
-      <c r="C107" s="11" t="n"/>
-      <c r="D107" s="11" t="n"/>
+      <c r="B107" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C107" s="11" t="inlineStr">
+        <is>
+          <t>990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, MF 9690, MF 9790, MF 9895, MF 3640, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 186CE, MF 187CE, MF 2140 CE, MF 375 2WD, MF 375 4WD, MF 390 2WD</t>
+        </is>
+      </c>
+      <c r="D107" s="11" t="inlineStr"/>
     </row>
     <row r="108" ht="18.75" customHeight="1">
       <c r="A108" s="3" t="inlineStr">
@@ -1954,9 +2326,17 @@
           <t>SN1193</t>
         </is>
       </c>
-      <c r="B108" s="11" t="n"/>
-      <c r="C108" s="11" t="n"/>
-      <c r="D108" s="11" t="n"/>
+      <c r="B108" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C108" s="11" t="inlineStr">
+        <is>
+          <t>RG900, RG1100, RG1300, RG1100C, TG7300C, 7460/7660, LB34BXD, 2270XD, PTD12 Roller, PTD12 Spoke, 9816 VE, 9824 VE, S67 Super , S77 Super, S68, S78, S88, S96, S97, S98, R65, R66, A66, A76, R76, 9250 Draper Header, 5100 Draper Header, 700 Grain Header, 4000 Pickup Header, 4200 Pickup Header, 8200 Grain Header, 7200 Grain Header, 7000 Grain Header, MF 9435, MF 2625, MF 3000, MF 5100, MF 9520, MF 9540 Tier 4 TI, MF 9560 Tier 4 TI, MF 9540 T4F, MF 9560 T4F, MF 9245, MF 9565, MF 9895, MF 9695, MF 9795, MF 9250-910 DynaFlex SRA, MF 4200S-13 Pick Up Header, MF 7200-760 Rigid Header, MF 8200-600 Flexible Header, MF 1843 N/S, MF 1837, MF 1835, MF 1839, MF 2170XD, MF 2290, MF 2150, MF 2170, MF 9146, MF 9125, MF 1359, MF 9226, MF 9295, MF 9296, MF 9190, MF 9192, MF 1363, 9816 VE, 9824 VE</t>
+        </is>
+      </c>
+      <c r="D108" s="11" t="inlineStr"/>
     </row>
     <row r="109" ht="18.75" customHeight="1">
       <c r="A109" s="3" t="inlineStr">
@@ -1964,33 +2344,65 @@
           <t>353691X1</t>
         </is>
       </c>
-      <c r="B109" s="11" t="n"/>
-      <c r="C109" s="11" t="n"/>
-      <c r="D109" s="11" t="n"/>
+      <c r="B109" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C109" s="11" t="inlineStr">
+        <is>
+          <t>PLNTR MOMENTUM 16-30 FT 40', PLNTR MOMENTUM 16-70 FT 40', PLNTR MOMENTUM 16-76 FT 40', PLNTR MOMENTUM 24-20 FT 40', PLNTR MOMENTUM 24-22 FT 40', PLNTR MOMENTUM 32-15 FT 40', PLNTR MOMENTUM 24-30 FT 60', PLNTR MOMENTUM 24-70 FT 60', PLNTR MOMENTUM 24-76 FT 60', PLNTR MOMENTUM 36-20 FT 60', PLNTR MOMENTUM 36-22 FT 60', PLNTR MOMENTUM 48-15 FT 60', 8370P, 8400P, 9300R, 9390R, 9470X, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, Squadra 1290 UD, MF 35, TE20, MF 135, MF 165, MF 175, MF 145, MF 178, MF 155, MF 175S, MF 148, MF 168, MF 188, MF 152, MF 158, MF 185, MF 165 MK3, MF 168 4WD, MF 168F, MF 145 MK3/V, MF 158V, MF 154S 2WD, MF 154S 4WD, MF 174S 2WD, MF 185 4WD, MF 184S 2WD, MF 185S 4WD, MF 174S, MF 154F, MF 174F, MF 184F, MF 194F, MF 194S, MF 164F, MF 164F 4WD, MF 234S, MF 254S 4WD, MF 294 4WD, MF 264, MF 264 4WD, MF 264S 2WD, MF 264S 4WD, MF 550, MF 575, MF 590, MF 560, MF 575 4WD, MF 590 4WD, MF 595, MF 595 4WD, MF 565, MF 592, MF 592 4WD, MF 698, MF 698 4WD, MF 698T, MF 698T 4WD, MF 699, MF 699 4WD, MF 670 4WD, MF 690, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 354F 2WD, MF 354F 4WD, MF 364F 2WD, MF 364F 4WD, MF 374F 2WD, MF 374F 4WD, MF 384F 2WD, MF 384F 4WD, MF 394F 2WD, MF 394F 4WD, MF 354S 2WD, MF 354S 4WD, MF 364S 2WD, MF 364S 4WD, MF 374S 2WD, MF 374S 4WD, MF 384S 2WD, MF 384S 4WD, MF 394S 2WD, MF 394S 4WD, MF 354V 2WD, MF 354V 4WD, MF 364V 2WD, MF 364V 4WD, MF 374V 2WD, MF 374V 4WD, MF 3610 2WD, MF 3610 4WD, MF 3630 2WD, MF 3630 4WD, MF 3650 2WD, MF 3650 4WD, MF 3680 2WD, MF 3680 4WD, MF 3645 2WD, MF 3645 4WD, MF 3655 2WD, MF 3655 4WD, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 3635 2WD, MF 3635 4WD, MF 1200, MF 1250, MF 194 2WD, MF 194 4WD, MF 294 2WD, MF 284S 2WD, MF 284S 4WD, MF 263, MF 263 4WD, MF 333 2WD, MF 353 2WD, MF 353 4WD, MF 363 2WD, MF 363 4WD, MF 373 2WD, MF 373 4WD, MF 383 2WD, MF 383 4WD, MF 393 2WD, MF 393 4WD, MF 353S 2WD, MF 353S 4WD, MF 363S 4WD, MF 373S 2WD, MF 373S 4WD, MF 377 2WD, MF 377 4WD, MF 387 2WD, MF 387 4WD, MF 397 2WD, MF 397 4WD, MF 8170 4WD, MF 8110 2WD, MF 8110 4WD, MF 8120 2WD, MF 8120 4WD, MF 8130 2WD, MF 8130 4WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 4315 2WD, MF 4315 4WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4360 2WD, MF 4360 4WD, MF 4365 2WD, MF 4365 4WD, MF 4370 2WD, MF 4370 4WD, MF 4215 2WD, MF 4215 4WD, MF 4220 2WD, MF 4220 4WD, MF 4225 2WD, MF 4225 4WD, MF 4235 2WD, MF 4235 4WD, MF 4240 2WD, MF 4240 4WD, MF 4245 2WD, MF 4245 4WD, MF 4255 2WD, MF 4255 4WD, MF 4260 2WD, MF 4260 4WD, MF 4265 2WD, MF 4265 4WD, MF 4270 2WD, MF 4270 4WD, MF 6290 2WD, MF 6290 4WD, MF 6280 2WD, MF 6280 4WD, MF 6270 2WD, MF 6270 4WD, MF 6265 2WD, MF 6265 4WD, MF 6260 2WD, MF 6260 4WD, MF 6255 2WD, MF 6255 4WD, MF 6245 2WD, MF 6245 4WD, MF 6235 2WD, MF 6235 4WD, MF 8260 4WD, MF 8250 2WD, MF 8250 4WD, MF 8280 4WD, MF 8270 4WD, MF 8260 2WD, MF 8240 2WD, MF 8240 4WD, MF 8220 2WD, MF 8220 4WD, MF 8210 2WD, MF 8210 4WD, MF 6465 T2 Perkins, MF 6475 T2 Perkins, MF 6480 T2 Perkins, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 5709 S Dyna-4, MF 5709 S Dyna-6, MF 6612 Dyna-4, MF 6613 Dyna-6, MF 6613 Dyna-4, MF 6614 Dyna-VT, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-VT, MF 6615 Dyna-6, MF 6616 Dyna-VT, MF 6616 Dyna-6, MF 5709 SL Dyna-4, MF 5710 SL Dyna-4, MF 5710 SL Dyna-6, MF 5711 SL Dyna-4, MF 5711 SL Dyna-6, MF 5712 SL Dyna-4, MF 5712 SL Dyna-6, MF 5713 SL Dyna-4, MF 5713 SL Dyna-6, MF 6712 S Dyna-4, MF 6713 S Dyna-4, MF 6714 S Dyna-4 T4F, MF 6715 S Dyna-4 T4F, MF 6713 S Dyna-6, MF 6713 S Dyna-VT, MF 6714 S Dyna-6, MF 6714 S Dyna-VT, MF 6715 S Dyna-6 T4F, MF 6715 S Dyna-VT, MF 6716 S Dyna-6 T4F, MF 6716 S Dyna-VT T4F, MF 6718 S Dyna-6, MF 6718 S Dyna-VT, MF 6714 S Dyna-6 T4F, MF 6714 S Dyna-VT T4F, MF 7719 Dyna-6, MF 7715 DYNA-4, MF 7716 Dyna-6, MF 7714 Dyna-4, MF 7715 Dyna-4, MF 7726 Dyna-VT, MF6713 S Dyna-6 T5, MF 6713 S Dyna-VT T5, MF 6714 S Dyna-6 T5, MF 6714 S Dyna-VT T5, MF 6715 S Dyna-6 T5, MF 6715 S Dyna-VT T5, MF 6716 S Dyna-6 T5, MF 6716 S Dyna-VT T5, MF 6718 S Dyna-6 T5, MF 6718 S Dyna-VT T5, MF 7714 S Dyna-4, MF 7719 S Dyna-VT T5, MF 7714 S Dyna-4 T5, MF 7715 S Dyna-VT T5, MF 7715 S Dyna-6 T5, MF 7716 S Dyna-VT T5, MF 7716 S Dyna-6 T5, MF 7718 S Dyna-VT T5, MF 7718 S Dyna-6 T5, MF 5450 T3, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 186CE, MF 187CE, MF 2140 CE, MF1547, MF 245, MF 265, MF 285, MF 235, MF 255, MF 260, MF 275 4WD, MF 275 2WD, MF 298 2WD, MF 298 4WD, MF 290 2WD, MF 298, MF 290 4WD, MF 250, MF 230, MF 270, MF8727, MF 350 2WD, MF 350 4WD, MF 375 2WD, MF 375 4WD, MF 390 2WD, MF 390 4WD, MF 398 2WD, MF 398 4WD, MF 399 2WD, MF 399 4WD, MF 360 2WD, MF 360 4WD, MF 365 2WD, MF 365 4WD, MF 355 2WD, MF 355 4WD, MF 390T 2WD, MF 390T 4WD, MF 362 2WD, MF 362 4WD, MF 340 4WD, MF 340 2WD, MF 372 N 2WD, MF 372 N 4WD, MF 382 N 4WD, MF 362 N 2WD, MF 362 N 4WD, MF 342 2WD, MF 352 2WD, MF 7274, MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7272</t>
+        </is>
+      </c>
+      <c r="D109" s="11" t="inlineStr"/>
     </row>
     <row r="110" ht="18.75" customHeight="1">
       <c r="A110" s="4" t="n">
         <v>70912270</v>
       </c>
-      <c r="B110" s="11" t="n"/>
-      <c r="C110" s="11" t="n"/>
-      <c r="D110" s="11" t="n"/>
+      <c r="B110" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C110" s="11" t="inlineStr">
+        <is>
+          <t>1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, MF 135, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 3610 2WD, MF 3610 4WD, MF 3630 2WD, MF 3630 4WD, MF 3650 2WD, MF 3650 4WD, MF 3680 2WD, MF 3680 4WD, MF 3645 2WD, MF 3645 4WD, MF 3655 2WD, MF 3655 4WD, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 3635 2WD, MF 3635 4WD, MF 6150 2WD, MF 6170 2WD, MF 6180 2WD, MF 8170 4WD, MF 8110 2WD, MF 8120 2WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 2170XD, MF 2150 CE, MF 2170CE, MF 185 SII</t>
+        </is>
+      </c>
+      <c r="D110" s="11" t="inlineStr"/>
     </row>
     <row r="111" ht="18.75" customHeight="1">
       <c r="A111" s="4" t="n">
         <v>7703432</v>
       </c>
-      <c r="B111" s="11" t="n"/>
-      <c r="C111" s="11" t="n"/>
-      <c r="D111" s="11" t="n"/>
+      <c r="B111" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C111" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, MF 550, MF 575, MF 560, MF 575 4WD, MF 590 4WD, MF 565, MF 2640/2645 4WD, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 3640, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 186CE, MF 187CE, MF 2140 CE</t>
+        </is>
+      </c>
+      <c r="D111" s="11" t="inlineStr"/>
     </row>
     <row r="112" ht="18.75" customHeight="1">
       <c r="A112" s="4" t="n">
         <v>70920468</v>
       </c>
-      <c r="B112" s="11" t="n"/>
-      <c r="C112" s="11" t="n"/>
-      <c r="D112" s="11" t="n"/>
+      <c r="B112" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C112" s="11" t="inlineStr">
+        <is>
+          <t>MF 158</t>
+        </is>
+      </c>
+      <c r="D112" s="11" t="inlineStr"/>
     </row>
     <row r="113" ht="18.75" customHeight="1">
       <c r="A113" s="3" t="inlineStr">
@@ -1998,9 +2410,17 @@
           <t>360513X1</t>
         </is>
       </c>
-      <c r="B113" s="11" t="n"/>
-      <c r="C113" s="11" t="n"/>
-      <c r="D113" s="11" t="n"/>
+      <c r="B113" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C113" s="11" t="inlineStr">
+        <is>
+          <t>990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, MF 9690, MF 9790, MF 9895, MF 3640, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 186CE, MF 187CE, MF 2140 CE, MF 375 2WD, MF 375 4WD, MF 390 2WD</t>
+        </is>
+      </c>
+      <c r="D113" s="11" t="inlineStr"/>
     </row>
     <row r="114" ht="18.75" customHeight="1">
       <c r="A114" s="3" t="inlineStr">
@@ -2008,9 +2428,17 @@
           <t>SN175</t>
         </is>
       </c>
-      <c r="B114" s="11" t="n"/>
-      <c r="C114" s="11" t="n"/>
-      <c r="D114" s="11" t="n"/>
+      <c r="B114" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C114" s="11" t="inlineStr">
+        <is>
+          <t>RG900, RG1100, RG1300, RG1100C, TG7300C, TG8400C, TG9300C, 7460/7660, MT755C, MTS965C, MTS965E, MTS975E, MT955E, MT965E, MT975E, MT945C , MT955C , MT965C , LB34BXD, 2270XD, 9816 VE, 9824 VE, S67 Super , S77 Super, S68, S78, S88, S96, S97, S98, R65, R66, A66, A76, R76, 9325 Draper Header, 9330 Draper Header, 9335 Draper Header, 9340 Draper Header, 9250 Draper Header, 5100 Draper Header, 9255 Draper Header, 4000 Pickup Header, 4200 Pickup Header, 8200 Grain Header, 7200 Grain Header, MF 9435, MF 2625, MF 2604H, MF 2605H, MF 2606H, MF 2607H, MF 5465 Dyna-4, MF 5450 T3, MF 2670, MF 2680, MF 9255, MF 3000, MF 5100, MF 9520, MF 9540 Tier 4 TI, MF 9560 Tier 4 TI, MF 9540 T4F, MF 9560 T4F, MF 9245, MF 9565, MF 9895, MF 9695, MF 9795, MF 9250-910 DynaFlex SRA, MF 4200S-13 Pick Up Header, MF 7200-760 Rigid Header, MF 8200-600 Flexible Header, MF 1841, MF 2170XD, MF 2290, MF 2150, MF 2170, MF 3986, MF 9146, MF 9125, MF 9226, MF 9295, MF 9296, MF 1363, MF WR 9430, MF WR 9635, 9816 VE, 9824 VE</t>
+        </is>
+      </c>
+      <c r="D114" s="11" t="inlineStr"/>
     </row>
     <row r="115" ht="18.75" customHeight="1">
       <c r="A115" s="3" t="inlineStr">
@@ -2018,9 +2446,17 @@
           <t>AG550779</t>
         </is>
       </c>
-      <c r="B115" s="11" t="n"/>
-      <c r="C115" s="11" t="n"/>
-      <c r="D115" s="11" t="n"/>
+      <c r="B115" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C115" s="11" t="inlineStr">
+        <is>
+          <t>PLNTR MOMENTUM 16-30 FT 40', PLNTR MOMENTUM 16-70 FT 40', PLNTR MOMENTUM 16-76 FT 40', PLNTR MOMENTUM 24-20 FT 40', PLNTR MOMENTUM 24-22 FT 40', PLNTR MOMENTUM 32-15 FT 40', PLNTR MOMENTUM 24-30 FT 60', PLNTR MOMENTUM 24-70 FT 60', PLNTR MOMENTUM 24-76 FT 60', PLNTR MOMENTUM 36-20 FT 60', PLNTR MOMENTUM 36-22 FT 60', PLNTR MOMENTUM 48-15 FT 60', 9300R, 9390R, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, MF 135, MF 165, MF 175, MF 178, MF 148, MF 168, MF 188, MF 152, MF 158, MF 168 4WD, MF 168F, MF 145 MK3/V, MF 158V, MF 550, MF 575, MF 590, MF 560, MF 575 4WD, MF 590 4WD, MF 595, MF 595 4WD, MF 565, MF 592, MF 592 4WD, MF 698, MF 698 4WD, MF 698T, MF 698T 4WD, MF 699, MF 699 4WD, MF 670 4WD, MF 690, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 394S 2WD, MF 3610 2WD, MF 3610 4WD, MF 3630 2WD, MF 3630 4WD, MF 3650 2WD, MF 3650 4WD, MF 3680 2WD, MF 3680 4WD, MF 3645 2WD, MF 3645 4WD, MF 3655 2WD, MF 3655 4WD, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 3635 2WD, MF 3635 4WD, MF 1200, MF 1250, MF 8170 4WD, MF 8110 2WD, MF 8110 4WD, MF 8120 2WD, MF 8120 4WD, MF 8130 2WD, MF 8130 4WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 4315 2WD, MF 4315 4WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4360 2WD, MF 4360 4WD, MF 4365 2WD, MF 4365 4WD, MF 4370 2WD, MF 4370 4WD, MF 4215 2WD, MF 4215 4WD, MF 4220 2WD, MF 4220 4WD, MF 4225 2WD, MF 4225 4WD, MF 4235 2WD, MF 4235 4WD, MF 4240 2WD, MF 4240 4WD, MF 4245 2WD, MF 4245 4WD, MF 4255 2WD, MF 4255 4WD, MF 4260 2WD, MF 4260 4WD, MF 4265 2WD, MF 4265 4WD, MF 4270 2WD, MF 4270 4WD, MF 8250 2WD, MF 8250 4WD, MF 8240 2WD, MF 8240 4WD, MF 8220 2WD, MF 8220 4WD, MF 8210 2WD, MF 8210 4WD, MF 6497 T2 Agco Power, MF 6499 T2 Agco Power, MF 6490 T2 Agco Power, MF 6495 T2 Agco Power, MF 6485 T2 Agco Power, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 5465 Dyna-4, MF 5450 T3, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 186CE, MF 187CE, MF 245, MF 265, MF 285, MF 235, MF 255, MF 260, MF 275 2WD, MF 298 2WD, MF 298 4WD, MF 290 2WD, MF 298, MF 290 4WD, MF 250, MF 230, MF 270, MF 350 2WD, MF 350 4WD, MF 375 2WD, MF 375 4WD, MF 390 2WD, MF 390 4WD, MF 398 2WD, MF 398 4WD, MF 399 2WD, MF 399 4WD, MF 360 2WD, MF 360 4WD, MF 365 2WD, MF 365 4WD, MF 355 2WD, MF 355 4WD, MF 390T 2WD, MF 390T 4WD, MF 362 2WD, MF 362 4WD, MF 340 4WD, MF 340 2WD, MF 372 N 4WD, MF 382 N 4WD, MF 362 N 2WD, MF 362 N 4WD, MF 342 2WD, MF 352 2WD</t>
+        </is>
+      </c>
+      <c r="D115" s="11" t="inlineStr"/>
     </row>
     <row r="116" ht="18.75" customHeight="1">
       <c r="A116" s="3" t="inlineStr">
@@ -2028,9 +2464,17 @@
           <t>354269X1</t>
         </is>
       </c>
-      <c r="B116" s="11" t="n"/>
-      <c r="C116" s="11" t="n"/>
-      <c r="D116" s="11" t="n"/>
+      <c r="B116" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C116" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, MF 35, TE20, MF 175, MF 178, MF 168, MF 188, MF 152, MF 158, MF 168 4WD, MF 168F, MF 158V, MF 174S 2WD, MF 185 4WD, MF 184S 2WD, MF 185S 4WD, MF 194C, MF 174S, MF 174F, MF 184F, MF 194F, MF 194S, MF 174V 4WD, MF 274C, MF 294 4WD, MF 284, MF 284 4WD, MF 274, MF 274 4WD, MF 575, MF 560, MF 575 4WD, MF 590 4WD, MF 595, MF 595 4WD, MF 565, MF 592, MF 592 4WD, MF 698T, MF 698T 4WD, MF 670 4WD, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 3425, MF 3435, MF 3445, MF 3455, MF 354F 2WD, MF 354F 4WD, MF 374F 2WD, MF 374F 4WD, MF 384F 2WD, MF 384F 4WD, MF 394F 2WD, MF 394F 4WD, MF 374S 2WD, MF 374S 4WD, MF 384S 2WD, MF 384S 4WD, MF 394S 2WD, MF 394S 4WD, MF 374V 2WD, MF 374V 4WD, MF 3435C, MF 3445C, MF 3455C, MF 3425C, MF 3050 2WD, MF 3050 4WD, MF 3060 2WD, MF 3060 4WD, MF 3070 2WD, MF 3070 4WD, MF 3065 2WD, MF 3065 4WD, MF 1200, MF 1250, MF 184, MF 174, MF 194 2WD, MF 194 4WD, MF 294C, MF 294 2WD, MF 284S 2WD, MF 284S 4WD, MF 353 4WD, MF 363 4WD, MF 373 2WD, MF 373 4WD, MF 383 2WD, MF 383 4WD, MF 393 2WD, MF 393 4WD, MF 373S 2WD, MF 373S 4WD, MF 377 2WD, MF 377 4WD, MF 387 2WD, MF 387 4WD, MF 397 2WD, MF 397 4WD, MF 9690, MF 9790, MF 9695, MF 9795, MF 3640, MF 2225, MF 2235, MF 2230, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 186CE, MF 187CE, MF 2140 CE, MF 265, MF 285, MF 255, MF 260, MF 275 2WD, MF 290 2WD, MF 290 4WD, MF 270, MF 375 2WD, MF 375 4WD, MF 390 2WD, MF 390 4WD, MF 398 2WD, MF 398 4WD, MF 365 2WD, MF 365 4WD, MF 390T 2WD, MF 390T 4WD, MF 362 2WD, MF 362 4WD, MF 372 N 2WD, MF 372 N 4WD, MF 382 N 4WD, MF 362 N 2WD, MF 362 N 4WD</t>
+        </is>
+      </c>
+      <c r="D116" s="11" t="inlineStr"/>
     </row>
     <row r="117" ht="18.75" customHeight="1">
       <c r="A117" s="3" t="inlineStr">
@@ -2038,9 +2482,13 @@
           <t>SN6514</t>
         </is>
       </c>
-      <c r="B117" s="11" t="n"/>
-      <c r="C117" s="11" t="n"/>
-      <c r="D117" s="11" t="n"/>
+      <c r="B117" s="11" t="inlineStr"/>
+      <c r="C117" s="11" t="inlineStr"/>
+      <c r="D117" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="118" ht="18.75" customHeight="1">
       <c r="A118" s="3" t="inlineStr">
@@ -2048,9 +2496,17 @@
           <t>364955X1</t>
         </is>
       </c>
-      <c r="B118" s="11" t="n"/>
-      <c r="C118" s="11" t="n"/>
-      <c r="D118" s="11" t="n"/>
+      <c r="B118" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C118" s="11" t="inlineStr">
+        <is>
+          <t>9300R, MF 9790, MF 9895, MF 9695, MF 9795</t>
+        </is>
+      </c>
+      <c r="D118" s="11" t="inlineStr"/>
     </row>
     <row r="119" ht="18.75" customHeight="1">
       <c r="A119" s="3" t="inlineStr">
@@ -2058,41 +2514,81 @@
           <t>SN1817</t>
         </is>
       </c>
-      <c r="B119" s="11" t="n"/>
-      <c r="C119" s="11" t="n"/>
-      <c r="D119" s="11" t="n"/>
+      <c r="B119" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C119" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, MF 35, TE20, MF 152, MF 158, MF 168F, MF 158V, MF 294 4WD, MF 560, MF 595, MF 595 4WD, MF 565, MF 592, MF 592 4WD, MF 670 4WD, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 9690, MF 9790, MF 9695, MF 9795, MF 3640, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 186CE, MF 187CE, MF 2140 CE, MF 265, MF 255, MF 260, MF 275 2WD, MF 290 2WD, MF 270, MF 375 2WD, MF 375 4WD</t>
+        </is>
+      </c>
+      <c r="D119" s="11" t="inlineStr"/>
     </row>
     <row r="120" ht="18.75" customHeight="1">
       <c r="A120" s="4" t="n">
         <v>71335690</v>
       </c>
-      <c r="B120" s="11" t="n"/>
-      <c r="C120" s="11" t="n"/>
-      <c r="D120" s="11" t="n"/>
+      <c r="B120" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C120" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, Squadra 1290 UD, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 2140 CE</t>
+        </is>
+      </c>
+      <c r="D120" s="11" t="inlineStr"/>
     </row>
     <row r="121" ht="18.75" customHeight="1">
       <c r="A121" s="4" t="n">
         <v>70918249</v>
       </c>
-      <c r="B121" s="11" t="n"/>
-      <c r="C121" s="11" t="n"/>
-      <c r="D121" s="11" t="n"/>
+      <c r="B121" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C121" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 190CE, MF 186CE, MF 187CE</t>
+        </is>
+      </c>
+      <c r="D121" s="11" t="inlineStr"/>
     </row>
     <row r="122" ht="18.75" customHeight="1">
       <c r="A122" s="4" t="n">
         <v>70921160</v>
       </c>
-      <c r="B122" s="11" t="n"/>
-      <c r="C122" s="11" t="n"/>
-      <c r="D122" s="11" t="n"/>
+      <c r="B122" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C122" s="11" t="inlineStr">
+        <is>
+          <t>990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, MF 550, MF 575, MF 560, MF 575 4WD, MF 590 4WD, MF 595, MF 595 4WD, MF 565, MF 592, MF 592 4WD, MF 698, MF 698 4WD, MF 698T, MF 698T 4WD, MF 699, MF 699 4WD, MF 670 4WD, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 394S 2WD, MF 184, MF 4315 2WD, MF 4315 4WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4360 2WD, MF 4360 4WD, MF 4365 2WD, MF 4365 4WD, MF 4370 2WD, MF 4370 4WD, MF 4215 2WD, MF 4215 4WD, MF 4220 2WD, MF 4220 4WD, MF 4225 2WD, MF 4225 4WD, MF 4235 2WD, MF 4235 4WD, MF 4240 2WD, MF 4240 4WD, MF 4245 2WD, MF 4245 4WD, MF 4255 2WD, MF 4255 4WD, MF 4260 2WD, MF 4260 4WD, MF 4265 2WD, MF 4265 4WD, MF 4270 2WD, MF 4270 4WD, MF 8250 4WD, MF 9690, MF 9790, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 186CE, MF 187CE, MF 2140 CE, MF 265, MF 298 2WD, MF 298 4WD, MF 298, MF 290 4WD, MF 350 2WD, MF 350 4WD, MF 375 2WD, MF 375 4WD, MF 390 2WD, MF 390 4WD, MF 398 2WD, MF 398 4WD, MF 399 2WD, MF 399 4WD, MF 360 2WD, MF 360 4WD, MF 365 2WD, MF 365 4WD, MF 355 2WD, MF 355 4WD, MF 390T 2WD, MF 390T 4WD, MF 362 2WD, MF 362 4WD, MF 340 4WD, MF 340 2WD, MF 372 N 4WD, MF 382 N 4WD, MF 362 N 2WD, MF 362 N 4WD, MF 342 2WD, MF 352 2WD</t>
+        </is>
+      </c>
+      <c r="D122" s="11" t="inlineStr"/>
     </row>
     <row r="123" ht="18.75" customHeight="1">
       <c r="A123" s="4" t="n">
         <v>70906852</v>
       </c>
-      <c r="B123" s="11" t="n"/>
-      <c r="C123" s="11" t="n"/>
-      <c r="D123" s="11" t="n"/>
+      <c r="B123" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C123" s="11" t="inlineStr">
+        <is>
+          <t>9300R, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795</t>
+        </is>
+      </c>
+      <c r="D123" s="11" t="inlineStr"/>
     </row>
     <row r="124" ht="18.75" customHeight="1">
       <c r="A124" s="3" t="inlineStr">
@@ -2100,9 +2596,17 @@
           <t>354613X1</t>
         </is>
       </c>
-      <c r="B124" s="11" t="n"/>
-      <c r="C124" s="11" t="n"/>
-      <c r="D124" s="11" t="n"/>
+      <c r="B124" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C124" s="11" t="inlineStr">
+        <is>
+          <t>990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, MF 550, MF 575, MF 560, MF 575 4WD, MF 590 4WD, MF 595, MF 595 4WD, MF 565, MF 592, MF 592 4WD, MF 698, MF 698 4WD, MF 698T, MF 698T 4WD, MF 699, MF 699 4WD, MF 670 4WD, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 394S 2WD, MF 184, MF 4315 2WD, MF 4315 4WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4360 2WD, MF 4360 4WD, MF 4365 2WD, MF 4365 4WD, MF 4370 2WD, MF 4370 4WD, MF 4215 2WD, MF 4215 4WD, MF 4220 2WD, MF 4220 4WD, MF 4225 2WD, MF 4225 4WD, MF 4235 2WD, MF 4235 4WD, MF 4240 2WD, MF 4240 4WD, MF 4245 2WD, MF 4245 4WD, MF 4255 2WD, MF 4255 4WD, MF 4260 2WD, MF 4260 4WD, MF 4265 2WD, MF 4265 4WD, MF 4270 2WD, MF 4270 4WD, MF 8250 4WD, MF 9690, MF 9790, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 186CE, MF 187CE, MF 2140 CE, MF 265, MF 298 2WD, MF 298 4WD, MF 298, MF 290 4WD, MF 350 2WD, MF 350 4WD, MF 375 2WD, MF 375 4WD, MF 390 2WD, MF 390 4WD, MF 398 2WD, MF 398 4WD, MF 399 2WD, MF 399 4WD, MF 360 2WD, MF 360 4WD, MF 365 2WD, MF 365 4WD, MF 355 2WD, MF 355 4WD, MF 390T 2WD, MF 390T 4WD, MF 362 2WD, MF 362 4WD, MF 340 4WD, MF 340 2WD, MF 372 N 4WD, MF 382 N 4WD, MF 362 N 2WD, MF 362 N 4WD, MF 342 2WD, MF 352 2WD</t>
+        </is>
+      </c>
+      <c r="D124" s="11" t="inlineStr"/>
     </row>
     <row r="125" ht="18.75" customHeight="1">
       <c r="A125" s="3" t="inlineStr">
@@ -2110,9 +2614,17 @@
           <t>13448AF</t>
         </is>
       </c>
-      <c r="B125" s="11" t="n"/>
-      <c r="C125" s="11" t="n"/>
-      <c r="D125" s="11" t="n"/>
+      <c r="B125" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C125" s="11" t="inlineStr">
+        <is>
+          <t>FAVORIT 11S, FAVORIT 12A, FAVORIT 612SL, FAVORIT 610 LS, FAVORIT 611 LS, FAVORIT 614 LSA, FAVORIT 615 LSA, 9300R, 9390R, MF 35, MF 135, MF 165, MF 175, MF 145, MF 178, MF 148, MF 168, MF 188, MF 254S 4WD, MF 264, MF 264 4WD, MF 550, MF 560, MF 595, MF 595 4WD, MF 565, MF 592, MF 592 4WD, MF 698, MF 698 4WD, MF 698T, MF 698T 4WD, MF 699, MF 699 4WD, MF 670 4WD, MF 690, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 394S 2WD, MF 3610 2WD, MF 3610 4WD, MF 3630 2WD, MF 3630 4WD, MF 3650 2WD, MF 3650 4WD, MF 3680 2WD, MF 3680 4WD, MF 3645 2WD, MF 3645 4WD, MF 3655 2WD, MF 3655 4WD, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 3635 2WD, MF 3635 4WD, MF 1200, MF 1250, MF 6110 2WD, MF 6150 2WD, MF 6170 2WD, MF 6180 2WD, MF 8170 4WD, MF 8110 2WD, MF 8110 4WD, MF 8120 2WD, MF 8120 4WD, MF 8130 2WD, MF 8130 4WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 4315 2WD, MF 4315 4WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4360 2WD, MF 4360 4WD, MF 4365 2WD, MF 4365 4WD, MF 4370 2WD, MF 4370 4WD, MF 4215 2WD, MF 4215 4WD, MF 4220 2WD, MF 4220 4WD, MF 4225 2WD, MF 4225 4WD, MF 4235 2WD, MF 4235 4WD, MF 4240 2WD, MF 4240 4WD, MF 4245 2WD, MF 4245 4WD, MF 4255 2WD, MF 4255 4WD, MF 4260 2WD, MF 4260 4WD, MF 4265 2WD, MF 4265 4WD, MF 4270 2WD, MF 4270 4WD, MF 8250 4WD, MF 8280 4WD, MF 8270 4WD, MF 8260 2WD, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 5410 T3, MF 245, MF 265, MF 285, MF 235, MF 255, MF 260, MF 275 2WD, MF 298 2WD, MF 298 4WD, MF 290 2WD, MF 298, MF 290 4WD, MF 250, MF 230, MF 270, MF 350 2WD, MF 350 4WD, MF 375 2WD, MF 375 4WD, MF 390 2WD, MF 390 4WD, MF 398 2WD, MF 398 4WD, MF 399 2WD, MF 399 4WD, MF 360 2WD, MF 360 4WD, MF 365 2WD, MF 365 4WD, MF 355 2WD, MF 355 4WD, MF 390T 2WD, MF 390T 4WD, MF 362 2WD, MF 362 4WD, MF 340 4WD, MF 372 N 2WD, MF 372 N 4WD, MF 382 N 4WD, MF 362 N 2WD, MF 362 N 4WD, MF 342 2WD, MF 352 2WD</t>
+        </is>
+      </c>
+      <c r="D125" s="11" t="inlineStr"/>
     </row>
     <row r="126" ht="18.75" customHeight="1">
       <c r="A126" s="3" t="inlineStr">
@@ -2120,9 +2632,9 @@
           <t>N852087</t>
         </is>
       </c>
-      <c r="B126" s="11" t="n"/>
-      <c r="C126" s="11" t="n"/>
-      <c r="D126" s="11" t="n"/>
+      <c r="B126" s="11" t="inlineStr"/>
+      <c r="C126" s="11" t="inlineStr"/>
+      <c r="D126" s="11" t="inlineStr"/>
     </row>
     <row r="127" ht="18.75" customHeight="1">
       <c r="A127" s="3" t="inlineStr">
@@ -2130,9 +2642,17 @@
           <t>40692PF</t>
         </is>
       </c>
-      <c r="B127" s="11" t="n"/>
-      <c r="C127" s="11" t="n"/>
-      <c r="D127" s="11" t="n"/>
+      <c r="B127" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C127" s="11" t="inlineStr">
+        <is>
+          <t>FAVORIT 11S, FAVORIT 12A, FAVORIT 612SL, FAVORIT 610 LS, FAVORIT 611 LS, FAVORIT 614 LSA, FAVORIT 615 LSA, 9300R, 9390R, MF 35, MF 135, MF 165, MF 175, MF 145, MF 178, MF 148, MF 168, MF 188, MF 254S 4WD, MF 264, MF 264 4WD, MF 550, MF 560, MF 595, MF 595 4WD, MF 565, MF 592, MF 592 4WD, MF 698, MF 698 4WD, MF 698T, MF 698T 4WD, MF 699, MF 699 4WD, MF 670 4WD, MF 690, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 394S 2WD, MF 3610 2WD, MF 3610 4WD, MF 3630 2WD, MF 3630 4WD, MF 3650 2WD, MF 3650 4WD, MF 3680 2WD, MF 3680 4WD, MF 3645 2WD, MF 3645 4WD, MF 3655 2WD, MF 3655 4WD, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 3635 2WD, MF 3635 4WD, MF 1200, MF 1250, MF 6110 2WD, MF 6150 2WD, MF 6170 2WD, MF 6180 2WD, MF 8170 4WD, MF 8110 2WD, MF 8110 4WD, MF 8120 2WD, MF 8120 4WD, MF 8130 2WD, MF 8130 4WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 4315 2WD, MF 4315 4WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4360 2WD, MF 4360 4WD, MF 4365 2WD, MF 4365 4WD, MF 4370 2WD, MF 4370 4WD, MF 4215 2WD, MF 4215 4WD, MF 4220 2WD, MF 4220 4WD, MF 4225 2WD, MF 4225 4WD, MF 4235 2WD, MF 4235 4WD, MF 4240 2WD, MF 4240 4WD, MF 4245 2WD, MF 4245 4WD, MF 4255 2WD, MF 4255 4WD, MF 4260 2WD, MF 4260 4WD, MF 4265 2WD, MF 4265 4WD, MF 4270 2WD, MF 4270 4WD, MF 8250 4WD, MF 8280 4WD, MF 8270 4WD, MF 8260 2WD, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 5410 T3, MF 245, MF 265, MF 285, MF 235, MF 255, MF 260, MF 275 2WD, MF 298 2WD, MF 298 4WD, MF 290 2WD, MF 298, MF 290 4WD, MF 250, MF 230, MF 270, MF 350 2WD, MF 350 4WD, MF 375 2WD, MF 375 4WD, MF 390 2WD, MF 390 4WD, MF 398 2WD, MF 398 4WD, MF 399 2WD, MF 399 4WD, MF 360 2WD, MF 360 4WD, MF 365 2WD, MF 365 4WD, MF 355 2WD, MF 355 4WD, MF 390T 2WD, MF 390T 4WD, MF 362 2WD, MF 362 4WD, MF 340 4WD, MF 372 N 2WD, MF 372 N 4WD, MF 382 N 4WD, MF 362 N 2WD, MF 362 N 4WD, MF 342 2WD, MF 352 2WD</t>
+        </is>
+      </c>
+      <c r="D127" s="11" t="inlineStr"/>
     </row>
     <row r="128" ht="18.75" customHeight="1">
       <c r="A128" s="3" t="inlineStr">
@@ -2140,9 +2660,17 @@
           <t>SN1723</t>
         </is>
       </c>
-      <c r="B128" s="11" t="n"/>
-      <c r="C128" s="11" t="n"/>
-      <c r="D128" s="11" t="n"/>
+      <c r="B128" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C128" s="11" t="inlineStr">
+        <is>
+          <t>LB34BXD, PTD12 Roller, S67 Super , S77 Super, S68, S78, S88, S96, S97, S98, R65, R66, 5100 Draper Header, 700 Grain Header, MF 2625, MF 5100, MF 1841, MF 1843 N/S, MF 1837, MF 1835, MF 1839, MF 2170XD, MF 2150, MF 2170, MF 1359, MF 1363</t>
+        </is>
+      </c>
+      <c r="D128" s="11" t="inlineStr"/>
     </row>
     <row r="129" ht="18.75" customHeight="1">
       <c r="A129" s="3" t="inlineStr">
@@ -2150,9 +2678,17 @@
           <t>40699PF</t>
         </is>
       </c>
-      <c r="B129" s="11" t="n"/>
-      <c r="C129" s="11" t="n"/>
-      <c r="D129" s="11" t="n"/>
+      <c r="B129" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C129" s="11" t="inlineStr">
+        <is>
+          <t>8380P, 8410P, 9300R, 9390R, 9490X, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, MF 165, MF 155, MF 698, MF 698 4WD, MF 698T, MF 698T 4WD, MF 699, MF 699 4WD, MF 670 4WD, MF 690, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 184, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 5450 T3, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 186CE, MF 187CE, MF 2140 CE, MF 298 2WD, MF 375 4WD, MF 7382 (04/15 - 03/17), MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF7380, MF7380AL, MF7382, MF9380</t>
+        </is>
+      </c>
+      <c r="D129" s="11" t="inlineStr"/>
     </row>
     <row r="130" ht="18.75" customHeight="1">
       <c r="A130" s="3" t="inlineStr">
@@ -2160,9 +2696,17 @@
           <t>AG560870</t>
         </is>
       </c>
-      <c r="B130" s="11" t="n"/>
-      <c r="C130" s="11" t="n"/>
-      <c r="D130" s="11" t="n"/>
+      <c r="B130" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C130" s="11" t="inlineStr">
+        <is>
+          <t>8380P, 8410P, 9300R, 9390R, 9490X, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, MF 165, MF 155, MF 698, MF 698 4WD, MF 698T, MF 698T 4WD, MF 699, MF 699 4WD, MF 670 4WD, MF 690, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 184, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 5450 T3, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 186CE, MF 187CE, MF 2140 CE, MF 298 2WD, MF 375 4WD, MF 7382 (04/15 - 03/17), MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF7380, MF7380AL, MF7382, MF9380</t>
+        </is>
+      </c>
+      <c r="D130" s="11" t="inlineStr"/>
     </row>
     <row r="131" ht="18.75" customHeight="1">
       <c r="A131" s="3" t="inlineStr">
@@ -2170,9 +2714,17 @@
           <t>SN3065</t>
         </is>
       </c>
-      <c r="B131" s="11" t="n"/>
-      <c r="C131" s="11" t="n"/>
-      <c r="D131" s="11" t="n"/>
+      <c r="B131" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C131" s="11" t="inlineStr">
+        <is>
+          <t>RG900, RG1100, RG1300, RG1100C, TG8400C, TG9300C, LB34BXD, 2270XD, S67 Super , S77 Super, S68, S78, S88, S96, S97, S98, R65, R66, A66, A76, MF 2625, MF 2604H, MF 9520, MF 9540 Tier 4 TI, MF 9560 Tier 4 TI, MF 9540 T4F, MF 9560 T4F, MF 9245, MF 9565, MF 9895, MF 9695, MF 9795, MF 2170XD, MF 2290, MF 2150, MF 2170, MF WR 9725, MF WR 9735, MF WR 9430, MF WR 9635, MF WR 9950, MF WR 9960, MF WR 9970, MF WR 9980, MF WR 9840, MF WR 9860, MF WR 9870</t>
+        </is>
+      </c>
+      <c r="D131" s="11" t="inlineStr"/>
     </row>
     <row r="132" ht="18.75" customHeight="1">
       <c r="A132" s="3" t="inlineStr">
@@ -2180,9 +2732,17 @@
           <t>SN2097</t>
         </is>
       </c>
-      <c r="B132" s="11" t="n"/>
-      <c r="C132" s="11" t="n"/>
-      <c r="D132" s="11" t="n"/>
+      <c r="B132" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C132" s="11" t="inlineStr">
+        <is>
+          <t>1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, MF 165, MF 168, MF 188, MF 185, MF 165 MK3, MF 168 4WD, MF 154S 2WD, MF 154S 4WD, MF 154F, MF 154V 2WD, MF 164V, MF 164F, MF 164F 4WD, MF 254S 4WD, MF 264, MF 264 4WD, MF 264S 2WD, MF 264S 4WD, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 354F 2WD, MF 354F 4WD, MF 364F 2WD, MF 364F 4WD, MF 354S 2WD, MF 354S 4WD, MF 364S 2WD, MF 364S 4WD, MF 374S 4WD, MF 354V 2WD, MF 354V 4WD, MF 364V 2WD, MF 364V 4WD, MF 3080 2WD, MF 3080 4WD, MF 3090 2WD, MF 3090 4WD, MF 263, MF 263 4WD, MF 333 2WD, MF 353 2WD, MF 353 4WD, MF 363 2WD, MF 363 4WD, MF 353S 2WD, MF 353S 4WD, MF 363S 4WD, MF 9690, MF 9790, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 2140 CE</t>
+        </is>
+      </c>
+      <c r="D132" s="11" t="inlineStr"/>
     </row>
     <row r="133" ht="18.75" customHeight="1">
       <c r="A133" s="3" t="inlineStr">
@@ -2190,9 +2750,17 @@
           <t>W247166B</t>
         </is>
       </c>
-      <c r="B133" s="11" t="n"/>
-      <c r="C133" s="11" t="n"/>
-      <c r="D133" s="11" t="n"/>
+      <c r="B133" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C133" s="11" t="inlineStr">
+        <is>
+          <t>9816 VE, 9824 VE, 9816 VE, 9824 VE</t>
+        </is>
+      </c>
+      <c r="D133" s="11" t="inlineStr"/>
     </row>
     <row r="134" ht="18.75" customHeight="1">
       <c r="A134" s="3" t="inlineStr">
@@ -2200,9 +2768,17 @@
           <t>353728X1</t>
         </is>
       </c>
-      <c r="B134" s="11" t="n"/>
-      <c r="C134" s="11" t="n"/>
-      <c r="D134" s="11" t="n"/>
+      <c r="B134" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C134" s="11" t="inlineStr">
+        <is>
+          <t>PLNTR MOMENTUM 16-30 FT 40', PLNTR MOMENTUM 16-70 FT 40', PLNTR MOMENTUM 16-76 FT 40', PLNTR MOMENTUM 24-20 FT 40', PLNTR MOMENTUM 24-22 FT 40', PLNTR MOMENTUM 32-15 FT 40', PLNTR MOMENTUM 24-30 FT 60', PLNTR MOMENTUM 24-70 FT 60', PLNTR MOMENTUM 24-76 FT 60', PLNTR MOMENTUM 36-20 FT 60', PLNTR MOMENTUM 36-22 FT 60', PLNTR MOMENTUM 48-15 FT 60', 8370P, 8400P, 9300R, 9390R, 9470X, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, MF 35, MF 135, MF 175, MF 152, MF 168 4WD, MF 168F, MF 185 4WD, MF 154F, MF 174F, MF 184F, MF 194F, MF 194S, MF 164F, MF 164F 4WD, MF 254S 4WD, MF 294 4WD, MF 575, MF 560, MF 575 4WD, MF 590 4WD, MF 595, MF 595 4WD, MF 565, MF 592, MF 592 4WD, MF 698, MF 698 4WD, MF 698T, MF 698T 4WD, MF 699, MF 699 4WD, MF 670 4WD, MF 690, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 3080 2WD, MF 3080 4WD, MF 3090 2WD, MF 3090 4WD, MF 3610 2WD, MF 3610 4WD, MF 3630 2WD, MF 3630 4WD, MF 3650 2WD, MF 3650 4WD, MF 3680 2WD, MF 3680 4WD, MF 3645 2WD, MF 3645 4WD, MF 3655 2WD, MF 3655 4WD, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 3635 2WD, MF 3635 4WD, MF 8170 4WD, MF 8110 2WD, MF 8110 4WD, MF 8120 2WD, MF 8120 4WD, MF 8130 2WD, MF 8130 4WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 8650 T3 / T2, MF 5450 T3, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 186CE, MF 187CE, MF 2140 CE, MF 265, MF 235, MF 255, MF 260, MF 290 2WD, MF 290 4WD, MF 250, MF 270, MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13)</t>
+        </is>
+      </c>
+      <c r="D134" s="11" t="inlineStr"/>
     </row>
     <row r="135" ht="18.75" customHeight="1">
       <c r="A135" s="3" t="inlineStr">
@@ -2210,9 +2786,17 @@
           <t>353729X1</t>
         </is>
       </c>
-      <c r="B135" s="11" t="n"/>
-      <c r="C135" s="11" t="n"/>
-      <c r="D135" s="11" t="n"/>
+      <c r="B135" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C135" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, 1270 (Serial No. JHBxxx001 to JBHxxx999), MF 135, MF 165, MF 175, MF 178, MF 155, MF 148, MF 168, MF 188, MF 152, MF 158, MF 145 MK3/V, MF 158V, MF 550, MF 698, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 3610 2WD, MF 3610 4WD, MF 3630 2WD, MF 3630 4WD, MF 3650 2WD, MF 3650 4WD, MF 3680 2WD, MF 3680 4WD, MF 3645 2WD, MF 3645 4WD, MF 3655 2WD, MF 3655 4WD, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 3635 2WD, MF 3635 4WD, MF 1200, MF 8170 4WD, MF 8110 2WD, MF 8110 4WD, MF 8120 2WD, MF 8120 4WD, MF 8130 2WD, MF 8130 4WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 4315 2WD, MF 4315 4WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4360 2WD, MF 4360 4WD, MF 4365 2WD, MF 4365 4WD, MF 4370 2WD, MF 4370 4WD, MF 4225 2WD, MF 4225 4WD, MF 4235 2WD, MF 4235 4WD, MF 4240 2WD, MF 4240 4WD, MF 4245 2WD, MF 4245 4WD, MF 4255 2WD, MF 4255 4WD, MF 4260 2WD, MF 4260 4WD, MF 4265 2WD, MF 4265 4WD, MF 4270 2WD, MF 4270 4WD, MF 8250 4WD, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 5450 T3, MF 2160 CE, MF 190CE, MF 2140 CE, MF 245, MF 265, MF 235, MF 255, MF 275 2WD, MF 290 2WD, MF 290 4WD, MF 230, MF 375 2WD, MF 375 4WD</t>
+        </is>
+      </c>
+      <c r="D135" s="11" t="inlineStr"/>
     </row>
     <row r="136" ht="18.75" customHeight="1">
       <c r="A136" s="3" t="inlineStr">
@@ -2220,9 +2804,17 @@
           <t>363376x1</t>
         </is>
       </c>
-      <c r="B136" s="11" t="n"/>
-      <c r="C136" s="11" t="n"/>
-      <c r="D136" s="11" t="n"/>
+      <c r="B136" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C136" s="11" t="inlineStr">
+        <is>
+          <t>1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), MF 9540, MF 9560, MF 9690, MF 9790, MF 2170XD, MF 2170CE, MF 185 SII, MF 375 2WD, MF 375 4WD</t>
+        </is>
+      </c>
+      <c r="D136" s="11" t="inlineStr"/>
     </row>
     <row r="137" ht="18.75" customHeight="1">
       <c r="A137" s="3" t="inlineStr">
@@ -2230,25 +2822,49 @@
           <t>353613X1</t>
         </is>
       </c>
-      <c r="B137" s="11" t="n"/>
-      <c r="C137" s="11" t="n"/>
-      <c r="D137" s="11" t="n"/>
+      <c r="B137" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C137" s="11" t="inlineStr">
+        <is>
+          <t>9300R, MF 35, MF 135, MF 165, MF 175, MF 148, MF 168, MF 188, MF 152, MF 158, MF 168F, MF 560, MF 575 4WD, MF 590 4WD, MF 690, MF 1250, MF 4315 2WD, MF 4315 4WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4365 2WD, MF 4365 4WD, MF 4215 2WD, MF 4215 4WD, MF 4220 2WD, MF 4220 4WD, MF 4225 2WD, MF 4225 4WD, MF 4235 2WD, MF 4235 4WD, MF 4240 2WD, MF 4245 2WD, MF 4245 4WD, MF 4255 2WD, MF 4255 4WD, MF 4265 2WD, MF 4265 4WD, MF 9690, MF 9790, MF 9695, MF 9795, MF 265, MF 235, MF 255, MF 260, MF 298 2WD, MF 250, MF 270, MF 350 2WD, MF 350 4WD, MF 375 2WD, MF 375 4WD, MF 390 2WD, MF 390 4WD</t>
+        </is>
+      </c>
+      <c r="D137" s="11" t="inlineStr"/>
     </row>
     <row r="138" ht="18.75" customHeight="1">
       <c r="A138" s="4" t="n">
         <v>71386952</v>
       </c>
-      <c r="B138" s="11" t="n"/>
-      <c r="C138" s="11" t="n"/>
-      <c r="D138" s="11" t="n"/>
+      <c r="B138" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C138" s="11" t="inlineStr">
+        <is>
+          <t>Cutting table PF 12,2m (40'), Cutting table PF 5,5m (18'), Cutting table PF 7,7m (25'), Cutting table PF 9,2m (30'), Cutting table PF 10,7m (35'), Cutting table FF 7,0m, Squadra 1290 UD, MF 9690, MF 3640, MF 7274, MF 7244 (2006-2011), MF 7245 (2006-2011), MF 7246 (2006-2011), MF 7278, MF Beta 7370 PL</t>
+        </is>
+      </c>
+      <c r="D138" s="11" t="inlineStr"/>
     </row>
     <row r="139" ht="18.75" customHeight="1">
       <c r="A139" s="4" t="n">
         <v>71386951</v>
       </c>
-      <c r="B139" s="11" t="n"/>
-      <c r="C139" s="11" t="n"/>
-      <c r="D139" s="11" t="n"/>
+      <c r="B139" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C139" s="11" t="inlineStr">
+        <is>
+          <t>Cutting table PF 12,2m (40'), Cutting table PF 5,5m (18'), Cutting table PF 7,7m (25'), Cutting table PF 9,2m (30'), Cutting table PF 10,7m (35'), Cutting table FF 7,0m, MF 9690, MF 3640, MF 7274, MF 7244 (2006-2011), MF 7245 (2006-2011), MF 7246 (2006-2011), MF 7278, MF Beta 7370 PL</t>
+        </is>
+      </c>
+      <c r="D139" s="11" t="inlineStr"/>
     </row>
     <row r="140" ht="18.75" customHeight="1">
       <c r="A140" s="3" t="inlineStr">
@@ -2256,9 +2872,17 @@
           <t>SN2585</t>
         </is>
       </c>
-      <c r="B140" s="11" t="n"/>
-      <c r="C140" s="11" t="n"/>
-      <c r="D140" s="11" t="n"/>
+      <c r="B140" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C140" s="11" t="inlineStr">
+        <is>
+          <t>MF 9435</t>
+        </is>
+      </c>
+      <c r="D140" s="11" t="inlineStr"/>
     </row>
     <row r="141" ht="18.75" customHeight="1">
       <c r="A141" s="3" t="inlineStr">
@@ -2266,9 +2890,21 @@
           <t>SN6282</t>
         </is>
       </c>
-      <c r="B141" s="11" t="n"/>
-      <c r="C141" s="11" t="n"/>
-      <c r="D141" s="11" t="n"/>
+      <c r="B141" s="11" t="inlineStr">
+        <is>
+          <t>Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C141" s="11" t="inlineStr">
+        <is>
+          <t>TG8400C, R76, MF 9435</t>
+        </is>
+      </c>
+      <c r="D141" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="142" ht="18.75" customHeight="1">
       <c r="A142" s="3" t="inlineStr">
@@ -2276,9 +2912,17 @@
           <t>SN2569</t>
         </is>
       </c>
-      <c r="B142" s="11" t="n"/>
-      <c r="C142" s="11" t="n"/>
-      <c r="D142" s="11" t="n"/>
+      <c r="B142" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C142" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795</t>
+        </is>
+      </c>
+      <c r="D142" s="11" t="inlineStr"/>
     </row>
     <row r="143" ht="18.75" customHeight="1">
       <c r="A143" s="3" t="inlineStr">
@@ -2286,25 +2930,49 @@
           <t>1564540W1</t>
         </is>
       </c>
-      <c r="B143" s="11" t="n"/>
-      <c r="C143" s="11" t="n"/>
-      <c r="D143" s="11" t="n"/>
+      <c r="B143" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C143" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795</t>
+        </is>
+      </c>
+      <c r="D143" s="11" t="inlineStr"/>
     </row>
     <row r="144" ht="18.75" customHeight="1">
       <c r="A144" s="4" t="n">
         <v>70925806</v>
       </c>
-      <c r="B144" s="11" t="n"/>
-      <c r="C144" s="11" t="n"/>
-      <c r="D144" s="11" t="n"/>
+      <c r="B144" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C144" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 8380P, 8410P, 9300R, 9470X, 9490X, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 7382 (04/15 - 03/17), MF 7274, MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7272, MF7380, MF7380AL, MF7382, MF9380</t>
+        </is>
+      </c>
+      <c r="D144" s="11" t="inlineStr"/>
     </row>
     <row r="145" ht="18.75" customHeight="1">
       <c r="A145" s="4" t="n">
         <v>700729503</v>
       </c>
-      <c r="B145" s="11" t="n"/>
-      <c r="C145" s="11" t="n"/>
-      <c r="D145" s="11" t="n"/>
+      <c r="B145" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C145" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 8380P, 8410P, 9300R, 9390R, 9470X, 9490X, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 7382 (04/15 - 03/17), MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF7380, MF7380AL, MF7382, MF9380</t>
+        </is>
+      </c>
+      <c r="D145" s="11" t="inlineStr"/>
     </row>
     <row r="146" ht="18.75" customHeight="1">
       <c r="A146" s="3" t="inlineStr">
@@ -2312,9 +2980,9 @@
           <t>SN3756</t>
         </is>
       </c>
-      <c r="B146" s="11" t="n"/>
-      <c r="C146" s="11" t="n"/>
-      <c r="D146" s="11" t="n"/>
+      <c r="B146" s="11" t="inlineStr"/>
+      <c r="C146" s="11" t="inlineStr"/>
+      <c r="D146" s="11" t="inlineStr"/>
     </row>
     <row r="147" ht="18.75" customHeight="1">
       <c r="A147" s="3" t="inlineStr">
@@ -2322,9 +2990,13 @@
           <t>SN3756OLD</t>
         </is>
       </c>
-      <c r="B147" s="11" t="n"/>
-      <c r="C147" s="11" t="n"/>
-      <c r="D147" s="11" t="n"/>
+      <c r="B147" s="11" t="inlineStr"/>
+      <c r="C147" s="11" t="inlineStr"/>
+      <c r="D147" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="148" ht="18.75" customHeight="1">
       <c r="A148" s="3" t="inlineStr">
@@ -2332,17 +3004,25 @@
           <t>SN3790</t>
         </is>
       </c>
-      <c r="B148" s="11" t="n"/>
-      <c r="C148" s="11" t="n"/>
-      <c r="D148" s="11" t="n"/>
+      <c r="B148" s="11" t="inlineStr"/>
+      <c r="C148" s="11" t="inlineStr"/>
+      <c r="D148" s="11" t="inlineStr"/>
     </row>
     <row r="149" ht="18.75" customHeight="1">
       <c r="A149" s="4" t="n">
         <v>70923240</v>
       </c>
-      <c r="B149" s="11" t="n"/>
-      <c r="C149" s="11" t="n"/>
-      <c r="D149" s="11" t="n"/>
+      <c r="B149" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C149" s="11" t="inlineStr">
+        <is>
+          <t>PLNTR MOMENTUM 16-30 FT 40', PLNTR MOMENTUM 16-70 FT 40', PLNTR MOMENTUM 16-76 FT 40', PLNTR MOMENTUM 24-20 FT 40', PLNTR MOMENTUM 24-22 FT 40', PLNTR MOMENTUM 32-15 FT 40', PLNTR MOMENTUM 24-30 FT 60', PLNTR MOMENTUM 24-70 FT 60', PLNTR MOMENTUM 24-76 FT 60', PLNTR MOMENTUM 36-20 FT 60', PLNTR MOMENTUM 36-22 FT 60', PLNTR MOMENTUM 48-15 FT 60', 8370P, 8400P, 9300R, 9390R, 9470X, 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, MF 698, MF 699, MF 670 4WD, MF 2640/2645 2WD, MF 3630 2WD, MF 3650 2WD, MF 3680 2WD, MF 3645 2WD, MF 3655 2WD, MF 3670 2WD, MF 3690 2WD, MF 6150 2WD, MF 6170 2WD, MF 6180 2WD, MF 8110 2WD, MF 8120 2WD, MF 8140 2WD, MF 8150 2WD, MF 8160 2WD, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 2140 CE, MF 1220 2WD STD, MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13)</t>
+        </is>
+      </c>
+      <c r="D149" s="11" t="inlineStr"/>
     </row>
     <row r="150" ht="18.75" customHeight="1">
       <c r="A150" s="3" t="inlineStr">
@@ -2350,17 +3030,33 @@
           <t>339649X1</t>
         </is>
       </c>
-      <c r="B150" s="11" t="n"/>
-      <c r="C150" s="11" t="n"/>
-      <c r="D150" s="11" t="n"/>
+      <c r="B150" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C150" s="11" t="inlineStr">
+        <is>
+          <t>PLNTR MOMENTUM 16-30 FT 40', PLNTR MOMENTUM 16-70 FT 40', PLNTR MOMENTUM 16-76 FT 40', PLNTR MOMENTUM 24-20 FT 40', PLNTR MOMENTUM 24-22 FT 40', PLNTR MOMENTUM 32-15 FT 40', PLNTR MOMENTUM 24-30 FT 60', PLNTR MOMENTUM 24-70 FT 60', PLNTR MOMENTUM 24-76 FT 60', PLNTR MOMENTUM 36-20 FT 60', PLNTR MOMENTUM 36-22 FT 60', PLNTR MOMENTUM 48-15 FT 60', 6465 Dyna-6, 6475 Dyna-6, MF 6480 T3 Agco Power, MF 6497 T2 Agco Power, MF 6465 T2 Perkins, MF 6475 T2 Perkins, MF 6480 T2 Perkins, MF 6445 T2 Agco Power, MF 6455 T2 Perkins, MF 6460 T2 Perkins, MF 6470 T2 Perkins, MF 6470 T3 Agco Power, MF 6460 T3 Agco Power, 6465, MF 6475 T3 Agco Power, MF 6480 T3 Perkins, MF 6445 T3 Perkins, MF 6455 T3 Perkins, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7465, MF 7475, MF 7480, MF 7485, MF 7490, MF 7495, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 8450 XTRA, MF 8460 XTRA, MF 2210, MF 2220, MF 7619 Dyna-VT, MF 7620 Dyna-VT, MF 7622 Dyna-VT, MF 7624 Dyna-VT, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5445, MF 5455, 5460, 5465, MF 5470 T3, MF 5480 T3, MF 5465 T3, MF 5475 T3, MF 5445 T3, MF 5455 T3</t>
+        </is>
+      </c>
+      <c r="D150" s="11" t="inlineStr"/>
     </row>
     <row r="151" ht="18.75" customHeight="1">
       <c r="A151" s="4" t="n">
         <v>71424153</v>
       </c>
-      <c r="B151" s="11" t="n"/>
-      <c r="C151" s="11" t="n"/>
-      <c r="D151" s="11" t="n"/>
+      <c r="B151" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C151" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, MF 9895, MF 9695, MF 9795</t>
+        </is>
+      </c>
+      <c r="D151" s="11" t="inlineStr"/>
     </row>
     <row r="152" ht="18.75" customHeight="1">
       <c r="A152" s="3" t="inlineStr">
@@ -2368,9 +3064,17 @@
           <t>3009503X1</t>
         </is>
       </c>
-      <c r="B152" s="11" t="n"/>
-      <c r="C152" s="11" t="n"/>
-      <c r="D152" s="11" t="n"/>
+      <c r="B152" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C152" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 8380P, 8410P, 9390R, Cutting table PF 12,2m (40'), Cutting table PF 5,5m (18'), Cutting table PF 7,7m (25'), Cutting table PF 9,2m (30'), Cutting table PF 10,7m (35'), Cutting table FF 7,0m, 9470X, 9490X, Former 3PT Linkage, Former 4r central windr./trans, Slicer 3Pt linkage middle attachment, Slicer Mower combinations middle attachment, Twister with Transport Chassis, MF 698, MF 699, MF 670 4WD, MF 3425, MF 3435, MF 3445, MF 3455, MF 354F 2WD, MF 354F 4WD, MF 364F 2WD, MF 364F 4WD, MF 354S 2WD, MF 354S 4WD, MF 364S 2WD, MF 364S 4WD, MF 364V 2WD, MF 364V 4WD, MF 3445C, MF 3455C, MF 3425C, MF 3075 2WD, MF 3075 4WD, MF 6110 2WD, MF 6110 4WD, MF 6120 2WD, MF 6120 4WD, MF 6130 2WD, MF 6130 4WD, MF 6140 2WD, MF 6140 4WD, MF 6150 2WD, MF 6150 4WD, MF 6290 2WD, MF 6290 4WD, MF 6280 2WD, MF 6280 4WD, MF 6270 2WD, MF 6270 4WD, MF 6265 2WD, MF 6265 4WD, MF 6260 2WD, MF 6260 4WD, MF 6255 2WD, MF 6255 4WD, MF 6245 2WD, MF 6245 4WD, MF 6235 2WD, MF 6235 4WD, 6465 Dyna-6, 6475 Dyna-6, MF 6480 T3 Agco Power, MF 6497 T2 Agco Power, MF 6465 T2 Perkins, MF 6475 T2 Perkins, MF 6480 T2 Perkins, MF 6490 T2 Agco Power, MF 6495 T2 Agco Power, MF 6485 T2 Agco Power, MF 6445 T2 Agco Power, MF 6455 T2 Perkins, MF 6460 T2 Perkins, MF 6470 T2 Perkins, MF 6497 XTRA, MF 6499 XTRA, 6485, MF 6490 T3 Agco Power, MF 6495 T3 Agco Power, MF 6475 T3 Agco Power, MF 6480 T3 Perkins, MF 6497 T3 Agco Power, MF 6499 T3 Agco Power, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7465, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 2225, MF 2235, MF 2430, MF 2435, MF 2440, MF 2210, MF 2220, MF 2230, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 5709 S Dyna-4, MF 5709 S Dyna-6, MF 5611 Dyna-4, MF 5611 Dyna-6, MF 5612 Dyna-4, MF 5612 Dyna-6, MF 5613 Dyna-4, MF 5613 Dyna-6, MF 6612 Dyna-4, MF 6613 Dyna-6, MF 6613 Dyna-4, MF 6614 Dyna-VT, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-VT, MF 6615 Dyna-6, MF 6616 Dyna-VT, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-VT, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-VT, MF 7616 Dyna-6, MF 7618 Dyna-VT, MF 7618 Dyna-6, MF 7619 Dyna-VT, MF 7619 Dyna-6, MF 7620 Dyna-VT, MF 7620 Dyna-6, MF 7622 Dyna-VT, MF 7622 Dyna-6, MF 7624 Dyna-VT, MF 7624 Dyna-6, MF 7626 Dyna-6, MF 5709 SL Dyna-4, MF 5710 SL Dyna-4, MF 5710 SL Dyna-6, MF 5711 SL Dyna-4, MF 5711 SL Dyna-6, MF 5712 SL Dyna-4, MF 5712 SL Dyna-6, MF 5713 SL Dyna-4, MF 5713 SL Dyna-6, MF 6712 S Dyna-4, MF 6713 S Dyna-4, MF 6714 S Dyna-4 T4F, MF 6715 S Dyna-4 T4F, MF 6713 S Dyna-6, MF 6713 S Dyna-VT, MF 6714 S Dyna-6, MF 6714 S Dyna-VT, MF 6715 S Dyna-6 T4F, MF 6715 S Dyna-VT, MF 6716 S Dyna-6 T4F, MF 6716 S Dyna-VT T4F, MF 6718 S Dyna-6, MF 6718 S Dyna-VT, MF 6714 S Dyna-6 T4F, MF 6714 S Dyna-VT T4F, MF 7719 Dyna-6, MF 7715 DYNA-4, MF 7716 Dyna-6, MF 7714 Dyna-4, MF 7715 Dyna-4, MF 7726 Dyna-VT, MF6713 S Dyna-6 T5, MF 6713 S Dyna-VT T5, MF 6714 S Dyna-6 T5, MF 6714 S Dyna-VT T5, MF 6715 S Dyna-6 T5, MF 6715 S Dyna-VT T5, MF 6716 S Dyna-6 T5, MF 6716 S Dyna-VT T5, MF 6718 S Dyna-6 T5, MF 6718 S Dyna-VT T5, MF 7714 S Dyna-4, MF 7719 S Dyna-VT T5, MF 7714 S Dyna-4 T5, MF 7715 S Dyna-VT T5, MF 7715 S Dyna-6 T5, MF 7716 S Dyna-VT T5, MF 7716 S Dyna-6 T5, MF 7718 S Dyna-VT T5, MF 7718 S Dyna-6 T5, MF 8737 S, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 8740 S Dyna-VT, MF 5465 Dyna-4, MF 5475 Dyna-4, 5460, MF 5460 SISU, MF DM 1300, MF RK 3814, MF DM 164-287 Farmer, MF TD 1008-1310 TRC, MF 1533, MF1519, MF1523, MF1528, MF1531, MF 1520, MF 1525, MF 1529, MF 1532, MF 1532H, MF RK 802 TRC, MF8727, MF8730, MF8732, MF8735, MF 8737 MR, MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF 7360 T4F (2018-2021), MF 7360 PL/PLI T4F (2018-2021), MF 7370 T4F (2018-2021), MF 7370 ST5 (2021-9999), MF 7382 (04/15 - 03/17), MF 7274, MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7370 PLI (2017), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7256, MF 7272, MF Beta 7360, MF7380, MF7380AL, MF7382, MF9380, MF Beta 7370 PLI, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, No longer used Refer to 11652, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, No longer used Refer to 11650, No longer used Refer to 11651, T195 (replaced by J3591), T210 (replaced by J3592), T230 (replaced by J3593), T250 (replaced by J3594), A74SH 1C7, A84SH 1C7, A94SH 1C7, A104MH 1C7, A114MH 1C7, A124LH 1C7, A134LH 1C7, A104MH4, A114MH4, N101, S233, S263, S293, S323, S353, S294, S374, S324 SmartTouch MR19, S394 SmartTouch MR19</t>
+        </is>
+      </c>
+      <c r="D152" s="11" t="inlineStr"/>
     </row>
     <row r="153" ht="18.75" customHeight="1">
       <c r="A153" s="3" t="inlineStr">
@@ -2378,9 +3082,9 @@
           <t>N858897</t>
         </is>
       </c>
-      <c r="B153" s="11" t="n"/>
-      <c r="C153" s="11" t="n"/>
-      <c r="D153" s="11" t="n"/>
+      <c r="B153" s="11" t="inlineStr"/>
+      <c r="C153" s="11" t="inlineStr"/>
+      <c r="D153" s="11" t="inlineStr"/>
     </row>
     <row r="154" ht="18.75" customHeight="1">
       <c r="A154" s="3" t="inlineStr">
@@ -2388,17 +3092,33 @@
           <t>3019856X1</t>
         </is>
       </c>
-      <c r="B154" s="11" t="n"/>
-      <c r="C154" s="11" t="n"/>
-      <c r="D154" s="11" t="n"/>
+      <c r="B154" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C154" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 9300R, 9390R, 9470X, MF 2640/2645 4WD, MF 394S 2WD, MF 3050 2WD, MF 3050 4WD, MF 3060 2WD, MF 3060 4WD, MF 3070 2WD, MF 3070 4WD, MF 3080 4WD, MF 3090 2WD, MF 3090 4WD, MF 3095 2WD, MF 3095 4WD, MF 3115 4WD, MF 3125 2WD, MF 3125 4WD, MF 3065 2WD, MF 3065 4WD, MF 3085 2WD, MF 3085 4WD, MF 3120 2WD, MF 3120 4WD, MF 3075 2WD, MF 3075 4WD, MF 3610 4WD, MF 3630 2WD, MF 3630 4WD, MF 3650 2WD, MF 3650 4WD, MF 3680 2WD, MF 3680 4WD, MF 3645 2WD, MF 3645 4WD, MF 3655 2WD, MF 3655 4WD, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 3635 2WD, MF 3635 4WD, MF 353 2WD, MF 353 4WD, MF 363 2WD, MF 363 4WD, MF 373 2WD, MF 373 4WD, MF 383 2WD, MF 383 4WD, MF 393 2WD, MF 393 4WD, MF 363S 4WD, MF 377 2WD, MF 377 4WD, MF 387 2WD, MF 387 4WD, MF 397 2WD, MF 397 4WD, MF 1114 4WD, MF 1134 4WD, MF 6110 4WD, MF 6120 4WD, MF 6130 4WD, MF 6140 4WD, MF 6150 2WD, MF 6150 4WD, MF 6160 4WD, MF 6170 2WD, MF 6170 4WD, MF 6180 2WD, MF 6180 4WD, MF 6190 2WD, MF 6190 4WD, MF 8170 4WD, MF 8110 4WD, MF 8120 2WD, MF 8120 4WD, MF 8130 4WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4360 2WD, MF 4360 4WD, MF 4365 4WD, MF 4370 2WD, MF 4370 4WD, MF 4225 2WD, MF 4225 4WD, MF 4235 2WD, MF 4235 4WD, MF 4240 2WD, MF 4240 4WD, MF 4245 2WD, MF 4245 4WD, MF 4255 2WD, MF 4255 4WD, MF 4260 2WD, MF 4260 4WD, MF 4265 2WD, MF 4265 4WD, MF 4270 2WD, MF 4270 4WD, MF 6290 2WD, MF 6290 4WD, MF 6280 2WD, MF 6280 4WD, MF 6270 2WD, MF 6270 4WD, MF 6265 2WD, MF 6265 4WD, MF 6260 4WD, MF 6255 2WD, MF 6255 4WD, MF 6245 2WD, MF 6245 4WD, MF 6235 2WD, MF 6235 4WD, MF 8260 4WD, MF 8250 2WD, MF 8250 4WD, MF 8260 2WD, MF 8240 2WD, MF 8240 4WD, MF 8220 2WD, MF 8220 4WD, MF 8210 2WD, MF 8210 4WD, MF 6445 T2 Agco Power, MF 6455 T2 Perkins, MF 6460 T2 Perkins, MF 6470 T2 Perkins, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 5445, MF 5455, 5460, MF 5425, MF 5435, MF 5460 SISU, MF 5445 T3, MF 5455 T3, MF 350 2WD, MF 350 4WD, MF 375 2WD, MF 375 4WD, MF 390 2WD, MF 390 4WD, MF 398 2WD, MF 398 4WD, MF 399 2WD, MF 399 4WD, MF 360 2WD, MF 360 4WD, MF 365 2WD, MF 365 4WD, MF 355 4WD, MF 390T 2WD, MF 390T 4WD, MF 362 2WD, MF 362 4WD, MF 340 4WD, MF 7274, MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7272</t>
+        </is>
+      </c>
+      <c r="D154" s="11" t="inlineStr"/>
     </row>
     <row r="155" ht="18.75" customHeight="1">
       <c r="A155" s="4" t="n">
         <v>8701229</v>
       </c>
-      <c r="B155" s="11" t="n"/>
-      <c r="C155" s="11" t="n"/>
-      <c r="D155" s="11" t="n"/>
+      <c r="B155" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C155" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, MF 9540, MF 9560, MF 9895, MF 9695, MF 9795</t>
+        </is>
+      </c>
+      <c r="D155" s="11" t="inlineStr"/>
     </row>
     <row r="156" ht="18.75" customHeight="1">
       <c r="A156" s="3" t="inlineStr">
@@ -2406,9 +3126,17 @@
           <t>3009513X1</t>
         </is>
       </c>
-      <c r="B156" s="11" t="n"/>
-      <c r="C156" s="11" t="n"/>
-      <c r="D156" s="11" t="n"/>
+      <c r="B156" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C156" s="11" t="inlineStr">
+        <is>
+          <t>9300R, MF 3225, MF 3050 2WD, MF 3050 4WD, MF 3060 2WD, MF 3060 4WD, MF 3070 2WD, MF 3070 4WD, MF 3090 2WD, MF 3095 2WD, MF 3095 4WD, MF 3115 2WD, MF 3115 4WD, MF 3125 2WD, MF 3125 4WD, MF 3085 2WD, MF 3085 4WD, MF 3120 2WD, MF 3120 4WD, MF 3075 2WD, MF 3075 4WD, MF 3610 2WD, MF 3630 2WD, MF 3650 2WD, MF 3680 2WD, MF 3670 2WD, MF 3690 2WD, MF 353S 2WD, MF 353S 4WD, MF 363S 4WD, MF 373S 2WD, MF 373S 4WD, MF 6110 2WD, MF 6110 4WD, MF 6120 2WD, MF 6120 4WD, MF 6130 2WD, MF 6130 4WD, MF 6140 2WD, MF 6140 4WD, MF 6150 2WD, MF 6150 4WD, MF 6160 2WD, MF 6160 4WD, MF 6170 2WD, MF 6170 4WD, MF 6180 2WD, MF 6180 4WD, MF 6190 2WD, MF 6190 4WD, MF 8170 4WD, MF 8110 2WD, MF 8110 4WD, MF 8120 2WD, MF 8120 4WD, MF 8130 2WD, MF 8130 4WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 4315 4WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4360 2WD, MF 4360 4WD, MF 4365 4WD, MF 4370 2WD, MF 4370 4WD, MF 4225 2WD, MF 4225 4WD, MF 4235 2WD, MF 4235 4WD, MF 4240 2WD, MF 4240 4WD, MF 4245 2WD, MF 4245 4WD, MF 4255 2WD, MF 4255 4WD, MF 4260 2WD, MF 4260 4WD, MF 4265 2WD, MF 4265 4WD, MF 4270 2WD, MF 4270 4WD, MF 6290 2WD, MF 6290 4WD, MF 6280 2WD, MF 6280 4WD, MF 6270 2WD, MF 6270 4WD, MF 6265 2WD, MF 6265 4WD, MF 6260 2WD, MF 6260 4WD, MF 6255 2WD, MF 6255 4WD, MF 6245 2WD, MF 6245 4WD, MF 6235 2WD, MF 6235 4WD, MF 8260 4WD, MF 8250 2WD, MF 8250 4WD, MF 8280 4WD, MF 8270 4WD, MF 8260 2WD, MF 8240 2WD, MF 8240 4WD, MF 8220 2WD, MF 8220 4WD, MF 8210 2WD, MF 8210 4WD, 6465 Dyna-6, 6475 Dyna-6, MF 6480 T3 Agco Power, MF 6497 T2 Agco Power, MF 6499 T2 Agco Power, MF 6465 T2 Perkins, MF 6475 T2 Perkins, MF 6480 T2 Perkins, MF 6490 T2 Agco Power, MF 6495 T2 Agco Power, MF 6485 T2 Agco Power, MF 6445 T2 Agco Power, MF 6455 T2 Perkins, MF 6460 T2 Perkins, MF 6470 T2 Perkins, MF 6497 XTRA, MF 6499 XTRA, 6485, MF 6490 T3 Agco Power, MF 6495 T3 Agco Power, MF 6470 T3 Agco Power, MF 6460 T3 Agco Power, 6465, MF 6475 T3 Agco Power, MF 6480 T3 Perkins, MF 6445 T3 Perkins, MF 6455 T3 Perkins, MF 6497 T3 Agco Power, MF 6499 T3 Agco Power, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7465, MF 7475, MF 7480, MF 7485, MF 7490, MF 7495, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 8450, MF 8460, MF 8470, MF 8480, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 9895, MF 9695, MF 9795, MF 6612 Dyna-4, MF 6613 Dyna-6, MF 6613 Dyna-4, MF 6614 Dyna-VT, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-VT, MF 6615 Dyna-6, MF 6616 Dyna-VT, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-VT, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-VT, MF 7616 Dyna-6, MF 7618 Dyna-VT, MF 7618 Dyna-6, MF 7619 Dyna-VT, MF 7619 Dyna-6, MF 7620 Dyna-VT, MF 7620 Dyna-6, MF 7622 Dyna-VT, MF 7622 Dyna-6, MF 7624 Dyna-VT, MF 7624 Dyna-6, MF 7626 Dyna-6, MF 6712 S Dyna-4, MF 6713 S Dyna-4, MF 6714 S Dyna-4 T4F, MF 6715 S Dyna-4 T4F, MF 6713 S Dyna-6, MF 6713 S Dyna-VT, MF 6714 S Dyna-6, MF 6714 S Dyna-VT, MF 6715 S Dyna-6 T4F, MF 6715 S Dyna-VT, MF 6716 S Dyna-6 T4F, MF 6716 S Dyna-VT T4F, MF 6718 S Dyna-6, MF 6718 S Dyna-VT, MF 6714 S Dyna-6 T4F, MF 6714 S Dyna-VT T4F, MF 7719 Dyna-6, MF 7715 DYNA-4, MF 7716 Dyna-6, MF 7714 Dyna-4, MF 7715 Dyna-4, MF 7726 Dyna-VT, MF6713 S Dyna-6 T5, MF 6713 S Dyna-VT T5, MF 6714 S Dyna-6 T5, MF 6714 S Dyna-VT T5, MF 6715 S Dyna-6 T5, MF 6715 S Dyna-VT T5, MF 6716 S Dyna-6 T5, MF 6716 S Dyna-VT T5, MF 6718 S Dyna-6 T5, MF 6718 S Dyna-VT T5, MF 7719 S Dyna-VT T5, MF 7715 S Dyna-VT T5, MF 7715 S Dyna-6 T5, MF 7716 S Dyna-VT T5, MF 7716 S Dyna-6 T5, MF 7718 S Dyna-VT T5, MF 7718 S Dyna-6 T5, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, MF 5445, MF 5455, 5460, 5465, MF 5425, MF 5435, MF 5470 T3, MF 5480 T3, MF 5465 T3, MF 5475 T3, MF 5460 SISU, MF 5445 T3, MF 5455 T3, MF 362 2WD, T195 (replaced by J3591), T210 (replaced by J3592), T230 (replaced by J3593), T250 (replaced by J3594), A74SC, A74SH 1C7, A84SC 1C7, A84SH 1C7, A94SC, A94SH 1C7, A104MC, A104MH 1C7, A114MC, A114MH 1C7, A124LC, A124LH 1C7, A134LC, A134LH 1C7, A104MH4, A114MH4</t>
+        </is>
+      </c>
+      <c r="D156" s="11" t="inlineStr"/>
     </row>
     <row r="157" ht="18.75" customHeight="1">
       <c r="A157" s="3" t="inlineStr">
@@ -2416,25 +3144,53 @@
           <t>3010144X1</t>
         </is>
       </c>
-      <c r="B157" s="11" t="n"/>
-      <c r="C157" s="11" t="n"/>
-      <c r="D157" s="11" t="n"/>
+      <c r="B157" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C157" s="11" t="inlineStr">
+        <is>
+          <t>MF 3095 2WD, MF 3095 4WD, MF 3115 2WD, MF 3115 4WD, MF 3125 2WD, MF 3125 4WD, MF 3085 2WD, MF 3085 4WD, MF 3120 2WD, MF 3120 4WD, MF 3645 2WD, MF 3645 4WD, MF 3655 2WD, MF 3655 4WD, MF 3635 2WD, MF 3635 4WD, MF 6150 2WD, MF 6160 2WD, MF 6160 4WD, MF 6170 2WD, MF 6170 4WD, MF 6180 2WD, MF 6180 4WD, MF 6190 2WD, MF 6190 4WD, MF 8110 2WD, MF 8110 4WD, MF 8120 2WD, MF 8120 4WD, MF 8130 2WD, MF 8130 4WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 6290 2WD, MF 6290 4WD, MF 6280 2WD, MF 6280 4WD, MF 6270 2WD, MF 6270 4WD, MF 6260 2WD, MF 6260 4WD, MF 8250 2WD, MF 8250 4WD, MF 8240 2WD, MF 8240 4WD, MF 8220 2WD, MF 8220 4WD, MF 8210 2WD, MF 8210 4WD, MF 6497 T2 Agco Power, MF 6499 T2 Agco Power, MF 6465 T2 Perkins, MF 6475 T2 Perkins, MF 6480 T2 Perkins, MF 6490 T2 Agco Power, MF 6495 T2 Agco Power, MF 6485 T2 Agco Power, MF 6445 T2 Agco Power, MF 6455 T2 Perkins, MF 6460 T2 Perkins, MF 6470 T2 Perkins, MF 6497 XTRA, MF 6499 XTRA, MF 6445 T3 Perkins, MF 6455 T3 Perkins, MF 7465, MF 7475, MF 7480, MF 7485, MF 7490, MF 7495, MF 5445, MF 5455, 5460, 5465, MF 5425, MF 5435, MF 5460 SISU, MF 5445 T3, MF 5455 T3, MF 5410 T3, MF 5420 T3, MF 5430 T3, MF 5440 T3, MF 5450 T3</t>
+        </is>
+      </c>
+      <c r="D157" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="158" ht="18.75" customHeight="1">
       <c r="A158" s="4" t="n">
         <v>700726425</v>
       </c>
-      <c r="B158" s="11" t="n"/>
-      <c r="C158" s="11" t="n"/>
-      <c r="D158" s="11" t="n"/>
+      <c r="B158" s="11" t="inlineStr">
+        <is>
+          <t>Fendt</t>
+        </is>
+      </c>
+      <c r="C158" s="11" t="inlineStr">
+        <is>
+          <t>PLNTR MOMENTUM 16-30 FT 40', PLNTR MOMENTUM 16-70 FT 40', PLNTR MOMENTUM 16-76 FT 40', PLNTR MOMENTUM 24-20 FT 40', PLNTR MOMENTUM 24-22 FT 40', PLNTR MOMENTUM 32-15 FT 40', PLNTR MOMENTUM 24-30 FT 60', PLNTR MOMENTUM 24-70 FT 60', PLNTR MOMENTUM 24-76 FT 60', PLNTR MOMENTUM 36-20 FT 60', PLNTR MOMENTUM 36-22 FT 60', PLNTR MOMENTUM 48-15 FT 60'</t>
+        </is>
+      </c>
+      <c r="D158" s="11" t="inlineStr"/>
     </row>
     <row r="159" ht="18.75" customHeight="1">
       <c r="A159" s="4" t="n">
         <v>11118721</v>
       </c>
-      <c r="B159" s="11" t="n"/>
-      <c r="C159" s="11" t="n"/>
-      <c r="D159" s="11" t="n"/>
+      <c r="B159" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C159" s="11" t="inlineStr">
+        <is>
+          <t>MT445B, MT455B, MT465B, MT445B-T3, MT455B-T3 Dyna-4, MT465B-T3 Dyna-4, MT555D Dyna-6, MT565D Dyna-6, MT575D Dyna-6, MT585D Dyna-6, MT575E Dyna-6, MT645D T4I, MT655D T4I, MT665D T4I / T2, MT675D T4I, MT685D T4I / T2, MT665E, MT645C, MT655C T3 CVT, MT665C T3 / T2 CVT, MT675C T3 CVT, MT645E, 9816 VE, 9824 VE, S96, S97, S98, A76, 9250 Draper Header, MF 6712 ECO4, MF 5710 ECO3, MF 5710 ECO4, MF 5711 ECO4, MF 5609 Dyna-4, MF 5610 Dyna-4, MF 5611 Dyna-4, MF 5611 Dyna-6, MF 5612 Dyna-4, MF 5612 Dyna-6, MF 5613 Dyna-4, MF 5613 Dyna-6, MF 7619 Dyna-6, MF 7620 Dyna-VT, MF 7620 Dyna-6, MF 7622 Dyna-6, MF 7624 Dyna-VT, MF 7624 Dyna-6, MF 5711 SL Dyna-4, MF 5711 SL Dyna-6, MF 5712 SL Dyna-4, MF 5712 SL Dyna-6, MF 5713 SL Dyna-4, MF 5713 SL Dyna-6, MF 7719 Dyna-6, MF 7720 Dyna-6, MF 7722 Dyna-6, MF 7724 Dyna-6, MF 7726 Dyna-6, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, MF 5445, MF 5470 T3, MF 5480 T3, MF 5465 T3, MF 5475 T3, MF 5445 T3, MF 5455 T3, MF 5450 T3, MF 4708 ECO4, MF 4708 ECO3, MF 4709 ECO3, MF 4707 2WD Non Cab, MF 4708 2WD Non Cab 3, MF 4709 2WD Non Cab, MF 4710 2WD Non Cab, MF 8660 Dyna-VT T2, MF 8670, MF 8680, MF 8690, MF 8727, MF 8730, MF 8732, MF 8735, MF 9255, MF 9520, MF 9540 Tier 4 TI, MF 9560 Tier 4 TI, MF 9540 T4F, MF 9560 T4F, MF 9245, MF 9565, MF 9895, MF 9695, MF 9795, MF 9250-910 DynaFlex SRA, 9816 VE, 9824 VE</t>
+        </is>
+      </c>
+      <c r="D159" s="11" t="inlineStr"/>
     </row>
     <row r="160" ht="18.75" customHeight="1">
       <c r="A160" s="3" t="inlineStr">
@@ -2442,9 +3198,21 @@
           <t>391120X1</t>
         </is>
       </c>
-      <c r="B160" s="11" t="n"/>
-      <c r="C160" s="11" t="n"/>
-      <c r="D160" s="11" t="n"/>
+      <c r="B160" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C160" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 8380P, 8410P, 9300R, 9390R, 9470X, 9490X, MF 155, MF 158, MF 168F 4WD, MF 174S 2WD, MF 185 4WD, MF 184S 2WD, MF 185S 4WD, MF 174S, MF 174F, MF 184F, MF 194F, MF 194S, MF 154V 2WD, MF 164V, MF 174V 2WD, MF 234S, MF 254S 4WD, MF 294 4WD, MF 264S 2WD, MF 264S 4WD, MF 3445, MF 3455, MF 354F 2WD, MF 354F 4WD, MF 364F 2WD, MF 364F 4WD, MF 374F 2WD, MF 374F 4WD, MF 384F 2WD, MF 384F 4WD, MF 394F 2WD, MF 394F 4WD, MF 354S 2WD, MF 354S 4WD, MF 364S 2WD, MF 364S 4WD, MF 374S 2WD, MF 374S 4WD, MF 384S 2WD, MF 384S 4WD, MF 394S 2WD, MF 394S 4WD, MF 354V 2WD, MF 354V 4WD, MF 364V 2WD, MF 364V 4WD, MF 374V 2WD, MF 374V 4WD, MF 3050 2WD, MF 3050 4WD, MF 3060 2WD, MF 3060 4WD, MF 3070 2WD, MF 3070 4WD, MF 3080 2WD, MF 3080 4WD, MF 3090 2WD, MF 3090 4WD, MF 3095 2WD, MF 3095 4WD, MF 3115 2WD, MF 3115 4WD, MF 3125 2WD, MF 3125 4WD, MF 3065 2WD, MF 3065 4WD, MF 3085 2WD, MF 3085 4WD, MF 3120 2WD, MF 3075 2WD, MF 3075 4WD, MF 194 4WD, MF 253, MF 273, MF 283, MF 293, MF 263, MF 263 4WD, MF 333 2WD, MF 353 2WD, MF 353 4WD, MF 363 2WD, MF 363 4WD, MF 373 2WD, MF 373 4WD, MF 383 2WD, MF 383 4WD, MF 393 2WD, MF 393 4WD, MF 353S 2WD, MF 353S 4WD, MF 363S 4WD, MF 373S 2WD, MF 373S 4WD, MF 377 2WD, MF 377 4WD, MF 387 2WD, MF 387 4WD, MF 397 2WD, MF 397 4WD, MF 1114 2WD, MF 1114 4WD, MF 1134 4WD, MF 1014 2WD, MF 1014 4WD, MF 6110 2WD, MF 6110 4WD, MF 6120 2WD, MF 6120 4WD, MF 6130 2WD, MF 6130 4WD, MF 6140 2WD, MF 6140 4WD, MF 6150 2WD, MF 6150 4WD, MF 6170 2WD, MF 6180 2WD, MF 6190 2WD, MF 6190 4WD, MF 4315 2WD, MF 4315 4WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4360 2WD, MF 4360 4WD, MF 4365 2WD, MF 4365 4WD, MF 4370 2WD, MF 4370 4WD, MF 4215 2WD, MF 4215 4WD, MF 4220 2WD, MF 4220 4WD, MF 4225 2WD, MF 4225 4WD, MF 4235 2WD, MF 4235 4WD, MF 4240 2WD, MF 4240 4WD, MF 4245 2WD, MF 4245 4WD, MF 4255 2WD, MF 4255 4WD, MF 4260 2WD, MF 4260 4WD, MF 4265 2WD, MF 4265 4WD, MF 4270 2WD, MF 4270 4WD, MF 6290 2WD, MF 6290 4WD, MF 6280 2WD, MF 6280 4WD, MF 6270 2WD, MF 6270 4WD, MF 6265 2WD, MF 6265 4WD, MF 6260 2WD, MF 6260 4WD, MF 6255 2WD, MF 6255 4WD, MF 6245 2WD, MF 6245 4WD, MF 6235 2WD, MF 6235 4WD, MF 8260 4WD, MF 8250 2WD, MF 8250 4WD, MF 8280 4WD, MF 8270 4WD, MF 8260 2WD, MF 8240 2WD, MF 8240 4WD, MF 8220 2WD, MF 8220 4WD, MF 8210 2WD, MF 8210 4WD, MF 6497 T2 Agco Power, MF 6499 T2 Agco Power, MF 6445 T2 Agco Power, MF 6455 T2 Perkins, MF 6460 T2 Perkins, MF 6470 T2 Perkins, MF 6470 T3 Agco Power, MF 6460 T3 Agco Power, MF 6445 T3 Perkins, MF 6455 T3 Perkins, MF 8450, MF 8460, MF 8470, MF 8480, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 9540, MF 9560, MF 9895, MF 9695, MF 9795, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 5709 S Dyna-4, MF 5709 S Dyna-6, MF 5608 Dyna-4, MF 5609 Dyna-4, MF 5610 Dyna-4, MF 5611 Dyna-4, MF 5611 Dyna-6, MF 5612 Dyna-4, MF 5612 Dyna-6, MF 5613 Dyna-4, MF 5613 Dyna-6, MF 7619 Dyna-6, MF 7620 Dyna-VT, MF 7620 Dyna-6, MF 7622 Dyna-6, MF 7624 Dyna-VT, MF 7624 Dyna-6, MF 7626 Dyna-6, MF 5709 SL Dyna-4, MF 5710 SL Dyna-4, MF 5710 SL Dyna-6, MF 5711 SL Dyna-4, MF 5711 SL Dyna-6, MF 5712 SL Dyna-4, MF 5712 SL Dyna-6, MF 5713 SL Dyna-4, MF 5713 SL Dyna-6, MF 7719 Dyna-6, MF 8737 S, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, MF 5445, MF 5455, 5460, 5465, 5475, 5470, MF 5425, MF 5435, MF 5470 T3, MF 5480 T3, MF 5465 T3, MF 5475 T3, MF 5460 SISU, MF 5470 SISU, MF 5445 T3, MF 5455 T3, MF 5410 T3, MF 5420 T3, MF 5430 T3, MF 5440 T3, MF 5450 T3, MF 265, MF8727, MF8730, MF8732, MF 350 2WD, MF 350 4WD, MF 375 2WD, MF 375 4WD, MF 390 2WD, MF 390 4WD, MF 398 2WD, MF 398 4WD, MF 399 2WD, MF 399 4WD, MF 360 2WD, MF 360 4WD, MF 365 2WD, MF 365 4WD, MF 355 2WD, MF 355 4WD, MF 390T 2WD, MF 390T 4WD, MF 362 2WD, MF 362 4WD, MF 340 4WD, MF 372 N 4WD, MF 382 N 4WD, MF 362 N 2WD, MF 362 N 4WD, MF 342 2WD, MF 352 2WD, MF 7347 S (09/14 - 08/17), MF 7347 S MCS (09/14 - 08/17), MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF 7347 S T4F (2018-2021), MF 7360 T4F (2018-2021), MF 7360 PL/PLI T4F (2018-2021), MF 7370 T4F (2018-2021), MF 7347 S ST5 (2021-9999), MF 7370 ST5 (2021-9999), MF 7382 (04/15 - 03/17), MF 7274, MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7370 PLI (2017), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7256, MF 7272, MF Activa S 7345 MCS, MF Activa S 7347 MCS, MF Beta 7360, MF7380, MF7380AL, MF7382, MF9380, MF Beta 7370 PLI, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, A104MH4, A114MH4, N101, S233, S263, S293, S294, S324 SmartTouch MR19</t>
+        </is>
+      </c>
+      <c r="D160" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="161" ht="18.75" customHeight="1">
       <c r="A161" s="3" t="inlineStr">
@@ -2452,9 +3220,17 @@
           <t>339613X1</t>
         </is>
       </c>
-      <c r="B161" s="11" t="n"/>
-      <c r="C161" s="11" t="n"/>
-      <c r="D161" s="11" t="n"/>
+      <c r="B161" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C161" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 8380P, 8410P, 9300R, 9390R, 9470X, 9490X, MF 234S, MF 3050 2WD, MF 3050 4WD, MF 3060 2WD, MF 3060 4WD, MF 3070 2WD, MF 3070 4WD, MF 3080 2WD, MF 3080 4WD, MF 3090 2WD, MF 3090 4WD, MF 3095 2WD, MF 3095 4WD, MF 3115 2WD, MF 3115 4WD, MF 3125 2WD, MF 3125 4WD, MF 3065 2WD, MF 3065 4WD, MF 3085 2WD, MF 3085 4WD, MF 3120 2WD, MF 3120 4WD, MF 3075 2WD, MF 3075 4WD, MF 3630 2WD, MF 253, MF 273, MF 283, MF 293, MF 263, MF 6110 2WD, MF 6110 4WD, MF 6120 2WD, MF 6120 4WD, MF 6130 2WD, MF 6130 4WD, MF 6140 2WD, MF 6140 4WD, MF 6150 2WD, MF 6150 4WD, MF 6160 2WD, MF 6160 4WD, MF 6170 2WD, MF 6170 4WD, MF 6180 2WD, MF 6180 4WD, MF 6190 2WD, MF 6190 4WD, MF 8260 4WD, MF 8250 2WD, MF 8250 4WD, MF 8280 4WD, MF 8270 4WD, MF 8260 2WD, MF 8240 2WD, MF 8240 4WD, MF 8220 2WD, MF 8220 4WD, MF 8210 2WD, MF 8210 4WD, MF 6497 T2 Agco Power, MF 6490 T2 Agco Power, MF 6485 T2 Agco Power, MF 6497 XTRA, MF 6499 XTRA, MF 7465, MF 7475, MF 7480, MF 7485, MF 7490, MF 7495, MF 9540, MF 9560, MF 9895, MF 9695, MF 9795, MF 7619 Dyna-6, MF 7620 Dyna-6, MF 7622 Dyna-6, MF 7624 Dyna-6, MF 7626 Dyna-6, MF 7382 (04/15 - 03/17), MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF7380, MF7380AL, MF7382, MF9380</t>
+        </is>
+      </c>
+      <c r="D161" s="11" t="inlineStr"/>
     </row>
     <row r="162" ht="18.75" customHeight="1">
       <c r="A162" s="3" t="inlineStr">
@@ -2462,17 +3238,25 @@
           <t>390419X1</t>
         </is>
       </c>
-      <c r="B162" s="11" t="n"/>
-      <c r="C162" s="11" t="n"/>
-      <c r="D162" s="11" t="n"/>
+      <c r="B162" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C162" s="11" t="inlineStr">
+        <is>
+          <t>MT445B, MT455B, MT465B, MT445B-T3, MT455B-T3 Dyna-4, MT465B-T3 Dyna-4, MT545B Dyna-6, MT525B Dyna-6, MT525B Dyna-CVT, MT545B Dyna-CVT, MT555B Dyna-CVT T3 CAT, MT565B Dyna-CVT T3 CAT, MT575B Dyna-CVT T3 CAT, MT555B Dyna-6 T3 CAT, MT565B Dyna-6 T3 CAT, MT575B Dyna-6 T3 CAT, MT525B Dyna-6 T3 CAT, MT545B Dyna-6 T3 CAT, MT525B Dyna-CVT T3 CAT, MT545B Dyna-CVT T3 CAT, MT595B Dyna-6 T3 SISU, MT595B Dyna-CVT T3 SISU , MT645C, MT655C T3 CVT, MT665C T3 / T2 CVT, MT675C T3 CVT, S67 Super , S77 Super, S68, S78, S88, S96, S97, S98, R65, R66, A66, A76, R76, MF 6712 ECO4, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7465 T3, MF 7475 T3, MF 7480 T3, MF 7499, MF 5710 ECO3, MF 5710 ECO4, MF 5711 ECO4, MF 5445, MF 5480 T3, MF 5475 T3, MF 5445 T3, MF 5455 T3, MF 4708 ECO4, MF 4708 ECO3, MF 4709 ECO3, MF 4707 2WD Non Cab, MF 4708 2WD Non Cab 3, MF 4709 2WD Non Cab, MF 4710 2WD Non Cab, MF 9520, MF 9540 Tier 4 TI, MF 9560 Tier 4 TI, MF 9540 T4F, MF 9560 T4F, MF 9245, MF 9565, MF 9895, MF 9695, MF 9795, MF 1843 N/S, MF RK 802 TRC-PRO</t>
+        </is>
+      </c>
+      <c r="D162" s="11" t="inlineStr"/>
     </row>
     <row r="163" ht="18.75" customHeight="1">
       <c r="A163" s="4" t="n">
         <v>7700602</v>
       </c>
-      <c r="B163" s="11" t="n"/>
-      <c r="C163" s="11" t="n"/>
-      <c r="D163" s="11" t="n"/>
+      <c r="B163" s="11" t="inlineStr"/>
+      <c r="C163" s="11" t="inlineStr"/>
+      <c r="D163" s="11" t="inlineStr"/>
     </row>
     <row r="164" ht="18.75" customHeight="1">
       <c r="A164" s="3" t="inlineStr">
@@ -2480,17 +3264,29 @@
           <t>339560X1</t>
         </is>
       </c>
-      <c r="B164" s="11" t="n"/>
-      <c r="C164" s="11" t="n"/>
-      <c r="D164" s="11" t="n"/>
+      <c r="B164" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Fendt, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C164" s="11" t="inlineStr">
+        <is>
+          <t>RG900, RG1100, RG1300, MT738, MT740, MT743, MT755C, MT455D, MT465D, MT445B, MT455B, MT465B, MT445B-T3, MT455B-T3 Dyna-4, MT465B-T3 Dyna-4, MT555D Dyna-6, MT565D Dyna-6, MT575D Dyna-6, MT585D Dyna-6, MT555D CVT, MT565D CVT, MT575D CVT, MT585D CVT, MT515D Dyna-4, MT525D Dyna-4, MT525D Dyna-6, MT535D Dyna-6, MT545D Dyna-6, MT525D Dyna-VT, MT535D Dyna-VT, MT545D Dyna-VT, MT575E Dyna-6, MT575E CVT, MT525E Dyna-4, MT525E Dyna-6, MT545E Dyna-6, MT525E Dyna-VT, MT545E Dyna-VT, MT545B Dyna-6, MT525B Dyna-6, MT525B Dyna-CVT, MT545B Dyna-CVT, MT555B Dyna-CVT T3 CAT, MT565B Dyna-CVT T3 CAT, MT575B Dyna-CVT T3 CAT, MT555B Dyna-6 T3 CAT, MT565B Dyna-6 T3 CAT, MT575B Dyna-6 T3 CAT, MT525B Dyna-6 T3 CAT, MT545B Dyna-6 T3 CAT, MT525B Dyna-CVT T3 CAT, MT545B Dyna-CVT T3 CAT, MT595B Dyna-6 T3 SISU, MT595B Dyna-CVT T3 SISU , MT645D T4I, MT655D T4I, MT665D T4I / T2, MT675D T4I, MT685D T4I / T2, MT665E, MT645C, MT655C T3 CVT, MT665C T3 / T2 CVT, MT675C T3 CVT, MT645E, MT665E T4F CVT, MT945C , MT955C , MT965C , IDEAL 7, IDEAL 8, IDEAL 9, S67 Super , S77 Super, S96, S97, S98, R66, A66, A76, R76, 9325 Draper Header, 9330 Draper Header, 9335 Draper Header, 9340 Draper Header, 3308 Corn Header, 3312 Corn Header, 3308C Corn Header, 3312C Corn Header, MF 2625, MF 2604H, MF 2605H, MF 2606H, MF 2607H, MF 2650, MF 2660, MF 6712 ECO4, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7465 T3, MF 7475 T3, MF 7480 T3, MF 7499, MF 5710 ECO3, MF 5710 ECO4, MF 5711 ECO4, MF 5609 Dyna-4, MF 5610 Dyna-4, MF 5611 Dyna-4, MF 5611 Dyna-6, MF 5612 Dyna-4, MF 5612 Dyna-6, MF 5613 Dyna-4, MF 5613 Dyna-6, MF 6614 Dyna-VT, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-VT, MF 6615 Dyna-6, MF 6616 Dyna-VT, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-VT, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-VT, MF 7616 Dyna-6, MF 7618 Dyna-VT, MF 7618 Dyna-6, MF 7619 Dyna-VT, MF 7619 Dyna-6, MF 7620 Dyna-VT, MF 7620 Dyna-6, MF 7622 Dyna-VT, MF 7622 Dyna-6, MF 7624 Dyna-VT, MF 7624 Dyna-6, MF 5711 SL Dyna-4, MF 5711 SL Dyna-6, MF 5712 SL Dyna-4, MF 5712 SL Dyna-6, MF 5713 SL Dyna-4, MF 5713 SL Dyna-6, MF 6715 S Dyna-4 T4F, MF 6714 S Dyna-VT, MF 6715 S Dyna-6 T4F, MF 6715 S Dyna-VT, MF 6716 S Dyna-6 T4F, MF 6716 S Dyna-VT T4F, MF 7719 Dyna-6, MF 7720 Dyna-6, MF 7722 Dyna-6, MF 7724 Dyna-6, MF 7726 Dyna-6, MF 7720 Dyna-VT, MF 7722 Dyna-VT, MF 7724 Dyna-VT, MF 7716 Dyna-VT, MF 7718 Dyna-VT, MF 7719 Dyna-VT, MF 7726 Dyna-VT, MF 7714 S Dyna-4, MF 7714 S Dyna-4 T5, MF 7718 S Dyna-VT T5, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, MF 5445, MF 5470 T3, MF 5480 T3, MF 5465 T3, MF 5475 T3, MF 5445 T3, MF 5455 T3, MF 5450 T3, MF 2670, MF 2680, MF 4708 ECO4, MF 4708 ECO3, MF 4709 ECO3, MF 4707 2WD Non Cab, MF 4708 2WD Non Cab 3, MF 4709 2WD Non Cab, MF 4710 2WD Non Cab, MF 8660 Dyna-VT T2, MF 8670, MF 8680, MF 8690, MF 8727, MF 8730, MF 8732, MF 8735, MF 9520, MF 9540 Tier 4 TI, MF 9560 Tier 4 TI, MF 9540 T4F, MF 9560 T4F, MF 9245, MF 9565, MF 9895, MF 9695, MF 9795, MF 3000-8-30 Corn Header, MF 3000-8-36 Corn Header, MF 3000-8-38 Corn Header, MF 3000-12-20 Corn Header, MF 3000-12-22 Corn Header, MF 3000-12-30 Corn Header, MF WR 9725, MF WR 9735, MF WR 9950, MF WR 9960, MF WR 9970, MF WR 9980</t>
+        </is>
+      </c>
+      <c r="D164" s="11" t="inlineStr"/>
     </row>
     <row r="165" ht="18.75" customHeight="1">
       <c r="A165" s="4" t="n">
         <v>70950018</v>
       </c>
-      <c r="B165" s="11" t="n"/>
-      <c r="C165" s="11" t="n"/>
-      <c r="D165" s="11" t="n"/>
+      <c r="B165" s="11" t="inlineStr"/>
+      <c r="C165" s="11" t="inlineStr"/>
+      <c r="D165" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="166" ht="18.75" customHeight="1">
       <c r="A166" s="3" t="inlineStr">
@@ -2498,9 +3294,17 @@
           <t>LA16043421</t>
         </is>
       </c>
-      <c r="B166" s="11" t="n"/>
-      <c r="C166" s="11" t="n"/>
-      <c r="D166" s="11" t="n"/>
+      <c r="B166" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C166" s="11" t="inlineStr">
+        <is>
+          <t>5180E, 8380P, 8410P, Cutting table FF 7,0m, 9490X, MF 7265 (2009-2011), MF 7345 S MCS (2011-2014), MF 7347 S MCS (2012-2014), MF 7360 T4I (2012), MF 7360 PL T4I (2012), MF 7370 T4I (2012), MF 7345 S (2011-2014), MF 7347 S (2012-2014), MF 7360 T4I (2013-2014), MF 7360 PL T4I (2013-2014), MF 7370 T4I (2013-2014), MF 7360 PLI T4I (2013-2014), MF 7345 S (09/14 - 08/17), MF 7345 S MCS (09/14 - 08/17), MF 7347 S (09/14 - 08/17), MF 7347 S MCS (09/14 - 08/17), MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF 7340 T4F (2018-2021), MF 7344 TF4 (2018-2021), MF 7345 S T4F (2018-2021), MF 7347 S T4F (2018-2021), MF 7360 T4F (2018-2021), MF 7360 PL/PLI T4F (2018-2021), MF 7370 T4F (2018-2021), MF 7340 ST5 (2021-9999), MF 7344 ST5 (2021-9999), MF 7347 S ST5 (2021-9999), MF 7370 ST5 (2021-9999), MF 7344 (09/15 - 08/17), MF 7382 (04/15 - 03/17), MF 7340 (09/15 - 08/17), MF 7247 S (2008-2011), MF 7245 S (2006-2011), MF 7240 (2008-2018), MF 7244 (2006-2011), MF 7245 (2006-2011), MF 7246 (2006-2011), MF 7260 (2005-2011), MF 7270 (2005-2011), MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7370 PLI (2017), MF Activa S 7345 MCS, MF Activa S 7347 MCS, MF Beta 7360, MF Beta 7370 PL, MF7380, MF7380AL, MF7382, MF9380, MF Beta 7370 PLI</t>
+        </is>
+      </c>
+      <c r="D166" s="11" t="inlineStr"/>
     </row>
     <row r="167" ht="18.75" customHeight="1">
       <c r="A167" s="3" t="inlineStr">
@@ -2508,9 +3312,17 @@
           <t>339123X1</t>
         </is>
       </c>
-      <c r="B167" s="11" t="n"/>
-      <c r="C167" s="11" t="n"/>
-      <c r="D167" s="11" t="n"/>
+      <c r="B167" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C167" s="11" t="inlineStr">
+        <is>
+          <t>PLNTR MOMENTUM 16-30 FT 40', PLNTR MOMENTUM 16-70 FT 40', PLNTR MOMENTUM 16-76 FT 40', PLNTR MOMENTUM 24-20 FT 40', PLNTR MOMENTUM 24-22 FT 40', PLNTR MOMENTUM 32-15 FT 40', PLNTR MOMENTUM 24-30 FT 60', PLNTR MOMENTUM 24-70 FT 60', PLNTR MOMENTUM 24-76 FT 60', PLNTR MOMENTUM 36-20 FT 60', PLNTR MOMENTUM 36-22 FT 60', PLNTR MOMENTUM 48-15 FT 60', 5180E, 8370P, 8400P, 8380P, 8410P, 9300R, 9390R, Cutting table PF 12,2m (40'), Cutting table PF 5,5m (18'), Cutting table PF 7,7m (25'), Cutting table PF 9,2m (30'), Cutting table PF 10,7m (35'), Cutting table FF 7,0m, 9470X, 9490X, 1290 XD (Serial No. JHBxxx001 to JBHxxx999), Cutter Front Mounted, Cutter Front Trailing Linkage, Cutter 3PT Side Attachment, Cutter Middle Attachment, Former Lateral Transporter, Former Central Transporter, Former 4r central windr./trans, Former 3PT attachment rigid, Former Lateral Swath trailed, Slicer Front Mounted Oscillation, Slicer Front headstock with trailer, Slicer 3PT spur gear drive, Slicer 3PT side attachment, Slicer 3Pt linkage middle attachment, Slicer Mower combinations middle attachment, Slicer trailed, Twister 3PT Linkage, Twister with Transport Chassis, MF 135, MF 165, MF 155, MF 148, MF 168, MF 188, MF 152, MF 158, MF 145 MK3/V, MF 158V, MF 154S 2WD, MF 154S 4WD, MF 174S 2WD, MF 185 4WD, MF 184S 2WD, MF 185S 4WD, MF 174S, MF 154F, MF 174F, MF 184F, MF 194F, MF 194S, MF 154V 2WD, MF 164V, MF 174V 2WD, MF 164F, MF 164F 4WD, MF 254S 4WD, MF 294 4WD, MF 264, MF 264 4WD, MF 264S 2WD, MF 264S 4WD, MF 698, MF 698 4WD, MF 698T, MF 698T 4WD, MF 699, MF 699 4WD, MF 670 4WD, MF 690, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 3425, MF 3435, MF 3445, MF 3455, MF 354F 2WD, MF 354F 4WD, MF 364F 2WD, MF 364F 4WD, MF 374F 2WD, MF 374F 4WD, MF 384F 2WD, MF 384F 4WD, MF 394F 2WD, MF 394F 4WD, MF 354S 2WD, MF 354S 4WD, MF 364S 2WD, MF 364S 4WD, MF 374S 2WD, MF 374S 4WD, MF 384S 2WD, MF 384S 4WD, MF 394S 2WD, MF 394S 4WD, MF 354V 2WD, MF 354V 4WD, MF 364V 2WD, MF 364V 4WD, MF 374V 2WD, MF 374V 4WD, MF 3435C, MF 3445C, MF 3455C, MF 3425C, MF 3050 2WD, MF 3050 4WD, MF 3060 2WD, MF 3060 4WD, MF 3070 2WD, MF 3070 4WD, MF 3080 2WD, MF 3080 4WD, MF 3090 2WD, MF 3090 4WD, MF 3095 2WD, MF 3095 4WD, MF 3115 2WD, MF 3115 4WD, MF 3125 2WD, MF 3125 4WD, MF 3065 2WD, MF 3065 4WD, MF 3085 2WD, MF 3085 4WD, MF 3120 2WD, MF 3120 4WD, MF 3075 2WD, MF 3075 4WD, MF 3610 2WD, MF 3610 4WD, MF 3630 2WD, MF 3630 4WD, MF 3650 2WD, MF 3650 4WD, MF 3680 2WD, MF 3680 4WD, MF 3645 2WD, MF 3645 4WD, MF 3655 2WD, MF 3655 4WD, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 3635 2WD, MF 3635 4WD, MF 294 2WD, MF 284S 2WD, MF 284S 4WD, MF 263, MF 263 4WD, MF 333 2WD, MF 353 2WD, MF 353 4WD, MF 363 2WD, MF 363 4WD, MF 373 2WD, MF 373 4WD, MF 383 2WD, MF 383 4WD, MF 393 2WD, MF 393 4WD, MF 353S 2WD, MF 353S 4WD, MF 363S 4WD, MF 373S 2WD, MF 373S 4WD, MF 377 2WD, MF 377 4WD, MF 387 2WD, MF 387 4WD, MF 397 2WD, MF 397 4WD, MF 364C, MF 1114 2WD, MF 1114 4WD, MF 1134 4WD, MF 1014 2WD, MF 1014 4WD, MF 6110 2WD, MF 6110 4WD, MF 6120 2WD, MF 6120 4WD, MF 6130 2WD, MF 6130 4WD, MF 6140 2WD, MF 6140 4WD, MF 6150 2WD, MF 6150 4WD, MF 6160 2WD, MF 6160 4WD, MF 6170 2WD, MF 6170 4WD, MF 6180 2WD, MF 6180 4WD, MF 6190 2WD, MF 6190 4WD, MF 8170 4WD, MF 8110 2WD, MF 8110 4WD, MF 8120 2WD, MF 8120 4WD, MF 8130 2WD, MF 8130 4WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 4315 2WD, MF 4315 4WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4360 2WD, MF 4360 4WD, MF 4365 2WD, MF 4365 4WD, MF 4370 2WD, MF 4370 4WD, MF 4215 2WD, MF 4215 4WD, MF 4220 2WD, MF 4220 4WD, MF 4225 2WD, MF 4225 4WD, MF 4235 2WD, MF 4235 4WD, MF 4240 2WD, MF 4240 4WD, MF 4245 2WD, MF 4245 4WD, MF 4255 2WD, MF 4255 4WD, MF 4260 2WD, MF 4260 4WD, MF 4265 2WD, MF 4265 4WD, MF 4270 2WD, MF 4270 4WD, MF 6290 2WD, MF 6290 4WD, MF 6280 2WD, MF 6280 4WD, MF 6270 2WD, MF 6270 4WD, MF 6265 2WD, MF 6265 4WD, MF 6260 2WD, MF 6260 4WD, MF 6255 2WD, MF 6255 4WD, MF 6245 2WD, MF 6245 4WD, MF 6235 2WD, MF 6235 4WD, MF 8260 4WD, MF 8250 2WD, MF 8250 4WD, MF 8280 4WD, MF 8270 4WD, MF 8260 2WD, MF 8240 2WD, MF 8240 4WD, MF 8220 2WD, MF 8220 4WD, MF 8210 2WD, MF 8210 4WD, 6465 Dyna-6, 6475 Dyna-6, MF 6480 T3 Agco Power, MF 6497 T2 Agco Power, MF 6499 T2 Agco Power, MF 6465 T2 Perkins, MF 6475 T2 Perkins, MF 6480 T2 Perkins, MF 6490 T2 Agco Power, MF 6495 T2 Agco Power, MF 6485 T2 Agco Power, MF 6445 T2 Agco Power, MF 6455 T2 Perkins, MF 6460 T2 Perkins, MF 6470 T2 Perkins, MF 6497 XTRA, MF 6499 XTRA, 6485, MF 6490 T3 Agco Power, MF 6495 T3 Agco Power, MF 6470 T3 Agco Power, MF 6460 T3 Agco Power, 6465, MF 6475 T3 Agco Power, MF 6480 T3 Perkins, MF 6445 T3 Perkins, MF 6455 T3 Perkins, MF 6497 T3 Agco Power, MF 6499 T3 Agco Power, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7465, MF 7475, MF 7480, MF 7485, MF 7490, MF 7495, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 8450, MF 8460, MF 8470, MF 8480, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 3640, MF 2225, MF 2235, MF 2430, MF 2435, MF 2440, MF 2210, MF 2220, MF 2230, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 5709 S Dyna-4, MF 5709 S Dyna-6, MF 5608 Dyna-4, MF 5609 Dyna-4, MF 5610 Dyna-4, MF 5611 Dyna-4, MF 5611 Dyna-6, MF 5612 Dyna-4, MF 5612 Dyna-6, MF 5613 Dyna-4, MF 5613 Dyna-6, MF 6612 Dyna-4, MF 6613 Dyna-6, MF 6613 Dyna-4, MF 6614 Dyna-VT, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-VT, MF 6615 Dyna-6, MF 6616 Dyna-VT, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-VT, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-VT, MF 7616 Dyna-6, MF 7618 Dyna-VT, MF 7618 Dyna-6, MF 7619 Dyna-VT, MF 7619 Dyna-6, MF 7620 Dyna-VT, MF 7620 Dyna-6, MF 7622 Dyna-VT, MF 7622 Dyna-6, MF 7624 Dyna-VT, MF 7624 Dyna-6, MF 7626 Dyna-6, MF 5709 SL Dyna-4, MF 5710 SL Dyna-4, MF 5710 SL Dyna-6, MF 5711 SL Dyna-4, MF 5711 SL Dyna-6, MF 5712 SL Dyna-4, MF 5712 SL Dyna-6, MF 5713 SL Dyna-4, MF 5713 SL Dyna-6, MF 6712 S Dyna-4, MF 6713 S Dyna-4, MF 6714 S Dyna-4 T4F, MF 6715 S Dyna-4 T4F, MF 6713 S Dyna-6, MF 6713 S Dyna-VT, MF 6714 S Dyna-6, MF 6714 S Dyna-VT, MF 6715 S Dyna-6 T4F, MF 6715 S Dyna-VT, MF 6716 S Dyna-6 T4F, MF 6716 S Dyna-VT T4F, MF 6718 S Dyna-6, MF 6718 S Dyna-VT, MF 6714 S Dyna-6 T4F, MF 6714 S Dyna-VT T4F, MF 7719 Dyna-6, MF 7715 DYNA-4, MF 7716 Dyna-6, MF 7714 Dyna-4, MF 7715 Dyna-4, MF 7726 Dyna-VT, MF6713 S Dyna-6 T5, MF 6713 S Dyna-VT T5, MF 6714 S Dyna-6 T5, MF 6714 S Dyna-VT T5, MF 6715 S Dyna-6 T5, MF 6715 S Dyna-VT T5, MF 6716 S Dyna-6 T5, MF 6716 S Dyna-VT T5, MF 6718 S Dyna-6 T5, MF 6718 S Dyna-VT T5, MF 7714 S Dyna-4, MF 7715 S Dyna-4, MF 7719 S Dyna-VT T5, MF 7714 S Dyna-4 T5, MF 7715 S Dyna-VT T5, MF 7715 S Dyna-6 T5, MF 7715 S Dyna-4 T5, MF 7716 S Dyna-VT T5, MF 7716 S Dyna-6 T5, MF 7718 S Dyna-VT T5, MF 7718 S Dyna-6 T5, MF 8737 S, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 8740 S Dyna-VT, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, MF 5445, MF 5455, 5460, 5465, 5475, 5480, 5470, MF 5425, MF 5435, MF 5470 T3, MF 5480 T3, MF 5465 T3, MF 5475 T3, MF 5460 SISU, MF 5470 SISU, MF 5445 T3, MF 5455 T3, MF 5410 T3, MF 5420 T3, MF 5430 T3, MF 5440 T3, MF 5450 T3, MF DM 1300, MF TD 1635, MF 186CE, MF 187CE, MF DM 164-287 Farmer, MF TD 454-868 DN, MF TD 1008-1310 TRC, MF GC2300, MF 1035, MF 1045, MF 1220 2WD STD, MF 1220 4WD STD, MF 1220 4WD HYDRO, MF 1533, MF1547, MF 1529, MF 1532H, MF 1540, MF 265, MF 298 2WD, MF 298 4WD, MF 290 2WD, MF 290 4WD, MF 230, MF 270, MF RK 802 TRC, MF TD 676 DN, MF8727, MF8730, MF8732, MF8735, MF 8737 MR, MF 350 2WD, MF 350 4WD, MF 375 2WD, MF 375 4WD, MF 390 2WD, MF 390 4WD, MF 398 2WD, MF 398 4WD, MF 399 2WD, MF 399 4WD, MF 360 2WD, MF 360 4WD, MF 365 2WD, MF 365 4WD, MF 355 2WD, MF 355 4WD, MF 390T 2WD, MF 390T 4WD, MF 362 2WD, MF 362 4WD, MF 340 4WD, MF 340 2WD, MF 372 N 2WD, MF 372 N 4WD, MF 382 N 4WD, MF 362 N 2WD, MF 362 N 4WD, MF 342 2WD, MF 352 2WD, MF 7265 (2009-2011), MF 7345 S MCS (2011-2014), MF 7347 S MCS (2012-2014), MF 7360 T4I (2012), MF 7360 PL T4I (2012), MF 7370 T4I (2012), MF 7345 S (2011-2014), MF 7347 S (2012-2014), MF 7360 T4I (2013-2014), MF 7360 PL T4I (2013-2014), MF 7370 T4I (2013-2014), MF 7360 PLI T4I (2013-2014), MF 7345 S (09/14 - 08/17), MF 7345 S MCS (09/14 - 08/17), MF 7347 S (09/14 - 08/17), MF 7347 S MCS (09/14 - 08/17), MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF 7340 T4F (2018-2021), MF 7344 TF4 (2018-2021), MF 7345 S T4F (2018-2021), MF 7347 S T4F (2018-2021), MF 7360 T4F (2018-2021), MF 7360 PL/PLI T4F (2018-2021), MF 7370 T4F (2018-2021), MF 7340 ST5 (2021-9999), MF 7344 ST5 (2021-9999), MF 7347 S ST5 (2021-9999), MF 7370 ST5 (2021-9999), MF 7344 (09/15 - 08/17), MF 7382 (04/15 - 03/17), MF 7340 (09/15 - 08/17), MF 7247 S (2008-2011), MF 7245 S (2006-2011), MF 7274, MF 7240 (2008-2018), MF 7244 (2006-2011), MF 7245 (2006-2011), MF 7246 (2006-2011), MF 7260 (2005-2011), MF 7270 (2005-2011), MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7370 PLI (2017), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7256, MF 7272, MF Activa S 7345 MCS, MF Activa S 7347 MCS, MF Beta 7360, MF Beta 7370 PL, MF7380, MF7380AL, MF7382, MF9380, MF Beta 7370 PLI, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, No longer used Refer to 11652, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, No longer used Refer to 11650, No longer used Refer to 11651, T195 (replaced by J3591), T210 (replaced by J3592), T230 (replaced by J3593), T250 (replaced by J3594), A74SH 1C7, A84SH 1C7, A94SH 1C7, A104MH 1C7, A114MH 1C7, A124LH 1C7, A134LH 1C7, A104MH4, A114MH4, N101, S233, S263, S293, S323, S353, S294, S374, S324 SmartTouch MR19, S394 SmartTouch MR19</t>
+        </is>
+      </c>
+      <c r="D167" s="11" t="inlineStr"/>
     </row>
     <row r="168" ht="18.75" customHeight="1">
       <c r="A168" s="3" t="inlineStr">
@@ -2518,49 +3330,93 @@
           <t>3009509X1</t>
         </is>
       </c>
-      <c r="B168" s="11" t="n"/>
-      <c r="C168" s="11" t="n"/>
-      <c r="D168" s="11" t="n"/>
+      <c r="B168" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C168" s="11" t="inlineStr">
+        <is>
+          <t>MT455D, MT465D, MT445B, MT455B, MT465B, MT445B-T3, MT455B-T3 Dyna-4, MT465B-T3 Dyna-4, MT555D Dyna-6, MT565D Dyna-6, MT575D Dyna-6, MT585D Dyna-6, MT555D CVT, MT565D CVT, MT575D CVT, MT585D CVT, MT515D Dyna-4, MT525D Dyna-4, MT525D Dyna-6, MT535D Dyna-6, MT545D Dyna-6, MT525D Dyna-VT, MT535D Dyna-VT, MT545D Dyna-VT, MT575E Dyna-6, MT575E CVT, MT525E Dyna-4, MT525E Dyna-6, MT545E Dyna-6, MT525E Dyna-VT, MT545E Dyna-VT, MT545B Dyna-6, MT525B Dyna-6, MT525B Dyna-CVT, MT545B Dyna-CVT, MT555B Dyna-CVT T3 CAT, MT565B Dyna-CVT T3 CAT, MT575B Dyna-CVT T3 CAT, MT555B Dyna-6 T3 CAT, MT565B Dyna-6 T3 CAT, MT575B Dyna-6 T3 CAT, MT525B Dyna-6 T3 CAT, MT545B Dyna-6 T3 CAT, MT525B Dyna-CVT T3 CAT, MT545B Dyna-CVT T3 CAT, MT595B Dyna-6 T3 SISU, MT595B Dyna-CVT T3 SISU , MT645D T4I, MT655D T4I, MT665D T4I / T2, MT675D T4I, MT685D T4I / T2, MT645C, MT655C T3 CVT, MT665C T3 / T2 CVT, MT675C T3 CVT, MF 2604H, MF 2605H, MF 2606H, MF 2607H, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7465 T3, MF 7475 T3, MF 7480 T3, MF 7499, MF 6614 Dyna-VT, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-VT, MF 6615 Dyna-6, MF 6616 Dyna-VT, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-VT, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-VT, MF 7616 Dyna-6, MF 7618 Dyna-VT, MF 7618 Dyna-6, MF 7619 Dyna-VT, MF 7619 Dyna-6, MF 7620 Dyna-VT, MF 7620 Dyna-6, MF 7622 Dyna-VT, MF 7622 Dyna-6, MF 7624 Dyna-VT, MF 7624 Dyna-6, MF 6715 S Dyna-4 T4F, MF 6714 S Dyna-VT, MF 6715 S Dyna-6 T4F, MF 6715 S Dyna-VT, MF 6716 S Dyna-6 T4F, MF 6716 S Dyna-VT T4F, MF 7719 Dyna-6, MF 7720 Dyna-6, MF 7722 Dyna-6, MF 7724 Dyna-6, MF 7726 Dyna-6, MF 7720 Dyna-VT, MF 7722 Dyna-VT, MF 7724 Dyna-VT, MF 7716 Dyna-VT, MF 7718 Dyna-VT, MF 7719 Dyna-VT, MF 7726 Dyna-VT, MF 7714 S Dyna-4, MF 7714 S Dyna-4 T5, MF 7718 S Dyna-VT T5, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, MF 5445, MF 5470 T3, MF 5480 T3, MF 5465 T3, MF 5475 T3, MF 5445 T3, MF 5455 T3, MF 5450 T3, MF 2670, MF 2680, MF 8660 Dyna-VT T2, MF 8670, MF 8680, MF 8690</t>
+        </is>
+      </c>
+      <c r="D168" s="11" t="inlineStr"/>
     </row>
     <row r="169" ht="18.75" customHeight="1">
       <c r="A169" s="4" t="n">
         <v>3917728</v>
       </c>
-      <c r="B169" s="11" t="n"/>
-      <c r="C169" s="11" t="n"/>
-      <c r="D169" s="11" t="n"/>
+      <c r="B169" s="11" t="inlineStr"/>
+      <c r="C169" s="11" t="inlineStr"/>
+      <c r="D169" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="170" ht="18.75" customHeight="1">
       <c r="A170" s="4" t="n">
         <v>700705296</v>
       </c>
-      <c r="B170" s="11" t="n"/>
-      <c r="C170" s="11" t="n"/>
-      <c r="D170" s="11" t="n"/>
+      <c r="B170" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C170" s="11" t="inlineStr">
+        <is>
+          <t>1270 (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), MF 2150 CE, MF 2160 CE, MF 2170CE, MF 2140 CE</t>
+        </is>
+      </c>
+      <c r="D170" s="11" t="inlineStr"/>
     </row>
     <row r="171" ht="18.75" customHeight="1">
       <c r="A171" s="4" t="n">
         <v>70926838</v>
       </c>
-      <c r="B171" s="11" t="n"/>
-      <c r="C171" s="11" t="n"/>
-      <c r="D171" s="11" t="n"/>
+      <c r="B171" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C171" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, MF 184, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 186CE, MF 187CE, MF 2140 CE, MF 1035, MF 1045</t>
+        </is>
+      </c>
+      <c r="D171" s="11" t="inlineStr"/>
     </row>
     <row r="172" ht="18.75" customHeight="1">
       <c r="A172" s="4" t="n">
         <v>768226</v>
       </c>
-      <c r="B172" s="11" t="n"/>
-      <c r="C172" s="11" t="n"/>
-      <c r="D172" s="11" t="n"/>
+      <c r="B172" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C172" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 186CE, MF 187CE, MF 2140 CE, MF 375 2WD, MF 375 4WD</t>
+        </is>
+      </c>
+      <c r="D172" s="11" t="inlineStr"/>
     </row>
     <row r="173" ht="18.75" customHeight="1">
       <c r="A173" s="4" t="n">
         <v>70345406</v>
       </c>
-      <c r="B173" s="11" t="n"/>
-      <c r="C173" s="11" t="n"/>
-      <c r="D173" s="11" t="n"/>
+      <c r="B173" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C173" s="11" t="inlineStr">
+        <is>
+          <t>MF 1359</t>
+        </is>
+      </c>
+      <c r="D173" s="11" t="inlineStr"/>
     </row>
     <row r="174" ht="18.75" customHeight="1">
       <c r="A174" s="3" t="inlineStr">
@@ -2568,9 +3424,9 @@
           <t>ACP0011950</t>
         </is>
       </c>
-      <c r="B174" s="11" t="n"/>
-      <c r="C174" s="11" t="n"/>
-      <c r="D174" s="11" t="n"/>
+      <c r="B174" s="11" t="inlineStr"/>
+      <c r="C174" s="11" t="inlineStr"/>
+      <c r="D174" s="11" t="inlineStr"/>
     </row>
     <row r="175" ht="18.75" customHeight="1">
       <c r="A175" s="3" t="inlineStr">
@@ -2578,9 +3434,13 @@
           <t>400271X1</t>
         </is>
       </c>
-      <c r="B175" s="11" t="n"/>
-      <c r="C175" s="11" t="n"/>
-      <c r="D175" s="11" t="n"/>
+      <c r="B175" s="11" t="inlineStr"/>
+      <c r="C175" s="11" t="inlineStr"/>
+      <c r="D175" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="176" ht="18.75" customHeight="1">
       <c r="A176" s="3" t="inlineStr">
@@ -2588,9 +3448,13 @@
           <t>D40428300</t>
         </is>
       </c>
-      <c r="B176" s="11" t="n"/>
-      <c r="C176" s="11" t="n"/>
-      <c r="D176" s="11" t="n"/>
+      <c r="B176" s="11" t="inlineStr"/>
+      <c r="C176" s="11" t="inlineStr"/>
+      <c r="D176" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="177" ht="18.75" customHeight="1">
       <c r="A177" s="3" t="inlineStr">
@@ -2598,17 +3462,33 @@
           <t>V528902230</t>
         </is>
       </c>
-      <c r="B177" s="11" t="n"/>
-      <c r="C177" s="11" t="n"/>
-      <c r="D177" s="11" t="n"/>
+      <c r="B177" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C177" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 8170 4WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 8260 4WD, MF 8250 2WD, MF 8250 4WD, MF 8280 4WD, MF 8270 4WD, MF 8260 2WD, MF 8240 2WD, MF 8240 4WD, MF 8470, MF 8480, MF 8470 XTRA, MF 8480 XTRA, MF 9690, MF 9790, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 7274, MF 7270 (2005-2011), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7272, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, S230, S240, S260, S280</t>
+        </is>
+      </c>
+      <c r="D177" s="11" t="inlineStr"/>
     </row>
     <row r="178" ht="18.75" customHeight="1">
       <c r="A178" s="4" t="n">
         <v>71345595</v>
       </c>
-      <c r="B178" s="11" t="n"/>
-      <c r="C178" s="11" t="n"/>
-      <c r="D178" s="11" t="n"/>
+      <c r="B178" s="11" t="inlineStr">
+        <is>
+          <t>Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C178" s="11" t="inlineStr">
+        <is>
+          <t>S67 Super , S77 Super, 9250 Draper Header, 5100 Draper Header, 9255 Draper Header, 700 Grain Header, 8200 Grain Header, 7200 Grain Header, 7000 Grain Header, MF 9255, MF 5100, MF 9250-910 DynaFlex SRA, MF 7200-760 Rigid Header, MF 8200-600 Flexible Header, MF 9146, MF 9125, MF 9226</t>
+        </is>
+      </c>
+      <c r="D178" s="11" t="inlineStr"/>
     </row>
     <row r="179" ht="18.75" customHeight="1">
       <c r="A179" s="3" t="inlineStr">
@@ -2616,9 +3496,17 @@
           <t>LA10902334</t>
         </is>
       </c>
-      <c r="B179" s="11" t="n"/>
-      <c r="C179" s="11" t="n"/>
-      <c r="D179" s="11" t="n"/>
+      <c r="B179" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C179" s="11" t="inlineStr">
+        <is>
+          <t>Cutting table PF 12,2m (40'), Cutting table PF 5,5m (18'), Cutting table PF 7,7m (25'), Cutting table PF 9,2m (30'), Cutting table PF 10,7m (35'), Cutting table FF 7,0m, MF 9690, MF 3640, MF 7274, MF 7244 (2006-2011), MF 7245 (2006-2011), MF 7246 (2006-2011), MF 7278, MF Beta 7370 PL</t>
+        </is>
+      </c>
+      <c r="D179" s="11" t="inlineStr"/>
     </row>
     <row r="180" ht="18.75" customHeight="1">
       <c r="A180" s="3" t="inlineStr">
@@ -2626,17 +3514,29 @@
           <t>D4042600</t>
         </is>
       </c>
-      <c r="B180" s="11" t="n"/>
-      <c r="C180" s="11" t="n"/>
-      <c r="D180" s="11" t="n"/>
+      <c r="B180" s="11" t="inlineStr"/>
+      <c r="C180" s="11" t="inlineStr"/>
+      <c r="D180" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="181" ht="18.75" customHeight="1">
       <c r="A181" s="4" t="n">
         <v>768036</v>
       </c>
-      <c r="B181" s="11" t="n"/>
-      <c r="C181" s="11" t="n"/>
-      <c r="D181" s="11" t="n"/>
+      <c r="B181" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C181" s="11" t="inlineStr">
+        <is>
+          <t>990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, MF 2620/2625, MF 2640/2645 2WD, MF 2640/2645 4WD, MF 2620/2625 4WD, MF 2680 2WD, MF 2680 4WD, MF 2720/2725, MF 9690, MF 9790, MF 3640, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 186CE, MF 187CE, MF 2140 CE, MF 1529, MF 1532, MF 1532H, MF 265, MF 375 2WD, MF 375 4WD, MF 390 2WD</t>
+        </is>
+      </c>
+      <c r="D181" s="11" t="inlineStr"/>
     </row>
     <row r="182" ht="18.75" customHeight="1">
       <c r="A182" s="3" t="inlineStr">
@@ -2644,9 +3544,9 @@
           <t>3736715B</t>
         </is>
       </c>
-      <c r="B182" s="11" t="n"/>
-      <c r="C182" s="11" t="n"/>
-      <c r="D182" s="11" t="n"/>
+      <c r="B182" s="11" t="inlineStr"/>
+      <c r="C182" s="11" t="inlineStr"/>
+      <c r="D182" s="11" t="inlineStr"/>
     </row>
     <row r="183" ht="18.75" customHeight="1">
       <c r="A183" s="3" t="inlineStr">
@@ -2654,9 +3554,21 @@
           <t>SN8928-1</t>
         </is>
       </c>
-      <c r="B183" s="11" t="n"/>
-      <c r="C183" s="11" t="n"/>
-      <c r="D183" s="11" t="n"/>
+      <c r="B183" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C183" s="11" t="inlineStr">
+        <is>
+          <t>MF 9435</t>
+        </is>
+      </c>
+      <c r="D183" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="184" ht="18.75" customHeight="1">
       <c r="A184" s="3" t="inlineStr">
@@ -2664,9 +3576,9 @@
           <t>SNFK340167</t>
         </is>
       </c>
-      <c r="B184" s="11" t="n"/>
-      <c r="C184" s="11" t="n"/>
-      <c r="D184" s="11" t="n"/>
+      <c r="B184" s="11" t="inlineStr"/>
+      <c r="C184" s="11" t="inlineStr"/>
+      <c r="D184" s="11" t="inlineStr"/>
     </row>
     <row r="185" ht="18.75" customHeight="1">
       <c r="A185" s="3" t="inlineStr">
@@ -2674,9 +3586,9 @@
           <t>SN1611-1</t>
         </is>
       </c>
-      <c r="B185" s="11" t="n"/>
-      <c r="C185" s="11" t="n"/>
-      <c r="D185" s="11" t="n"/>
+      <c r="B185" s="11" t="inlineStr"/>
+      <c r="C185" s="11" t="inlineStr"/>
+      <c r="D185" s="11" t="inlineStr"/>
     </row>
     <row r="186" ht="18.75" customHeight="1">
       <c r="A186" s="3" t="inlineStr">
@@ -2684,9 +3596,9 @@
           <t>WR55627</t>
         </is>
       </c>
-      <c r="B186" s="11" t="n"/>
-      <c r="C186" s="11" t="n"/>
-      <c r="D186" s="11" t="n"/>
+      <c r="B186" s="11" t="inlineStr"/>
+      <c r="C186" s="11" t="inlineStr"/>
+      <c r="D186" s="11" t="inlineStr"/>
     </row>
     <row r="187" ht="18.75" customHeight="1">
       <c r="A187" s="3" t="inlineStr">
@@ -2694,9 +3606,17 @@
           <t>SN3118</t>
         </is>
       </c>
-      <c r="B187" s="11" t="n"/>
-      <c r="C187" s="11" t="n"/>
-      <c r="D187" s="11" t="n"/>
+      <c r="B187" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C187" s="11" t="inlineStr">
+        <is>
+          <t>MF 9435</t>
+        </is>
+      </c>
+      <c r="D187" s="11" t="inlineStr"/>
     </row>
     <row r="188" ht="18.75" customHeight="1">
       <c r="A188" s="3" t="inlineStr">
@@ -2704,17 +3624,33 @@
           <t>3009184X1</t>
         </is>
       </c>
-      <c r="B188" s="11" t="n"/>
-      <c r="C188" s="11" t="n"/>
-      <c r="D188" s="11" t="n"/>
+      <c r="B188" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C188" s="11" t="inlineStr">
+        <is>
+          <t>PLNTR MOMENTUM 16-30 FT 40', PLNTR MOMENTUM 16-70 FT 40', PLNTR MOMENTUM 16-76 FT 40', PLNTR MOMENTUM 24-20 FT 40', PLNTR MOMENTUM 24-22 FT 40', PLNTR MOMENTUM 32-15 FT 40', PLNTR MOMENTUM 24-30 FT 60', PLNTR MOMENTUM 24-70 FT 60', PLNTR MOMENTUM 24-76 FT 60', PLNTR MOMENTUM 36-20 FT 60', PLNTR MOMENTUM 36-22 FT 60', PLNTR MOMENTUM 48-15 FT 60', IDEAL 10, IDEAL 7, IDEAL 8, IDEAL 9, 9300R, 9390R, 6465 Dyna-6, 6475 Dyna-6, MF 6480 T3 Agco Power, 6485, MF 6490 T3 Agco Power, MF 6495 T3 Agco Power, 6465, MF 6475 T3 Agco Power, MF 6480 T3 Perkins, MF 6497 T3 Agco Power, MF 6499 T3 Agco Power, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 9540, MF 9560, MF 9895, MF 9695, MF 9795, MF 2225, MF 2235, MF 2430, MF 2435, MF 2440, MF 2230, MF 5709 S Dyna-4, MF 5709 S Dyna-6, MF 5709 SL Dyna-4, MF 5710 SL Dyna-4, MF 5710 SL Dyna-6, MF 5711 SL Dyna-4, MF 5711 SL Dyna-6, MF 5712 SL Dyna-4, MF 5712 SL Dyna-6, MF 5713 SL Dyna-4, MF 5713 SL Dyna-6, MF 6712 S Dyna-4, MF 6713 S Dyna-4, MF 6714 S Dyna-4 T4F, MF 6715 S Dyna-4 T4F, MF 6713 S Dyna-6, MF 6713 S Dyna-VT, MF 6714 S Dyna-6, MF 6714 S Dyna-VT, MF 6715 S Dyna-6 T4F, MF 6715 S Dyna-VT, MF 6716 S Dyna-6 T4F, MF 6716 S Dyna-VT T4F, MF 6718 S Dyna-6, MF 6718 S Dyna-VT, MF 6714 S Dyna-6 T4F, MF 6714 S Dyna-VT T4F, MF 7719 Dyna-6, MF 7715 DYNA-4, MF 7716 Dyna-6, MF 7714 Dyna-4, MF 7715 Dyna-4, MF 7726 Dyna-VT, MF6713 S Dyna-6 T5, MF 6713 S Dyna-VT T5, MF 6714 S Dyna-6 T5, MF 6714 S Dyna-VT T5, MF 6715 S Dyna-6 T5, MF 6715 S Dyna-VT T5, MF 6716 S Dyna-6 T5, MF 6716 S Dyna-VT T5, MF 6718 S Dyna-6 T5, MF 6718 S Dyna-VT T5, MF 7719 S Dyna-VT T5, MF 7715 S Dyna-VT T5, MF 7715 S Dyna-6 T5, MF 7716 S Dyna-VT T5, MF 7716 S Dyna-6 T5, MF 7718 S Dyna-VT T5, MF 7718 S Dyna-6 T5, MF 8737 S, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 8740 S Dyna-VT, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5465 T3, MF 5475 T3, MF 8737 MR, MF IDEAL 7, MF IDEAL 8, MF IDEAL 9, No longer used Refer to 11652, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, No longer used Refer to 11650, No longer used Refer to 11651, S294, S374, S324 SmartTouch MR19, S394 SmartTouch MR19</t>
+        </is>
+      </c>
+      <c r="D188" s="11" t="inlineStr"/>
     </row>
     <row r="189" ht="18.75" customHeight="1">
       <c r="A189" s="4" t="n">
         <v>700725326</v>
       </c>
-      <c r="B189" s="11" t="n"/>
-      <c r="C189" s="11" t="n"/>
-      <c r="D189" s="11" t="n"/>
+      <c r="B189" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C189" s="11" t="inlineStr">
+        <is>
+          <t>MF 1843 N/S</t>
+        </is>
+      </c>
+      <c r="D189" s="11" t="inlineStr"/>
     </row>
     <row r="190" ht="18.75" customHeight="1">
       <c r="A190" s="3" t="inlineStr">
@@ -2722,9 +3658,17 @@
           <t>V836864141</t>
         </is>
       </c>
-      <c r="B190" s="11" t="n"/>
-      <c r="C190" s="11" t="n"/>
-      <c r="D190" s="11" t="n"/>
+      <c r="B190" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C190" s="11" t="inlineStr">
+        <is>
+          <t>207 Vario, 208 Vario, 209 Vario, 210 Vario, 211 Vario, 207 F Vario S3, 208 F Vario S3, 209 F Vario S3, 210 F Vario S3, 211 F Vario S3, 209 P Vario S3, 210 P Vario S3, 211 P Vario S3, 209 P Vario, 210 P Vario, 211 P Vario, 207 S Vario S3, 208 S Vario S3, 209 S Vario S3, 210 S Vario S3, 211 S Vario S3, 207 V Vario S3, 208 V Vario S3, 209 V Vario S3, 210 V Vario S3, 211 V Vario S3, 207 VF Vario, 208 VF Vario, 209 VF Vario, 210 VF Vario, 211 VF Vario, 310 Vario S4, 311 Vario S4, 312 Vario S4, 313 Vario S4, 8370P, 8400P, 9300R, 9390R, 9470X, Rogator 635 (MY19), RG 635, MF 3680 2WD, MF 3680 4WD, MF 3690 2WD, MF 3690 4WD, MF 8170 4WD, MF 8250 2WD, MF 8250 4WD, MF 8280 4WD, MF 8270 4WD, MF 8260 2WD, MF 8240 2WD, MF 8240 4WD, 6465 Dyna-6, 6475 Dyna-6, MF 6480 T3 Agco Power, MF 6497 T2 Agco Power, MF 6499 T2 Agco Power, MF 6490 T2 Agco Power, MF 6495 T2 Agco Power, MF 6485 T2 Agco Power, MF 6497 XTRA, MF 6499 XTRA, 6485, MF 6490 T3 Agco Power, MF 6495 T3 Agco Power, MF 6470 T3 Agco Power, MF 6460 T3 Agco Power, MF 6497 T3 Agco Power, MF 6499 T3 Agco Power, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7485, MF 7490, MF 7495, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 8450, MF 8460, MF 8470, MF 8480, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 9690, MF 9790, MF 9695, MF 9795, MF 4435 T2, MF 4445 T2, MF 4455 T2, MF 4435 T3, MF 4445 T3, MF 4455 T3, MF 3630, MF 3640, MF 3650, MF 3630 XTRA, MF 3640 XTRA, MF 3650 XTRA, MF 3615, MF 3625, MF 3635, MF 3645, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 5608 Dyna-4, MF 5609 Dyna-4, MF 5610 Dyna-4, MF 6612 Dyna-4, MF 6613 Dyna-6, MF 6613 Dyna-4, MF 6614 Dyna-VT, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-VT, MF 6615 Dyna-6, MF 6616 Dyna-VT, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-VT, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-VT, MF 7616 Dyna-6, MF 7618 Dyna-VT, MF 7618 Dyna-6, MF 7619 Dyna-VT, MF 7619 Dyna-6, MF 7620 Dyna-VT, MF 7620 Dyna-6, MF 7622 Dyna-VT, MF 7622 Dyna-6, MF 7624 Dyna-VT, MF 7624 Dyna-6, MF 7626 Dyna-6, MF 6712 S Dyna-4, MF 6713 S Dyna-4, MF 6714 S Dyna-4 T4F, MF 6715 S Dyna-4 T4F, MF 6713 S Dyna-6, MF 6713 S Dyna-VT, MF 6714 S Dyna-6, MF 6714 S Dyna-VT, MF 6715 S Dyna-6 T4F, MF 6715 S Dyna-VT, MF 6716 S Dyna-6 T4F, MF 6716 S Dyna-VT T4F, MF 6718 S Dyna-6, MF 6718 S Dyna-VT, MF 6714 S Dyna-6 T4F, MF 6714 S Dyna-VT T4F, MF 7719 Dyna-6, MF 7715 DYNA-4, MF 7716 Dyna-6, MF 7714 Dyna-4, MF 7715 Dyna-4, MF 7726 Dyna-VT, MF6713 S Dyna-6 T5, MF 6713 S Dyna-VT T5, MF 6714 S Dyna-6 T5, MF 6714 S Dyna-VT T5, MF 6715 S Dyna-6 T5, MF 6715 S Dyna-VT T5, MF 6716 S Dyna-6 T5, MF 6716 S Dyna-VT T5, MF 6718 S Dyna-6 T5, MF 6718 S Dyna-VT T5, MF 7714 S Dyna-4, MF 7715 S Dyna-4, MF 7719 S Dyna-VT T5, MF 7714 S Dyna-4 T5, MF 7715 S Dyna-VT T5, MF 7715 S Dyna-6 T5, MF 7715 S Dyna-4 T5, MF 7716 S Dyna-VT T5, MF 7716 S Dyna-6 T5, MF 7718 S Dyna-VT T5, MF 7718 S Dyna-6 T5, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, 5475, 5470, MF 5470 T3, MF 5480 T3, MF 5470 SISU, MF 7265 (2009-2011), MF 7345 S MCS (2011-2014), MF 7347 S MCS (2012-2014), MF 7360 T4I (2012), MF 7360 PL T4I (2012), MF 7345 S (2011-2014), MF 7347 S (2012-2014), MF 7360 T4I (2013-2014), MF 7360 PL T4I (2013-2014), MF 7360 PLI T4I (2013-2014), MF 7345 S (09/14 - 08/17), MF 7345 S MCS (09/14 - 08/17), MF 7347 S (09/14 - 08/17), MF 7347 S MCS (09/14 - 08/17), MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7340 T4F (2018-2021), MF 7344 TF4 (2018-2021), MF 7345 S T4F (2018-2021), MF 7347 S T4F (2018-2021), MF 7360 T4F (2018-2021), MF 7360 PL/PLI T4F (2018-2021), MF 7340 ST5 (2021-9999), MF 7344 ST5 (2021-9999), MF 7347 S ST5 (2021-9999), MF 7344 (09/15 - 08/17), MF 7340 (09/15 - 08/17), MF 7247 S (2008-2011), MF 7274, MF 7260 (2005-2011), MF 7270 (2005-2011), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7256, MF 7272, MF Activa S 7345 MCS, MF Activa S 7347 MCS, MF Beta 7360, MF 3625 V 4WD, MF 3635 V 4WD, MF 3625 S 4WD, MF 3635 S 4WD, MF 3625 F 4WD, MF 3635 F 4WD, MF 3625 GE 4WD, MF 3635 GE 4WD, A75N, A85N, A95N, A75L, A85L, A95L, C100, C110, C120, C120E, C130, C150, C90, M120, M120E, M120H, M130, M150, 6000, 6100, 6200, 6200E, 6200LS, 6300, 6300E, 6300LS, 6400, 6400E, 6400LS, 6600, 6800, 6800E, 8200E, 8000, 8050E, 8100, 8150E, 8200, 8400, 8450, 8550E, 8750, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, S230, S240, S260, S280, T195 (replaced by J3591), T210 (replaced by J3592), T230 (replaced by J3593), T250 (replaced by J3594), T120, T130, T140E, T150, T160, T170, T180, T190, T120C, T120CH, T130C, T130CH, T140EC, T140ECH, T160C, T160CH, T170C, T170CH, T150C, T150CH, X100, X110, X120, XM130, XM150, A72, A82, A92, A72L, A82L, A92L, A83H, A93H, A74SH 1C7, N121H, N141H, N111eH, N101H, N91C, N91H, N101C, N111, N121LS, N141LS, N111ELS, N122V, N142V, N122D, N142D, N113H3, N113H5, N123H3, N123H5, N143V, N163V, N143D, N163D, N143H3, N103.4H3, N103.4H5, N123V, N123D, N104H5, N114EH5, N124H5, N134H5, N154EH5, N174H5, N134A, N154EA, N174A, N134V, N154EV, N174V, N134D, N154ED, N174D, N104H5 MR18, N114EH5 MR18, N124H5 MR18, N134H5 MR18, N154EH5 MR18, N174H5 MR18, N134A MR18, N154EA MR18, N174A MR18, N134V SmartTouch, N154EV SmartTouch, N174V SmartTouch, N134D SmartTouch, N154ED SmartTouch, N174D SmartTouch, N93H3, N103H3, N103H5, N93H5, N82H, N92H, T131C, T161C, T171C, T121H, T131H, T151EH, T161H, T171H, T191H, T121C, T161LS, T171LS, T191LS, T132V, T152V, T162EV, T172V, T182V, T202V, T132D, T152D, T162D, T172D, T182D, T202D, T193H, T213V, T183D, T203D, T144H, T154H, T174EH, T194H, T214H, T234H, T144A, T154A, T174EA, T194A, T214A, T234A, T144V, T154V, T174EV, T194V, T214V, T234V, T144D, T154D, T174ED, T194D, T214D, T144H MR18, T154H MR18, T174EH MR18, T194H MR18, T234H MR18, T254H MR18, T144A MR18, T154A MR18, T174EA MR18, T194A MR18, T214A MR18, T234A MR18, T254A MR18, T144V SmartTouch, T154V SmartTouch, T174EV SmartTouch, T194V SmartTouch, T214V SmartTouch, T234V SmartTouch, T254V SmartTouch, T144D SmartTouch, T154D SmartTouch, T174ED SmartTouch, T194D SmartTouch, T214D SmartTouch, T234D SmartTouch, T144H MR19, T154H MR19, T174EH MR19, T144A MR19, T154A MR19, T174EA MR19, T144V SmartTouch MR19, T154V SmartTouch MR19, T174EV SmartTouch MR19, T144D SmartTouch MR19, T154D SmartTouch MR19, T174ED SmartTouch MR19, T194H MR19, T214H MR19, T234H MR19, T254H MR19, T194A MR19, T214A MR19, T234A MR19, T254A MR19, T194V SmartTouch MR19, T214V SmartTouch MR19, T234V SmartTouch MR19, T254V SmartTouch MR19, T194D SmartTouch MR19, T214D SmartTouch MR19, T234D SmartTouch MR19</t>
+        </is>
+      </c>
+      <c r="D190" s="11" t="inlineStr"/>
     </row>
     <row r="191" ht="18.75" customHeight="1">
       <c r="A191" s="3" t="inlineStr">
@@ -2732,9 +3676,17 @@
           <t>V836336296</t>
         </is>
       </c>
-      <c r="B191" s="11" t="n"/>
-      <c r="C191" s="11" t="n"/>
-      <c r="D191" s="11" t="n"/>
+      <c r="B191" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C191" s="11" t="inlineStr">
+        <is>
+          <t>MF 3680 2WD, MF 3680 4WD, MF 3690 2WD, MF 3690 4WD, MF 8170 4WD, MF 8280 4WD, MF 8270 4WD, MF 7278</t>
+        </is>
+      </c>
+      <c r="D191" s="11" t="inlineStr"/>
     </row>
     <row r="192" ht="18.75" customHeight="1">
       <c r="A192" s="3" t="inlineStr">
@@ -2742,9 +3694,17 @@
           <t>V836873510</t>
         </is>
       </c>
-      <c r="B192" s="11" t="n"/>
-      <c r="C192" s="11" t="n"/>
-      <c r="D192" s="11" t="n"/>
+      <c r="B192" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C192" s="11" t="inlineStr">
+        <is>
+          <t>IDEAL 7, 8370P, 8400P, 8380P, 8410P, 9390R, 9470X, 9490X, 938 Vario MT, 940 Vario MT, 943 Vario MT, MF 9540, MF 9560, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 8737 S, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 8740 S Dyna-VT, MF8727, MF8730, MF8732, MF8735, MF 8737 MR, MF IDEAL 7, MF 7370 T4I (2012), MF 7370 T4I (2013-2014), MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF 7370 T4F (2018-2021), MF 7370 ST5 (2021-9999), MF 7382 (04/15 - 03/17), MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7370 PLI (2017), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF Beta 7370 PL, MF7380, MF7380AL, MF7382, MF9380, MF Beta 7370 PLI, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, No longer used Refer to 11652, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, No longer used Refer to 11650, No longer used Refer to 11651, S233, S263, S293, S323, S353, S294, S374, S324 SmartTouch MR19, S394 SmartTouch MR19</t>
+        </is>
+      </c>
+      <c r="D192" s="11" t="inlineStr"/>
     </row>
     <row r="193" ht="18.75" customHeight="1">
       <c r="A193" s="3" t="inlineStr">
@@ -2752,41 +3712,65 @@
           <t>SN9819</t>
         </is>
       </c>
-      <c r="B193" s="11" t="n"/>
-      <c r="C193" s="11" t="n"/>
-      <c r="D193" s="11" t="n"/>
+      <c r="B193" s="11" t="inlineStr"/>
+      <c r="C193" s="11" t="inlineStr"/>
+      <c r="D193" s="11" t="inlineStr"/>
     </row>
     <row r="194" ht="18.75" customHeight="1">
       <c r="A194" s="4" t="n">
         <v>826370</v>
       </c>
-      <c r="B194" s="11" t="n"/>
-      <c r="C194" s="11" t="n"/>
-      <c r="D194" s="11" t="n"/>
+      <c r="B194" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C194" s="11" t="inlineStr">
+        <is>
+          <t>MF 1843 N/S, MF 1363, MF WR 9725, MF WR 9735, MF WR 9430, MF WR 9950, MF WR 9960, MF WR 9970, MF WR 9980, MF WR 9740, MF WR 9760, MF WR 9770, MF WR 9840, MF WR 9860, MF WR 9870</t>
+        </is>
+      </c>
+      <c r="D194" s="11" t="inlineStr"/>
     </row>
     <row r="195" ht="18.75" customHeight="1">
       <c r="A195" s="4" t="n">
         <v>700158651</v>
       </c>
-      <c r="B195" s="11" t="n"/>
-      <c r="C195" s="11" t="n"/>
-      <c r="D195" s="11" t="n"/>
+      <c r="B195" s="11" t="inlineStr"/>
+      <c r="C195" s="11" t="inlineStr"/>
+      <c r="D195" s="11" t="inlineStr"/>
     </row>
     <row r="196" ht="18.75" customHeight="1">
       <c r="A196" s="4" t="n">
         <v>71367257</v>
       </c>
-      <c r="B196" s="11" t="n"/>
-      <c r="C196" s="11" t="n"/>
-      <c r="D196" s="11" t="n"/>
+      <c r="B196" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C196" s="11" t="inlineStr">
+        <is>
+          <t>Cutting table PF 5,5m (18'), MF 3640</t>
+        </is>
+      </c>
+      <c r="D196" s="11" t="inlineStr"/>
     </row>
     <row r="197" ht="18.75" customHeight="1">
       <c r="A197" s="4" t="n">
         <v>72317592</v>
       </c>
-      <c r="B197" s="11" t="n"/>
-      <c r="C197" s="11" t="n"/>
-      <c r="D197" s="11" t="n"/>
+      <c r="B197" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C197" s="11" t="inlineStr">
+        <is>
+          <t>RG1100B, TG7300C, TG8300C, TG8400C, TG9300C, MT645D T4I, MT655D T4I, MT665D T4I / T2, MT675D T4I, MT685D T4I / T2, MT665E, MT645C, MT655C T3 CVT, MT665C T3 / T2 CVT, MT675C T3 CVT, MT645E, MT665E T4F CVT, Favorit 916 Vario, Favorit 920 Vario, Favorit 924 Vario, Favorit 926 Vario, 930 Vario TMS, 822 Vario S4, 824 Vario S4, 826 Vario S4, 828 Vario S4, 822 Vario SCR, 824 Vario SCR, 828 Vario SCR, 927 Vario S4, 930 Vario S4, 933 Vario S4, 936 Vario S4, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 8660 Dyna-VT T2, MF 8670, MF 8680, MF 8690, MF 8727, MF 8730, MF 8732, MF 8735</t>
+        </is>
+      </c>
+      <c r="D197" s="11" t="inlineStr"/>
     </row>
     <row r="198" ht="18.75" customHeight="1">
       <c r="A198" s="3" t="inlineStr">
@@ -2794,17 +3778,33 @@
           <t>3907675M91</t>
         </is>
       </c>
-      <c r="B198" s="11" t="n"/>
-      <c r="C198" s="11" t="n"/>
-      <c r="D198" s="11" t="n"/>
+      <c r="B198" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C198" s="11" t="inlineStr">
+        <is>
+          <t>MF 6497 T2 Agco Power, MF 6499 T2 Agco Power, MF 6465 T2 Perkins, MF 6475 T2 Perkins, MF 6480 T2 Perkins, MF 6490 T2 Agco Power, MF 6495 T2 Agco Power, MF 6485 T2 Agco Power, MF 6497 XTRA, MF 6499 XTRA, 6485, MF 6490 T3 Agco Power, MF 6495 T3 Agco Power, 6465, MF 6475 T3 Agco Power, MF 6480 T3 Perkins, 5465, MF 5465 T3, MF 5475 T3</t>
+        </is>
+      </c>
+      <c r="D198" s="11" t="inlineStr"/>
     </row>
     <row r="199" ht="18.75" customHeight="1">
       <c r="A199" s="4" t="n">
         <v>853927</v>
       </c>
-      <c r="B199" s="11" t="n"/>
-      <c r="C199" s="11" t="n"/>
-      <c r="D199" s="11" t="n"/>
+      <c r="B199" s="11" t="inlineStr">
+        <is>
+          <t>Fendt</t>
+        </is>
+      </c>
+      <c r="C199" s="11" t="inlineStr">
+        <is>
+          <t>PLNTR MOMENTUM 16-30 FT 40', PLNTR MOMENTUM 16-70 FT 40', PLNTR MOMENTUM 16-76 FT 40', PLNTR MOMENTUM 24-20 FT 40', PLNTR MOMENTUM 24-22 FT 40', PLNTR MOMENTUM 32-15 FT 40', PLNTR MOMENTUM 24-30 FT 60', PLNTR MOMENTUM 24-70 FT 60', PLNTR MOMENTUM 24-76 FT 60', PLNTR MOMENTUM 36-20 FT 60', PLNTR MOMENTUM 36-22 FT 60', PLNTR MOMENTUM 48-15 FT 60'</t>
+        </is>
+      </c>
+      <c r="D199" s="11" t="inlineStr"/>
     </row>
     <row r="200" ht="18.75" customHeight="1">
       <c r="A200" s="3" t="inlineStr">
@@ -2812,9 +3812,9 @@
           <t>N858768</t>
         </is>
       </c>
-      <c r="B200" s="11" t="n"/>
-      <c r="C200" s="11" t="n"/>
-      <c r="D200" s="11" t="n"/>
+      <c r="B200" s="11" t="inlineStr"/>
+      <c r="C200" s="11" t="inlineStr"/>
+      <c r="D200" s="11" t="inlineStr"/>
     </row>
     <row r="201" ht="18.75" customHeight="1">
       <c r="A201" s="3" t="inlineStr">
@@ -2822,9 +3822,13 @@
           <t>N857578</t>
         </is>
       </c>
-      <c r="B201" s="11" t="n"/>
-      <c r="C201" s="11" t="n"/>
-      <c r="D201" s="11" t="n"/>
+      <c r="B201" s="11" t="inlineStr"/>
+      <c r="C201" s="11" t="inlineStr"/>
+      <c r="D201" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="202" ht="18.75" customHeight="1">
       <c r="A202" s="3" t="inlineStr">
@@ -2832,9 +3836,13 @@
           <t>N857517</t>
         </is>
       </c>
-      <c r="B202" s="11" t="n"/>
-      <c r="C202" s="11" t="n"/>
-      <c r="D202" s="11" t="n"/>
+      <c r="B202" s="11" t="inlineStr"/>
+      <c r="C202" s="11" t="inlineStr"/>
+      <c r="D202" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="203" ht="18.75" customHeight="1">
       <c r="A203" s="3" t="inlineStr">
@@ -2842,9 +3850,9 @@
           <t>N852996</t>
         </is>
       </c>
-      <c r="B203" s="11" t="n"/>
-      <c r="C203" s="11" t="n"/>
-      <c r="D203" s="11" t="n"/>
+      <c r="B203" s="11" t="inlineStr"/>
+      <c r="C203" s="11" t="inlineStr"/>
+      <c r="D203" s="11" t="inlineStr"/>
     </row>
     <row r="204" ht="18.75" customHeight="1">
       <c r="A204" s="3" t="inlineStr">
@@ -2852,9 +3860,21 @@
           <t>D44129300</t>
         </is>
       </c>
-      <c r="B204" s="11" t="n"/>
-      <c r="C204" s="11" t="n"/>
-      <c r="D204" s="11" t="n"/>
+      <c r="B204" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C204" s="11" t="inlineStr">
+        <is>
+          <t>Cutting table PF 5,5m (18'), MF 7274, MF 7278, MF 7256, MF 7272</t>
+        </is>
+      </c>
+      <c r="D204" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="205" ht="18.75" customHeight="1">
       <c r="A205" s="3" t="inlineStr">
@@ -2862,41 +3882,65 @@
           <t>D28274027</t>
         </is>
       </c>
-      <c r="B205" s="11" t="n"/>
-      <c r="C205" s="11" t="n"/>
-      <c r="D205" s="11" t="n"/>
+      <c r="B205" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C205" s="11" t="inlineStr">
+        <is>
+          <t>Cutting table PF 5,5m (18'), MF 7274, MF 7278</t>
+        </is>
+      </c>
+      <c r="D205" s="11" t="inlineStr"/>
     </row>
     <row r="206" ht="18.75" customHeight="1">
       <c r="A206" s="4" t="n">
         <v>71398332</v>
       </c>
-      <c r="B206" s="11" t="n"/>
-      <c r="C206" s="11" t="n"/>
-      <c r="D206" s="11" t="n"/>
+      <c r="B206" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C206" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, MF 9690, MF 9790, MF 9695, MF 9795</t>
+        </is>
+      </c>
+      <c r="D206" s="11" t="inlineStr"/>
     </row>
     <row r="207" ht="18.75" customHeight="1">
       <c r="A207" s="4" t="n">
         <v>71278863</v>
       </c>
-      <c r="B207" s="11" t="n"/>
-      <c r="C207" s="11" t="n"/>
-      <c r="D207" s="11" t="n"/>
+      <c r="B207" s="11" t="inlineStr"/>
+      <c r="C207" s="11" t="inlineStr"/>
+      <c r="D207" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="208" ht="18.75" customHeight="1">
       <c r="A208" s="4" t="n">
         <v>6620675</v>
       </c>
-      <c r="B208" s="11" t="n"/>
-      <c r="C208" s="11" t="n"/>
-      <c r="D208" s="11" t="n"/>
+      <c r="B208" s="11" t="inlineStr"/>
+      <c r="C208" s="11" t="inlineStr"/>
+      <c r="D208" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="209" ht="18.75" customHeight="1">
       <c r="A209" s="4" t="n">
         <v>853737</v>
       </c>
-      <c r="B209" s="11" t="n"/>
-      <c r="C209" s="11" t="n"/>
-      <c r="D209" s="11" t="n"/>
+      <c r="B209" s="11" t="inlineStr"/>
+      <c r="C209" s="11" t="inlineStr"/>
+      <c r="D209" s="11" t="inlineStr"/>
     </row>
     <row r="210" ht="18.75" customHeight="1">
       <c r="A210" s="3" t="inlineStr">

--- a/Agco.xlsx
+++ b/Agco.xlsx
@@ -14264,9 +14264,13 @@
           <t>SN8762-1</t>
         </is>
       </c>
-      <c r="B845" s="11" t="n"/>
-      <c r="C845" s="11" t="n"/>
-      <c r="D845" s="11" t="n"/>
+      <c r="B845" s="11" t="inlineStr"/>
+      <c r="C845" s="11" t="inlineStr"/>
+      <c r="D845" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="846" ht="18.75" customHeight="1">
       <c r="A846" s="3" t="inlineStr">
@@ -14274,9 +14278,9 @@
           <t>SN12015</t>
         </is>
       </c>
-      <c r="B846" s="11" t="n"/>
-      <c r="C846" s="11" t="n"/>
-      <c r="D846" s="11" t="n"/>
+      <c r="B846" s="11" t="inlineStr"/>
+      <c r="C846" s="11" t="inlineStr"/>
+      <c r="D846" s="11" t="inlineStr"/>
     </row>
     <row r="847" ht="18.75" customHeight="1">
       <c r="A847" s="3" t="inlineStr">
@@ -14284,9 +14288,9 @@
           <t>SN8767-1</t>
         </is>
       </c>
-      <c r="B847" s="11" t="n"/>
-      <c r="C847" s="11" t="n"/>
-      <c r="D847" s="11" t="n"/>
+      <c r="B847" s="11" t="inlineStr"/>
+      <c r="C847" s="11" t="inlineStr"/>
+      <c r="D847" s="11" t="inlineStr"/>
     </row>
     <row r="848" ht="18.75" customHeight="1">
       <c r="A848" s="3" t="inlineStr">
@@ -14294,9 +14298,9 @@
           <t>AG121773</t>
         </is>
       </c>
-      <c r="B848" s="11" t="n"/>
-      <c r="C848" s="11" t="n"/>
-      <c r="D848" s="11" t="n"/>
+      <c r="B848" s="11" t="inlineStr"/>
+      <c r="C848" s="11" t="inlineStr"/>
+      <c r="D848" s="11" t="inlineStr"/>
     </row>
     <row r="849" ht="18.75" customHeight="1">
       <c r="A849" s="3" t="inlineStr">
@@ -14304,17 +14308,21 @@
           <t>SN8756-1</t>
         </is>
       </c>
-      <c r="B849" s="11" t="n"/>
-      <c r="C849" s="11" t="n"/>
-      <c r="D849" s="11" t="n"/>
+      <c r="B849" s="11" t="inlineStr"/>
+      <c r="C849" s="11" t="inlineStr"/>
+      <c r="D849" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="850" ht="18.75" customHeight="1">
       <c r="A850" s="4" t="n">
         <v>852797</v>
       </c>
-      <c r="B850" s="11" t="n"/>
-      <c r="C850" s="11" t="n"/>
-      <c r="D850" s="11" t="n"/>
+      <c r="B850" s="11" t="inlineStr"/>
+      <c r="C850" s="11" t="inlineStr"/>
+      <c r="D850" s="11" t="inlineStr"/>
     </row>
     <row r="851" ht="18.75" customHeight="1">
       <c r="A851" s="3" t="inlineStr">
@@ -14322,9 +14330,17 @@
           <t xml:space="preserve">4308222M11 </t>
         </is>
       </c>
-      <c r="B851" s="11" t="n"/>
-      <c r="C851" s="11" t="n"/>
-      <c r="D851" s="11" t="n"/>
+      <c r="B851" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C851" s="11" t="inlineStr">
+        <is>
+          <t>MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, S233, S263, S293, S323, S353</t>
+        </is>
+      </c>
+      <c r="D851" s="11" t="inlineStr"/>
     </row>
     <row r="852" ht="18.75" customHeight="1">
       <c r="A852" s="3" t="inlineStr">
@@ -14332,17 +14348,25 @@
           <t>G001990100010</t>
         </is>
       </c>
-      <c r="B852" s="11" t="n"/>
-      <c r="C852" s="11" t="n"/>
-      <c r="D852" s="11" t="n"/>
+      <c r="B852" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C852" s="11" t="inlineStr">
+        <is>
+          <t>FAVORIT 711 VARIO, 712 Vario, 714 Vario, 716 Vario T2, Favorit 916 Vario, Favorit 920 Vario, Favorit 924 Vario, Favorit 926 Vario, 930 Vario TMS, MF 6290 2WD, MF 6290 4WD, MF 6280 2WD, MF 6280 4WD, MF 6270 2WD, MF 6270 4WD, MF 6265 2WD, MF 6265 4WD, MF 6260 2WD, MF 6260 4WD, MF 6255 2WD, MF 6255 4WD, MF 6245 2WD, MF 6245 4WD, MF 6235 2WD, MF 6235 4WD, MF 8260 4WD, MF 8250 4WD, MF 8280 4WD, MF 8270 4WD, MF 8240 2WD, MF 8240 4WD, MF 8220 2WD, MF 8220 4WD, MF 8210 2WD, MF 8210 4WD, MF 6497 T2 Agco Power, MF 6499 T2 Agco Power, MF 6465 T2 Perkins, MF 6475 T2 Perkins, MF 6480 T2 Perkins, MF 6490 T2 Agco Power, MF 6495 T2 Agco Power, MF 6485 T2 Agco Power, MF 6445 T2 Agco Power, MF 6455 T2 Perkins, MF 6460 T2 Perkins, MF 6470 T2 Perkins, MF 6497 XTRA, MF 6499 XTRA, 6485, MF 6490 T3 Agco Power, MF 6495 T3 Agco Power, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7465, MF 7475, MF 7480, MF 7485, MF 7490, MF 7495, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 8450, MF 8460, MF 8470, MF 8480, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 6614 Dyna-VT, MF 6615 Dyna-VT, MF 6616 Dyna-VT, MF 7615 Dyna-VT, MF 7616 Dyna-VT, MF 7618 Dyna-VT, MF 7619 Dyna-VT, MF 7620 Dyna-VT, MF 7622 Dyna-VT, MF 7624 Dyna-VT, MF 7719 Dyna-6, MF 7715 DYNA-4, MF 7716 Dyna-6, MF 7714 Dyna-4, MF 7715 Dyna-4, MF 7726 Dyna-VT</t>
+        </is>
+      </c>
+      <c r="D852" s="11" t="inlineStr"/>
     </row>
     <row r="853" ht="18.75" customHeight="1">
       <c r="A853" s="4" t="n">
         <v>700733905</v>
       </c>
-      <c r="B853" s="11" t="n"/>
-      <c r="C853" s="11" t="n"/>
-      <c r="D853" s="11" t="n"/>
+      <c r="B853" s="11" t="inlineStr"/>
+      <c r="C853" s="11" t="inlineStr"/>
+      <c r="D853" s="11" t="inlineStr"/>
     </row>
     <row r="854" ht="18.75" customHeight="1">
       <c r="A854" s="3" t="inlineStr">
@@ -14350,9 +14374,21 @@
           <t>V837079475</t>
         </is>
       </c>
-      <c r="B854" s="11" t="n"/>
-      <c r="C854" s="11" t="n"/>
-      <c r="D854" s="11" t="n"/>
+      <c r="B854" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C854" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 8380P, 8410P, 9300R, 9390R, MF 3680 2WD, MF 3680 4WD, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 8170 4WD, MF 8280 4WD, MF 8270 4WD, MF 8470, MF 8480, MF 8470 XTRA, MF 8480 XTRA, MF 9690, MF 9790, MF 9695, MF 9795, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 8737 S, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 8740 S Dyna-VT, MF8727, MF8730, MF8732, MF8735, MF 8737 MR, MF 7370 T4I (2012), MF 7370 T4I (2013-2014), MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF 7370 T4F (2018-2021), MF 7370 ST5 (2021-9999), MF 7382 (04/15 - 03/17), MF 7274, MF 7270 (2005-2011), MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7370 PLI (2017), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7272, MF Beta 7370 PL, MF7380, MF7380AL, MF7382, MF Beta 7370 PLI, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, S230, S240, S260, S280, S233, S263, S293, S323, S353, S294, S374, S324 SmartTouch MR19, S394 SmartTouch MR19</t>
+        </is>
+      </c>
+      <c r="D854" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="855" ht="18.75" customHeight="1">
       <c r="A855" s="3" t="inlineStr">
@@ -14360,9 +14396,21 @@
           <t>V836340948</t>
         </is>
       </c>
-      <c r="B855" s="11" t="n"/>
-      <c r="C855" s="11" t="n"/>
-      <c r="D855" s="11" t="n"/>
+      <c r="B855" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C855" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 9300R, MF 3680 2WD, MF 3680 4WD, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 8170 4WD, MF 8280 4WD, MF 8270 4WD, MF 8470, MF 8480, MF 8470 XTRA, MF 8480 XTRA, MF 9690, MF 9790, MF 9695, MF 9795, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 7274, MF 7270 (2005-2011), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7272, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, S230, S240, S260, S280</t>
+        </is>
+      </c>
+      <c r="D855" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="856" ht="18.75" customHeight="1">
       <c r="A856" s="3" t="inlineStr">
@@ -14370,17 +14418,25 @@
           <t>V836640968</t>
         </is>
       </c>
-      <c r="B856" s="11" t="n"/>
-      <c r="C856" s="11" t="n"/>
-      <c r="D856" s="11" t="n"/>
+      <c r="B856" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C856" s="11" t="inlineStr">
+        <is>
+          <t>207 Vario, 208 Vario, 209 Vario, 210 Vario, 211 Vario, 207 F Vario S3, 208 F Vario S3, 209 F Vario S3, 210 F Vario S3, 211 F Vario S3, 209 P Vario S3, 210 P Vario S3, 211 P Vario S3, 209 P Vario, 210 P Vario, 211 P Vario, 207 S Vario S3, 208 S Vario S3, 209 S Vario S3, 210 S Vario S3, 211 S Vario S3, 207 V Vario S3, 208 V Vario S3, 209 V Vario S3, 210 V Vario S3, 211 V Vario S3, 207 VF Vario, 208 VF Vario, 209 VF Vario, 210 VF Vario, 211 VF Vario, MF 3690 2WD, MF 3690 4WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 8260 4WD, MF 8250 2WD, MF 8250 4WD, MF 8260 2WD, MF 8240 2WD, MF 8240 4WD, MF 9695, MF 4435 T2, MF 4445 T2, MF 4455 T2, MF 4435 T3, MF 3630, MF 3640, MF 3650, MF 3630 XTRA, MF 3640 XTRA, MF 3650 XTRA, MF 3615, MF 3625, MF 3635, MF 3645, MF 5608 Dyna-4, MF 5609 Dyna-4, MF 5610 Dyna-4, MF 3625 V 4WD, MF 3635 V 4WD, MF 3625 S 4WD, MF 3635 S 4WD, MF 3625 F 4WD, MF 3635 F 4WD, MF 3625 GE 4WD, MF 3635 GE 4WD, A75N, A75L, A85L, A95L, 6000, 6100, 6200, 6200E, 6200LS, 6300, 6300E, 6300LS, 6400, 6400E, 6400LS, 6600, 6800, 6800E, 8000, 8050E, 8100, 8150E, 8200, 8400, 8450, 8550E, 8750, A72, A82, A92, A72L, A82L, A92L, A83H, A93H, N93H3, N103H3, N103H5, N93H5</t>
+        </is>
+      </c>
+      <c r="D856" s="11" t="inlineStr"/>
     </row>
     <row r="857" ht="18.75" customHeight="1">
       <c r="A857" s="4" t="n">
         <v>6000589</v>
       </c>
-      <c r="B857" s="11" t="n"/>
-      <c r="C857" s="11" t="n"/>
-      <c r="D857" s="11" t="n"/>
+      <c r="B857" s="11" t="inlineStr"/>
+      <c r="C857" s="11" t="inlineStr"/>
+      <c r="D857" s="11" t="inlineStr"/>
     </row>
     <row r="858" ht="18.75" customHeight="1">
       <c r="A858" s="3" t="inlineStr">
@@ -14388,9 +14444,17 @@
           <t>CH178-9570</t>
         </is>
       </c>
-      <c r="B858" s="11" t="n"/>
-      <c r="C858" s="11" t="n"/>
-      <c r="D858" s="11" t="n"/>
+      <c r="B858" s="11" t="inlineStr">
+        <is>
+          <t>Challenger</t>
+        </is>
+      </c>
+      <c r="C858" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RG900, RG1100, RG1300, RG1100B, RG1300B, RG700, RG700B, RG900C, RG1100C, RG1300C, MT835C, MT755C, MTS855C, MTS865C, MTS875C, MTS965C, MT945C , MT955C , MT965C </t>
+        </is>
+      </c>
+      <c r="D858" s="11" t="inlineStr"/>
     </row>
     <row r="859" ht="18.75" customHeight="1">
       <c r="A859" s="3" t="inlineStr">
@@ -14398,9 +14462,21 @@
           <t>D45080062</t>
         </is>
       </c>
-      <c r="B859" s="11" t="n"/>
-      <c r="C859" s="11" t="n"/>
-      <c r="D859" s="11" t="n"/>
+      <c r="B859" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C859" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 9470X, MF 7274, MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7256, MF 7272</t>
+        </is>
+      </c>
+      <c r="D859" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="860" ht="18.75" customHeight="1">
       <c r="A860" s="3" t="inlineStr">
@@ -14408,17 +14484,33 @@
           <t>G931552020010</t>
         </is>
       </c>
-      <c r="B860" s="11" t="n"/>
-      <c r="C860" s="11" t="n"/>
-      <c r="D860" s="11" t="n"/>
+      <c r="B860" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C860" s="11" t="inlineStr">
+        <is>
+          <t>1038 Vario S4, 1042 Vario S4, 1046 Vario S4, 1050 Vario S4, 310 Vario S4, 311 Vario S4, 312 Vario S4, 313 Vario S4, 822 Vario S4, 824 Vario S4, 826 Vario S4, 828 Vario S4, 819 Vario SCR, 822 Vario SCR, 824 Vario SCR, 826 Vario SCR, 828 Vario SCR, 927 Vario S4, 930 Vario S4, 933 Vario S4, 936 Vario S4, 939 Vario S4, 930 Vario Gen6, 933 Vario Gen6, 936 Vario Gen6, 939 Vario Gen6, 942 Vario Gen6, 922 Vario, 924 Vario, 927 Vario, 930 Vario, 933 Vario, 936 Vario, 924 Vario SCR, 927 Vario SCR, 930 Vario SCR, 933 Vario SCR, 936 Vario SCR, 939 Vario SCR, MF 8737 S, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 8740 S Dyna-VT, MF8727, MF8730, MF8732, MF8735, MF 8737 MR, No longer used Refer to 11652, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, No longer used Refer to 11650, No longer used Refer to 11651, A74SH 1C7, N104H5, N114EH5, N124H5, N134H5, N154EH5, N174H5, N134A, N154EA, N174A, N134V, N154EV, N174V, N134D, N154ED, N174D, N104H5 MR18, N114EH5 MR18, N124H5 MR18, N134H5 MR18, N154EH5 MR18, N174H5 MR18, N134A MR18, N154EA MR18, N174A MR18, N134V SmartTouch, N154EV SmartTouch, N174V SmartTouch, N134D SmartTouch, N154ED SmartTouch, N174D SmartTouch, S294, S374, S324 SmartTouch MR19, S394 SmartTouch MR19</t>
+        </is>
+      </c>
+      <c r="D860" s="11" t="inlineStr"/>
     </row>
     <row r="861" ht="18.75" customHeight="1">
       <c r="A861" s="4" t="n">
         <v>71379601</v>
       </c>
-      <c r="B861" s="11" t="n"/>
-      <c r="C861" s="11" t="n"/>
-      <c r="D861" s="11" t="n"/>
+      <c r="B861" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C861" s="11" t="inlineStr">
+        <is>
+          <t>9300R, MF 9690, MF 9790, MF 9695, MF 9795</t>
+        </is>
+      </c>
+      <c r="D861" s="11" t="inlineStr"/>
     </row>
     <row r="862" ht="18.75" customHeight="1">
       <c r="A862" s="3" t="inlineStr">
@@ -14426,9 +14518,17 @@
           <t>3782613M2</t>
         </is>
       </c>
-      <c r="B862" s="11" t="n"/>
-      <c r="C862" s="11" t="n"/>
-      <c r="D862" s="11" t="n"/>
+      <c r="B862" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C862" s="11" t="inlineStr">
+        <is>
+          <t>MF 3050 2WD, MF 3050 4WD, MF 3060 2WD, MF 3060 4WD, MF 3070 2WD, MF 3070 4WD, MF 3095 2WD, MF 3095 4WD, MF 3115 2WD, MF 3115 4WD, MF 3125 2WD, MF 3125 4WD, MF 3065 2WD, MF 3065 4WD, MF 3085 2WD, MF 3085 4WD, MF 3120 2WD, MF 3120 4WD, MF 3075 2WD, MF 3075 4WD, MF 3645 2WD, MF 3645 4WD, MF 3655 2WD, MF 3655 4WD, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 3635 2WD, MF 3635 4WD, MF 6110 2WD, MF 6110 4WD, MF 6120 2WD, MF 6120 4WD, MF 6130 2WD, MF 6130 4WD, MF 6140 2WD, MF 6140 4WD, MF 6150 2WD, MF 6150 4WD, MF 6160 2WD, MF 6160 4WD, MF 6170 2WD, MF 6170 4WD, MF 6180 2WD, MF 6180 4WD, MF 6190 2WD, MF 6190 4WD, MF 8170 4WD, MF 8110 2WD, MF 8110 4WD, MF 8120 2WD, MF 8120 4WD, MF 8130 2WD, MF 8130 4WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4360 2WD, MF 4360 4WD, MF 4365 2WD, MF 4365 4WD, MF 4370 2WD, MF 4370 4WD, MF 4225 2WD, MF 4225 4WD, MF 4235 2WD, MF 4235 4WD, MF 4240 2WD, MF 4245 2WD, MF 4245 4WD, MF 4255 2WD, MF 4255 4WD, MF 4260 2WD, MF 4260 4WD, MF 4265 2WD, MF 4265 4WD, MF 4270 2WD, MF 4270 4WD, MF 6290 2WD, MF 6290 4WD, MF 6280 2WD, MF 6280 4WD, MF 6270 2WD, MF 6270 4WD, MF 6265 2WD, MF 6265 4WD, MF 6260 2WD, MF 6260 4WD, MF 6255 2WD, MF 6255 4WD, MF 6245 2WD, MF 6245 4WD, MF 6235 2WD, MF 6235 4WD, MF 8260 4WD, MF 8250 2WD, MF 8250 4WD, MF 8280 4WD, MF 8270 4WD, MF 8260 2WD, MF 8240 2WD, MF 8240 4WD, MF 8220 2WD, MF 8220 4WD, MF 8210 2WD, MF 8210 4WD, MF 5445, MF 5455, 5460, 5465, 5475, 5470, MF 5460 SISU, MF 5470 SISU, MF 362 2WD</t>
+        </is>
+      </c>
+      <c r="D862" s="11" t="inlineStr"/>
     </row>
     <row r="863" ht="18.75" customHeight="1">
       <c r="A863" s="3" t="inlineStr">
@@ -14436,9 +14536,17 @@
           <t>178-9570</t>
         </is>
       </c>
-      <c r="B863" s="11" t="n"/>
-      <c r="C863" s="11" t="n"/>
-      <c r="D863" s="11" t="n"/>
+      <c r="B863" s="11" t="inlineStr">
+        <is>
+          <t>Challenger</t>
+        </is>
+      </c>
+      <c r="C863" s="11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RG900, RG1100, RG1300, RG1100B, RG1300B, RG700, RG700B, RG900C, RG1100C, RG1300C, MT835C, MT755C, MTS855C, MTS865C, MTS875C, MTS965C, MT945C , MT955C , MT965C </t>
+        </is>
+      </c>
+      <c r="D863" s="11" t="inlineStr"/>
     </row>
     <row r="864" ht="18.75" customHeight="1">
       <c r="A864" s="3" t="inlineStr">
@@ -14446,9 +14554,17 @@
           <t>G931552020011</t>
         </is>
       </c>
-      <c r="B864" s="11" t="n"/>
-      <c r="C864" s="11" t="n"/>
-      <c r="D864" s="11" t="n"/>
+      <c r="B864" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C864" s="11" t="inlineStr">
+        <is>
+          <t>1038 Vario S4, 1042 Vario S4, 1046 Vario S4, 1050 Vario S4, 310 Vario S4, 311 Vario S4, 312 Vario S4, 313 Vario S4, 822 Vario S4, 824 Vario S4, 826 Vario S4, 828 Vario S4, 819 Vario SCR, 822 Vario SCR, 824 Vario SCR, 826 Vario SCR, 828 Vario SCR, 927 Vario S4, 930 Vario S4, 933 Vario S4, 936 Vario S4, 939 Vario S4, 930 Vario Gen6, 933 Vario Gen6, 936 Vario Gen6, 939 Vario Gen6, 942 Vario Gen6, 922 Vario, 924 Vario, 927 Vario, 930 Vario, 933 Vario, 936 Vario, 924 Vario SCR, 927 Vario SCR, 930 Vario SCR, 933 Vario SCR, 936 Vario SCR, 939 Vario SCR, MF 8737 S, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 8740 S Dyna-VT, MF8727, MF8730, MF8732, MF8735, MF 8737 MR, No longer used Refer to 11652, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, No longer used Refer to 11650, No longer used Refer to 11651, A74SH 1C7, N104H5, N114EH5, N124H5, N134H5, N154EH5, N174H5, N134A, N154EA, N174A, N134V, N154EV, N174V, N134D, N154ED, N174D, N104H5 MR18, N114EH5 MR18, N124H5 MR18, N134H5 MR18, N154EH5 MR18, N174H5 MR18, N134A MR18, N154EA MR18, N174A MR18, N134V SmartTouch, N154EV SmartTouch, N174V SmartTouch, N134D SmartTouch, N154ED SmartTouch, N174D SmartTouch, S294, S374, S324 SmartTouch MR19, S394 SmartTouch MR19</t>
+        </is>
+      </c>
+      <c r="D864" s="11" t="inlineStr"/>
     </row>
     <row r="865" ht="18.75" customHeight="1">
       <c r="A865" s="3" t="inlineStr">
@@ -14456,9 +14572,21 @@
           <t>V837071189</t>
         </is>
       </c>
-      <c r="B865" s="11" t="n"/>
-      <c r="C865" s="11" t="n"/>
-      <c r="D865" s="11" t="n"/>
+      <c r="B865" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C865" s="11" t="inlineStr">
+        <is>
+          <t>207 Vario, 208 Vario, 209 Vario, 210 Vario, 211 Vario, 209 P Vario, 210 P Vario, 211 P Vario, 207 VF Vario, 208 VF Vario, 209 VF Vario, 210 VF Vario, 211 VF Vario, 8370P, 8400P, 9300R, 9470X, 6465 Dyna-6, 6475 Dyna-6, MF 6480 T3 Agco Power, MF 6497 T2 Agco Power, MF 6497 XTRA, MF 6499 XTRA, 6485, MF 6490 T3 Agco Power, MF 6495 T3 Agco Power, MF 6470 T3 Agco Power, MF 6460 T3 Agco Power, MF 6497 T3 Agco Power, MF 6499 T3 Agco Power, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 8450, MF 8460, MF 8470, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 9690, MF 9790, MF 9695, MF 9795, MF 3630, MF 3640, MF 3650, MF 3630 XTRA, MF 3640 XTRA, MF 3650 XTRA, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, MF 5470 T3, MF 5480 T3, MF 7265 (2009-2011), MF 7247 S (2008-2011), MF 7274, MF 7260 (2005-2011), MF 7270 (2005-2011), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, T160, T170, T180, T190, T170C, T170CH, A83H, A93H, N121H, N141H, N111eH, N101H, N101C, N121LS, N141LS, N111ELS, N122V, N142V, N122D, N142D, T131C, T161C, T171C, T121H, T131H, T151EH, T161H, T171H, T191H, T121C, T161LS, T171LS, T191LS, T132V, T152V, T162EV, T172V, T182V, T202V, T132D, T152D, T162D, T172D, T182D, T202D</t>
+        </is>
+      </c>
+      <c r="D865" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="866" ht="18.75" customHeight="1">
       <c r="A866" s="3" t="inlineStr">
@@ -14466,9 +14594,17 @@
           <t>V837084618</t>
         </is>
       </c>
-      <c r="B866" s="11" t="n"/>
-      <c r="C866" s="11" t="n"/>
-      <c r="D866" s="11" t="n"/>
+      <c r="B866" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C866" s="11" t="inlineStr">
+        <is>
+          <t>207 Vario, 208 Vario, 209 Vario, 210 Vario, 211 Vario, 209 P Vario, 210 P Vario, 211 P Vario, 207 VF Vario, 208 VF Vario, 209 VF Vario, 210 VF Vario, 211 VF Vario, 8370P, 8400P, 9300R, 9470X, 6465 Dyna-6, 6475 Dyna-6, MF 6480 T3 Agco Power, MF 6497 T2 Agco Power, MF 6497 XTRA, MF 6499 XTRA, 6485, MF 6490 T3 Agco Power, MF 6495 T3 Agco Power, MF 6470 T3 Agco Power, MF 6460 T3 Agco Power, MF 6497 T3 Agco Power, MF 6499 T3 Agco Power, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 8450, MF 8460, MF 8470, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 9690, MF 9790, MF 9695, MF 9795, MF 3630, MF 3640, MF 3650, MF 3630 XTRA, MF 3640 XTRA, MF 3650 XTRA, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, MF 5470 T3, MF 5480 T3, MF 7265 (2009-2011), MF 7247 S (2008-2011), MF 7274, MF 7260 (2005-2011), MF 7270 (2005-2011), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, T160, T170, T180, T190, T170C, T170CH, A83H, A93H, N121H, N141H, N111eH, N101H, N101C, N121LS, N141LS, N111ELS, N122V, N142V, N122D, N142D, T131C, T161C, T171C, T121H, T131H, T151EH, T161H, T171H, T191H, T121C, T161LS, T171LS, T191LS, T132V, T152V, T162EV, T172V, T182V, T202V, T132D, T152D, T162D, T172D, T182D, T202D</t>
+        </is>
+      </c>
+      <c r="D866" s="11" t="inlineStr"/>
     </row>
     <row r="867" ht="18.75" customHeight="1">
       <c r="A867" s="3" t="inlineStr">
@@ -14476,17 +14612,33 @@
           <t>834828M1</t>
         </is>
       </c>
-      <c r="B867" s="11" t="n"/>
-      <c r="C867" s="11" t="n"/>
-      <c r="D867" s="11" t="n"/>
+      <c r="B867" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C867" s="11" t="inlineStr">
+        <is>
+          <t>990 (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), MF 9690, MF 2150 CE, MF 185 SII, MF 2140 CE, MF 342 2WD</t>
+        </is>
+      </c>
+      <c r="D867" s="11" t="inlineStr"/>
     </row>
     <row r="868" ht="18.75" customHeight="1">
       <c r="A868" s="4" t="n">
         <v>74254700</v>
       </c>
-      <c r="B868" s="11" t="n"/>
-      <c r="C868" s="11" t="n"/>
-      <c r="D868" s="11" t="n"/>
+      <c r="B868" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C868" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 8380P, 8410P, 9300R, 9390R, 9470X, 9490X, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 185 SII, MF 7382 (04/15 - 03/17), MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF7380, MF7380AL, MF7382, MF9380</t>
+        </is>
+      </c>
+      <c r="D868" s="11" t="inlineStr"/>
     </row>
     <row r="869" ht="18.75" customHeight="1">
       <c r="A869" s="3" t="inlineStr">
@@ -14494,9 +14646,17 @@
           <t>AG051179</t>
         </is>
       </c>
-      <c r="B869" s="11" t="n"/>
-      <c r="C869" s="11" t="n"/>
-      <c r="D869" s="11" t="n"/>
+      <c r="B869" s="11" t="inlineStr">
+        <is>
+          <t>Fendt</t>
+        </is>
+      </c>
+      <c r="C869" s="11" t="inlineStr">
+        <is>
+          <t>Rogator 635 (MY19), RG 635</t>
+        </is>
+      </c>
+      <c r="D869" s="11" t="inlineStr"/>
     </row>
     <row r="870" ht="18.75" customHeight="1">
       <c r="A870" s="3" t="inlineStr">
@@ -14504,17 +14664,33 @@
           <t>AG051143</t>
         </is>
       </c>
-      <c r="B870" s="11" t="n"/>
-      <c r="C870" s="11" t="n"/>
-      <c r="D870" s="11" t="n"/>
+      <c r="B870" s="11" t="inlineStr">
+        <is>
+          <t>Fendt</t>
+        </is>
+      </c>
+      <c r="C870" s="11" t="inlineStr">
+        <is>
+          <t>Rogator 635 (MY19)</t>
+        </is>
+      </c>
+      <c r="D870" s="11" t="inlineStr"/>
     </row>
     <row r="871" ht="18.75" customHeight="1">
       <c r="A871" s="4" t="n">
         <v>72163092</v>
       </c>
-      <c r="B871" s="11" t="n"/>
-      <c r="C871" s="11" t="n"/>
-      <c r="D871" s="11" t="n"/>
+      <c r="B871" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C871" s="11" t="inlineStr">
+        <is>
+          <t>MF 1200, MF 1250, MF 164C</t>
+        </is>
+      </c>
+      <c r="D871" s="11" t="inlineStr"/>
     </row>
     <row r="872" ht="18.75" customHeight="1">
       <c r="A872" s="3" t="inlineStr">
@@ -14522,17 +14698,29 @@
           <t>AG713795</t>
         </is>
       </c>
-      <c r="B872" s="11" t="n"/>
-      <c r="C872" s="11" t="n"/>
-      <c r="D872" s="11" t="n"/>
+      <c r="B872" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C872" s="11" t="inlineStr">
+        <is>
+          <t>MF 1200, MF 1250, MF 164C</t>
+        </is>
+      </c>
+      <c r="D872" s="11" t="inlineStr"/>
     </row>
     <row r="873" ht="18.75" customHeight="1">
       <c r="A873" s="4" t="n">
         <v>853455</v>
       </c>
-      <c r="B873" s="11" t="n"/>
-      <c r="C873" s="11" t="n"/>
-      <c r="D873" s="11" t="n"/>
+      <c r="B873" s="11" t="inlineStr"/>
+      <c r="C873" s="11" t="inlineStr"/>
+      <c r="D873" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="874" ht="18.75" customHeight="1">
       <c r="A874" s="3" t="inlineStr">
@@ -14540,9 +14728,17 @@
           <t>G701970160063</t>
         </is>
       </c>
-      <c r="B874" s="11" t="n"/>
-      <c r="C874" s="11" t="n"/>
-      <c r="D874" s="11" t="n"/>
+      <c r="B874" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C874" s="11" t="inlineStr">
+        <is>
+          <t>MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7465, MF 7475, MF 7480, MF 7485, MF 7490, MF 7495, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 8450, MF 8460, MF 8470, MF 8480, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 6614 Dyna-VT, MF 6615 Dyna-VT, MF 6616 Dyna-VT, MF 7615 Dyna-VT, MF 7616 Dyna-VT, MF 7618 Dyna-VT, MF 7619 Dyna-VT, MF 7620 Dyna-VT, MF 7622 Dyna-VT, MF 7624 Dyna-VT, MF 8737 S, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 8740 S Dyna-VT, MF8727, MF8730, MF8732, MF8735, MF 8737 MR, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, No longer used Refer to 11652, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, No longer used Refer to 11650, No longer used Refer to 11651, S233, S263, S293, S323, S353, S294, S374, S324 SmartTouch MR19, S394 SmartTouch MR19</t>
+        </is>
+      </c>
+      <c r="D874" s="11" t="inlineStr"/>
     </row>
     <row r="875" ht="18.75" customHeight="1">
       <c r="A875" s="3" t="inlineStr">
@@ -14550,17 +14746,25 @@
           <t>G701970160012</t>
         </is>
       </c>
-      <c r="B875" s="11" t="n"/>
-      <c r="C875" s="11" t="n"/>
-      <c r="D875" s="11" t="n"/>
+      <c r="B875" s="11" t="inlineStr"/>
+      <c r="C875" s="11" t="inlineStr"/>
+      <c r="D875" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="876" ht="18.75" customHeight="1">
       <c r="A876" s="4" t="n">
         <v>72433459</v>
       </c>
-      <c r="B876" s="11" t="n"/>
-      <c r="C876" s="11" t="n"/>
-      <c r="D876" s="11" t="n"/>
+      <c r="B876" s="11" t="inlineStr"/>
+      <c r="C876" s="11" t="inlineStr"/>
+      <c r="D876" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="877" ht="18.75" customHeight="1">
       <c r="A877" s="3" t="inlineStr">
@@ -14568,9 +14772,17 @@
           <t>G701970160064</t>
         </is>
       </c>
-      <c r="B877" s="11" t="n"/>
-      <c r="C877" s="11" t="n"/>
-      <c r="D877" s="11" t="n"/>
+      <c r="B877" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C877" s="11" t="inlineStr">
+        <is>
+          <t>MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7465, MF 7475, MF 7480, MF 7485, MF 7490, MF 7495, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 8450, MF 8460, MF 8470, MF 8480, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 6614 Dyna-VT, MF 6615 Dyna-VT, MF 6616 Dyna-VT, MF 7615 Dyna-VT, MF 7616 Dyna-VT, MF 7618 Dyna-VT, MF 7619 Dyna-VT, MF 7620 Dyna-VT, MF 7622 Dyna-VT, MF 7624 Dyna-VT, MF 8737 S, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 8740 S Dyna-VT, MF8727, MF8730, MF8732, MF8735, MF 8737 MR, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, No longer used Refer to 11652, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, No longer used Refer to 11650, No longer used Refer to 11651, S233, S263, S293, S323, S353, S294, S374, S324 SmartTouch MR19, S394 SmartTouch MR19</t>
+        </is>
+      </c>
+      <c r="D877" s="11" t="inlineStr"/>
     </row>
     <row r="878" ht="18.75" customHeight="1">
       <c r="A878" s="3" t="inlineStr">
@@ -14578,17 +14790,29 @@
           <t>G701970160060</t>
         </is>
       </c>
-      <c r="B878" s="11" t="n"/>
-      <c r="C878" s="11" t="n"/>
-      <c r="D878" s="11" t="n"/>
+      <c r="B878" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C878" s="11" t="inlineStr">
+        <is>
+          <t>MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7465, MF 7475, MF 7480, MF 7485, MF 7490, MF 7495, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 8450, MF 8460, MF 8470, MF 8480, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 6614 Dyna-VT, MF 6615 Dyna-VT, MF 6616 Dyna-VT, MF 7615 Dyna-VT, MF 7616 Dyna-VT, MF 7618 Dyna-VT, MF 7619 Dyna-VT, MF 7620 Dyna-VT, MF 7622 Dyna-VT, MF 7624 Dyna-VT, MF 8737 S, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 8740 S Dyna-VT, MF8727, MF8730, MF8732, MF8735, MF 8737 MR, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, No longer used Refer to 11652, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, No longer used Refer to 11650, No longer used Refer to 11651, S233, S263, S293, S323, S353, S294, S374, S324 SmartTouch MR19, S394 SmartTouch MR19</t>
+        </is>
+      </c>
+      <c r="D878" s="11" t="inlineStr"/>
     </row>
     <row r="879" ht="18.75" customHeight="1">
       <c r="A879" s="4" t="n">
         <v>72488443</v>
       </c>
-      <c r="B879" s="11" t="n"/>
-      <c r="C879" s="11" t="n"/>
-      <c r="D879" s="11" t="n"/>
+      <c r="B879" s="11" t="inlineStr"/>
+      <c r="C879" s="11" t="inlineStr"/>
+      <c r="D879" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="880" ht="18.75" customHeight="1">
       <c r="A880" s="3" t="inlineStr">
@@ -14596,9 +14820,17 @@
           <t>G701970160060</t>
         </is>
       </c>
-      <c r="B880" s="11" t="n"/>
-      <c r="C880" s="11" t="n"/>
-      <c r="D880" s="11" t="n"/>
+      <c r="B880" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C880" s="11" t="inlineStr">
+        <is>
+          <t>MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7465, MF 7475, MF 7480, MF 7485, MF 7490, MF 7495, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 8450, MF 8460, MF 8470, MF 8480, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 6614 Dyna-VT, MF 6615 Dyna-VT, MF 6616 Dyna-VT, MF 7615 Dyna-VT, MF 7616 Dyna-VT, MF 7618 Dyna-VT, MF 7619 Dyna-VT, MF 7620 Dyna-VT, MF 7622 Dyna-VT, MF 7624 Dyna-VT, MF 8737 S, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 8740 S Dyna-VT, MF8727, MF8730, MF8732, MF8735, MF 8737 MR, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, No longer used Refer to 11652, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, No longer used Refer to 11650, No longer used Refer to 11651, S233, S263, S293, S323, S353, S294, S374, S324 SmartTouch MR19, S394 SmartTouch MR19</t>
+        </is>
+      </c>
+      <c r="D880" s="11" t="inlineStr"/>
     </row>
     <row r="881" ht="18.75" customHeight="1">
       <c r="A881" s="3" t="inlineStr">
@@ -14606,17 +14838,33 @@
           <t>G701970160065</t>
         </is>
       </c>
-      <c r="B881" s="11" t="n"/>
-      <c r="C881" s="11" t="n"/>
-      <c r="D881" s="11" t="n"/>
+      <c r="B881" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C881" s="11" t="inlineStr">
+        <is>
+          <t>MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7465, MF 7475, MF 7480, MF 7485, MF 7490, MF 7495, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 8450, MF 8460, MF 8470, MF 8480, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 6614 Dyna-VT, MF 6615 Dyna-VT, MF 6616 Dyna-VT, MF 7615 Dyna-VT, MF 7616 Dyna-VT, MF 7618 Dyna-VT, MF 7619 Dyna-VT, MF 7620 Dyna-VT, MF 7622 Dyna-VT, MF 7624 Dyna-VT, MF 8737 S, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 8740 S Dyna-VT, MF8727, MF8730, MF8732, MF8735, MF 8737 MR, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, No longer used Refer to 11652, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, No longer used Refer to 11650, No longer used Refer to 11651, S233, S263, S293, S323, S353, S294, S374, S324 SmartTouch MR19, S394 SmartTouch MR19</t>
+        </is>
+      </c>
+      <c r="D881" s="11" t="inlineStr"/>
     </row>
     <row r="882" ht="18.75" customHeight="1">
       <c r="A882" s="4" t="n">
         <v>71407271</v>
       </c>
-      <c r="B882" s="11" t="n"/>
-      <c r="C882" s="11" t="n"/>
-      <c r="D882" s="11" t="n"/>
+      <c r="B882" s="11" t="inlineStr">
+        <is>
+          <t>Fendt</t>
+        </is>
+      </c>
+      <c r="C882" s="11" t="inlineStr">
+        <is>
+          <t>Cutting table PF 5,5m (18')</t>
+        </is>
+      </c>
+      <c r="D882" s="11" t="inlineStr"/>
     </row>
     <row r="883" ht="18.75" customHeight="1">
       <c r="A883" s="3" t="inlineStr">
@@ -14624,9 +14872,17 @@
           <t>V836662130</t>
         </is>
       </c>
-      <c r="B883" s="11" t="n"/>
-      <c r="C883" s="11" t="n"/>
-      <c r="D883" s="11" t="n"/>
+      <c r="B883" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C883" s="11" t="inlineStr">
+        <is>
+          <t>IDEAL 7, 8370P, 8400P, 8380P, 8410P, 9300R, 9390R, 9470X, 9490X, 938 Vario MT, 940 Vario MT, 943 Vario MT, MF 8260 4WD, MF 8250 2WD, MF 8250 4WD, MF 8280 4WD, MF 8270 4WD, MF 8260 2WD, MF 8240 2WD, MF 8240 4WD, 6465 Dyna-6, 6475 Dyna-6, MF 6480 T3 Agco Power, MF 6497 T2 Agco Power, MF 6499 T2 Agco Power, MF 6490 T2 Agco Power, MF 6495 T2 Agco Power, MF 6485 T2 Agco Power, MF 6497 XTRA, MF 6499 XTRA, 6485, MF 6490 T3 Agco Power, MF 6495 T3 Agco Power, MF 6497 T3 Agco Power, MF 6499 T3 Agco Power, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7485, MF 7490, MF 7495, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 8450, MF 8460, MF 8470, MF 8480, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 9540, MF 9560, MF 9690, MF 9790, MF 9695, MF 9795, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 8737 S, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 8740 S Dyna-VT, MF 5465 Dyna-4, MF 5475 Dyna-4, MF8727, MF8730, MF8732, MF8735, MF 8737 MR, MF IDEAL 7, MF 7265 (2009-2011), MF 7370 T4I (2012), MF 7370 T4I (2013-2014), MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF 7370 T4F (2018-2021), MF 7370 ST5 (2021-9999), MF 7382 (04/15 - 03/17), MF 7247 S (2008-2011), MF 7274, MF 7260 (2005-2011), MF 7270 (2005-2011), MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7370 PLI (2017), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7256, MF 7272, MF Beta 7370 PL, MF7380, MF7380AL, MF7382, MF9380, MF Beta 7370 PLI, C100, C110, C120, C120E, C130, C150, C90, M120, M120E, M120H, M130, M150, 6000, 6100, 6200E, 6300E, 6400E, 6600, 6800E, 8000, 8050E, 8100, 8150E, 8200, 8400, 8450, 8550, 8550E, 8750, 8400E, 8450E, 8750E, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, No longer used Refer to 11652, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, No longer used Refer to 11650, No longer used Refer to 11651, S230, S240, S260, S280, T120, T130, T140E, T150, T160, T170, T180, T190, T120C, T120CH, T130C, T130CH, T140EC, T140ECH, T160C, T160CH, T170C, T170CH, XM130, XM150, S233, S263, S293, S323, S353, S294, S374, S324 SmartTouch MR19, S394 SmartTouch MR19, T131C, T161C, T171C, T121H, T131H, T151EH, T161H, T171H, T191H, T121C, T161LS, T171LS, T191LS, T132V, T152V, T162EV, T172V, T182V, T202V, T132D, T152D, T162D, T172D, T182D, T202D, T154H, T194H, T234H, T154A, T194A, T234A</t>
+        </is>
+      </c>
+      <c r="D883" s="11" t="inlineStr"/>
     </row>
     <row r="884" ht="18.75" customHeight="1">
       <c r="A884" s="3" t="inlineStr">
@@ -14634,9 +14890,17 @@
           <t>339374X1</t>
         </is>
       </c>
-      <c r="B884" s="11" t="n"/>
-      <c r="C884" s="11" t="n"/>
-      <c r="D884" s="11" t="n"/>
+      <c r="B884" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Fendt, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C884" s="11" t="inlineStr">
+        <is>
+          <t>RG900, RG1100, RG1300, RG1100B, RG1300B, RG700, RG700B, RG900C, RG1100C, RG1300C, TG7300C, TG8300C, TG8400C, TG9300C, 7460/7660, MT738, MT740, MT743, MT445B, MT455B, MT465B, MT445B-T3, MT455B-T3 Dyna-4, MT465B-T3 Dyna-4, MT555D CVT, MT565D CVT, MT575D CVT, MT585D CVT, MT525D Dyna-VT, MT535D Dyna-VT, MT545D Dyna-VT, MT575E CVT, MT525E Dyna-VT, MT545E Dyna-VT, MT545B Dyna-6, MT525B Dyna-6, MT525B Dyna-CVT, MT545B Dyna-CVT, MT555B Dyna-CVT T3 CAT, MT565B Dyna-CVT T3 CAT, MT575B Dyna-CVT T3 CAT, MT555B Dyna-6 T3 CAT, MT565B Dyna-6 T3 CAT, MT575B Dyna-6 T3 CAT, MT525B Dyna-6 T3 CAT, MT545B Dyna-6 T3 CAT, MT525B Dyna-CVT T3 CAT, MT545B Dyna-CVT T3 CAT, MT595B Dyna-6 T3 SISU, MT595B Dyna-CVT T3 SISU , MT645D T4I, MT655D T4I, MT665D T4I / T2, MT675D T4I, MT685D T4I / T2, MT665E, MT645C, MT655C T3 CVT, MT665C T3 / T2 CVT, MT675C T3 CVT, MT645E, MT665E T4F CVT, MTS965E, MTS975E, MT945C , MT955C , MT965C , 2270XD, 712 Vario T2, 714 Vario T2, 716 Vario T2, 815 Vario, 817 Vario, 818 Vario, Favorit 916 Vario, Favorit 920 Vario, Favorit 924 Vario, Favorit 926 Vario, IDEAL 7, IDEAL 8, IDEAL 9, S67 Super , S77 Super, S68, S78, S88, S96, S97, S98, R65, R66, A66, A76, R76, 9325 Draper Header, 9330 Draper Header, 9335 Draper Header, 9340 Draper Header, 9250 Draper Header, 5100 Draper Header, 9255 Draper Header, 700 Grain Header, 4000 Pickup Header, 4200 Pickup Header, 8200 Grain Header, 7200 Grain Header, 7000 Grain Header, MF 2625, MF 2604H, MF 2605H, MF 2606H, MF 2607H, MF 2650, MF 2660, MF 6712 ECO4, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7465 T3, MF 7475 T3, MF 7480 T3, MF 7499, MF 5710 ECO4, MF 5711 ECO4, MF 3635, MF 6614 Dyna-VT, MF 6615 Dyna-VT, MF 6616 Dyna-VT, MF 7615 Dyna-VT, MF 7616 Dyna-VT, MF 7618 Dyna-VT, MF 7619 Dyna-VT, MF 7620 Dyna-VT, MF 7622 Dyna-VT, MF 7624 Dyna-VT, MF 6714 S Dyna-VT, MF 6715 S Dyna-VT, MF 6716 S Dyna-VT T4F, MF 7720 Dyna-VT, MF 7722 Dyna-VT, MF 7724 Dyna-VT, MF 7716 Dyna-VT, MF 7718 Dyna-VT, MF 7719 Dyna-VT, MF 7726 Dyna-VT, MF 7714 S Dyna-4, MF 7714 S Dyna-4 T5, MF 7718 S Dyna-VT T5, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, MF 5445, MF 5470 T3, MF 5480 T3, MF 5465 T3, MF 5475 T3, MF 5445 T3, MF 5455 T3, MF 5450 T3, MF 2670, MF 2680, MF 1533, MF GC2410, MF 4708 ECO4, MF 4708 ECO3, MF 4709 ECO3, MF 4707 2WD Non Cab, MF 4708 2WD Non Cab 3, MF 4709 2WD Non Cab, MF 4710 2WD Non Cab, MF 1734E, MF 1739E, MF 1529, MF 1532H, MF 1540, MF 8660 Dyna-VT T2, MF 8670, MF 8680, MF 8690, MF 8727, MF 8730, MF 8732, MF 8735, MF 9255, MF 5100, MF 9520, MF 9540 Tier 4 TI, MF 9560 Tier 4 TI, MF 9540 T4F, MF 9560 T4F, MF 9245, MF 9565, MF 9895, MF 9695, MF 9795, MF 9250-910 DynaFlex SRA, MF 4200S-13 Pick Up Header, MF 7200-760 Rigid Header, MF 8200-600 Flexible Header, MF 1843 N/S, MF 1835, MF 2290, MF 5200</t>
+        </is>
+      </c>
+      <c r="D884" s="11" t="inlineStr"/>
     </row>
     <row r="885" ht="18.75" customHeight="1">
       <c r="A885" s="3" t="inlineStr">
@@ -14644,9 +14908,17 @@
           <t>4227070M91</t>
         </is>
       </c>
-      <c r="B885" s="11" t="n"/>
-      <c r="C885" s="11" t="n"/>
-      <c r="D885" s="11" t="n"/>
+      <c r="B885" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C885" s="11" t="inlineStr">
+        <is>
+          <t>MF 175, MF 168, MF 188, MF 174S, MF 194F, MF 174V 4WD, MF 274C, MF 294 4WD, MF 575, MF 565, MF 698T, MF 698T 4WD, MF 670 4WD, MF 394F 4WD, MF 374S 2WD, MF 384S 2WD, MF 394S 2WD, MF 374V 4WD, MF 3050 2WD, MF 3050 4WD, MF 3060 2WD, MF 3060 4WD, MF 3070 2WD, MF 3070 4WD, MF 3065 2WD, MF 3065 4WD, MF 3075 2WD, MF 3075 4WD, MF 194 4WD, MF 294C, MF 373 4WD, MF 377 4WD, MF 387 4WD, MF 397 4WD, MF 6110 2WD, MF 6110 4WD, MF 6120 2WD, MF 6120 4WD, MF 6130 2WD, MF 6130 4WD, MF 6140 2WD, MF 6140 4WD, MF 6150 2WD, MF 6150 4WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4365 2WD, MF 4365 4WD, MF 4225 2WD, MF 4225 4WD, MF 4235 2WD, MF 4235 4WD, MF 4240 2WD, MF 4240 4WD, MF 4245 2WD, MF 4245 4WD, MF 4255 2WD, MF 4255 4WD, MF 4265 2WD, MF 4265 4WD, MF 6265 2WD, MF 6265 4WD, MF 6255 2WD, MF 6255 4WD, MF 6245 2WD, MF 6245 4WD, MF 6235 2WD, MF 6235 4WD, MF 8250 4WD, MF 2225, MF 2235, MF 2230, MF 265, MF 285, MF 270, MF 375 2WD, MF 375 4WD, MF 390 2WD, MF 390 4WD, MF 398 2WD, MF 398 4WD, MF 365 2WD, MF 365 4WD, MF 390T 2WD, MF 390T 4WD, MF 362 2WD, MF 362 4WD, MF 372 N 2WD, MF 372 N 4WD, MF 382 N 4WD, MF 362 N 2WD, MF 362 N 4WD</t>
+        </is>
+      </c>
+      <c r="D885" s="11" t="inlineStr"/>
     </row>
     <row r="886" ht="18.75" customHeight="1">
       <c r="A886" s="3" t="inlineStr">
@@ -14654,9 +14926,17 @@
           <t>V837069013</t>
         </is>
       </c>
-      <c r="B886" s="11" t="n"/>
-      <c r="C886" s="11" t="n"/>
-      <c r="D886" s="11" t="n"/>
+      <c r="B886" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C886" s="11" t="inlineStr">
+        <is>
+          <t>207 F Vario S3, 208 F Vario S3, 209 F Vario S3, 210 F Vario S3, 211 F Vario S3, 209 P Vario S3, 210 P Vario S3, 211 P Vario S3, 207 S Vario S3, 208 S Vario S3, 209 S Vario S3, 210 S Vario S3, 211 S Vario S3, 207 V Vario S3, 208 V Vario S3, 209 V Vario S3, 210 V Vario S3, 211 V Vario S3, 310 Vario S4, 311 Vario S4, 312 Vario S4, 313 Vario S4, IDEAL 7, 8370P, 8400P, 8380P, 8410P, 9300R, 9390R, 9470X, 9490X, Rogator 635 (MY19), RG 635, 938 Vario MT, 940 Vario MT, 943 Vario MT, 6465 Dyna-6, 6475 Dyna-6, MF 6480 T3 Agco Power, MF 6497 T2 Agco Power, MF 6497 XTRA, MF 6499 XTRA, 6485, MF 6490 T3 Agco Power, MF 6495 T3 Agco Power, MF 6470 T3 Agco Power, MF 6460 T3 Agco Power, MF 6497 T3 Agco Power, MF 6499 T3 Agco Power, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 8450, MF 8460, MF 8470, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 9540, MF 9560, MF 9690, MF 9790, MF 9695, MF 9795, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 5709 S Dyna-4, MF 5709 S Dyna-6, MF 5608 Dyna-4, MF 5609 Dyna-4, MF 5610 Dyna-4, MF 5611 Dyna-4, MF 5611 Dyna-6, MF 5612 Dyna-4, MF 5612 Dyna-6, MF 5613 Dyna-4, MF 5613 Dyna-6, MF 6612 Dyna-4, MF 6613 Dyna-6, MF 6613 Dyna-4, MF 6614 Dyna-VT, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-VT, MF 6615 Dyna-6, MF 6616 Dyna-VT, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-VT, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-VT, MF 7616 Dyna-6, MF 7618 Dyna-VT, MF 7618 Dyna-6, MF 7619 Dyna-VT, MF 7619 Dyna-6, MF 7620 Dyna-VT, MF 7620 Dyna-6, MF 7622 Dyna-VT, MF 7622 Dyna-6, MF 7624 Dyna-VT, MF 7624 Dyna-6, MF 7626 Dyna-6, MF 5709 SL Dyna-4, MF 5710 SL Dyna-4, MF 5710 SL Dyna-6, MF 5711 SL Dyna-4, MF 5711 SL Dyna-6, MF 5712 SL Dyna-4, MF 5712 SL Dyna-6, MF 5713 SL Dyna-4, MF 5713 SL Dyna-6, MF 6712 S Dyna-4, MF 6713 S Dyna-4, MF 6714 S Dyna-4 T4F, MF 6715 S Dyna-4 T4F, MF 6713 S Dyna-6, MF 6713 S Dyna-VT, MF 6714 S Dyna-6, MF 6714 S Dyna-VT, MF 6715 S Dyna-6 T4F, MF 6715 S Dyna-VT, MF 6716 S Dyna-6 T4F, MF 6716 S Dyna-VT T4F, MF 6718 S Dyna-6, MF 6718 S Dyna-VT, MF 6714 S Dyna-6 T4F, MF 6714 S Dyna-VT T4F, MF 7719 Dyna-6, MF 7715 DYNA-4, MF 7716 Dyna-6, MF 7714 Dyna-4, MF 7715 Dyna-4, MF 7726 Dyna-VT, MF6713 S Dyna-6 T5, MF 6713 S Dyna-VT T5, MF 6714 S Dyna-6 T5, MF 6714 S Dyna-VT T5, MF 6715 S Dyna-6 T5, MF 6715 S Dyna-VT T5, MF 6716 S Dyna-6 T5, MF 6716 S Dyna-VT T5, MF 6718 S Dyna-6 T5, MF 6718 S Dyna-VT T5, MF 7714 S Dyna-4, MF 7715 S Dyna-4, MF 7719 S Dyna-VT T5, MF 7714 S Dyna-4 T5, MF 7715 S Dyna-VT T5, MF 7715 S Dyna-6 T5, MF 7715 S Dyna-4 T5, MF 7716 S Dyna-VT T5, MF 7716 S Dyna-6 T5, MF 7718 S Dyna-VT T5, MF 7718 S Dyna-6 T5, MF 8737 S, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 8740 S Dyna-VT, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, MF 5470 T3, MF 5480 T3, MF8727, MF8730, MF8732, MF8735, MF 8737 MR, MF IDEAL 7, MF 7265 (2009-2011), MF 7345 S MCS (2011-2014), MF 7347 S MCS (2012-2014), MF 7360 T4I (2012), MF 7360 PL T4I (2012), MF 7370 T4I (2012), MF 7345 S (2011-2014), MF 7347 S (2012-2014), MF 7360 T4I (2013-2014), MF 7360 PL T4I (2013-2014), MF 7370 T4I (2013-2014), MF 7360 PLI T4I (2013-2014), MF 7345 S (09/14 - 08/17), MF 7345 S MCS (09/14 - 08/17), MF 7347 S (09/14 - 08/17), MF 7347 S MCS (09/14 - 08/17), MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF 7340 T4F (2018-2021), MF 7344 TF4 (2018-2021), MF 7345 S T4F (2018-2021), MF 7347 S T4F (2018-2021), MF 7360 T4F (2018-2021), MF 7360 PL/PLI T4F (2018-2021), MF 7370 T4F (2018-2021), MF 7340 ST5 (2021-9999), MF 7344 ST5 (2021-9999), MF 7347 S ST5 (2021-9999), MF 7370 ST5 (2021-9999), MF 7344 (09/15 - 08/17), MF 7382 (04/15 - 03/17), MF 7340 (09/15 - 08/17), MF 7247 S (2008-2011), MF 7274, MF 7260 (2005-2011), MF 7270 (2005-2011), MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7370 PLI (2017), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF Activa S 7345 MCS, MF Activa S 7347 MCS, MF Beta 7360, MF Beta 7370 PL, MF7380, MF7380AL, MF7382, MF9380, MF Beta 7370 PLI, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, No longer used Refer to 11652, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, No longer used Refer to 11650, No longer used Refer to 11651, T195 (replaced by J3591), T210 (replaced by J3592), T230 (replaced by J3593), T250 (replaced by J3594), T160, T170, T180, T190, T170C, T170CH, A74SH 1C7, A84SH 1C7, A94SH 1C7, A104MH 1C7, A114MH 1C7, A124LH 1C7, A134LH 1C7, A104MH4, A114MH4, N142V, N142D, N113H3, N113H5, N123H3, N123H5, N143V, N163V, N143D, N163D, N143H3, N103.4H3, N103.4H5, N123V, N123D, N104H5, N114EH5, N124H5, N134H5, N154EH5, N174H5, N134A, N154EA, N174A, N134V, N154EV, N174V, N134D, N154ED, N174D, N104H5 MR18, N114EH5 MR18, N124H5 MR18, N134H5 MR18, N154EH5 MR18, N174H5 MR18, N134A MR18, N154EA MR18, N174A MR18, N134V SmartTouch, N154EV SmartTouch, N174V SmartTouch, N134D SmartTouch, N154ED SmartTouch, N174D SmartTouch, N93H3, N103H3, N103H5, N93H5, S233, S263, S293, S323, S353, S294, S374, S324 SmartTouch MR19, S394 SmartTouch MR19, T131C, T161C, T171C, T121H, T131H, T151EH, T161H, T171H, T191H, T121C, T161LS, T171LS, T191LS, T132V, T152V, T162EV, T172V, T182V, T202V, T132D, T152D, T162D, T172D, T182D, T202D, T193H, T213V, T183D, T203D, T144H, T154H, T174EH, T194H, T214H, T234H, T144A, T154A, T174EA, T194A, T214A, T234A, T144V, T154V, T174EV, T194V, T214V, T234V, T144D, T154D, T174ED, T194D, T214D, T144H MR18, T154H MR18, T174EH MR18, T194H MR18, T234H MR18, T254H MR18, T144A MR18, T154A MR18, T174EA MR18, T194A MR18, T214A MR18, T234A MR18, T254A MR18, T144V SmartTouch, T154V SmartTouch, T174EV SmartTouch, T194V SmartTouch, T214V SmartTouch, T234V SmartTouch, T254V SmartTouch, T144D SmartTouch, T154D SmartTouch, T174ED SmartTouch, T194D SmartTouch, T214D SmartTouch, T234D SmartTouch, T144H MR19, T154H MR19, T174EH MR19, T144A MR19, T154A MR19, T174EA MR19, T144V SmartTouch MR19, T154V SmartTouch MR19, T174EV SmartTouch MR19, T144D SmartTouch MR19, T154D SmartTouch MR19, T174ED SmartTouch MR19, T194H MR19, T214H MR19, T234H MR19, T254H MR19, T194A MR19, T214A MR19, T234A MR19, T254A MR19, T194V SmartTouch MR19, T214V SmartTouch MR19, T234V SmartTouch MR19, T254V SmartTouch MR19, T194D SmartTouch MR19, T214D SmartTouch MR19, T234D SmartTouch MR19</t>
+        </is>
+      </c>
+      <c r="D886" s="11" t="inlineStr"/>
     </row>
     <row r="887" ht="18.75" customHeight="1">
       <c r="A887" s="3" t="inlineStr">
@@ -14664,9 +14944,17 @@
           <t>V837069013</t>
         </is>
       </c>
-      <c r="B887" s="11" t="n"/>
-      <c r="C887" s="11" t="n"/>
-      <c r="D887" s="11" t="n"/>
+      <c r="B887" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C887" s="11" t="inlineStr">
+        <is>
+          <t>207 F Vario S3, 208 F Vario S3, 209 F Vario S3, 210 F Vario S3, 211 F Vario S3, 209 P Vario S3, 210 P Vario S3, 211 P Vario S3, 207 S Vario S3, 208 S Vario S3, 209 S Vario S3, 210 S Vario S3, 211 S Vario S3, 207 V Vario S3, 208 V Vario S3, 209 V Vario S3, 210 V Vario S3, 211 V Vario S3, 310 Vario S4, 311 Vario S4, 312 Vario S4, 313 Vario S4, IDEAL 7, 8370P, 8400P, 8380P, 8410P, 9300R, 9390R, 9470X, 9490X, Rogator 635 (MY19), RG 635, 938 Vario MT, 940 Vario MT, 943 Vario MT, 6465 Dyna-6, 6475 Dyna-6, MF 6480 T3 Agco Power, MF 6497 T2 Agco Power, MF 6497 XTRA, MF 6499 XTRA, 6485, MF 6490 T3 Agco Power, MF 6495 T3 Agco Power, MF 6470 T3 Agco Power, MF 6460 T3 Agco Power, MF 6497 T3 Agco Power, MF 6499 T3 Agco Power, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 8450, MF 8460, MF 8470, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 9540, MF 9560, MF 9690, MF 9790, MF 9695, MF 9795, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 5709 S Dyna-4, MF 5709 S Dyna-6, MF 5608 Dyna-4, MF 5609 Dyna-4, MF 5610 Dyna-4, MF 5611 Dyna-4, MF 5611 Dyna-6, MF 5612 Dyna-4, MF 5612 Dyna-6, MF 5613 Dyna-4, MF 5613 Dyna-6, MF 6612 Dyna-4, MF 6613 Dyna-6, MF 6613 Dyna-4, MF 6614 Dyna-VT, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-VT, MF 6615 Dyna-6, MF 6616 Dyna-VT, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-VT, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-VT, MF 7616 Dyna-6, MF 7618 Dyna-VT, MF 7618 Dyna-6, MF 7619 Dyna-VT, MF 7619 Dyna-6, MF 7620 Dyna-VT, MF 7620 Dyna-6, MF 7622 Dyna-VT, MF 7622 Dyna-6, MF 7624 Dyna-VT, MF 7624 Dyna-6, MF 7626 Dyna-6, MF 5709 SL Dyna-4, MF 5710 SL Dyna-4, MF 5710 SL Dyna-6, MF 5711 SL Dyna-4, MF 5711 SL Dyna-6, MF 5712 SL Dyna-4, MF 5712 SL Dyna-6, MF 5713 SL Dyna-4, MF 5713 SL Dyna-6, MF 6712 S Dyna-4, MF 6713 S Dyna-4, MF 6714 S Dyna-4 T4F, MF 6715 S Dyna-4 T4F, MF 6713 S Dyna-6, MF 6713 S Dyna-VT, MF 6714 S Dyna-6, MF 6714 S Dyna-VT, MF 6715 S Dyna-6 T4F, MF 6715 S Dyna-VT, MF 6716 S Dyna-6 T4F, MF 6716 S Dyna-VT T4F, MF 6718 S Dyna-6, MF 6718 S Dyna-VT, MF 6714 S Dyna-6 T4F, MF 6714 S Dyna-VT T4F, MF 7719 Dyna-6, MF 7715 DYNA-4, MF 7716 Dyna-6, MF 7714 Dyna-4, MF 7715 Dyna-4, MF 7726 Dyna-VT, MF6713 S Dyna-6 T5, MF 6713 S Dyna-VT T5, MF 6714 S Dyna-6 T5, MF 6714 S Dyna-VT T5, MF 6715 S Dyna-6 T5, MF 6715 S Dyna-VT T5, MF 6716 S Dyna-6 T5, MF 6716 S Dyna-VT T5, MF 6718 S Dyna-6 T5, MF 6718 S Dyna-VT T5, MF 7714 S Dyna-4, MF 7715 S Dyna-4, MF 7719 S Dyna-VT T5, MF 7714 S Dyna-4 T5, MF 7715 S Dyna-VT T5, MF 7715 S Dyna-6 T5, MF 7715 S Dyna-4 T5, MF 7716 S Dyna-VT T5, MF 7716 S Dyna-6 T5, MF 7718 S Dyna-VT T5, MF 7718 S Dyna-6 T5, MF 8737 S, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 8740 S Dyna-VT, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, MF 5470 T3, MF 5480 T3, MF8727, MF8730, MF8732, MF8735, MF 8737 MR, MF IDEAL 7, MF 7265 (2009-2011), MF 7345 S MCS (2011-2014), MF 7347 S MCS (2012-2014), MF 7360 T4I (2012), MF 7360 PL T4I (2012), MF 7370 T4I (2012), MF 7345 S (2011-2014), MF 7347 S (2012-2014), MF 7360 T4I (2013-2014), MF 7360 PL T4I (2013-2014), MF 7370 T4I (2013-2014), MF 7360 PLI T4I (2013-2014), MF 7345 S (09/14 - 08/17), MF 7345 S MCS (09/14 - 08/17), MF 7347 S (09/14 - 08/17), MF 7347 S MCS (09/14 - 08/17), MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF 7340 T4F (2018-2021), MF 7344 TF4 (2018-2021), MF 7345 S T4F (2018-2021), MF 7347 S T4F (2018-2021), MF 7360 T4F (2018-2021), MF 7360 PL/PLI T4F (2018-2021), MF 7370 T4F (2018-2021), MF 7340 ST5 (2021-9999), MF 7344 ST5 (2021-9999), MF 7347 S ST5 (2021-9999), MF 7370 ST5 (2021-9999), MF 7344 (09/15 - 08/17), MF 7382 (04/15 - 03/17), MF 7340 (09/15 - 08/17), MF 7247 S (2008-2011), MF 7274, MF 7260 (2005-2011), MF 7270 (2005-2011), MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7370 PLI (2017), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF Activa S 7345 MCS, MF Activa S 7347 MCS, MF Beta 7360, MF Beta 7370 PL, MF7380, MF7380AL, MF7382, MF9380, MF Beta 7370 PLI, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, No longer used Refer to 11652, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, No longer used Refer to 11650, No longer used Refer to 11651, T195 (replaced by J3591), T210 (replaced by J3592), T230 (replaced by J3593), T250 (replaced by J3594), T160, T170, T180, T190, T170C, T170CH, A74SH 1C7, A84SH 1C7, A94SH 1C7, A104MH 1C7, A114MH 1C7, A124LH 1C7, A134LH 1C7, A104MH4, A114MH4, N142V, N142D, N113H3, N113H5, N123H3, N123H5, N143V, N163V, N143D, N163D, N143H3, N103.4H3, N103.4H5, N123V, N123D, N104H5, N114EH5, N124H5, N134H5, N154EH5, N174H5, N134A, N154EA, N174A, N134V, N154EV, N174V, N134D, N154ED, N174D, N104H5 MR18, N114EH5 MR18, N124H5 MR18, N134H5 MR18, N154EH5 MR18, N174H5 MR18, N134A MR18, N154EA MR18, N174A MR18, N134V SmartTouch, N154EV SmartTouch, N174V SmartTouch, N134D SmartTouch, N154ED SmartTouch, N174D SmartTouch, N93H3, N103H3, N103H5, N93H5, S233, S263, S293, S323, S353, S294, S374, S324 SmartTouch MR19, S394 SmartTouch MR19, T131C, T161C, T171C, T121H, T131H, T151EH, T161H, T171H, T191H, T121C, T161LS, T171LS, T191LS, T132V, T152V, T162EV, T172V, T182V, T202V, T132D, T152D, T162D, T172D, T182D, T202D, T193H, T213V, T183D, T203D, T144H, T154H, T174EH, T194H, T214H, T234H, T144A, T154A, T174EA, T194A, T214A, T234A, T144V, T154V, T174EV, T194V, T214V, T234V, T144D, T154D, T174ED, T194D, T214D, T144H MR18, T154H MR18, T174EH MR18, T194H MR18, T234H MR18, T254H MR18, T144A MR18, T154A MR18, T174EA MR18, T194A MR18, T214A MR18, T234A MR18, T254A MR18, T144V SmartTouch, T154V SmartTouch, T174EV SmartTouch, T194V SmartTouch, T214V SmartTouch, T234V SmartTouch, T254V SmartTouch, T144D SmartTouch, T154D SmartTouch, T174ED SmartTouch, T194D SmartTouch, T214D SmartTouch, T234D SmartTouch, T144H MR19, T154H MR19, T174EH MR19, T144A MR19, T154A MR19, T174EA MR19, T144V SmartTouch MR19, T154V SmartTouch MR19, T174EV SmartTouch MR19, T144D SmartTouch MR19, T154D SmartTouch MR19, T174ED SmartTouch MR19, T194H MR19, T214H MR19, T234H MR19, T254H MR19, T194A MR19, T214A MR19, T234A MR19, T254A MR19, T194V SmartTouch MR19, T214V SmartTouch MR19, T234V SmartTouch MR19, T254V SmartTouch MR19, T194D SmartTouch MR19, T214D SmartTouch MR19, T234D SmartTouch MR19</t>
+        </is>
+      </c>
+      <c r="D887" s="11" t="inlineStr"/>
     </row>
     <row r="888" ht="18.75" customHeight="1">
       <c r="A888" s="3" t="inlineStr">
@@ -14674,9 +14962,17 @@
           <t>V837069011</t>
         </is>
       </c>
-      <c r="B888" s="11" t="n"/>
-      <c r="C888" s="11" t="n"/>
-      <c r="D888" s="11" t="n"/>
+      <c r="B888" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C888" s="11" t="inlineStr">
+        <is>
+          <t>207 F Vario S3, 208 F Vario S3, 209 F Vario S3, 210 F Vario S3, 211 F Vario S3, 209 P Vario S3, 210 P Vario S3, 211 P Vario S3, 207 S Vario S3, 208 S Vario S3, 209 S Vario S3, 210 S Vario S3, 211 S Vario S3, 207 V Vario S3, 208 V Vario S3, 209 V Vario S3, 210 V Vario S3, 211 V Vario S3, 310 Vario S4, 311 Vario S4, 312 Vario S4, 313 Vario S4, IDEAL 7, 8370P, 8400P, 8380P, 8410P, 9300R, 9390R, 9470X, 9490X, Rogator 635 (MY19), RG 635, 938 Vario MT, 940 Vario MT, 943 Vario MT, 6465 Dyna-6, 6475 Dyna-6, MF 6480 T3 Agco Power, MF 6497 T2 Agco Power, MF 6497 XTRA, MF 6499 XTRA, 6485, MF 6490 T3 Agco Power, MF 6495 T3 Agco Power, MF 6470 T3 Agco Power, MF 6460 T3 Agco Power, MF 6497 T3 Agco Power, MF 6499 T3 Agco Power, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 8450, MF 8460, MF 8470, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 9540, MF 9560, MF 9690, MF 9790, MF 9695, MF 9795, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 5709 S Dyna-4, MF 5709 S Dyna-6, MF 5608 Dyna-4, MF 5609 Dyna-4, MF 5610 Dyna-4, MF 5611 Dyna-4, MF 5611 Dyna-6, MF 5612 Dyna-4, MF 5612 Dyna-6, MF 5613 Dyna-4, MF 5613 Dyna-6, MF 6612 Dyna-4, MF 6613 Dyna-6, MF 6613 Dyna-4, MF 6614 Dyna-VT, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-VT, MF 6615 Dyna-6, MF 6616 Dyna-VT, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-VT, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-VT, MF 7616 Dyna-6, MF 7618 Dyna-VT, MF 7618 Dyna-6, MF 7619 Dyna-VT, MF 7619 Dyna-6, MF 7620 Dyna-VT, MF 7620 Dyna-6, MF 7622 Dyna-VT, MF 7622 Dyna-6, MF 7624 Dyna-VT, MF 7624 Dyna-6, MF 7626 Dyna-6, MF 5709 SL Dyna-4, MF 5710 SL Dyna-4, MF 5710 SL Dyna-6, MF 5711 SL Dyna-4, MF 5711 SL Dyna-6, MF 5712 SL Dyna-4, MF 5712 SL Dyna-6, MF 5713 SL Dyna-4, MF 5713 SL Dyna-6, MF 6712 S Dyna-4, MF 6713 S Dyna-4, MF 6714 S Dyna-4 T4F, MF 6715 S Dyna-4 T4F, MF 6713 S Dyna-6, MF 6713 S Dyna-VT, MF 6714 S Dyna-6, MF 6714 S Dyna-VT, MF 6715 S Dyna-6 T4F, MF 6715 S Dyna-VT, MF 6716 S Dyna-6 T4F, MF 6716 S Dyna-VT T4F, MF 6718 S Dyna-6, MF 6718 S Dyna-VT, MF 6714 S Dyna-6 T4F, MF 6714 S Dyna-VT T4F, MF 7719 Dyna-6, MF 7715 DYNA-4, MF 7716 Dyna-6, MF 7714 Dyna-4, MF 7715 Dyna-4, MF 7726 Dyna-VT, MF6713 S Dyna-6 T5, MF 6713 S Dyna-VT T5, MF 6714 S Dyna-6 T5, MF 6714 S Dyna-VT T5, MF 6715 S Dyna-6 T5, MF 6715 S Dyna-VT T5, MF 6716 S Dyna-6 T5, MF 6716 S Dyna-VT T5, MF 6718 S Dyna-6 T5, MF 6718 S Dyna-VT T5, MF 7714 S Dyna-4, MF 7715 S Dyna-4, MF 7719 S Dyna-VT T5, MF 7714 S Dyna-4 T5, MF 7715 S Dyna-VT T5, MF 7715 S Dyna-6 T5, MF 7715 S Dyna-4 T5, MF 7716 S Dyna-VT T5, MF 7716 S Dyna-6 T5, MF 7718 S Dyna-VT T5, MF 7718 S Dyna-6 T5, MF 8737 S, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 8740 S Dyna-VT, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, MF 5470 T3, MF 5480 T3, MF8727, MF8730, MF8732, MF8735, MF 8737 MR, MF IDEAL 7, MF 7265 (2009-2011), MF 7345 S MCS (2011-2014), MF 7347 S MCS (2012-2014), MF 7360 T4I (2012), MF 7360 PL T4I (2012), MF 7370 T4I (2012), MF 7345 S (2011-2014), MF 7347 S (2012-2014), MF 7360 T4I (2013-2014), MF 7360 PL T4I (2013-2014), MF 7370 T4I (2013-2014), MF 7360 PLI T4I (2013-2014), MF 7345 S (09/14 - 08/17), MF 7345 S MCS (09/14 - 08/17), MF 7347 S (09/14 - 08/17), MF 7347 S MCS (09/14 - 08/17), MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF 7340 T4F (2018-2021), MF 7344 TF4 (2018-2021), MF 7345 S T4F (2018-2021), MF 7347 S T4F (2018-2021), MF 7360 T4F (2018-2021), MF 7360 PL/PLI T4F (2018-2021), MF 7370 T4F (2018-2021), MF 7340 ST5 (2021-9999), MF 7344 ST5 (2021-9999), MF 7347 S ST5 (2021-9999), MF 7370 ST5 (2021-9999), MF 7344 (09/15 - 08/17), MF 7382 (04/15 - 03/17), MF 7340 (09/15 - 08/17), MF 7247 S (2008-2011), MF 7274, MF 7260 (2005-2011), MF 7270 (2005-2011), MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7370 PLI (2017), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF Activa S 7345 MCS, MF Activa S 7347 MCS, MF Beta 7360, MF Beta 7370 PL, MF7380, MF7380AL, MF7382, MF9380, MF Beta 7370 PLI, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, No longer used Refer to 11652, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, No longer used Refer to 11650, No longer used Refer to 11651, T195 (replaced by J3591), T210 (replaced by J3592), T230 (replaced by J3593), T250 (replaced by J3594), T160, T170, T180, T190, T170C, T170CH, A74SH 1C7, A84SH 1C7, A94SH 1C7, A104MH 1C7, A114MH 1C7, A124LH 1C7, A134LH 1C7, A104MH4, A114MH4, N142V, N142D, N113H3, N113H5, N123H3, N123H5, N143V, N163V, N143D, N163D, N143H3, N103.4H3, N103.4H5, N123V, N123D, N104H5, N114EH5, N124H5, N134H5, N154EH5, N174H5, N134A, N154EA, N174A, N134V, N154EV, N174V, N134D, N154ED, N174D, N104H5 MR18, N114EH5 MR18, N124H5 MR18, N134H5 MR18, N154EH5 MR18, N174H5 MR18, N134A MR18, N154EA MR18, N174A MR18, N134V SmartTouch, N154EV SmartTouch, N174V SmartTouch, N134D SmartTouch, N154ED SmartTouch, N174D SmartTouch, N93H3, N103H3, N103H5, N93H5, S233, S263, S293, S323, S353, S294, S374, S324 SmartTouch MR19, S394 SmartTouch MR19, T131C, T161C, T171C, T121H, T131H, T151EH, T161H, T171H, T191H, T121C, T161LS, T171LS, T191LS, T132V, T152V, T162EV, T172V, T182V, T202V, T132D, T152D, T162D, T172D, T182D, T202D, T193H, T213V, T183D, T203D, T144H, T154H, T174EH, T194H, T214H, T234H, T144A, T154A, T174EA, T194A, T214A, T234A, T144V, T154V, T174EV, T194V, T214V, T234V, T144D, T154D, T174ED, T194D, T214D, T144H MR18, T154H MR18, T174EH MR18, T194H MR18, T234H MR18, T254H MR18, T144A MR18, T154A MR18, T174EA MR18, T194A MR18, T214A MR18, T234A MR18, T254A MR18, T144V SmartTouch, T154V SmartTouch, T174EV SmartTouch, T194V SmartTouch, T214V SmartTouch, T234V SmartTouch, T254V SmartTouch, T144D SmartTouch, T154D SmartTouch, T174ED SmartTouch, T194D SmartTouch, T214D SmartTouch, T234D SmartTouch, T144H MR19, T154H MR19, T174EH MR19, T144A MR19, T154A MR19, T174EA MR19, T144V SmartTouch MR19, T154V SmartTouch MR19, T174EV SmartTouch MR19, T144D SmartTouch MR19, T154D SmartTouch MR19, T174ED SmartTouch MR19, T194H MR19, T214H MR19, T234H MR19, T254H MR19, T194A MR19, T214A MR19, T234A MR19, T254A MR19, T194V SmartTouch MR19, T214V SmartTouch MR19, T234V SmartTouch MR19, T254V SmartTouch MR19, T194D SmartTouch MR19, T214D SmartTouch MR19, T234D SmartTouch MR19</t>
+        </is>
+      </c>
+      <c r="D888" s="11" t="inlineStr"/>
     </row>
     <row r="889" ht="18.75" customHeight="1">
       <c r="A889" s="3" t="inlineStr">
@@ -14684,9 +14980,17 @@
           <t>V837069011</t>
         </is>
       </c>
-      <c r="B889" s="11" t="n"/>
-      <c r="C889" s="11" t="n"/>
-      <c r="D889" s="11" t="n"/>
+      <c r="B889" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C889" s="11" t="inlineStr">
+        <is>
+          <t>207 F Vario S3, 208 F Vario S3, 209 F Vario S3, 210 F Vario S3, 211 F Vario S3, 209 P Vario S3, 210 P Vario S3, 211 P Vario S3, 207 S Vario S3, 208 S Vario S3, 209 S Vario S3, 210 S Vario S3, 211 S Vario S3, 207 V Vario S3, 208 V Vario S3, 209 V Vario S3, 210 V Vario S3, 211 V Vario S3, 310 Vario S4, 311 Vario S4, 312 Vario S4, 313 Vario S4, IDEAL 7, 8370P, 8400P, 8380P, 8410P, 9300R, 9390R, 9470X, 9490X, Rogator 635 (MY19), RG 635, 938 Vario MT, 940 Vario MT, 943 Vario MT, 6465 Dyna-6, 6475 Dyna-6, MF 6480 T3 Agco Power, MF 6497 T2 Agco Power, MF 6497 XTRA, MF 6499 XTRA, 6485, MF 6490 T3 Agco Power, MF 6495 T3 Agco Power, MF 6470 T3 Agco Power, MF 6460 T3 Agco Power, MF 6497 T3 Agco Power, MF 6499 T3 Agco Power, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 8450, MF 8460, MF 8470, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 9540, MF 9560, MF 9690, MF 9790, MF 9695, MF 9795, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 5709 S Dyna-4, MF 5709 S Dyna-6, MF 5608 Dyna-4, MF 5609 Dyna-4, MF 5610 Dyna-4, MF 5611 Dyna-4, MF 5611 Dyna-6, MF 5612 Dyna-4, MF 5612 Dyna-6, MF 5613 Dyna-4, MF 5613 Dyna-6, MF 6612 Dyna-4, MF 6613 Dyna-6, MF 6613 Dyna-4, MF 6614 Dyna-VT, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-VT, MF 6615 Dyna-6, MF 6616 Dyna-VT, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-VT, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-VT, MF 7616 Dyna-6, MF 7618 Dyna-VT, MF 7618 Dyna-6, MF 7619 Dyna-VT, MF 7619 Dyna-6, MF 7620 Dyna-VT, MF 7620 Dyna-6, MF 7622 Dyna-VT, MF 7622 Dyna-6, MF 7624 Dyna-VT, MF 7624 Dyna-6, MF 7626 Dyna-6, MF 5709 SL Dyna-4, MF 5710 SL Dyna-4, MF 5710 SL Dyna-6, MF 5711 SL Dyna-4, MF 5711 SL Dyna-6, MF 5712 SL Dyna-4, MF 5712 SL Dyna-6, MF 5713 SL Dyna-4, MF 5713 SL Dyna-6, MF 6712 S Dyna-4, MF 6713 S Dyna-4, MF 6714 S Dyna-4 T4F, MF 6715 S Dyna-4 T4F, MF 6713 S Dyna-6, MF 6713 S Dyna-VT, MF 6714 S Dyna-6, MF 6714 S Dyna-VT, MF 6715 S Dyna-6 T4F, MF 6715 S Dyna-VT, MF 6716 S Dyna-6 T4F, MF 6716 S Dyna-VT T4F, MF 6718 S Dyna-6, MF 6718 S Dyna-VT, MF 6714 S Dyna-6 T4F, MF 6714 S Dyna-VT T4F, MF 7719 Dyna-6, MF 7715 DYNA-4, MF 7716 Dyna-6, MF 7714 Dyna-4, MF 7715 Dyna-4, MF 7726 Dyna-VT, MF6713 S Dyna-6 T5, MF 6713 S Dyna-VT T5, MF 6714 S Dyna-6 T5, MF 6714 S Dyna-VT T5, MF 6715 S Dyna-6 T5, MF 6715 S Dyna-VT T5, MF 6716 S Dyna-6 T5, MF 6716 S Dyna-VT T5, MF 6718 S Dyna-6 T5, MF 6718 S Dyna-VT T5, MF 7714 S Dyna-4, MF 7715 S Dyna-4, MF 7719 S Dyna-VT T5, MF 7714 S Dyna-4 T5, MF 7715 S Dyna-VT T5, MF 7715 S Dyna-6 T5, MF 7715 S Dyna-4 T5, MF 7716 S Dyna-VT T5, MF 7716 S Dyna-6 T5, MF 7718 S Dyna-VT T5, MF 7718 S Dyna-6 T5, MF 8737 S, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 8740 S Dyna-VT, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, MF 5470 T3, MF 5480 T3, MF8727, MF8730, MF8732, MF8735, MF 8737 MR, MF IDEAL 7, MF 7265 (2009-2011), MF 7345 S MCS (2011-2014), MF 7347 S MCS (2012-2014), MF 7360 T4I (2012), MF 7360 PL T4I (2012), MF 7370 T4I (2012), MF 7345 S (2011-2014), MF 7347 S (2012-2014), MF 7360 T4I (2013-2014), MF 7360 PL T4I (2013-2014), MF 7370 T4I (2013-2014), MF 7360 PLI T4I (2013-2014), MF 7345 S (09/14 - 08/17), MF 7345 S MCS (09/14 - 08/17), MF 7347 S (09/14 - 08/17), MF 7347 S MCS (09/14 - 08/17), MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF 7340 T4F (2018-2021), MF 7344 TF4 (2018-2021), MF 7345 S T4F (2018-2021), MF 7347 S T4F (2018-2021), MF 7360 T4F (2018-2021), MF 7360 PL/PLI T4F (2018-2021), MF 7370 T4F (2018-2021), MF 7340 ST5 (2021-9999), MF 7344 ST5 (2021-9999), MF 7347 S ST5 (2021-9999), MF 7370 ST5 (2021-9999), MF 7344 (09/15 - 08/17), MF 7382 (04/15 - 03/17), MF 7340 (09/15 - 08/17), MF 7247 S (2008-2011), MF 7274, MF 7260 (2005-2011), MF 7270 (2005-2011), MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7370 PLI (2017), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF Activa S 7345 MCS, MF Activa S 7347 MCS, MF Beta 7360, MF Beta 7370 PL, MF7380, MF7380AL, MF7382, MF9380, MF Beta 7370 PLI, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, No longer used Refer to 11652, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, No longer used Refer to 11650, No longer used Refer to 11651, T195 (replaced by J3591), T210 (replaced by J3592), T230 (replaced by J3593), T250 (replaced by J3594), T160, T170, T180, T190, T170C, T170CH, A74SH 1C7, A84SH 1C7, A94SH 1C7, A104MH 1C7, A114MH 1C7, A124LH 1C7, A134LH 1C7, A104MH4, A114MH4, N142V, N142D, N113H3, N113H5, N123H3, N123H5, N143V, N163V, N143D, N163D, N143H3, N103.4H3, N103.4H5, N123V, N123D, N104H5, N114EH5, N124H5, N134H5, N154EH5, N174H5, N134A, N154EA, N174A, N134V, N154EV, N174V, N134D, N154ED, N174D, N104H5 MR18, N114EH5 MR18, N124H5 MR18, N134H5 MR18, N154EH5 MR18, N174H5 MR18, N134A MR18, N154EA MR18, N174A MR18, N134V SmartTouch, N154EV SmartTouch, N174V SmartTouch, N134D SmartTouch, N154ED SmartTouch, N174D SmartTouch, N93H3, N103H3, N103H5, N93H5, S233, S263, S293, S323, S353, S294, S374, S324 SmartTouch MR19, S394 SmartTouch MR19, T131C, T161C, T171C, T121H, T131H, T151EH, T161H, T171H, T191H, T121C, T161LS, T171LS, T191LS, T132V, T152V, T162EV, T172V, T182V, T202V, T132D, T152D, T162D, T172D, T182D, T202D, T193H, T213V, T183D, T203D, T144H, T154H, T174EH, T194H, T214H, T234H, T144A, T154A, T174EA, T194A, T214A, T234A, T144V, T154V, T174EV, T194V, T214V, T234V, T144D, T154D, T174ED, T194D, T214D, T144H MR18, T154H MR18, T174EH MR18, T194H MR18, T234H MR18, T254H MR18, T144A MR18, T154A MR18, T174EA MR18, T194A MR18, T214A MR18, T234A MR18, T254A MR18, T144V SmartTouch, T154V SmartTouch, T174EV SmartTouch, T194V SmartTouch, T214V SmartTouch, T234V SmartTouch, T254V SmartTouch, T144D SmartTouch, T154D SmartTouch, T174ED SmartTouch, T194D SmartTouch, T214D SmartTouch, T234D SmartTouch, T144H MR19, T154H MR19, T174EH MR19, T144A MR19, T154A MR19, T174EA MR19, T144V SmartTouch MR19, T154V SmartTouch MR19, T174EV SmartTouch MR19, T144D SmartTouch MR19, T154D SmartTouch MR19, T174ED SmartTouch MR19, T194H MR19, T214H MR19, T234H MR19, T254H MR19, T194A MR19, T214A MR19, T234A MR19, T254A MR19, T194V SmartTouch MR19, T214V SmartTouch MR19, T234V SmartTouch MR19, T254V SmartTouch MR19, T194D SmartTouch MR19, T214D SmartTouch MR19, T234D SmartTouch MR19</t>
+        </is>
+      </c>
+      <c r="D889" s="11" t="inlineStr"/>
     </row>
     <row r="890" ht="18.75" customHeight="1">
       <c r="A890" s="3" t="inlineStr">
@@ -14694,9 +14998,17 @@
           <t>ACP0014820</t>
         </is>
       </c>
-      <c r="B890" s="11" t="n"/>
-      <c r="C890" s="11" t="n"/>
-      <c r="D890" s="11" t="n"/>
+      <c r="B890" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C890" s="11" t="inlineStr">
+        <is>
+          <t>9300R, MF 135, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 2140 CE, MF 375 2WD, MF 375 4WD</t>
+        </is>
+      </c>
+      <c r="D890" s="11" t="inlineStr"/>
     </row>
     <row r="891" ht="18.75" customHeight="1">
       <c r="A891" s="3" t="inlineStr">
@@ -14704,9 +15016,17 @@
           <t>ACP0015080</t>
         </is>
       </c>
-      <c r="B891" s="11" t="n"/>
-      <c r="C891" s="11" t="n"/>
-      <c r="D891" s="11" t="n"/>
+      <c r="B891" s="11" t="inlineStr">
+        <is>
+          <t>Gleaner</t>
+        </is>
+      </c>
+      <c r="C891" s="11" t="inlineStr">
+        <is>
+          <t>S67 Super , S77 Super, R65, R66, R76, 700 Grain Header</t>
+        </is>
+      </c>
+      <c r="D891" s="11" t="inlineStr"/>
     </row>
     <row r="892" ht="18.75" customHeight="1">
       <c r="A892" s="3" t="inlineStr">
@@ -14714,9 +15034,21 @@
           <t>D28680055</t>
         </is>
       </c>
-      <c r="B892" s="11" t="n"/>
-      <c r="C892" s="11" t="n"/>
-      <c r="D892" s="11" t="n"/>
+      <c r="B892" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C892" s="11" t="inlineStr">
+        <is>
+          <t>Cutting table PF 5,5m (18'), MF 7274, MF 7278, MF 7256, MF 7272</t>
+        </is>
+      </c>
+      <c r="D892" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="893" ht="18.75" customHeight="1">
       <c r="A893" s="3" t="inlineStr">
@@ -14724,9 +15056,21 @@
           <t>102-3046</t>
         </is>
       </c>
-      <c r="B893" s="11" t="n"/>
-      <c r="C893" s="11" t="n"/>
-      <c r="D893" s="11" t="n"/>
+      <c r="B893" s="11" t="inlineStr">
+        <is>
+          <t>Challenger</t>
+        </is>
+      </c>
+      <c r="C893" s="11" t="inlineStr">
+        <is>
+          <t>MT755C</t>
+        </is>
+      </c>
+      <c r="D893" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="894" ht="18.75" customHeight="1">
       <c r="A894" s="3" t="inlineStr">
@@ -14734,9 +15078,9 @@
           <t>N858770</t>
         </is>
       </c>
-      <c r="B894" s="11" t="n"/>
-      <c r="C894" s="11" t="n"/>
-      <c r="D894" s="11" t="n"/>
+      <c r="B894" s="11" t="inlineStr"/>
+      <c r="C894" s="11" t="inlineStr"/>
+      <c r="D894" s="11" t="inlineStr"/>
     </row>
     <row r="895" ht="18.75" customHeight="1">
       <c r="A895" s="3" t="inlineStr">
@@ -14744,9 +15088,21 @@
           <t>V836647440</t>
         </is>
       </c>
-      <c r="B895" s="11" t="n"/>
-      <c r="C895" s="11" t="n"/>
-      <c r="D895" s="11" t="n"/>
+      <c r="B895" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C895" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, Rogator 635 (MY19), RG 635, MF 7265 (2009-2011), MF 7345 S MCS (2011-2014), MF 7347 S MCS (2012-2014), MF 7360 T4I (2012), MF 7360 PL T4I (2012), MF 7370 T4I (2012), MF 7345 S (2011-2014), MF 7347 S (2012-2014), MF 7360 T4I (2013-2014), MF 7360 PL T4I (2013-2014), MF 7370 T4I (2013-2014), MF 7360 PLI T4I (2013-2014), MF 7345 S (09/14 - 08/17), MF 7345 S MCS (09/14 - 08/17), MF 7347 S (09/14 - 08/17), MF 7347 S MCS (09/14 - 08/17), MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF 7340 T4F (2018-2021), MF 7344 TF4 (2018-2021), MF 7345 S T4F (2018-2021), MF 7347 S T4F (2018-2021), MF 7360 T4F (2018-2021), MF 7360 PL/PLI T4F (2018-2021), MF 7370 T4F (2018-2021), MF 7340 ST5 (2021-9999), MF 7344 ST5 (2021-9999), MF 7347 S ST5 (2021-9999), MF 7370 ST5 (2021-9999), MF 7344 (09/15 - 08/17), MF 7340 (09/15 - 08/17), MF 7247 S (2008-2011), MF 7274, MF 7260 (2005-2011), MF 7270 (2005-2011), MF 7370 PLI (2017), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7256, MF 7272, MF Activa S 7345 MCS, MF Activa S 7347 MCS, MF Beta 7360, MF Beta 7370 PL, MF Beta 7370 PLI</t>
+        </is>
+      </c>
+      <c r="D895" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="896" ht="18.75" customHeight="1">
       <c r="A896" s="3" t="inlineStr">
@@ -14754,17 +15110,37 @@
           <t>V837073857</t>
         </is>
       </c>
-      <c r="B896" s="11" t="n"/>
-      <c r="C896" s="11" t="n"/>
-      <c r="D896" s="11" t="n"/>
+      <c r="B896" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C896" s="11" t="inlineStr">
+        <is>
+          <t>207 Vario, 208 Vario, 209 Vario, 210 Vario, 211 Vario, 209 P Vario, 210 P Vario, 211 P Vario, 207 VF Vario, 208 VF Vario, 209 VF Vario, 210 VF Vario, 211 VF Vario, 310 Vario S4, 311 Vario S4, 312 Vario S4, 313 Vario S4, 313 Vario SCR, 8370P, 8400P, 8380P, 8410P, 9470X, 9490X, MF 9540, MF 9560, MF 5608 Dyna-4, MF 5609 Dyna-4, MF 5610 Dyna-4, MF 5611 Dyna-4, MF 5611 Dyna-6, MF 5612 Dyna-4, MF 5612 Dyna-6, MF 5613 Dyna-4, MF 5613 Dyna-6, MF 6612 Dyna-4, MF 6613 Dyna-6, MF 6613 Dyna-4, MF 6614 Dyna-VT, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-VT, MF 6615 Dyna-6, MF 6616 Dyna-VT, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-VT, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-VT, MF 7616 Dyna-6, MF 7618 Dyna-VT, MF 7618 Dyna-6, MF 7619 Dyna-VT, MF 7619 Dyna-6, MF 7620 Dyna-VT, MF 7620 Dyna-6, MF 7622 Dyna-VT, MF 7622 Dyna-6, MF 7624 Dyna-VT, MF 7624 Dyna-6, MF 7626 Dyna-6, MF 5710 SL Dyna-4, MF 5710 SL Dyna-6, MF 5711 SL Dyna-4, MF 5711 SL Dyna-6, MF 5712 SL Dyna-4, MF 5712 SL Dyna-6, MF 5713 SL Dyna-4, MF 5713 SL Dyna-6, MF 6712 S Dyna-4, MF 6713 S Dyna-4, MF 6714 S Dyna-4 T4F, MF 6715 S Dyna-4 T4F, MF 6713 S Dyna-6, MF 6713 S Dyna-VT, MF 6714 S Dyna-6, MF 6714 S Dyna-VT, MF 6715 S Dyna-6 T4F, MF 6715 S Dyna-VT, MF 6716 S Dyna-6 T4F, MF 6716 S Dyna-VT T4F, MF 6718 S Dyna-6, MF 6718 S Dyna-VT, MF 6714 S Dyna-6 T4F, MF 6714 S Dyna-VT T4F, MF 7719 Dyna-6, MF 7715 DYNA-4, MF 7716 Dyna-6, MF 7714 Dyna-4, MF 7715 Dyna-4, MF 7726 Dyna-VT, MF 8737 S, MF8727, MF8730, MF8732, MF8735, MF 8737 MR, MF 7345 S MCS (2011-2014), MF 7347 S MCS (2012-2014), MF 7360 T4I (2012), MF 7360 PL T4I (2012), MF 7370 T4I (2012), MF 7345 S (2011-2014), MF 7347 S (2012-2014), MF 7360 T4I (2013-2014), MF 7360 PL T4I (2013-2014), MF 7370 T4I (2013-2014), MF 7360 PLI T4I (2013-2014), MF 7345 S (09/14 - 08/17), MF 7345 S MCS (09/14 - 08/17), MF 7347 S (09/14 - 08/17), MF 7347 S MCS (09/14 - 08/17), MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF 7340 T4F (2018-2021), MF 7344 TF4 (2018-2021), MF 7345 S T4F (2018-2021), MF 7347 S T4F (2018-2021), MF 7360 T4F (2018-2021), MF 7360 PL/PLI T4F (2018-2021), MF 7344 (09/15 - 08/17), MF 7382 (04/15 - 03/17), MF 7340 (09/15 - 08/17), MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF Activa S 7345 MCS, MF Activa S 7347 MCS, MF Beta 7370 PL, MF7380, MF7380AL, MF7382, MF9380, No longer used Refer to 11652, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, No longer used Refer to 11650, No longer used Refer to 11651, A83H, A93H, A74SH 1C7, N113H3, N113H5, N123H3, N123H5, N143V, N163V, N143D, N163D, N143H3, N103.4H3, N103.4H5, N123V, N123D, N104H5, N114EH5, N124H5, N134H5, N154EH5, N174H5, N134A, N154EA, N174A, N134V, N154EV, N174V, N134D, N154ED, N174D, N104H5 MR18, N114EH5 MR18, N124H5 MR18, N134H5 MR18, N154EH5 MR18, N174H5 MR18, N134A MR18, N154EA MR18, N174A MR18, N134V SmartTouch, N154EV SmartTouch, N174V SmartTouch, N134D SmartTouch, N154ED SmartTouch, N174D SmartTouch, N93H3, N103H3, N103H5, N93H5, S233, S263, S293, S323, S353, S294, S374, T193H, T213V, T183D, T203D, T144H, T154H, T174EH, T194H, T214H, T234H, T144A, T154A, T174EA, T194A, T214A, T234A, T144V, T154V, T174EV, T194V, T214V, T234V, T144D, T154D, T174ED, T194D, T214D, T144H MR18, T154H MR18, T174EH MR18, T194H MR18, T234H MR18, T254H MR18, T144A MR18, T154A MR18, T174EA MR18, T194A MR18, T214A MR18, T234A MR18, T254A MR18, T144V SmartTouch, T154V SmartTouch, T174EV SmartTouch, T194V SmartTouch, T214V SmartTouch, T234V SmartTouch, T254V SmartTouch, T144D SmartTouch, T154D SmartTouch, T174ED SmartTouch, T194D SmartTouch, T214D SmartTouch, T234D SmartTouch</t>
+        </is>
+      </c>
+      <c r="D896" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="897" ht="18.75" customHeight="1">
       <c r="A897" s="4" t="n">
         <v>700717515</v>
       </c>
-      <c r="B897" s="11" t="n"/>
-      <c r="C897" s="11" t="n"/>
-      <c r="D897" s="11" t="n"/>
+      <c r="B897" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C897" s="11" t="inlineStr">
+        <is>
+          <t>990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 186CE, MF 187CE, MF 2140 CE</t>
+        </is>
+      </c>
+      <c r="D897" s="11" t="inlineStr"/>
     </row>
     <row r="898" ht="18.75" customHeight="1">
       <c r="A898" s="3" t="inlineStr">
@@ -14772,9 +15148,17 @@
           <t>LA340411405</t>
         </is>
       </c>
-      <c r="B898" s="11" t="n"/>
-      <c r="C898" s="11" t="n"/>
-      <c r="D898" s="11" t="n"/>
+      <c r="B898" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C898" s="11" t="inlineStr">
+        <is>
+          <t>5180E, 8380P, 8410P, Cutting table FF 7,0m, 9490X, MF 7265 (2009-2011), MF 7345 S MCS (2011-2014), MF 7347 S MCS (2012-2014), MF 7360 T4I (2012), MF 7360 PL T4I (2012), MF 7370 T4I (2012), MF 7345 S (2011-2014), MF 7347 S (2012-2014), MF 7360 T4I (2013-2014), MF 7360 PL T4I (2013-2014), MF 7370 T4I (2013-2014), MF 7360 PLI T4I (2013-2014), MF 7345 S (09/14 - 08/17), MF 7345 S MCS (09/14 - 08/17), MF 7347 S (09/14 - 08/17), MF 7347 S MCS (09/14 - 08/17), MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF 7340 T4F (2018-2021), MF 7344 TF4 (2018-2021), MF 7345 S T4F (2018-2021), MF 7347 S T4F (2018-2021), MF 7360 T4F (2018-2021), MF 7360 PL/PLI T4F (2018-2021), MF 7370 T4F (2018-2021), MF 7340 ST5 (2021-9999), MF 7344 ST5 (2021-9999), MF 7347 S ST5 (2021-9999), MF 7370 ST5 (2021-9999), MF 7344 (09/15 - 08/17), MF 7382 (04/15 - 03/17), MF 7340 (09/15 - 08/17), MF 7247 S (2008-2011), MF 7245 S (2006-2011), MF 7240 (2008-2018), MF 7244 (2006-2011), MF 7245 (2006-2011), MF 7246 (2006-2011), MF 7260 (2005-2011), MF 7270 (2005-2011), MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7370 PLI (2017), MF Activa S 7345 MCS, MF Activa S 7347 MCS, MF Beta 7360, MF Beta 7370 PL, MF7380, MF7380AL, MF7382, MF9380, MF Beta 7370 PLI</t>
+        </is>
+      </c>
+      <c r="D898" s="11" t="inlineStr"/>
     </row>
     <row r="899" ht="18.75" customHeight="1">
       <c r="A899" s="3" t="inlineStr">
@@ -14782,9 +15166,17 @@
           <t>2551250W1</t>
         </is>
       </c>
-      <c r="B899" s="11" t="n"/>
-      <c r="C899" s="11" t="n"/>
-      <c r="D899" s="11" t="n"/>
+      <c r="B899" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C899" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795</t>
+        </is>
+      </c>
+      <c r="D899" s="11" t="inlineStr"/>
     </row>
     <row r="900" ht="18.75" customHeight="1">
       <c r="A900" s="3" t="inlineStr">
@@ -14792,17 +15184,37 @@
           <t>2489330W1</t>
         </is>
       </c>
-      <c r="B900" s="11" t="n"/>
-      <c r="C900" s="11" t="n"/>
-      <c r="D900" s="11" t="n"/>
+      <c r="B900" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C900" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, MF 9540, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795</t>
+        </is>
+      </c>
+      <c r="D900" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="901" ht="18.75" customHeight="1">
       <c r="A901" s="4" t="n">
         <v>71411401</v>
       </c>
-      <c r="B901" s="11" t="n"/>
-      <c r="C901" s="11" t="n"/>
-      <c r="D901" s="11" t="n"/>
+      <c r="B901" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C901" s="11" t="inlineStr">
+        <is>
+          <t>9300R, MF 9895, MF 9695, MF 9795</t>
+        </is>
+      </c>
+      <c r="D901" s="11" t="inlineStr"/>
     </row>
     <row r="902" ht="18.75" customHeight="1">
       <c r="A902" s="3" t="inlineStr">
@@ -14810,9 +15222,17 @@
           <t>V836855602</t>
         </is>
       </c>
-      <c r="B902" s="11" t="n"/>
-      <c r="C902" s="11" t="n"/>
-      <c r="D902" s="11" t="n"/>
+      <c r="B902" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C902" s="11" t="inlineStr">
+        <is>
+          <t>IDEAL 7, 8370P, 8400P, 8380P, 8410P, 9300R, 9390R, 9470X, 9490X, 938 Vario MT, 940 Vario MT, 943 Vario MT, MF 9540, MF 9560, MF 9690, MF 9790, MF 9695, MF 9795, MF IDEAL 7, MF 7345 S MCS (2011-2014), MF 7347 S MCS (2012-2014), MF 7360 T4I (2012), MF 7360 PL T4I (2012), MF 7370 T4I (2012), MF 7345 S (2011-2014), MF 7347 S (2012-2014), MF 7360 T4I (2013-2014), MF 7360 PL T4I (2013-2014), MF 7370 T4I (2013-2014), MF 7360 PLI T4I (2013-2014), MF 7345 S (09/14 - 08/17), MF 7345 S MCS (09/14 - 08/17), MF 7347 S (09/14 - 08/17), MF 7347 S MCS (09/14 - 08/17), MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF 7344 TF4 (2018-2021), MF 7345 S T4F (2018-2021), MF 7347 S T4F (2018-2021), MF 7360 T4F (2018-2021), MF 7360 PL/PLI T4F (2018-2021), MF 7370 T4F (2018-2021), MF 7344 ST5 (2021-9999), MF 7347 S ST5 (2021-9999), MF 7370 ST5 (2021-9999), MF 7344 (09/15 - 08/17), MF 7382 (04/15 - 03/17), MF 7274, MF 7270 (2005-2011), MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7370 PLI (2017), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7272, MF Activa S 7345 MCS, MF Activa S 7347 MCS, MF Beta 7360, MF Beta 7370 PL, MF7380, MF7380AL, MF7382, MF9380, MF Beta 7370 PLI, S230, S240, S260, S280</t>
+        </is>
+      </c>
+      <c r="D902" s="11" t="inlineStr"/>
     </row>
     <row r="903" ht="18.75" customHeight="1">
       <c r="A903" s="3" t="inlineStr">
@@ -14820,9 +15240,21 @@
           <t>V836855601</t>
         </is>
       </c>
-      <c r="B903" s="11" t="n"/>
-      <c r="C903" s="11" t="n"/>
-      <c r="D903" s="11" t="n"/>
+      <c r="B903" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C903" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 9300R, 9390R, 9470X, MF 8170 4WD, MF 8280 4WD, MF 8270 4WD, MF 8470, MF 8480, MF 8470 XTRA, MF 8480 XTRA, MF 9540, MF 9560, MF 9690, MF 9790, MF 9695, MF 9795, MF 7370 T4I (2012), MF 7370 T4I (2013-2014), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF 7274, MF 7270 (2005-2011), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7272, MF Beta 7370 PL, S230, S240, S260, S280</t>
+        </is>
+      </c>
+      <c r="D903" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="904" ht="18.75" customHeight="1">
       <c r="A904" s="3" t="inlineStr">
@@ -14830,17 +15262,17 @@
           <t>AG057599</t>
         </is>
       </c>
-      <c r="B904" s="11" t="n"/>
-      <c r="C904" s="11" t="n"/>
-      <c r="D904" s="11" t="n"/>
+      <c r="B904" s="11" t="inlineStr"/>
+      <c r="C904" s="11" t="inlineStr"/>
+      <c r="D904" s="11" t="inlineStr"/>
     </row>
     <row r="905" ht="18.75" customHeight="1">
       <c r="A905" s="4" t="n">
         <v>6660071</v>
       </c>
-      <c r="B905" s="11" t="n"/>
-      <c r="C905" s="11" t="n"/>
-      <c r="D905" s="11" t="n"/>
+      <c r="B905" s="11" t="inlineStr"/>
+      <c r="C905" s="11" t="inlineStr"/>
+      <c r="D905" s="11" t="inlineStr"/>
     </row>
     <row r="906" ht="18.75" customHeight="1">
       <c r="A906" s="3" t="inlineStr">
@@ -14848,9 +15280,21 @@
           <t>177-6752</t>
         </is>
       </c>
-      <c r="B906" s="11" t="n"/>
-      <c r="C906" s="11" t="n"/>
-      <c r="D906" s="11" t="n"/>
+      <c r="B906" s="11" t="inlineStr">
+        <is>
+          <t>Fendt</t>
+        </is>
+      </c>
+      <c r="C906" s="11" t="inlineStr">
+        <is>
+          <t>1149 MT, 1154 MT, 1159 MT, 1165 MT</t>
+        </is>
+      </c>
+      <c r="D906" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="907" ht="18.75" customHeight="1">
       <c r="A907" s="3" t="inlineStr">
@@ -14858,9 +15302,9 @@
           <t>SN18625</t>
         </is>
       </c>
-      <c r="B907" s="11" t="n"/>
-      <c r="C907" s="11" t="n"/>
-      <c r="D907" s="11" t="n"/>
+      <c r="B907" s="11" t="inlineStr"/>
+      <c r="C907" s="11" t="inlineStr"/>
+      <c r="D907" s="11" t="inlineStr"/>
     </row>
     <row r="908" ht="18.75" customHeight="1">
       <c r="A908" s="3" t="inlineStr">
@@ -14868,9 +15312,13 @@
           <t>D28680033</t>
         </is>
       </c>
-      <c r="B908" s="11" t="n"/>
-      <c r="C908" s="11" t="n"/>
-      <c r="D908" s="11" t="n"/>
+      <c r="B908" s="11" t="inlineStr"/>
+      <c r="C908" s="11" t="inlineStr"/>
+      <c r="D908" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="909" ht="18.75" customHeight="1">
       <c r="A909" s="3" t="inlineStr">
@@ -14878,9 +15326,21 @@
           <t>D28285042</t>
         </is>
       </c>
-      <c r="B909" s="11" t="n"/>
-      <c r="C909" s="11" t="n"/>
-      <c r="D909" s="11" t="n"/>
+      <c r="B909" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C909" s="11" t="inlineStr">
+        <is>
+          <t>Cutting table PF 5,5m (18'), MF 7274, MF 7278, MF 7272</t>
+        </is>
+      </c>
+      <c r="D909" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="910" ht="18.75" customHeight="1">
       <c r="A910" s="3" t="inlineStr">
@@ -14888,9 +15348,13 @@
           <t>AG427295</t>
         </is>
       </c>
-      <c r="B910" s="11" t="n"/>
-      <c r="C910" s="11" t="n"/>
-      <c r="D910" s="11" t="n"/>
+      <c r="B910" s="11" t="inlineStr"/>
+      <c r="C910" s="11" t="inlineStr"/>
+      <c r="D910" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="911" ht="18.75" customHeight="1">
       <c r="A911" s="3" t="inlineStr">
@@ -14898,9 +15362,17 @@
           <t>30-3076830</t>
         </is>
       </c>
-      <c r="B911" s="11" t="n"/>
-      <c r="C911" s="11" t="n"/>
-      <c r="D911" s="11" t="n"/>
+      <c r="B911" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C911" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, MF 8260 4WD, MF 8250 2WD, MF 8250 4WD, MF 8280 4WD, MF 8270 4WD, MF 8260 2WD, MF 6470 T3 Agco Power, MF 6460 T3 Agco Power, MF 8450, MF 8460, MF 8470, MF 8480, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 5460 T3 SISU, MF 5470 T3, MF 5480 T3</t>
+        </is>
+      </c>
+      <c r="D911" s="11" t="inlineStr"/>
     </row>
     <row r="912" ht="18.75" customHeight="1">
       <c r="A912" s="3" t="inlineStr">
@@ -14908,9 +15380,17 @@
           <t>AG057862</t>
         </is>
       </c>
-      <c r="B912" s="11" t="n"/>
-      <c r="C912" s="11" t="n"/>
-      <c r="D912" s="11" t="n"/>
+      <c r="B912" s="11" t="inlineStr">
+        <is>
+          <t>Fendt</t>
+        </is>
+      </c>
+      <c r="C912" s="11" t="inlineStr">
+        <is>
+          <t>PLNTR MOMENTUM 16-30 FT 40', PLNTR MOMENTUM 16-70 FT 40', PLNTR MOMENTUM 16-76 FT 40', PLNTR MOMENTUM 24-20 FT 40', PLNTR MOMENTUM 24-22 FT 40', PLNTR MOMENTUM 32-15 FT 40', PLNTR MOMENTUM 24-30 FT 60', PLNTR MOMENTUM 24-70 FT 60', PLNTR MOMENTUM 24-76 FT 60', PLNTR MOMENTUM 36-20 FT 60', PLNTR MOMENTUM 36-22 FT 60', PLNTR MOMENTUM 48-15 FT 60'</t>
+        </is>
+      </c>
+      <c r="D912" s="11" t="inlineStr"/>
     </row>
     <row r="913" ht="18.75" customHeight="1">
       <c r="A913" s="3" t="inlineStr">
@@ -14918,9 +15398,13 @@
           <t>AG426519</t>
         </is>
       </c>
-      <c r="B913" s="11" t="n"/>
-      <c r="C913" s="11" t="n"/>
-      <c r="D913" s="11" t="n"/>
+      <c r="B913" s="11" t="inlineStr"/>
+      <c r="C913" s="11" t="inlineStr"/>
+      <c r="D913" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="914" ht="18.75" customHeight="1">
       <c r="A914" s="3" t="inlineStr">
@@ -14928,9 +15412,17 @@
           <t>401347X1</t>
         </is>
       </c>
-      <c r="B914" s="11" t="n"/>
-      <c r="C914" s="11" t="n"/>
-      <c r="D914" s="11" t="n"/>
+      <c r="B914" s="11" t="inlineStr">
+        <is>
+          <t>Fendt</t>
+        </is>
+      </c>
+      <c r="C914" s="11" t="inlineStr">
+        <is>
+          <t>1149 MT, 1154 MT, 1159 MT, 1165 MT</t>
+        </is>
+      </c>
+      <c r="D914" s="11" t="inlineStr"/>
     </row>
     <row r="915" ht="18.75" customHeight="1">
       <c r="A915" s="3" t="inlineStr">
@@ -14938,9 +15430,9 @@
           <t>AG524437</t>
         </is>
       </c>
-      <c r="B915" s="11" t="n"/>
-      <c r="C915" s="11" t="n"/>
-      <c r="D915" s="11" t="n"/>
+      <c r="B915" s="11" t="inlineStr"/>
+      <c r="C915" s="11" t="inlineStr"/>
+      <c r="D915" s="11" t="inlineStr"/>
     </row>
     <row r="916" ht="18.75" customHeight="1">
       <c r="A916" s="3" t="inlineStr">
@@ -14948,25 +15440,45 @@
           <t>D45623000</t>
         </is>
       </c>
-      <c r="B916" s="11" t="n"/>
-      <c r="C916" s="11" t="n"/>
-      <c r="D916" s="11" t="n"/>
+      <c r="B916" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C916" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 9470X, MF RK 3814, MF 7274, MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7256, MF 7272</t>
+        </is>
+      </c>
+      <c r="D916" s="11" t="inlineStr"/>
     </row>
     <row r="917" ht="18.75" customHeight="1">
       <c r="A917" s="4" t="n">
         <v>6662772</v>
       </c>
-      <c r="B917" s="11" t="n"/>
-      <c r="C917" s="11" t="n"/>
-      <c r="D917" s="11" t="n"/>
+      <c r="B917" s="11" t="inlineStr"/>
+      <c r="C917" s="11" t="inlineStr"/>
+      <c r="D917" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="918" ht="18.75" customHeight="1">
       <c r="A918" s="4" t="n">
         <v>72455948</v>
       </c>
-      <c r="B918" s="11" t="n"/>
-      <c r="C918" s="11" t="n"/>
-      <c r="D918" s="11" t="n"/>
+      <c r="B918" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C918" s="11" t="inlineStr">
+        <is>
+          <t>MT645D T4I, MT655D T4I, MT665D T4I / T2, MT675D T4I, MT685D T4I / T2, MT665E, MT645C, MT655C T3 CVT, MT665C T3 / T2 CVT, MT675C T3 CVT, MT645E, MT665E T4F CVT, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 8660 Dyna-VT T2, MF 8670, MF 8680, MF 8690, MF 8727, MF 8730, MF 8732, MF 8735</t>
+        </is>
+      </c>
+      <c r="D918" s="11" t="inlineStr"/>
     </row>
     <row r="919" ht="18.75" customHeight="1">
       <c r="A919" s="3" t="inlineStr">
@@ -14974,9 +15486,17 @@
           <t>F931202040020</t>
         </is>
       </c>
-      <c r="B919" s="11" t="n"/>
-      <c r="C919" s="11" t="n"/>
-      <c r="D919" s="11" t="n"/>
+      <c r="B919" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C919" s="11" t="inlineStr">
+        <is>
+          <t>922 Vario, 924 Vario, 927 Vario, 930 Vario, 933 Vario, 936 Vario, 924 Vario SCR, 927 Vario SCR, 930 Vario SCR, 933 Vario SCR, 936 Vario SCR, 939 Vario SCR, Rogator 635 (MY19), RG 635, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 8737 S, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 8740 S Dyna-VT, MF8727, MF8730, MF8732, MF8735, MF 8737 MR, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, No longer used Refer to 11652, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, No longer used Refer to 11650, No longer used Refer to 11651, S233, S263, S293, S323, S353, S294, S374, S324 SmartTouch MR19, S394 SmartTouch MR19</t>
+        </is>
+      </c>
+      <c r="D919" s="11" t="inlineStr"/>
     </row>
     <row r="920" ht="18.75" customHeight="1">
       <c r="A920" s="3" t="inlineStr">
@@ -14984,9 +15504,17 @@
           <t>F931202040010</t>
         </is>
       </c>
-      <c r="B920" s="11" t="n"/>
-      <c r="C920" s="11" t="n"/>
-      <c r="D920" s="11" t="n"/>
+      <c r="B920" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C920" s="11" t="inlineStr">
+        <is>
+          <t>922 Vario, 924 Vario, 927 Vario, 930 Vario, 933 Vario, 936 Vario, 924 Vario SCR, 927 Vario SCR, 930 Vario SCR, 933 Vario SCR, 936 Vario SCR, 939 Vario SCR, Rogator 635 (MY19), RG 635, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 8737 S, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 8740 S Dyna-VT, MF8727, MF8730, MF8732, MF8735, MF 8737 MR, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, No longer used Refer to 11652, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, No longer used Refer to 11650, No longer used Refer to 11651, S233, S263, S293, S323, S353, S294, S374, S324 SmartTouch MR19, S394 SmartTouch MR19</t>
+        </is>
+      </c>
+      <c r="D920" s="11" t="inlineStr"/>
     </row>
     <row r="921" ht="18.75" customHeight="1">
       <c r="A921" s="3" t="inlineStr">
@@ -14994,9 +15522,17 @@
           <t>H916201040060</t>
         </is>
       </c>
-      <c r="B921" s="11" t="n"/>
-      <c r="C921" s="11" t="n"/>
-      <c r="D921" s="11" t="n"/>
+      <c r="B921" s="11" t="inlineStr">
+        <is>
+          <t>Fendt</t>
+        </is>
+      </c>
+      <c r="C921" s="11" t="inlineStr">
+        <is>
+          <t>Favorit 916 Vario, Favorit 920 Vario, Favorit 924 Vario, Favorit 926 Vario, 930 Vario TMS</t>
+        </is>
+      </c>
+      <c r="D921" s="11" t="inlineStr"/>
     </row>
     <row r="922" ht="18.75" customHeight="1">
       <c r="A922" s="3" t="inlineStr">
@@ -15004,9 +15540,13 @@
           <t>F9312020400101</t>
         </is>
       </c>
-      <c r="B922" s="11" t="n"/>
-      <c r="C922" s="11" t="n"/>
-      <c r="D922" s="11" t="n"/>
+      <c r="B922" s="11" t="inlineStr"/>
+      <c r="C922" s="11" t="inlineStr"/>
+      <c r="D922" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="923" ht="18.75" customHeight="1">
       <c r="A923" s="3" t="inlineStr">
@@ -15014,9 +15554,17 @@
           <t>V836866735</t>
         </is>
       </c>
-      <c r="B923" s="11" t="n"/>
-      <c r="C923" s="11" t="n"/>
-      <c r="D923" s="11" t="n"/>
+      <c r="B923" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C923" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 9300R, 9470X, MF 8170 4WD, MF 8280 4WD, MF 8270 4WD, MF 8470, MF 8480, MF 8470 XTRA, MF 8480 XTRA, MF 9690, MF 9790, MF 9695, MF 9795, MF 7274, MF 7270 (2005-2011), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7272, S230, S240, S260, S280</t>
+        </is>
+      </c>
+      <c r="D923" s="11" t="inlineStr"/>
     </row>
     <row r="924" ht="18.75" customHeight="1">
       <c r="A924" s="3" t="inlineStr">
@@ -15024,9 +15572,17 @@
           <t>AG131494</t>
         </is>
       </c>
-      <c r="B924" s="11" t="n"/>
-      <c r="C924" s="11" t="n"/>
-      <c r="D924" s="11" t="n"/>
+      <c r="B924" s="11" t="inlineStr">
+        <is>
+          <t>Fendt</t>
+        </is>
+      </c>
+      <c r="C924" s="11" t="inlineStr">
+        <is>
+          <t>Rogator 635 (MY19), RG 635</t>
+        </is>
+      </c>
+      <c r="D924" s="11" t="inlineStr"/>
     </row>
     <row r="925" ht="18.75" customHeight="1">
       <c r="A925" s="3" t="inlineStr">
@@ -15034,81 +15590,153 @@
           <t>156-6084</t>
         </is>
       </c>
-      <c r="B925" s="11" t="n"/>
-      <c r="C925" s="11" t="n"/>
-      <c r="D925" s="11" t="n"/>
+      <c r="B925" s="11" t="inlineStr">
+        <is>
+          <t>Challenger</t>
+        </is>
+      </c>
+      <c r="C925" s="11" t="inlineStr">
+        <is>
+          <t>MT755C</t>
+        </is>
+      </c>
+      <c r="D925" s="11" t="inlineStr"/>
     </row>
     <row r="926" ht="18.75" customHeight="1">
       <c r="A926" s="4" t="n">
         <v>916100080181</v>
       </c>
-      <c r="B926" s="11" t="n"/>
-      <c r="C926" s="11" t="n"/>
-      <c r="D926" s="11" t="n"/>
+      <c r="B926" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C926" s="11" t="inlineStr">
+        <is>
+          <t>712 Vario, 714 Vario, 716 Vario, 718 Vario, FAVORIT 711 VARIO, 716 Vario T2, Favorit 916 Vario, Favorit 920 Vario, Favorit 924 Vario, Favorit 926 Vario, 930 Vario TMS, 822 Vario S4, 824 Vario S4, 826 Vario S4, 828 Vario S4, 818 Vario, 820 Vario, 819 Vario SCR, 822 Vario SCR, 824 Vario SCR, 826 Vario SCR, 828 Vario SCR, 927 Vario S4, 930 Vario S4, 933 Vario S4, 922 Vario, 924 Vario, 927 Vario, 930 Vario, 933 Vario, 936 Vario, 924 Vario SCR, 927 Vario SCR, 930 Vario SCR, 933 Vario SCR, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7465, MF 7475, MF 7480, MF 7485, MF 7490, MF 7495, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 8450, MF 8460, MF 8470, MF 8480, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, S233, S263, S293</t>
+        </is>
+      </c>
+      <c r="D926" s="11" t="inlineStr"/>
     </row>
     <row r="927" ht="18.75" customHeight="1">
       <c r="A927" s="4" t="n">
         <v>837070062</v>
       </c>
-      <c r="B927" s="11" t="n"/>
-      <c r="C927" s="11" t="n"/>
-      <c r="D927" s="11" t="n"/>
+      <c r="B927" s="11" t="inlineStr"/>
+      <c r="C927" s="11" t="inlineStr"/>
+      <c r="D927" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="928" ht="18.75" customHeight="1">
       <c r="A928" s="4" t="n">
         <v>453059150</v>
       </c>
-      <c r="B928" s="11" t="n"/>
-      <c r="C928" s="11" t="n"/>
-      <c r="D928" s="11" t="n"/>
+      <c r="B928" s="11" t="inlineStr"/>
+      <c r="C928" s="11" t="inlineStr"/>
+      <c r="D928" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="929" ht="18.75" customHeight="1">
       <c r="A929" s="4" t="n">
         <v>836855350</v>
       </c>
-      <c r="B929" s="11" t="n"/>
-      <c r="C929" s="11" t="n"/>
-      <c r="D929" s="11" t="n"/>
+      <c r="B929" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C929" s="11" t="inlineStr">
+        <is>
+          <t>207 Vario, 208 Vario, 209 Vario, 210 Vario, 211 Vario, 207 F Vario S3, 208 F Vario S3, 209 F Vario S3, 210 F Vario S3, 211 F Vario S3, 209 P Vario S3, 210 P Vario S3, 211 P Vario S3, 209 P Vario, 210 P Vario, 211 P Vario, 207 S Vario S3, 208 S Vario S3, 209 S Vario S3, 210 S Vario S3, 211 S Vario S3, 207 V Vario S3, 208 V Vario S3, 209 V Vario S3, 210 V Vario S3, 211 V Vario S3, 207 VF Vario, 208 VF Vario, 209 VF Vario, 210 VF Vario, 211 VF Vario, IDEAL 7, 8370P, 8400P, 8380P, 8410P, 9300R, 9390R, 9470X, 9490X, Rogator 635 (MY19), RG 635, 938 Vario MT, 940 Vario MT, 943 Vario MT, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 8170 4WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 8260 4WD, MF 8250 2WD, MF 8250 4WD, MF 8280 4WD, MF 8270 4WD, MF 8260 2WD, MF 8240 2WD, MF 8240 4WD, 6465 Dyna-6, 6475 Dyna-6, MF 6480 T3 Agco Power, MF 6497 T2 Agco Power, MF 6499 T2 Agco Power, MF 6490 T2 Agco Power, MF 6495 T2 Agco Power, MF 6485 T2 Agco Power, MF 6497 XTRA, MF 6499 XTRA, 6485, MF 6490 T3 Agco Power, MF 6495 T3 Agco Power, MF 6470 T3 Agco Power, MF 6460 T3 Agco Power, MF 6497 T3 Agco Power, MF 6499 T3 Agco Power, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7485, MF 7490, MF 7495, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 8450, MF 8460, MF 8470, MF 8480, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 9540, MF 9560, MF 9690, MF 9790, MF 9695, MF 9795, MF 4435 T2, MF 4445 T2, MF 4455 T2, MF 4435 T3, MF 3630, MF 3640, MF 3650, MF 3630 XTRA, MF 3640 XTRA, MF 3650 XTRA, MF 3615, MF 3625, MF 3635, MF 3645, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 5608 Dyna-4, MF 5609 Dyna-4, MF 5610 Dyna-4, MF 6612 Dyna-4, MF 6613 Dyna-6, MF 6613 Dyna-4, MF 6614 Dyna-VT, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-VT, MF 6615 Dyna-6, MF 6616 Dyna-VT, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-VT, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-VT, MF 7616 Dyna-6, MF 7618 Dyna-VT, MF 7618 Dyna-6, MF 7619 Dyna-VT, MF 7619 Dyna-6, MF 7620 Dyna-VT, MF 7620 Dyna-6, MF 7622 Dyna-VT, MF 7622 Dyna-6, MF 7624 Dyna-VT, MF 7624 Dyna-6, MF 7626 Dyna-6, MF 6712 S Dyna-4, MF 6713 S Dyna-4, MF 6714 S Dyna-4 T4F, MF 6715 S Dyna-4 T4F, MF 6713 S Dyna-6, MF 6713 S Dyna-VT, MF 6714 S Dyna-6, MF 6714 S Dyna-VT, MF 6715 S Dyna-6 T4F, MF 6715 S Dyna-VT, MF 6716 S Dyna-6 T4F, MF 6716 S Dyna-VT T4F, MF 6718 S Dyna-6, MF 6718 S Dyna-VT, MF 6714 S Dyna-6 T4F, MF 6714 S Dyna-VT T4F, MF 7719 Dyna-6, MF 7715 DYNA-4, MF 7716 Dyna-6, MF 7714 Dyna-4, MF 7715 Dyna-4, MF 7726 Dyna-VT, MF6713 S Dyna-6 T5, MF 6713 S Dyna-VT T5, MF 6714 S Dyna-6 T5, MF 6714 S Dyna-VT T5, MF 6715 S Dyna-6 T5, MF 6715 S Dyna-VT T5, MF 6716 S Dyna-6 T5, MF 6716 S Dyna-VT T5, MF 6718 S Dyna-6 T5, MF 6718 S Dyna-VT T5, MF 7714 S Dyna-4, MF 7715 S Dyna-4, MF 7719 S Dyna-VT T5, MF 7714 S Dyna-4 T5, MF 7715 S Dyna-VT T5, MF 7715 S Dyna-6 T5, MF 7715 S Dyna-4 T5, MF 7716 S Dyna-VT T5, MF 7716 S Dyna-6 T5, MF 7718 S Dyna-VT T5, MF 7718 S Dyna-6 T5, MF 8737 S, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 8740 S Dyna-VT, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, MF 5470 T3, MF 5480 T3, MF8727, MF8730, MF8732, MF8735, MF 8737 MR, MF IDEAL 7, MF 7265 (2009-2011), MF 7345 S MCS (2011-2014), MF 7347 S MCS (2012-2014), MF 7360 T4I (2012), MF 7360 PL T4I (2012), MF 7370 T4I (2012), MF 7345 S (2011-2014), MF 7347 S (2012-2014), MF 7360 T4I (2013-2014), MF 7360 PL T4I (2013-2014), MF 7370 T4I (2013-2014), MF 7360 PLI T4I (2013-2014), MF 7345 S (09/14 - 08/17), MF 7345 S MCS (09/14 - 08/17), MF 7347 S (09/14 - 08/17), MF 7347 S MCS (09/14 - 08/17), MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF 7340 T4F (2018-2021), MF 7344 TF4 (2018-2021), MF 7345 S T4F (2018-2021), MF 7347 S T4F (2018-2021), MF 7360 T4F (2018-2021), MF 7360 PL/PLI T4F (2018-2021), MF 7370 T4F (2018-2021), MF 7340 ST5 (2021-9999), MF 7344 ST5 (2021-9999), MF 7347 S ST5 (2021-9999), MF 7370 ST5 (2021-9999), MF 7344 (09/15 - 08/17), MF 7382 (04/15 - 03/17), MF 7340 (09/15 - 08/17), MF 7247 S (2008-2011), MF 7274, MF 7260 (2005-2011), MF 7270 (2005-2011), MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7370 PLI (2017), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7256, MF 7272, MF Activa S 7345 MCS, MF Activa S 7347 MCS, MF Beta 7360, MF Beta 7370 PL, MF7380, MF7380AL, MF7382, MF9380, MF Beta 7370 PLI, MF 3625 V 4WD, MF 3635 V 4WD, MF 3625 S 4WD, MF 3635 S 4WD, MF 3625 F 4WD, MF 3635 F 4WD, MF 3625 GE 4WD, MF 3635 GE 4WD, A75N, A75L, A85L, A95L, 6000, 6100, 6200E, 6300E, 6400E, 6600, 6800E, 8000, 8050E, 8100, 8150E, 8200, 8400, 8450, 8550E, 8750, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, No longer used Refer to 11652, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, No longer used Refer to 11650, No longer used Refer to 11651, S230, S240, S260, S280, T195 (replaced by J3591), T210 (replaced by J3592), T230 (replaced by J3593), T250 (replaced by J3594), T120, T130, T140E, T150, T160, T170, T180, T190, T120C, T120CH, T130C, T130CH, T140EC, T140ECH, T160C, T160CH, T170C, T170CH, T150C, T150CH, A72, A82, A92, A72L, A82L, A92L, A83H, A93H, A74SH 1C7, A84SH 1C7, A94SH 1C7, N142V, N142D, N113H3, N113H5, N123H3, N123H5, N143V, N163V, N143D, N163D, N143H3, N103.4H3, N103.4H5, N123V, N123D, N104H5, N114EH5, N124H5, N134H5, N154EH5, N174H5, N134A, N154EA, N174A, N134V, N154EV, N174V, N134D, N154ED, N174D, N104H5 MR18, N114EH5 MR18, N124H5 MR18, N134H5 MR18, N154EH5 MR18, N174H5 MR18, N134A MR18, N154EA MR18, N174A MR18, N134V SmartTouch, N154EV SmartTouch, N174V SmartTouch, N134D SmartTouch, N154ED SmartTouch, N174D SmartTouch, N93H3, N103H3, N103H5, N93H5, S233, S263, S293, S323, S353, S294, S374, S324 SmartTouch MR19, S394 SmartTouch MR19, T131C, T161C, T171C, T121H, T131H, T151EH, T161H, T171H, T191H, T121C, T161LS, T171LS, T191LS, T132V, T152V, T162EV, T172V, T182V, T202V, T132D, T152D, T162D, T172D, T182D, T202D, T193H, T213V, T183D, T203D, T144H, T154H, T174EH, T194H, T214H, T234H, T144A, T154A, T174EA, T194A, T214A, T234A, T144V, T154V, T174EV, T194V, T214V, T234V, T144D, T154D, T174ED, T194D, T214D, T144H MR18, T154H MR18, T174EH MR18, T194H MR18, T234H MR18, T254H MR18, T144A MR18, T154A MR18, T174EA MR18, T194A MR18, T214A MR18, T234A MR18, T254A MR18, T144V SmartTouch, T154V SmartTouch, T174EV SmartTouch, T194V SmartTouch, T214V SmartTouch, T234V SmartTouch, T254V SmartTouch, T144D SmartTouch, T154D SmartTouch, T174ED SmartTouch, T194D SmartTouch, T214D SmartTouch, T234D SmartTouch, T144H MR19, T154H MR19, T174EH MR19, T144A MR19, T154A MR19, T174EA MR19, T144V SmartTouch MR19, T154V SmartTouch MR19, T174EV SmartTouch MR19, T144D SmartTouch MR19, T154D SmartTouch MR19, T174ED SmartTouch MR19, T194H MR19, T214H MR19, T234H MR19, T254H MR19, T194A MR19, T214A MR19, T234A MR19, T254A MR19, T194V SmartTouch MR19, T214V SmartTouch MR19, T234V SmartTouch MR19, T254V SmartTouch MR19, T194D SmartTouch MR19, T214D SmartTouch MR19, T234D SmartTouch MR19</t>
+        </is>
+      </c>
+      <c r="D929" s="11" t="inlineStr"/>
     </row>
     <row r="930" ht="18.75" customHeight="1">
       <c r="A930" s="4" t="n">
         <v>836866957</v>
       </c>
-      <c r="B930" s="11" t="n"/>
-      <c r="C930" s="11" t="n"/>
-      <c r="D930" s="11" t="n"/>
+      <c r="B930" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C930" s="11" t="inlineStr">
+        <is>
+          <t>RG900, RG1100, RG1300, RG1300B, RG700, RG700B, RG900C, MT455D, MT465D, MT555D Dyna-6, MT565D Dyna-6, MT575D Dyna-6, MT585D Dyna-6, MT555D CVT, MT565D CVT, MT575D CVT, MT585D CVT, MT515D Dyna-4, MT525D Dyna-4, MT525D Dyna-6, MT535D Dyna-6, MT545D Dyna-6, MT525D Dyna-VT, MT535D Dyna-VT, MT545D Dyna-VT, MT575E Dyna-6, MT575E CVT, MT525E Dyna-4, MT525E Dyna-6, MT545E Dyna-6, MT525E Dyna-VT, MT545E Dyna-VT, MT595B Dyna-6 T3 SISU, MT595B Dyna-CVT T3 SISU , MT645D T4I, MT655D T4I, MT665D T4I / T2, MT675D T4I, MT685D T4I / T2, MT665E, MT645C, MT655C T3 CVT, MT665C T3 / T2 CVT, MT675C T3 CVT, S67 Super , S77 Super, R65, R66, A66, A76, R76, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7499, MF 5609 Dyna-4, MF 5610 Dyna-4, MF 6614 Dyna-VT, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-VT, MF 6615 Dyna-6, MF 6616 Dyna-VT, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-VT, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-VT, MF 7616 Dyna-6, MF 7618 Dyna-VT, MF 7618 Dyna-6, MF 7619 Dyna-VT, MF 7619 Dyna-6, MF 7620 Dyna-VT, MF 7620 Dyna-6, MF 7622 Dyna-VT, MF 7622 Dyna-6, MF 7624 Dyna-VT, MF 7624 Dyna-6, MF 6715 S Dyna-4 T4F, MF 6714 S Dyna-VT, MF 6715 S Dyna-6 T4F, MF 6715 S Dyna-VT, MF 6716 S Dyna-6 T4F, MF 6716 S Dyna-VT T4F, MF 7719 Dyna-6, MF 7720 Dyna-6, MF 7722 Dyna-6, MF 7724 Dyna-6, MF 7726 Dyna-6, MF 7720 Dyna-VT, MF 7722 Dyna-VT, MF 7724 Dyna-VT, MF 7716 Dyna-VT, MF 7718 Dyna-VT, MF 7719 Dyna-VT, MF 7726 Dyna-VT, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, MF 5470 T3, MF 5480 T3, MF 8660 Dyna-VT T2, MF 8670, MF 8680, MF 8690, MF 8727, MF 8730, MF 8732, MF 8735, MF 9520, MF 9695, MF 9795, MF WR 9735, MF WR 9430, MF WR 9635, MF WR 9950, MF WR 9960, MF WR 9970, MF WR 9980, MF WR 9740, MF WR 9760, MF WR 9770, MF WR 9840, MF WR 9860, MF WR 9870</t>
+        </is>
+      </c>
+      <c r="D930" s="11" t="inlineStr"/>
     </row>
     <row r="931" ht="18.75" customHeight="1">
       <c r="A931" s="4" t="n">
         <v>836659524</v>
       </c>
-      <c r="B931" s="11" t="n"/>
-      <c r="C931" s="11" t="n"/>
-      <c r="D931" s="11" t="n"/>
+      <c r="B931" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Fendt, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C931" s="11" t="inlineStr">
+        <is>
+          <t>RG900, RG1100, RG1300, RG1100B, RG1300B, RG1100C, RG1300C, TG7300C, TG8300C, TG8400C, TG9300C, MT738, MT740, MT743, MT595B Dyna-6 T3 SISU, MT595B Dyna-CVT T3 SISU , MT645D T4I, MT655D T4I, MT665D T4I / T2, MT675D T4I, MT685D T4I / T2, MT665E, MT645C, MT655C T3 CVT, MT665C T3 / T2 CVT, MT675C T3 CVT, MT645E, MT665E T4F CVT, IDEAL 7, S67 Super , S77 Super, S68, S78, S88, S96, S97, S98, R65, R66, A66, A76, R76, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7499, MF 3635, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, MF 5470 T3, MF 5480 T3, MF 8660 Dyna-VT T2, MF 8670, MF 8680, MF 8690, MF 8727, MF 8730, MF 8732, MF 8735, MF 9520, MF 9540 Tier 4 TI, MF 9560 Tier 4 TI, MF 9540 T4F, MF 9560 T4F, MF 9245, MF 9565, MF 9695, MF 9795, MF WR 9430, MF WR 9635</t>
+        </is>
+      </c>
+      <c r="D931" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="932" ht="18.75" customHeight="1">
       <c r="A932" s="4" t="n">
         <v>836855348</v>
       </c>
-      <c r="B932" s="11" t="n"/>
-      <c r="C932" s="11" t="n"/>
-      <c r="D932" s="11" t="n"/>
+      <c r="B932" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Fendt, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C932" s="11" t="inlineStr">
+        <is>
+          <t>RG900, RG1100, RG1300, RG1100B, RG1300B, RG900C, RG1100C, RG1300C, TG7300C, TG8300C, TG8400C, TG9300C, MT738, MT740, MT743, MT555D Dyna-6, MT565D Dyna-6, MT575D Dyna-6, MT585D Dyna-6, MT555D CVT, MT565D CVT, MT575D CVT, MT585D CVT, MT515D Dyna-4, MT525D Dyna-4, MT525D Dyna-6, MT535D Dyna-6, MT545D Dyna-6, MT525D Dyna-VT, MT535D Dyna-VT, MT545D Dyna-VT, MT575E Dyna-6, MT575E CVT, MT525E Dyna-4, MT525E Dyna-6, MT545E Dyna-6, MT525E Dyna-VT, MT545E Dyna-VT, MT595B Dyna-6 T3 SISU, MT595B Dyna-CVT T3 SISU , MT645D T4I, MT655D T4I, MT665D T4I / T2, MT675D T4I, MT685D T4I / T2, MT665E, MT645C, MT655C T3 CVT, MT665C T3 / T2 CVT, MT675C T3 CVT, MT645E, MT665E T4F CVT, MTS965E, MTS975E, MT955E, MT965E, MT975E, IDEAL 7, S67 Super , S77 Super, S68, S78, S88, S96, S97, S98, R65, R66, A66, A76, R76, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7499, MF 7614 Dyna-4, MF 7615 Dyna-VT, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-VT, MF 7616 Dyna-6, MF 7618 Dyna-VT, MF 7618 Dyna-6, MF 7619 Dyna-VT, MF 7619 Dyna-6, MF 7620 Dyna-VT, MF 7620 Dyna-6, MF 7622 Dyna-VT, MF 7622 Dyna-6, MF 7624 Dyna-VT, MF 7624 Dyna-6, MF 7719 Dyna-6, MF 7720 Dyna-6, MF 7722 Dyna-6, MF 7724 Dyna-6, MF 7726 Dyna-6, MF 7720 Dyna-VT, MF 7722 Dyna-VT, MF 7724 Dyna-VT, MF 7716 Dyna-VT, MF 7718 Dyna-VT, MF 7719 Dyna-VT, MF 7726 Dyna-VT, MF 7714 S Dyna-4, MF 7714 S Dyna-4 T5, MF 7718 S Dyna-VT T5, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 8660 Dyna-VT T2, MF 8670, MF 8680, MF 8690, MF 8727, MF 8730, MF 8732, MF 8735, MF 9520, MF 9540 Tier 4 TI, MF 9560 Tier 4 TI, MF 9540 T4F, MF 9560 T4F, MF 9245, MF 9565, MF 9695, MF 9795, MF WR 9635, MF WR 9970, MF WR 9980, MF WR 9770, MF WR 9870</t>
+        </is>
+      </c>
+      <c r="D932" s="11" t="inlineStr"/>
     </row>
     <row r="933" ht="18.75" customHeight="1">
       <c r="A933" s="4" t="n">
         <v>836855678</v>
       </c>
-      <c r="B933" s="11" t="n"/>
-      <c r="C933" s="11" t="n"/>
-      <c r="D933" s="11" t="n"/>
+      <c r="B933" s="11" t="inlineStr"/>
+      <c r="C933" s="11" t="inlineStr"/>
+      <c r="D933" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="934" ht="18.75" customHeight="1">
       <c r="A934" s="4" t="n">
         <v>70937603</v>
       </c>
-      <c r="B934" s="11" t="n"/>
-      <c r="C934" s="11" t="n"/>
-      <c r="D934" s="11" t="n"/>
+      <c r="B934" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C934" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795</t>
+        </is>
+      </c>
+      <c r="D934" s="11" t="inlineStr"/>
     </row>
     <row r="935" ht="18.75" customHeight="1">
       <c r="A935" s="3" t="inlineStr">
@@ -15116,9 +15744,17 @@
           <t>D46490094</t>
         </is>
       </c>
-      <c r="B935" s="11" t="n"/>
-      <c r="C935" s="11" t="n"/>
-      <c r="D935" s="11" t="n"/>
+      <c r="B935" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C935" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 8380P, 8410P, 9470X, 9490X, MF 7345 S MCS (2011-2014), MF 7347 S MCS (2012-2014), MF 7360 T4I (2012), MF 7360 PL T4I (2012), MF 7370 T4I (2012), MF 7345 S (2011-2014), MF 7347 S (2012-2014), MF 7360 T4I (2013-2014), MF 7360 PL T4I (2013-2014), MF 7370 T4I (2013-2014), MF 7360 PLI T4I (2013-2014), MF 7345 S (09/14 - 08/17), MF 7345 S MCS (09/14 - 08/17), MF 7347 S (09/14 - 08/17), MF 7347 S MCS (09/14 - 08/17), MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF 7340 T4F (2018-2021), MF 7344 TF4 (2018-2021), MF 7345 S T4F (2018-2021), MF 7347 S T4F (2018-2021), MF 7360 T4F (2018-2021), MF 7360 PL/PLI T4F (2018-2021), MF 7370 T4F (2018-2021), MF 7344 (09/15 - 08/17), MF 7382 (04/15 - 03/17), MF 7340 (09/15 - 08/17), MF 7274, MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7370 PLI (2017), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7256, MF 7272, MF Activa S 7345 MCS, MF Activa S 7347 MCS, MF Beta 7370 PL, MF7380, MF7380AL, MF7382, MF9380, MF Beta 7370 PLI</t>
+        </is>
+      </c>
+      <c r="D935" s="11" t="inlineStr"/>
     </row>
     <row r="936" ht="18.75" customHeight="1">
       <c r="A936" s="3" t="inlineStr">
@@ -15126,9 +15762,17 @@
           <t>V837069022</t>
         </is>
       </c>
-      <c r="B936" s="11" t="n"/>
-      <c r="C936" s="11" t="n"/>
-      <c r="D936" s="11" t="n"/>
+      <c r="B936" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C936" s="11" t="inlineStr">
+        <is>
+          <t>IDEAL 7, 8370P, 8400P, 8380P, 8410P, 9390R, 9490X, Rogator 635 (MY19), RG 635, 1149 MT, 1154 MT, 1159 MT, 1165 MT, 6465 Dyna-6, 6475 Dyna-6, MF 6480 T3 Agco Power, MF 6497 T2 Agco Power, MF 6497 XTRA, MF 6499 XTRA, 6485, MF 6490 T3 Agco Power, MF 6495 T3 Agco Power, MF 6497 T3 Agco Power, MF 6499 T3 Agco Power, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 8450, MF 8460, MF 8470, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 9540, MF 9560, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 7614 Dyna-4, MF 7615 Dyna-VT, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-VT, MF 7616 Dyna-6, MF 7618 Dyna-VT, MF 7618 Dyna-6, MF 7619 Dyna-VT, MF 7619 Dyna-6, MF 7620 Dyna-VT, MF 7620 Dyna-6, MF 7622 Dyna-VT, MF 7622 Dyna-6, MF 7624 Dyna-VT, MF 7624 Dyna-6, MF 7626 Dyna-6, MF 7719 Dyna-6, MF 7715 DYNA-4, MF 7716 Dyna-6, MF 7714 Dyna-4, MF 7715 Dyna-4, MF 7726 Dyna-VT, MF 7714 S Dyna-4, MF 7715 S Dyna-4, MF 7719 S Dyna-VT T5, MF 7714 S Dyna-4 T5, MF 7715 S Dyna-VT T5, MF 7715 S Dyna-6 T5, MF 7715 S Dyna-4 T5, MF 7716 S Dyna-VT T5, MF 7716 S Dyna-6 T5, MF 7718 S Dyna-VT T5, MF 7718 S Dyna-6 T5, MF 8737 S, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 5465 Dyna-4, MF 5475 Dyna-4, MF8730, MF8732, MF8735, MF 8737 MR, MF IDEAL 7, MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF 7370 T4F (2018-2021), MF 7370 ST5 (2021-9999), MF 7382 (04/15 - 03/17), MF 7274, MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7370 PLI (2017), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF7380, MF7380AL, MF7382, MF9380, MF Beta 7370 PLI, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, No longer used Refer to 11650, No longer used Refer to 11651, T195 (replaced by J3591), T210 (replaced by J3592), T230 (replaced by J3593), T250 (replaced by J3594), T160, T170, T180, T190, T170C, T170CH, N174A, S233, S263, S293, S323, S353, S324 SmartTouch MR19, T131C, T161C, T171C, T121H, T131H, T151EH, T161H, T171H, T191H, T121C, T161LS, T171LS, T191LS, T132V, T152V, T162EV, T172V, T182V, T202V, T132D, T152D, T162D, T172D, T182D, T202D, T193H, T213V, T183D, T203D, T144H, T154H, T174EH, T194H, T214H, T234H, T144A, T154A, T174EA, T194A, T214A, T234A, T144V, T154V, T174EV, T194V, T214V, T234V, T144D, T154D, T174ED, T194D, T214D, T144H MR18, T154H MR18, T174EH MR18, T194H MR18, T234H MR18, T254H MR18, T144A MR18, T154A MR18, T174EA MR18, T194A MR18, T214A MR18, T234A MR18, T254A MR18, T144V SmartTouch, T154V SmartTouch, T174EV SmartTouch, T194V SmartTouch, T214V SmartTouch, T234V SmartTouch, T254V SmartTouch, T144D SmartTouch, T154D SmartTouch, T174ED SmartTouch, T194D SmartTouch, T214D SmartTouch, T234D SmartTouch, T144H MR19, T154H MR19, T174EH MR19, T144A MR19, T154A MR19, T174EA MR19, T144V SmartTouch MR19, T154V SmartTouch MR19, T174EV SmartTouch MR19, T144D SmartTouch MR19, T154D SmartTouch MR19, T174ED SmartTouch MR19, T194H MR19, T214H MR19, T234H MR19, T254H MR19, T194A MR19, T214A MR19, T234A MR19, T254A MR19, T194V SmartTouch MR19, T214V SmartTouch MR19, T234V SmartTouch MR19, T254V SmartTouch MR19, T194D SmartTouch MR19, T214D SmartTouch MR19, T234D SmartTouch MR19</t>
+        </is>
+      </c>
+      <c r="D936" s="11" t="inlineStr"/>
     </row>
     <row r="937" ht="18.75" customHeight="1">
       <c r="A937" s="3" t="inlineStr">
@@ -15136,9 +15780,21 @@
           <t>V837069029</t>
         </is>
       </c>
-      <c r="B937" s="11" t="n"/>
-      <c r="C937" s="11" t="n"/>
-      <c r="D937" s="11" t="n"/>
+      <c r="B937" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C937" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 9300R, Rogator 635 (MY19), RG 635, 1149 MT, 1154 MT, 1159 MT, 1165 MT, 6465 Dyna-6, 6475 Dyna-6, MF 6480 T3 Agco Power, MF 6497 T2 Agco Power, MF 6497 XTRA, MF 6499 XTRA, 6485, MF 6490 T3 Agco Power, MF 6495 T3 Agco Power, MF 6497 T3 Agco Power, MF 6499 T3 Agco Power, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 8450, MF 8460, MF 8470, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 9690, MF 9790, MF 9695, MF 9795, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 7614 Dyna-4, MF 7615 Dyna-VT, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-VT, MF 7616 Dyna-6, MF 7618 Dyna-VT, MF 7618 Dyna-6, MF 7619 Dyna-VT, MF 7619 Dyna-6, MF 7620 Dyna-VT, MF 7620 Dyna-6, MF 7622 Dyna-VT, MF 7622 Dyna-6, MF 7624 Dyna-VT, MF 7624 Dyna-6, MF 7626 Dyna-6, MF 7719 Dyna-6, MF 7715 DYNA-4, MF 7716 Dyna-6, MF 7714 Dyna-4, MF 7715 Dyna-4, MF 7726 Dyna-VT, MF 7714 S Dyna-4, MF 7715 S Dyna-4, MF 7719 S Dyna-VT T5, MF 7714 S Dyna-4 T5, MF 7715 S Dyna-VT T5, MF 7715 S Dyna-6 T5, MF 7715 S Dyna-4 T5, MF 7716 S Dyna-VT T5, MF 7716 S Dyna-6 T5, MF 7718 S Dyna-VT T5, MF 7718 S Dyna-6 T5, MF 8737 S, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 8740 S Dyna-VT, MF 5465 Dyna-4, MF 5475 Dyna-4, MF8727, MF8730, MF8732, MF8735, MF 8737 MR, MF 7265 (2009-2011), MF 7345 S MCS (2011-2014), MF 7347 S MCS (2012-2014), MF 7360 T4I (2012), MF 7360 PL T4I (2012), MF 7370 T4I (2012), MF 7345 S (2011-2014), MF 7347 S (2012-2014), MF 7360 T4I (2013-2014), MF 7360 PL T4I (2013-2014), MF 7370 T4I (2013-2014), MF 7360 PLI T4I (2013-2014), MF 7345 S (09/14 - 08/17), MF 7345 S MCS (09/14 - 08/17), MF 7347 S (09/14 - 08/17), MF 7347 S MCS (09/14 - 08/17), MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7344 TF4 (2018-2021), MF 7345 S T4F (2018-2021), MF 7347 S T4F (2018-2021), MF 7360 T4F (2018-2021), MF 7360 PL/PLI T4F (2018-2021), MF 7344 ST5 (2021-9999), MF 7347 S ST5 (2021-9999), MF 7344 (09/15 - 08/17), MF 7247 S (2008-2011), MF 7260 (2005-2011), MF 7270 (2005-2011), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF Activa S 7345 MCS, MF Activa S 7347 MCS, MF Beta 7360, MF Beta 7370 PL, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, No longer used Refer to 11652, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, No longer used Refer to 11650, No longer used Refer to 11651, T195 (replaced by J3591), T210 (replaced by J3592), T230 (replaced by J3593), T250 (replaced by J3594), T160, T170, T180, T190, T170C, T170CH, N174A, S233, S263, S293, S323, S353, S294, S374, S324 SmartTouch MR19, S394 SmartTouch MR19, T131C, T161C, T171C, T121H, T131H, T151EH, T161H, T171H, T191H, T121C, T161LS, T171LS, T191LS, T132V, T152V, T162EV, T172V, T182V, T202V, T132D, T152D, T162D, T172D, T182D, T202D, T193H, T213V, T183D, T203D, T144H, T154H, T174EH, T194H, T214H, T234H, T144A, T154A, T174EA, T194A, T214A, T234A, T144V, T154V, T174EV, T194V, T214V, T234V, T144D, T154D, T174ED, T194D, T214D, T144H MR18, T154H MR18, T174EH MR18, T194H MR18, T234H MR18, T254H MR18, T144A MR18, T154A MR18, T174EA MR18, T194A MR18, T214A MR18, T234A MR18, T254A MR18, T144V SmartTouch, T154V SmartTouch, T174EV SmartTouch, T194V SmartTouch, T214V SmartTouch, T234V SmartTouch, T254V SmartTouch, T144D SmartTouch, T154D SmartTouch, T174ED SmartTouch, T194D SmartTouch, T214D SmartTouch, T234D SmartTouch, T144H MR19, T154H MR19, T174EH MR19, T144A MR19, T154A MR19, T174EA MR19, T144V SmartTouch MR19, T154V SmartTouch MR19, T174EV SmartTouch MR19, T144D SmartTouch MR19, T154D SmartTouch MR19, T174ED SmartTouch MR19, T194H MR19, T214H MR19, T234H MR19, T254H MR19, T194A MR19, T214A MR19, T234A MR19, T254A MR19, T194V SmartTouch MR19, T214V SmartTouch MR19, T234V SmartTouch MR19, T254V SmartTouch MR19, T194D SmartTouch MR19, T214D SmartTouch MR19, T234D SmartTouch MR19</t>
+        </is>
+      </c>
+      <c r="D937" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="938" ht="18.75" customHeight="1">
       <c r="A938" s="3" t="inlineStr">
@@ -15146,9 +15802,17 @@
           <t>LA323235350</t>
         </is>
       </c>
-      <c r="B938" s="11" t="n"/>
-      <c r="C938" s="11" t="n"/>
-      <c r="D938" s="11" t="n"/>
+      <c r="B938" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C938" s="11" t="inlineStr">
+        <is>
+          <t>MF 7265 (2009-2011), MF 7345 S MCS (2011-2014), MF 7347 S MCS (2012-2014), MF 7360 T4I (2012), MF 7360 PL T4I (2012), MF 7370 T4I (2012), MF 7347 S (2012-2014), MF 7360 T4I (2013-2014), MF 7360 PL T4I (2013-2014), MF 7370 T4I (2013-2014), MF 7360 PLI T4I (2013-2014), MF 7345 S (09/14 - 08/17), MF 7345 S MCS (09/14 - 08/17), MF 7347 S (09/14 - 08/17), MF 7347 S MCS (09/14 - 08/17), MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF 7345 S T4F (2018-2021), MF 7347 S T4F (2018-2021), MF 7360 T4F (2018-2021), MF 7360 PL/PLI T4F (2018-2021), MF 7370 T4F (2018-2021), MF 7347 S ST5 (2021-9999), MF 7370 ST5 (2021-9999), MF 7247 S (2008-2011), MF 7245 S (2006-2011), MF 7260 (2005-2011), MF 7270 (2005-2011), MF 7370 PLI (2017), MF Activa S 7345 MCS, MF Activa S 7347 MCS, MF Beta 7360, MF Beta 7370 PL, MF Beta 7370 PLI</t>
+        </is>
+      </c>
+      <c r="D938" s="11" t="inlineStr"/>
     </row>
     <row r="939" ht="18.75" customHeight="1">
       <c r="A939" s="3" t="inlineStr">
@@ -15156,17 +15820,25 @@
           <t>AG055186</t>
         </is>
       </c>
-      <c r="B939" s="11" t="n"/>
-      <c r="C939" s="11" t="n"/>
-      <c r="D939" s="11" t="n"/>
+      <c r="B939" s="11" t="inlineStr"/>
+      <c r="C939" s="11" t="inlineStr"/>
+      <c r="D939" s="11" t="inlineStr"/>
     </row>
     <row r="940" ht="18.75" customHeight="1">
       <c r="A940" s="4" t="n">
         <v>852890</v>
       </c>
-      <c r="B940" s="11" t="n"/>
-      <c r="C940" s="11" t="n"/>
-      <c r="D940" s="11" t="n"/>
+      <c r="B940" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C940" s="11" t="inlineStr">
+        <is>
+          <t>9816 VE, 9824 VE, 9816 VE, 9824 VE</t>
+        </is>
+      </c>
+      <c r="D940" s="11" t="inlineStr"/>
     </row>
     <row r="941" ht="18.75" customHeight="1">
       <c r="A941" s="3" t="inlineStr">
@@ -15174,9 +15846,17 @@
           <t>073217N1</t>
         </is>
       </c>
-      <c r="B941" s="11" t="n"/>
-      <c r="C941" s="11" t="n"/>
-      <c r="D941" s="11" t="n"/>
+      <c r="B941" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C941" s="11" t="inlineStr">
+        <is>
+          <t>MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 5709 S Dyna-4, MF 5608 Dyna-4, MF 5609 Dyna-4, MF 5610 Dyna-4, MF 5611 Dyna-4, MF 5611 Dyna-6, MF 5612 Dyna-4, MF 5612 Dyna-6, MF 5613 Dyna-4, MF 5613 Dyna-6, MF 6612 Dyna-4, MF 6613 Dyna-6, MF 6613 Dyna-4, MF 6614 Dyna-VT, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-VT, MF 6615 Dyna-6, MF 6616 Dyna-VT, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-VT, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-VT, MF 7616 Dyna-6, MF 7618 Dyna-VT, MF 7618 Dyna-6, MF 7619 Dyna-VT, MF 7619 Dyna-6, MF 7620 Dyna-VT, MF 7620 Dyna-6, MF 7622 Dyna-VT, MF 7622 Dyna-6, MF 7624 Dyna-VT, MF 7624 Dyna-6, MF 7626 Dyna-6, MF 5709 SL Dyna-4, MF 5710 SL Dyna-4, MF 5710 SL Dyna-6, MF 5711 SL Dyna-4, MF 5711 SL Dyna-6, MF 5712 SL Dyna-4, MF 5712 SL Dyna-6, MF 5713 SL Dyna-4, MF 5713 SL Dyna-6, MF 6712 S Dyna-4, MF 6713 S Dyna-4, MF 6714 S Dyna-4 T4F, MF 6715 S Dyna-4 T4F, MF 6713 S Dyna-6, MF 6713 S Dyna-VT, MF 6714 S Dyna-6, MF 6714 S Dyna-VT, MF 6715 S Dyna-6 T4F, MF 6715 S Dyna-VT, MF 6716 S Dyna-6 T4F, MF 6716 S Dyna-VT T4F, MF 6718 S Dyna-6, MF 6718 S Dyna-VT, MF 6714 S Dyna-6 T4F, MF 6714 S Dyna-VT T4F, MF 7719 Dyna-6, MF 7715 DYNA-4, MF 7716 Dyna-6, MF 7714 Dyna-4, MF 7715 Dyna-4, MF 7726 Dyna-VT, MF 8737 S, MF 5425, MF 5435, MF8727, MF8730, MF8732, MF8735, MF 8737 MR, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, No longer used Refer to 11652, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, No longer used Refer to 11650, No longer used Refer to 11651, T195 (replaced by J3591), T210 (replaced by J3592), T230 (replaced by J3593), T250 (replaced by J3594), N101, S233, S263, S293, S323, S353, S294, S374</t>
+        </is>
+      </c>
+      <c r="D941" s="11" t="inlineStr"/>
     </row>
     <row r="942" ht="18.75" customHeight="1">
       <c r="A942" s="3" t="inlineStr">
@@ -15184,9 +15864,17 @@
           <t>556398D1</t>
         </is>
       </c>
-      <c r="B942" s="11" t="n"/>
-      <c r="C942" s="11" t="n"/>
-      <c r="D942" s="11" t="n"/>
+      <c r="B942" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C942" s="11" t="inlineStr">
+        <is>
+          <t>IDEAL 10, IDEAL 7, IDEAL 8, IDEAL 9, 1149 MT, 1154 MT, 1159 MT, 1165 MT, 938 Vario MT, 940 Vario MT, 943 Vario MT, MF IDEAL 7, MF IDEAL 8, MF IDEAL 9</t>
+        </is>
+      </c>
+      <c r="D942" s="11" t="inlineStr"/>
     </row>
     <row r="943" ht="18.75" customHeight="1">
       <c r="A943" s="3" t="inlineStr">
@@ -15194,9 +15882,9 @@
           <t>SN7604</t>
         </is>
       </c>
-      <c r="B943" s="11" t="n"/>
-      <c r="C943" s="11" t="n"/>
-      <c r="D943" s="11" t="n"/>
+      <c r="B943" s="11" t="inlineStr"/>
+      <c r="C943" s="11" t="inlineStr"/>
+      <c r="D943" s="11" t="inlineStr"/>
     </row>
     <row r="944" ht="18.75" customHeight="1">
       <c r="A944" s="3" t="inlineStr">
@@ -15204,9 +15892,9 @@
           <t>SN18627</t>
         </is>
       </c>
-      <c r="B944" s="11" t="n"/>
-      <c r="C944" s="11" t="n"/>
-      <c r="D944" s="11" t="n"/>
+      <c r="B944" s="11" t="inlineStr"/>
+      <c r="C944" s="11" t="inlineStr"/>
+      <c r="D944" s="11" t="inlineStr"/>
     </row>
     <row r="945" ht="18.75" customHeight="1">
       <c r="A945" s="3" t="inlineStr">
@@ -15214,17 +15902,33 @@
           <t>W248358B</t>
         </is>
       </c>
-      <c r="B945" s="11" t="n"/>
-      <c r="C945" s="11" t="n"/>
-      <c r="D945" s="11" t="n"/>
+      <c r="B945" s="11" t="inlineStr"/>
+      <c r="C945" s="11" t="inlineStr"/>
+      <c r="D945" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="946" ht="18.75" customHeight="1">
       <c r="A946" s="4" t="n">
         <v>72454337</v>
       </c>
-      <c r="B946" s="11" t="n"/>
-      <c r="C946" s="11" t="n"/>
-      <c r="D946" s="11" t="n"/>
+      <c r="B946" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C946" s="11" t="inlineStr">
+        <is>
+          <t>MT645D T4I, MT655D T4I, MT665D T4I / T2, MT675D T4I, MT685D T4I / T2, MT645C, MT655C T3 CVT, MT665C T3 / T2 CVT, MT675C T3 CVT, Favorit 916 Vario, Favorit 920 Vario, Favorit 924 Vario, Favorit 926 Vario, 930 Vario TMS, MF 8660 Dyna-VT T2, MF 8670, MF 8680, MF 8690</t>
+        </is>
+      </c>
+      <c r="D946" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="947" ht="18.75" customHeight="1">
       <c r="A947" s="3" t="inlineStr">
@@ -15232,9 +15936,9 @@
           <t>SN3096</t>
         </is>
       </c>
-      <c r="B947" s="11" t="n"/>
-      <c r="C947" s="11" t="n"/>
-      <c r="D947" s="11" t="n"/>
+      <c r="B947" s="11" t="inlineStr"/>
+      <c r="C947" s="11" t="inlineStr"/>
+      <c r="D947" s="11" t="inlineStr"/>
     </row>
     <row r="948" ht="18.75" customHeight="1">
       <c r="A948" s="3" t="inlineStr">
@@ -15242,9 +15946,9 @@
           <t>ACP0025610</t>
         </is>
       </c>
-      <c r="B948" s="11" t="n"/>
-      <c r="C948" s="11" t="n"/>
-      <c r="D948" s="11" t="n"/>
+      <c r="B948" s="11" t="inlineStr"/>
+      <c r="C948" s="11" t="inlineStr"/>
+      <c r="D948" s="11" t="inlineStr"/>
     </row>
     <row r="949" ht="18.75" customHeight="1">
       <c r="A949" s="3" t="inlineStr">
@@ -15252,9 +15956,17 @@
           <t>D28430010</t>
         </is>
       </c>
-      <c r="B949" s="11" t="n"/>
-      <c r="C949" s="11" t="n"/>
-      <c r="D949" s="11" t="n"/>
+      <c r="B949" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C949" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 8380P, 8410P, 9470X, 9490X, MF 7382 (04/15 - 03/17), MF 7274, MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7256, MF 7272, MF7380, MF7380AL, MF7382, MF9380</t>
+        </is>
+      </c>
+      <c r="D949" s="11" t="inlineStr"/>
     </row>
     <row r="950" ht="18.75" customHeight="1">
       <c r="A950" s="3" t="inlineStr">
@@ -15262,9 +15974,21 @@
           <t>V837073565</t>
         </is>
       </c>
-      <c r="B950" s="11" t="n"/>
-      <c r="C950" s="11" t="n"/>
-      <c r="D950" s="11" t="n"/>
+      <c r="B950" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C950" s="11" t="inlineStr">
+        <is>
+          <t>MF 5608 Dyna-4, MF 5609 Dyna-4, MF 5610 Dyna-4, MF 6613 Dyna-6, MF 6613 Dyna-4, MF 6614 Dyna-VT, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-VT, MF 6615 Dyna-6, MF 6616 Dyna-VT, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-VT, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-VT, MF 7616 Dyna-6, MF 7618 Dyna-VT, MF 7618 Dyna-6, MF 7619 Dyna-VT, MF 7619 Dyna-6, MF 7620 Dyna-VT, MF 7620 Dyna-6, MF 7622 Dyna-VT, MF 7622 Dyna-6, MF 7624 Dyna-VT, MF 7624 Dyna-6, MF 7626 Dyna-6, MF 7345 S MCS (2011-2014), MF 7347 S MCS (2012-2014), MF 7360 T4I (2012), MF 7360 PL T4I (2012), MF 7370 T4I (2012), MF 7345 S (2011-2014), MF 7347 S (2012-2014), MF 7360 T4I (2013-2014), MF 7360 PL T4I (2013-2014), MF 7370 T4I (2013-2014), MF 7360 PLI T4I (2013-2014), MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF Beta 7370 PL, N113H3, N113H5, N123H3, N123H5, N143V, N163V, N143D, N163D, N143H3, N103.4H3, N103.4H5, N123V, N123D, N93H3, N103H3, N103H5, N93H5, S233, S263, S293, S323, S353, T193H, T213V, T183D, T203D</t>
+        </is>
+      </c>
+      <c r="D950" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="951" ht="18.75" customHeight="1">
       <c r="A951" s="3" t="inlineStr">
@@ -15272,9 +15996,9 @@
           <t>W247201B</t>
         </is>
       </c>
-      <c r="B951" s="11" t="n"/>
-      <c r="C951" s="11" t="n"/>
-      <c r="D951" s="11" t="n"/>
+      <c r="B951" s="11" t="inlineStr"/>
+      <c r="C951" s="11" t="inlineStr"/>
+      <c r="D951" s="11" t="inlineStr"/>
     </row>
     <row r="952" ht="18.75" customHeight="1">
       <c r="A952" s="3" t="inlineStr">
@@ -15282,9 +16006,21 @@
           <t>D28480505</t>
         </is>
       </c>
-      <c r="B952" s="11" t="n"/>
-      <c r="C952" s="11" t="n"/>
-      <c r="D952" s="11" t="n"/>
+      <c r="B952" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C952" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 9470X, MF 7274, MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7256, MF 7272</t>
+        </is>
+      </c>
+      <c r="D952" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="953" ht="18.75" customHeight="1">
       <c r="A953" s="3" t="inlineStr">
@@ -15292,9 +16028,17 @@
           <t>D28480081</t>
         </is>
       </c>
-      <c r="B953" s="11" t="n"/>
-      <c r="C953" s="11" t="n"/>
-      <c r="D953" s="11" t="n"/>
+      <c r="B953" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C953" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 9470X, MF 7274, MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7256, MF 7272</t>
+        </is>
+      </c>
+      <c r="D953" s="11" t="inlineStr"/>
     </row>
     <row r="954" ht="18.75" customHeight="1">
       <c r="A954" s="3" t="inlineStr">
@@ -15302,41 +16046,69 @@
           <t>D28385087</t>
         </is>
       </c>
-      <c r="B954" s="11" t="n"/>
-      <c r="C954" s="11" t="n"/>
-      <c r="D954" s="11" t="n"/>
+      <c r="B954" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C954" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 8380P, 8410P, 9470X, 9490X, MF 7382 (04/15 - 03/17), MF 7274, MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7256, MF 7272, MF7380, MF7380AL, MF7382, MF9380</t>
+        </is>
+      </c>
+      <c r="D954" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="955" ht="18.75" customHeight="1">
       <c r="A955" s="4" t="n">
         <v>700728296</v>
       </c>
-      <c r="B955" s="11" t="n"/>
-      <c r="C955" s="11" t="n"/>
-      <c r="D955" s="11" t="n"/>
+      <c r="B955" s="11" t="inlineStr">
+        <is>
+          <t>Fendt</t>
+        </is>
+      </c>
+      <c r="C955" s="11" t="inlineStr">
+        <is>
+          <t>PLNTR MOMENTUM 16-30 FT 40', PLNTR MOMENTUM 16-70 FT 40', PLNTR MOMENTUM 16-76 FT 40', PLNTR MOMENTUM 24-20 FT 40', PLNTR MOMENTUM 24-22 FT 40', PLNTR MOMENTUM 32-15 FT 40', PLNTR MOMENTUM 24-30 FT 60', PLNTR MOMENTUM 24-70 FT 60', PLNTR MOMENTUM 24-76 FT 60', PLNTR MOMENTUM 36-20 FT 60', PLNTR MOMENTUM 36-22 FT 60', PLNTR MOMENTUM 48-15 FT 60'</t>
+        </is>
+      </c>
+      <c r="D955" s="11" t="inlineStr"/>
     </row>
     <row r="956" ht="18.75" customHeight="1">
       <c r="A956" s="4" t="n">
         <v>6800710</v>
       </c>
-      <c r="B956" s="11" t="n"/>
-      <c r="C956" s="11" t="n"/>
-      <c r="D956" s="11" t="n"/>
+      <c r="B956" s="11" t="inlineStr"/>
+      <c r="C956" s="11" t="inlineStr"/>
+      <c r="D956" s="11" t="inlineStr"/>
     </row>
     <row r="957" ht="18.75" customHeight="1">
       <c r="A957" s="4" t="n">
         <v>852192</v>
       </c>
-      <c r="B957" s="11" t="n"/>
-      <c r="C957" s="11" t="n"/>
-      <c r="D957" s="11" t="n"/>
+      <c r="B957" s="11" t="inlineStr"/>
+      <c r="C957" s="11" t="inlineStr"/>
+      <c r="D957" s="11" t="inlineStr"/>
     </row>
     <row r="958" ht="18.75" customHeight="1">
       <c r="A958" s="4" t="n">
         <v>916200040120</v>
       </c>
-      <c r="B958" s="11" t="n"/>
-      <c r="C958" s="11" t="n"/>
-      <c r="D958" s="11" t="n"/>
+      <c r="B958" s="11" t="inlineStr">
+        <is>
+          <t>Fendt</t>
+        </is>
+      </c>
+      <c r="C958" s="11" t="inlineStr">
+        <is>
+          <t>FAVORIT 816, FAVORIT 818, FAVORIT 822, FAVORIT 824, Favorit 916 Vario, Favorit 920 Vario, Favorit 924 Vario, Favorit 926 Vario, 930 Vario TMS</t>
+        </is>
+      </c>
+      <c r="D958" s="11" t="inlineStr"/>
     </row>
     <row r="959" ht="18.75" customHeight="1">
       <c r="A959" s="3" t="inlineStr">
@@ -15344,9 +16116,13 @@
           <t>ACP0025750</t>
         </is>
       </c>
-      <c r="B959" s="11" t="n"/>
-      <c r="C959" s="11" t="n"/>
-      <c r="D959" s="11" t="n"/>
+      <c r="B959" s="11" t="inlineStr"/>
+      <c r="C959" s="11" t="inlineStr"/>
+      <c r="D959" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="960" ht="18.75" customHeight="1">
       <c r="A960" s="3" t="inlineStr">
@@ -15354,25 +16130,45 @@
           <t>D28285485</t>
         </is>
       </c>
-      <c r="B960" s="11" t="n"/>
-      <c r="C960" s="11" t="n"/>
-      <c r="D960" s="11" t="n"/>
+      <c r="B960" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C960" s="11" t="inlineStr">
+        <is>
+          <t>Cutting table PF 5,5m (18'), MF 7274, MF 7278, MF 7272</t>
+        </is>
+      </c>
+      <c r="D960" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="961" ht="18.75" customHeight="1">
       <c r="A961" s="4" t="n">
         <v>700177547</v>
       </c>
-      <c r="B961" s="11" t="n"/>
-      <c r="C961" s="11" t="n"/>
-      <c r="D961" s="11" t="n"/>
+      <c r="B961" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C961" s="11" t="inlineStr">
+        <is>
+          <t>9816 VE, 9824 VE, 9816 VE, 9824 VE</t>
+        </is>
+      </c>
+      <c r="D961" s="11" t="inlineStr"/>
     </row>
     <row r="962" ht="18.75" customHeight="1">
       <c r="A962" s="4" t="n">
         <v>700177960</v>
       </c>
-      <c r="B962" s="11" t="n"/>
-      <c r="C962" s="11" t="n"/>
-      <c r="D962" s="11" t="n"/>
+      <c r="B962" s="11" t="inlineStr"/>
+      <c r="C962" s="11" t="inlineStr"/>
+      <c r="D962" s="11" t="inlineStr"/>
     </row>
     <row r="963" ht="18.75" customHeight="1">
       <c r="A963" s="3" t="inlineStr">
@@ -15380,9 +16176,17 @@
           <t>6248962M91</t>
         </is>
       </c>
-      <c r="B963" s="11" t="n"/>
-      <c r="C963" s="11" t="n"/>
-      <c r="D963" s="11" t="n"/>
+      <c r="B963" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C963" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 8380P, 8410P, 9470X, 9490X, MF 7382 (04/15 - 03/17), MF 7274, MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7256, MF 7272, MF7380, MF7380AL, MF7382, MF9380</t>
+        </is>
+      </c>
+      <c r="D963" s="11" t="inlineStr"/>
     </row>
     <row r="964" ht="18.75" customHeight="1">
       <c r="A964" s="3" t="inlineStr">
@@ -15390,9 +16194,13 @@
           <t>SN3572</t>
         </is>
       </c>
-      <c r="B964" s="11" t="n"/>
-      <c r="C964" s="11" t="n"/>
-      <c r="D964" s="11" t="n"/>
+      <c r="B964" s="11" t="inlineStr"/>
+      <c r="C964" s="11" t="inlineStr"/>
+      <c r="D964" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="965" ht="18.75" customHeight="1">
       <c r="A965" s="3" t="inlineStr">
@@ -15400,9 +16208,17 @@
           <t>SN7205</t>
         </is>
       </c>
-      <c r="B965" s="11" t="n"/>
-      <c r="C965" s="11" t="n"/>
-      <c r="D965" s="11" t="n"/>
+      <c r="B965" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C965" s="11" t="inlineStr">
+        <is>
+          <t>MF 9435</t>
+        </is>
+      </c>
+      <c r="D965" s="11" t="inlineStr"/>
     </row>
     <row r="966" ht="18.75" customHeight="1">
       <c r="A966" s="3" t="inlineStr">
@@ -15410,33 +16226,37 @@
           <t>SN9691</t>
         </is>
       </c>
-      <c r="B966" s="11" t="n"/>
-      <c r="C966" s="11" t="n"/>
-      <c r="D966" s="11" t="n"/>
+      <c r="B966" s="11" t="inlineStr"/>
+      <c r="C966" s="11" t="inlineStr"/>
+      <c r="D966" s="11" t="inlineStr"/>
     </row>
     <row r="967" ht="18.75" customHeight="1">
       <c r="A967" s="4" t="n">
         <v>600053</v>
       </c>
-      <c r="B967" s="11" t="n"/>
-      <c r="C967" s="11" t="n"/>
-      <c r="D967" s="11" t="n"/>
+      <c r="B967" s="11" t="inlineStr"/>
+      <c r="C967" s="11" t="inlineStr"/>
+      <c r="D967" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="968" ht="18.75" customHeight="1">
       <c r="A968" s="4" t="n">
         <v>700178414</v>
       </c>
-      <c r="B968" s="11" t="n"/>
-      <c r="C968" s="11" t="n"/>
-      <c r="D968" s="11" t="n"/>
+      <c r="B968" s="11" t="inlineStr"/>
+      <c r="C968" s="11" t="inlineStr"/>
+      <c r="D968" s="11" t="inlineStr"/>
     </row>
     <row r="969" ht="18.75" customHeight="1">
       <c r="A969" s="4" t="n">
         <v>700178415</v>
       </c>
-      <c r="B969" s="11" t="n"/>
-      <c r="C969" s="11" t="n"/>
-      <c r="D969" s="11" t="n"/>
+      <c r="B969" s="11" t="inlineStr"/>
+      <c r="C969" s="11" t="inlineStr"/>
+      <c r="D969" s="11" t="inlineStr"/>
     </row>
     <row r="970" ht="18.75" customHeight="1">
       <c r="A970" s="3" t="inlineStr">
@@ -15444,9 +16264,13 @@
           <t>ACP0026510</t>
         </is>
       </c>
-      <c r="B970" s="11" t="n"/>
-      <c r="C970" s="11" t="n"/>
-      <c r="D970" s="11" t="n"/>
+      <c r="B970" s="11" t="inlineStr"/>
+      <c r="C970" s="11" t="inlineStr"/>
+      <c r="D970" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="971" ht="18.75" customHeight="1">
       <c r="A971" s="3" t="inlineStr">
@@ -15454,9 +16278,21 @@
           <t>D28286800</t>
         </is>
       </c>
-      <c r="B971" s="11" t="n"/>
-      <c r="C971" s="11" t="n"/>
-      <c r="D971" s="11" t="n"/>
+      <c r="B971" s="11" t="inlineStr">
+        <is>
+          <t>Fendt</t>
+        </is>
+      </c>
+      <c r="C971" s="11" t="inlineStr">
+        <is>
+          <t>Cutting table PF 12,2m (40'), Cutting table PF 5,5m (18'), Cutting table PF 7,7m (25'), Cutting table PF 9,2m (30'), Cutting table PF 10,7m (35')</t>
+        </is>
+      </c>
+      <c r="D971" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="972" ht="18.75" customHeight="1">
       <c r="A972" s="3" t="inlineStr">
@@ -15464,9 +16300,9 @@
           <t>N858762</t>
         </is>
       </c>
-      <c r="B972" s="11" t="n"/>
-      <c r="C972" s="11" t="n"/>
-      <c r="D972" s="11" t="n"/>
+      <c r="B972" s="11" t="inlineStr"/>
+      <c r="C972" s="11" t="inlineStr"/>
+      <c r="D972" s="11" t="inlineStr"/>
     </row>
     <row r="973" ht="18.75" customHeight="1">
       <c r="A973" s="3" t="inlineStr">
@@ -15474,25 +16310,25 @@
           <t>N858761</t>
         </is>
       </c>
-      <c r="B973" s="11" t="n"/>
-      <c r="C973" s="11" t="n"/>
-      <c r="D973" s="11" t="n"/>
+      <c r="B973" s="11" t="inlineStr"/>
+      <c r="C973" s="11" t="inlineStr"/>
+      <c r="D973" s="11" t="inlineStr"/>
     </row>
     <row r="974" ht="18.75" customHeight="1">
       <c r="A974" s="4" t="n">
         <v>700164081</v>
       </c>
-      <c r="B974" s="11" t="n"/>
-      <c r="C974" s="11" t="n"/>
-      <c r="D974" s="11" t="n"/>
+      <c r="B974" s="11" t="inlineStr"/>
+      <c r="C974" s="11" t="inlineStr"/>
+      <c r="D974" s="11" t="inlineStr"/>
     </row>
     <row r="975" ht="18.75" customHeight="1">
       <c r="A975" s="4" t="n">
         <v>700164082</v>
       </c>
-      <c r="B975" s="11" t="n"/>
-      <c r="C975" s="11" t="n"/>
-      <c r="D975" s="11" t="n"/>
+      <c r="B975" s="11" t="inlineStr"/>
+      <c r="C975" s="11" t="inlineStr"/>
+      <c r="D975" s="11" t="inlineStr"/>
     </row>
     <row r="976" ht="18.75" customHeight="1">
       <c r="A976" s="3" t="inlineStr">
@@ -15500,9 +16336,21 @@
           <t>YM2995-206</t>
         </is>
       </c>
-      <c r="B976" s="11" t="n"/>
-      <c r="C976" s="11" t="n"/>
-      <c r="D976" s="11" t="n"/>
+      <c r="B976" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C976" s="11" t="inlineStr">
+        <is>
+          <t>9816 VE, 9824 VE, 9816 VE, 9824 VE</t>
+        </is>
+      </c>
+      <c r="D976" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="977" ht="18.75" customHeight="1">
       <c r="A977" s="3" t="inlineStr">
@@ -15510,25 +16358,37 @@
           <t>YM2995-207</t>
         </is>
       </c>
-      <c r="B977" s="11" t="n"/>
-      <c r="C977" s="11" t="n"/>
-      <c r="D977" s="11" t="n"/>
+      <c r="B977" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C977" s="11" t="inlineStr">
+        <is>
+          <t>9816 VE, 9824 VE, 9816 VE, 9824 VE</t>
+        </is>
+      </c>
+      <c r="D977" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="978" ht="18.75" customHeight="1">
       <c r="A978" s="4" t="n">
         <v>853023</v>
       </c>
-      <c r="B978" s="11" t="n"/>
-      <c r="C978" s="11" t="n"/>
-      <c r="D978" s="11" t="n"/>
+      <c r="B978" s="11" t="inlineStr"/>
+      <c r="C978" s="11" t="inlineStr"/>
+      <c r="D978" s="11" t="inlineStr"/>
     </row>
     <row r="979" ht="18.75" customHeight="1">
       <c r="A979" s="4" t="n">
         <v>853024</v>
       </c>
-      <c r="B979" s="11" t="n"/>
-      <c r="C979" s="11" t="n"/>
-      <c r="D979" s="11" t="n"/>
+      <c r="B979" s="11" t="inlineStr"/>
+      <c r="C979" s="11" t="inlineStr"/>
+      <c r="D979" s="11" t="inlineStr"/>
     </row>
     <row r="980" ht="18.75" customHeight="1">
       <c r="A980" s="3" t="inlineStr">
@@ -15536,9 +16396,21 @@
           <t>D28680054</t>
         </is>
       </c>
-      <c r="B980" s="11" t="n"/>
-      <c r="C980" s="11" t="n"/>
-      <c r="D980" s="11" t="n"/>
+      <c r="B980" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C980" s="11" t="inlineStr">
+        <is>
+          <t>Cutting table PF 5,5m (18'), MF 7274, MF 7278, MF 7256, MF 7272</t>
+        </is>
+      </c>
+      <c r="D980" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="981" ht="18.75" customHeight="1">
       <c r="A981" s="3" t="inlineStr">
@@ -15546,17 +16418,33 @@
           <t>D28680054</t>
         </is>
       </c>
-      <c r="B981" s="11" t="n"/>
-      <c r="C981" s="11" t="n"/>
-      <c r="D981" s="11" t="n"/>
+      <c r="B981" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C981" s="11" t="inlineStr">
+        <is>
+          <t>Cutting table PF 5,5m (18'), MF 7274, MF 7278, MF 7256, MF 7272</t>
+        </is>
+      </c>
+      <c r="D981" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="982" ht="18.75" customHeight="1">
       <c r="A982" s="4" t="n">
         <v>837069006</v>
       </c>
-      <c r="B982" s="11" t="n"/>
-      <c r="C982" s="11" t="n"/>
-      <c r="D982" s="11" t="n"/>
+      <c r="B982" s="11" t="inlineStr"/>
+      <c r="C982" s="11" t="inlineStr"/>
+      <c r="D982" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="983" ht="18.75" customHeight="1">
       <c r="A983" s="3" t="inlineStr">
@@ -15564,9 +16452,17 @@
           <t>735169M91</t>
         </is>
       </c>
-      <c r="B983" s="11" t="n"/>
-      <c r="C983" s="11" t="n"/>
-      <c r="D983" s="11" t="n"/>
+      <c r="B983" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C983" s="11" t="inlineStr">
+        <is>
+          <t>MF 175, MF 188, MF 194F, MF 174V 4WD, MF 274C, MF 294 4WD, MF 575, MF 565, MF 698T, MF 698T 4WD, MF 670 4WD, MF 394F 4WD, MF 374S 2WD, MF 384S 2WD, MF 394S 2WD, MF 3050 2WD, MF 3050 4WD, MF 3060 2WD, MF 3060 4WD, MF 3070 2WD, MF 3070 4WD, MF 3065 2WD, MF 3065 4WD, MF 3075 2WD, MF 3075 4WD, MF 194 4WD, MF 294C, MF 333 2WD, MF 353 4WD, MF 377 4WD, MF 387 4WD, MF 397 4WD, MF 6110 2WD, MF 6110 4WD, MF 6120 2WD, MF 6120 4WD, MF 6130 2WD, MF 6130 4WD, MF 6140 2WD, MF 6140 4WD, MF 6150 2WD, MF 6150 4WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4365 2WD, MF 4365 4WD, MF 4225 2WD, MF 4225 4WD, MF 4235 2WD, MF 4235 4WD, MF 4240 2WD, MF 4240 4WD, MF 4245 2WD, MF 4245 4WD, MF 4255 2WD, MF 4255 4WD, MF 4265 2WD, MF 4265 4WD, MF 6265 2WD, MF 6265 4WD, MF 6255 2WD, MF 6255 4WD, MF 6245 2WD, MF 6245 4WD, MF 6235 2WD, MF 6235 4WD, MF 8250 4WD, MF 2225, MF 2235, MF 2230, MF 265, MF 285, MF 270, MF 375 2WD, MF 375 4WD, MF 390 2WD, MF 390 4WD, MF 398 2WD, MF 398 4WD, MF 365 2WD, MF 365 4WD, MF 390T 2WD, MF 390T 4WD, MF 362 2WD, MF 362 4WD, MF 372 N 2WD, MF 372 N 4WD, MF 382 N 4WD, MF 362 N 2WD, MF 362 N 4WD</t>
+        </is>
+      </c>
+      <c r="D983" s="11" t="inlineStr"/>
     </row>
     <row r="984" ht="18.75" customHeight="1">
       <c r="A984" s="3" t="inlineStr">
@@ -15574,9 +16470,13 @@
           <t>4224640M91</t>
         </is>
       </c>
-      <c r="B984" s="11" t="n"/>
-      <c r="C984" s="11" t="n"/>
-      <c r="D984" s="11" t="n"/>
+      <c r="B984" s="11" t="inlineStr"/>
+      <c r="C984" s="11" t="inlineStr"/>
+      <c r="D984" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="985" ht="18.75" customHeight="1">
       <c r="A985" s="3" t="inlineStr">
@@ -15584,9 +16484,17 @@
           <t>4226993M91</t>
         </is>
       </c>
-      <c r="B985" s="11" t="n"/>
-      <c r="C985" s="11" t="n"/>
-      <c r="D985" s="11" t="n"/>
+      <c r="B985" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C985" s="11" t="inlineStr">
+        <is>
+          <t>MF 175, MF 168, MF 188, MF 194F, MF 174V 4WD, MF 274C, MF 294 4WD, MF 575, MF 565, MF 670 4WD, MF 3425, MF 3435, MF 3445, MF 3455, MF 394F 4WD, MF 374S 2WD, MF 384S 2WD, MF 394S 2WD, MF 3445C, MF 3455C, MF 3425C, MF 3050 2WD, MF 3050 4WD, MF 3060 2WD, MF 3060 4WD, MF 3070 2WD, MF 3070 4WD, MF 3065 2WD, MF 3065 4WD, MF 294C, MF 333 2WD, MF 353 4WD, MF 377 4WD, MF 387 4WD, MF 397 4WD, MF 6110 2WD, MF 6110 4WD, MF 6120 2WD, MF 6120 4WD, MF 8925 (04/10 - 03/11), MF 8926 (04/10 - 03/11), MF 8947-8947CD, MF 89410-89410L, MF 8947 T3, MF 8925, MF 8926, MF 8947, MF 89410, MF 8925 (10/07 - 03/10), MF 8926 (10/07 - 03/10), MF 8947 (10/07 - 03/10), MF 89410 (10/07 - 03/10), MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4365 2WD, MF 4365 4WD, MF 4225 2WD, MF 4225 4WD, MF 4235 2WD, MF 4235 4WD, MF 4240 2WD, MF 4240 4WD, MF 4245 2WD, MF 4245 4WD, MF 4255 2WD, MF 4255 4WD, MF 4265 2WD, MF 4265 4WD, MF 6445 T2 Agco Power, MF 6455 T2 Perkins, MF 6460 T2 Perkins, MF 6470 T2 Perkins, MF 6445 T3 Perkins, MF 6455 T3 Perkins, MF 5445, MF 5455, 5460, MF 5425, MF 5435, MF 5460 SISU, MF 5445 T3, MF 5455 T3, MF 5420 T3, MF 5450 T3, MF9306 Telescopic Handler, MF9407 Telescopic Handler, MF 9407 S, MF 265, MF 285, MF 270, MF 375 2WD, MF 375 4WD, MF 390 2WD, MF 390 4WD, MF 398 2WD, MF 398 4WD, MF 365 2WD, MF 365 4WD, MF 390T 2WD, MF 390T 4WD, MF 362 2WD, MF 362 4WD, MF 372 N 2WD, MF 372 N 4WD, MF 382 N 4WD, MF 362 N 2WD, MF 362 N 4WD</t>
+        </is>
+      </c>
+      <c r="D985" s="11" t="inlineStr"/>
     </row>
     <row r="986" ht="18.75" customHeight="1">
       <c r="A986" s="3" t="inlineStr">
@@ -15594,9 +16502,17 @@
           <t>843332M1</t>
         </is>
       </c>
-      <c r="B986" s="11" t="n"/>
-      <c r="C986" s="11" t="n"/>
-      <c r="D986" s="11" t="n"/>
+      <c r="B986" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C986" s="11" t="inlineStr">
+        <is>
+          <t>MF 9690</t>
+        </is>
+      </c>
+      <c r="D986" s="11" t="inlineStr"/>
     </row>
     <row r="987" ht="18.75" customHeight="1">
       <c r="A987" s="3" t="inlineStr">
@@ -15604,9 +16520,17 @@
           <t>3300340M1</t>
         </is>
       </c>
-      <c r="B987" s="11" t="n"/>
-      <c r="C987" s="11" t="n"/>
-      <c r="D987" s="11" t="n"/>
+      <c r="B987" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C987" s="11" t="inlineStr">
+        <is>
+          <t>MF 3095 2WD, MF 3125 2WD, MF 3120 2WD, MF 3630 2WD, MF 3650 2WD, MF 3680 2WD, MF 3645 2WD, MF 3655 2WD, MF 3670 2WD, MF 3690 2WD, MF 1114 2WD, MF 1114 4WD, MF 1134 2WD, MF 1134 4WD, MF 1014 2WD, MF 1014 4WD, MF 6170 2WD, MF 6180 2WD, MF 6190 2WD, MF 8120 2WD, MF 8140 2WD, MF 8150 2WD, MF 8160 2WD, MF 6290 2WD, MF 6280 2WD, MF 6270 2WD, MF 6265 2WD, MF 6255 2WD, MF 6245 2WD, MF 6235 2WD, MF 8250 2WD, MF 8250 4WD, MF 8280 4WD, MF 8270 4WD, MF 8240 2WD, MF 8220 2WD, MF 8210 2WD, MF 6497 T2 Agco Power, MF 6465 T2 Perkins, MF 6475 T2 Perkins, MF 6480 T2 Perkins, MF 6490 T2 Agco Power, MF 6495 T2 Agco Power, MF 6485 T2 Agco Power, 6485, MF 6490 T3 Agco Power, MF 6495 T3 Agco Power, MF 7465, MF 7475, MF 7480, MF 7485, MF 7490, MF 7495, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 8450, MF 8460, MF 8470, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 5445, MF 5455, 5465</t>
+        </is>
+      </c>
+      <c r="D987" s="11" t="inlineStr"/>
     </row>
     <row r="988" ht="18.75" customHeight="1">
       <c r="A988" s="3" t="inlineStr">
@@ -15614,9 +16538,17 @@
           <t>LA24905120</t>
         </is>
       </c>
-      <c r="B988" s="11" t="n"/>
-      <c r="C988" s="11" t="n"/>
-      <c r="D988" s="11" t="n"/>
+      <c r="B988" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C988" s="11" t="inlineStr">
+        <is>
+          <t>5180E, 8380P, 8410P, 9490X, MF 2225, MF 2235, MF 2430, MF 2435, MF 2440, MF 2210, MF 2220, MF 2230, MF 7265 (2009-2011), MF 7345 S MCS (2011-2014), MF 7347 S MCS (2012-2014), MF 7360 T4I (2012), MF 7360 PL T4I (2012), MF 7370 T4I (2012), MF 7345 S (2011-2014), MF 7347 S (2012-2014), MF 7360 T4I (2013-2014), MF 7360 PL T4I (2013-2014), MF 7370 T4I (2013-2014), MF 7360 PLI T4I (2013-2014), MF 7345 S (09/14 - 08/17), MF 7345 S MCS (09/14 - 08/17), MF 7347 S (09/14 - 08/17), MF 7347 S MCS (09/14 - 08/17), MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF 7340 T4F (2018-2021), MF 7344 TF4 (2018-2021), MF 7345 S T4F (2018-2021), MF 7347 S T4F (2018-2021), MF 7360 T4F (2018-2021), MF 7360 PL/PLI T4F (2018-2021), MF 7370 T4F (2018-2021), MF 7340 ST5 (2021-9999), MF 7344 ST5 (2021-9999), MF 7347 S ST5 (2021-9999), MF 7370 ST5 (2021-9999), MF 7344 (09/15 - 08/17), MF 7382 (04/15 - 03/17), MF 7340 (09/15 - 08/17), MF 7247 S (2008-2011), MF 7245 S (2006-2011), MF 7240 (2008-2018), MF 7244 (2006-2011), MF 7245 (2006-2011), MF 7246 (2006-2011), MF 7260 (2005-2011), MF 7270 (2005-2011), MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7370 PLI (2017), MF Activa S 7345 MCS, MF Activa S 7347 MCS, MF Beta 7360, MF Beta 7370 PL, MF7380, MF7380AL, MF7382, MF9380, MF Beta 7370 PLI</t>
+        </is>
+      </c>
+      <c r="D988" s="11" t="inlineStr"/>
     </row>
     <row r="989" ht="18.75" customHeight="1">
       <c r="A989" s="3" t="inlineStr">
@@ -15624,9 +16556,17 @@
           <t>LA24905100</t>
         </is>
       </c>
-      <c r="B989" s="11" t="n"/>
-      <c r="C989" s="11" t="n"/>
-      <c r="D989" s="11" t="n"/>
+      <c r="B989" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C989" s="11" t="inlineStr">
+        <is>
+          <t>IDEAL 7, IDEAL 8, IDEAL 9, MF IDEAL 7, MF IDEAL 8, MF IDEAL 9, MF 7265 (2009-2011), MF 7345 S MCS (2011-2014), MF 7347 S MCS (2012-2014), MF 7360 T4I (2012), MF 7360 PL T4I (2012), MF 7370 T4I (2012), MF 7345 S (2011-2014), MF 7347 S (2012-2014), MF 7360 T4I (2013-2014), MF 7360 PL T4I (2013-2014), MF 7370 T4I (2013-2014), MF 7360 PLI T4I (2013-2014), MF 7345 S (09/14 - 08/17), MF 7345 S MCS (09/14 - 08/17), MF 7347 S (09/14 - 08/17), MF 7347 S MCS (09/14 - 08/17), MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF 7344 TF4 (2018-2021), MF 7345 S T4F (2018-2021), MF 7347 S T4F (2018-2021), MF 7360 T4F (2018-2021), MF 7360 PL/PLI T4F (2018-2021), MF 7370 T4F (2018-2021), MF 7344 ST5 (2021-9999), MF 7347 S ST5 (2021-9999), MF 7370 ST5 (2021-9999), MF 7344 (09/15 - 08/17), MF 7247 S (2008-2011), MF 7245 S (2006-2011), MF 7244 (2006-2011), MF 7245 (2006-2011), MF 7246 (2006-2011), MF 7260 (2005-2011), MF 7270 (2005-2011), MF 7370 PLI (2017), MF Activa S 7345 MCS, MF Activa S 7347 MCS, MF Beta 7360, MF Beta 7370 PL, MF Beta 7370 PLI</t>
+        </is>
+      </c>
+      <c r="D989" s="11" t="inlineStr"/>
     </row>
     <row r="990" ht="18.75" customHeight="1">
       <c r="A990" s="3" t="inlineStr">
@@ -15634,9 +16574,21 @@
           <t>H312100200100</t>
         </is>
       </c>
-      <c r="B990" s="11" t="n"/>
-      <c r="C990" s="11" t="n"/>
-      <c r="D990" s="11" t="n"/>
+      <c r="B990" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C990" s="11" t="inlineStr">
+        <is>
+          <t>MF 35</t>
+        </is>
+      </c>
+      <c r="D990" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="991" ht="18.75" customHeight="1">
       <c r="A991" s="3" t="inlineStr">
@@ -15644,9 +16596,21 @@
           <t>D41705700</t>
         </is>
       </c>
-      <c r="B991" s="11" t="n"/>
-      <c r="C991" s="11" t="n"/>
-      <c r="D991" s="11" t="n"/>
+      <c r="B991" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C991" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 8380P, 8410P, 9470X, 9490X, MF 7382 (04/15 - 03/17), MF 7274, MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7256, MF 7272, MF7380, MF7380AL, MF7382, MF9380</t>
+        </is>
+      </c>
+      <c r="D991" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="992" ht="18.75" customHeight="1">
       <c r="A992" s="3" t="inlineStr">
@@ -15654,9 +16618,17 @@
           <t>D41663500</t>
         </is>
       </c>
-      <c r="B992" s="11" t="n"/>
-      <c r="C992" s="11" t="n"/>
-      <c r="D992" s="11" t="n"/>
+      <c r="B992" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C992" s="11" t="inlineStr">
+        <is>
+          <t>IDEAL 10, IDEAL 7, IDEAL 8, IDEAL 9, 8370P, 8400P, 8380P, 8410P, Cutting table PF 12,2m (40'), Cutting table PF 5,5m (18'), Cutting table PF 9,2m (30'), Cutting table PF 10,7m (35'), 9490X, MF IDEAL 7, MF IDEAL 8, MF IDEAL 9, MF 7274, MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278</t>
+        </is>
+      </c>
+      <c r="D992" s="11" t="inlineStr"/>
     </row>
     <row r="993" ht="18.75" customHeight="1">
       <c r="A993" s="3" t="inlineStr">
@@ -15664,9 +16636,21 @@
           <t>D41628800</t>
         </is>
       </c>
-      <c r="B993" s="11" t="n"/>
-      <c r="C993" s="11" t="n"/>
-      <c r="D993" s="11" t="n"/>
+      <c r="B993" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C993" s="11" t="inlineStr">
+        <is>
+          <t>IDEAL 10, IDEAL 7, IDEAL 8, IDEAL 9, 8370P, 8400P, 8380P, 8410P, Cutting table PF 12,2m (40'), Cutting table PF 5,5m (18'), Cutting table PF 7,7m (25'), Cutting table PF 9,2m (30'), Cutting table PF 10,7m (35'), 9470X, 9490X, MF IDEAL 7, MF IDEAL 8, MF IDEAL 9, MF 7382 (04/15 - 03/17), MF 7274, MF 7380 (04/17 - 07/18), MF 7382 (04/17 - 07/18), MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7256, MF 7272, MF7380, MF7380AL, MF7382, MF9380</t>
+        </is>
+      </c>
+      <c r="D993" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="994" ht="18.75" customHeight="1">
       <c r="A994" s="3" t="inlineStr">
@@ -15674,9 +16658,17 @@
           <t>390941X1</t>
         </is>
       </c>
-      <c r="B994" s="11" t="n"/>
-      <c r="C994" s="11" t="n"/>
-      <c r="D994" s="11" t="n"/>
+      <c r="B994" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C994" s="11" t="inlineStr">
+        <is>
+          <t>MF 1035, MF 1045</t>
+        </is>
+      </c>
+      <c r="D994" s="11" t="inlineStr"/>
     </row>
     <row r="995" ht="18.75" customHeight="1">
       <c r="A995" s="3" t="inlineStr">
@@ -15684,41 +16676,77 @@
           <t>3407379M1</t>
         </is>
       </c>
-      <c r="B995" s="11" t="n"/>
-      <c r="C995" s="11" t="n"/>
-      <c r="D995" s="11" t="n"/>
+      <c r="B995" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C995" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 9470X, MF 7274, MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7256, MF 7272</t>
+        </is>
+      </c>
+      <c r="D995" s="11" t="inlineStr"/>
     </row>
     <row r="996" ht="18.75" customHeight="1">
       <c r="A996" s="4" t="n">
         <v>1109055</v>
       </c>
-      <c r="B996" s="11" t="n"/>
-      <c r="C996" s="11" t="n"/>
-      <c r="D996" s="11" t="n"/>
+      <c r="B996" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C996" s="11" t="inlineStr">
+        <is>
+          <t>IDEAL 10, IDEAL 7, IDEAL 8, IDEAL 9, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, Squadra 1290 UD, MF 254S 4WD, MF 8110 2WD, MF 8120 2WD, MF 8130 2WD, MF 8140 2WD, MF 8150 2WD, MF 8160 2WD, MF 8250 2WD, MF 8250 4WD, MF 8280 4WD, MF 8270 4WD, MF 8240 2WD, MF 8220 2WD, MF 8210 2WD, MF 6490 T2 Agco Power, MF 6495 T2 Agco Power, MF 6485 T2 Agco Power, MF 9690, MF 9790, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 186CE, MF 187CE, MF 2140 CE, MF IDEAL 7, MF IDEAL 8, MF IDEAL 9</t>
+        </is>
+      </c>
+      <c r="D996" s="11" t="inlineStr"/>
     </row>
     <row r="997" ht="18.75" customHeight="1">
       <c r="A997" s="4" t="n">
         <v>10033</v>
       </c>
-      <c r="B997" s="11" t="n"/>
-      <c r="C997" s="11" t="n"/>
-      <c r="D997" s="11" t="n"/>
+      <c r="B997" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C997" s="11" t="inlineStr">
+        <is>
+          <t>MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795</t>
+        </is>
+      </c>
+      <c r="D997" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="998" ht="18.75" customHeight="1">
       <c r="A998" s="4" t="n">
         <v>10473</v>
       </c>
-      <c r="B998" s="11" t="n"/>
-      <c r="C998" s="11" t="n"/>
-      <c r="D998" s="11" t="n"/>
+      <c r="B998" s="11" t="inlineStr"/>
+      <c r="C998" s="11" t="inlineStr"/>
+      <c r="D998" s="11" t="inlineStr"/>
     </row>
     <row r="999" ht="18.75" customHeight="1">
       <c r="A999" s="4" t="n">
         <v>700732970</v>
       </c>
-      <c r="B999" s="11" t="n"/>
-      <c r="C999" s="11" t="n"/>
-      <c r="D999" s="11" t="n"/>
+      <c r="B999" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C999" s="11" t="inlineStr">
+        <is>
+          <t>9816 VE, 9824 VE, 9816 VE, 9824 VE</t>
+        </is>
+      </c>
+      <c r="D999" s="11" t="inlineStr"/>
     </row>
     <row r="1000" ht="18.75" customHeight="1">
       <c r="A1000" s="3" t="inlineStr">
@@ -15726,33 +16754,65 @@
           <t>22602X</t>
         </is>
       </c>
-      <c r="B1000" s="11" t="n"/>
-      <c r="C1000" s="11" t="n"/>
-      <c r="D1000" s="11" t="n"/>
+      <c r="B1000" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C1000" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795</t>
+        </is>
+      </c>
+      <c r="D1000" s="11" t="inlineStr"/>
     </row>
     <row r="1001" ht="18.75" customHeight="1">
       <c r="A1001" s="4" t="n">
         <v>71335184</v>
       </c>
-      <c r="B1001" s="11" t="n"/>
-      <c r="C1001" s="11" t="n"/>
-      <c r="D1001" s="11" t="n"/>
+      <c r="B1001" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C1001" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, 990 (Serial No. JHBxxx001 to JBHxxx999), Squadra 1290 UD, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 185 SII</t>
+        </is>
+      </c>
+      <c r="D1001" s="11" t="inlineStr"/>
     </row>
     <row r="1002" ht="18.75" customHeight="1">
       <c r="A1002" s="4" t="n">
         <v>70590709</v>
       </c>
-      <c r="B1002" s="11" t="n"/>
-      <c r="C1002" s="11" t="n"/>
-      <c r="D1002" s="11" t="n"/>
+      <c r="B1002" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C1002" s="11" t="inlineStr">
+        <is>
+          <t>990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, Squadra 1290 UD, TE20, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 186CE, MF 187CE, MF 2140 CE</t>
+        </is>
+      </c>
+      <c r="D1002" s="11" t="inlineStr"/>
     </row>
     <row r="1003" ht="18.75" customHeight="1">
       <c r="A1003" s="4" t="n">
         <v>70590704</v>
       </c>
-      <c r="B1003" s="11" t="n"/>
-      <c r="C1003" s="11" t="n"/>
-      <c r="D1003" s="11" t="n"/>
+      <c r="B1003" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C1003" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1290, TE20, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 2170XD, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 186CE, MF 187CE, MF 2140 CE</t>
+        </is>
+      </c>
+      <c r="D1003" s="11" t="inlineStr"/>
     </row>
     <row r="1004" ht="18.75" customHeight="1">
       <c r="A1004" s="3" t="inlineStr">
@@ -15760,9 +16820,17 @@
           <t>2490840W1</t>
         </is>
       </c>
-      <c r="B1004" s="11" t="n"/>
-      <c r="C1004" s="11" t="n"/>
-      <c r="D1004" s="11" t="n"/>
+      <c r="B1004" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C1004" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795</t>
+        </is>
+      </c>
+      <c r="D1004" s="11" t="inlineStr"/>
     </row>
     <row r="1005" ht="18.75" customHeight="1">
       <c r="A1005" s="3" t="inlineStr">
@@ -15770,9 +16838,17 @@
           <t>339800X1</t>
         </is>
       </c>
-      <c r="B1005" s="11" t="n"/>
-      <c r="C1005" s="11" t="n"/>
-      <c r="D1005" s="11" t="n"/>
+      <c r="B1005" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C1005" s="11" t="inlineStr">
+        <is>
+          <t>MF 1114 4WD, MF 1134 2WD, MF 1134 4WD, MF 1014 2WD, MF 1014 4WD, 6465 Dyna-6, 6475 Dyna-6, MF 6480 T3 Agco Power, MF 6497 T2 Agco Power, MF 6497 XTRA, MF 6499 XTRA, 6485, MF 6490 T3 Agco Power, MF 6495 T3 Agco Power, MF 6470 T3 Agco Power, MF 6460 T3 Agco Power, 6465, MF 6475 T3 Agco Power, MF 6480 T3 Perkins, MF 6497 T3 Agco Power, MF 6499 T3 Agco Power, MF 8450, MF 8460, MF 8470, MF 8480, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 8737 S, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 8740 S Dyna-VT, MF8727, MF8730, MF8732, MF8735, MF 8737 MR, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, No longer used Refer to 11652, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, No longer used Refer to 11650, No longer used Refer to 11651, N101, S233, S263, S293, S323, S353, S294, S374, S324 SmartTouch MR19, S394 SmartTouch MR19</t>
+        </is>
+      </c>
+      <c r="D1005" s="11" t="inlineStr"/>
     </row>
     <row r="1006" ht="18.75" customHeight="1">
       <c r="A1006" s="3" t="inlineStr">
@@ -15780,9 +16856,17 @@
           <t>LA340411204</t>
         </is>
       </c>
-      <c r="B1006" s="11" t="n"/>
-      <c r="C1006" s="11" t="n"/>
-      <c r="D1006" s="11" t="n"/>
+      <c r="B1006" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C1006" s="11" t="inlineStr">
+        <is>
+          <t>5180E, Cutting table PF 12,2m (40'), Cutting table PF 5,5m (18'), Cutting table PF 7,7m (25'), Cutting table PF 9,2m (30'), Cutting table PF 10,7m (35'), MF 7265 (2009-2011), MF 7345 S MCS (2011-2014), MF 7347 S MCS (2012-2014), MF 7360 T4I (2012), MF 7360 PL T4I (2012), MF 7370 T4I (2012), MF 7345 S (2011-2014), MF 7347 S (2012-2014), MF 7360 T4I (2013-2014), MF 7360 PL T4I (2013-2014), MF 7370 T4I (2013-2014), MF 7360 PLI T4I (2013-2014), MF 7345 S (09/14 - 08/17), MF 7345 S MCS (09/14 - 08/17), MF 7347 S (09/14 - 08/17), MF 7347 S MCS (09/14 - 08/17), MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF 7340 T4F (2018-2021), MF 7344 TF4 (2018-2021), MF 7345 S T4F (2018-2021), MF 7347 S T4F (2018-2021), MF 7360 T4F (2018-2021), MF 7360 PL/PLI T4F (2018-2021), MF 7370 T4F (2018-2021), MF 7340 ST5 (2021-9999), MF 7344 ST5 (2021-9999), MF 7347 S ST5 (2021-9999), MF 7370 ST5 (2021-9999), MF 7344 (09/15 - 08/17), MF 7340 (09/15 - 08/17), MF 7247 S (2008-2011), MF 7245 S (2006-2011), MF 7240 (2008-2018), MF 7244 (2006-2011), MF 7245 (2006-2011), MF 7246 (2006-2011), MF 7260 (2005-2011), MF 7270 (2005-2011), MF 7370 PLI (2017), MF Activa S 7345 MCS, MF Activa S 7347 MCS, MF Beta 7360, MF Beta 7370 PL, MF Beta 7370 PLI</t>
+        </is>
+      </c>
+      <c r="D1006" s="11" t="inlineStr"/>
     </row>
     <row r="1007" ht="18.75" customHeight="1">
       <c r="A1007" s="3" t="inlineStr">
@@ -15790,9 +16874,17 @@
           <t>AG056272</t>
         </is>
       </c>
-      <c r="B1007" s="11" t="n"/>
-      <c r="C1007" s="11" t="n"/>
-      <c r="D1007" s="11" t="n"/>
+      <c r="B1007" s="11" t="inlineStr">
+        <is>
+          <t>Fendt</t>
+        </is>
+      </c>
+      <c r="C1007" s="11" t="inlineStr">
+        <is>
+          <t>Rogator 635 (MY19), RG 635</t>
+        </is>
+      </c>
+      <c r="D1007" s="11" t="inlineStr"/>
     </row>
     <row r="1008" ht="18.75" customHeight="1">
       <c r="A1008" s="3" t="inlineStr">
@@ -15800,9 +16892,13 @@
           <t>AG056274</t>
         </is>
       </c>
-      <c r="B1008" s="11" t="n"/>
-      <c r="C1008" s="11" t="n"/>
-      <c r="D1008" s="11" t="n"/>
+      <c r="B1008" s="11" t="inlineStr"/>
+      <c r="C1008" s="11" t="inlineStr">
+        <is>
+          <t>RG900, RG1100, RG1300</t>
+        </is>
+      </c>
+      <c r="D1008" s="11" t="inlineStr"/>
     </row>
     <row r="1009" ht="18.75" customHeight="1">
       <c r="A1009" s="3" t="inlineStr">
@@ -15810,9 +16906,17 @@
           <t>1628494M1</t>
         </is>
       </c>
-      <c r="B1009" s="11" t="n"/>
-      <c r="C1009" s="11" t="n"/>
-      <c r="D1009" s="11" t="n"/>
+      <c r="B1009" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Fendt, Gleaner, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C1009" s="11" t="inlineStr">
+        <is>
+          <t>MT455D, MT465D, MT445B, MT455B, MT465B, MT445B-T3, MT455B-T3 Dyna-4, MT465B-T3 Dyna-4, MT555D Dyna-6, MT565D Dyna-6, MT575D Dyna-6, MT585D Dyna-6, MT555D CVT, MT565D CVT, MT575D CVT, MT585D CVT, MT515D Dyna-4, MT525D Dyna-4, MT525D Dyna-6, MT535D Dyna-6, MT545D Dyna-6, MT525D Dyna-VT, MT535D Dyna-VT, MT545D Dyna-VT, MT575E Dyna-6, MT575E CVT, MT525E Dyna-4, MT525E Dyna-6, MT545E Dyna-6, MT525E Dyna-VT, MT545E Dyna-VT, MT545B Dyna-6, MT525B Dyna-6, MT525B Dyna-CVT, MT545B Dyna-CVT, MT555B Dyna-CVT T3 CAT, MT565B Dyna-CVT T3 CAT, MT575B Dyna-CVT T3 CAT, MT555B Dyna-6 T3 CAT, MT565B Dyna-6 T3 CAT, MT575B Dyna-6 T3 CAT, MT525B Dyna-6 T3 CAT, MT545B Dyna-6 T3 CAT, MT525B Dyna-CVT T3 CAT, MT545B Dyna-CVT T3 CAT, MT595B Dyna-6 T3 SISU, MT595B Dyna-CVT T3 SISU , MT645D T4I, MT655D T4I, MT665D T4I / T2, MT675D T4I, MT685D T4I / T2, MT665E, MT645C, MT655C T3 CVT, MT665C T3 / T2 CVT, MT675C T3 CVT, MT645E, MT665E T4F CVT, Farmer 409 Vario, Farmer 410 Vario, Farmer 411 Vario, Farmer 412 Vario, 712 Vario T2, 714 Vario T2, 716 Vario T2, 815 Vario, 817 Vario, 818 Vario, Favorit 916 Vario, Favorit 920 Vario, Favorit 924 Vario, Favorit 926 Vario, 930 Vario TMS, S67 Super , S77 Super, MF 2625, MF 6712 ECO4, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7465 T3, MF 7475 T3, MF 7480 T3, MF 7499, MF 5710 ECO3, MF 5710 ECO4, MF 5711 ECO4, MF 3635, MF 5609 Dyna-4, MF 5610 Dyna-4, MF 5611 Dyna-4, MF 5611 Dyna-6, MF 5612 Dyna-4, MF 5612 Dyna-6, MF 5613 Dyna-4, MF 5613 Dyna-6, MF 6614 Dyna-VT, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-VT, MF 6615 Dyna-6, MF 6616 Dyna-VT, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-VT, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-VT, MF 7616 Dyna-6, MF 7618 Dyna-VT, MF 7618 Dyna-6, MF 7619 Dyna-VT, MF 7619 Dyna-6, MF 7620 Dyna-VT, MF 7620 Dyna-6, MF 7622 Dyna-VT, MF 7622 Dyna-6, MF 7624 Dyna-VT, MF 7624 Dyna-6, MF 5711 SL Dyna-4, MF 5711 SL Dyna-6, MF 5712 SL Dyna-4, MF 5712 SL Dyna-6, MF 5713 SL Dyna-4, MF 5713 SL Dyna-6, MF 6715 S Dyna-4 T4F, MF 6714 S Dyna-VT, MF 6715 S Dyna-6 T4F, MF 6715 S Dyna-VT, MF 6716 S Dyna-6 T4F, MF 6716 S Dyna-VT T4F, MF 7719 Dyna-6, MF 7720 Dyna-6, MF 7722 Dyna-6, MF 7724 Dyna-6, MF 7726 Dyna-6, MF 7720 Dyna-VT, MF 7722 Dyna-VT, MF 7724 Dyna-VT, MF 7716 Dyna-VT, MF 7718 Dyna-VT, MF 7719 Dyna-VT, MF 7726 Dyna-VT, MF 7718 S Dyna-VT T5, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, MF 5445, MF 5470 T3, MF 5480 T3, MF 5465 T3, MF 5475 T3, MF 5445 T3, MF 5455 T3, MF 5450 T3, MF 4708 ECO4, MF 4708 ECO3, MF 4709 ECO3, MF 4707 2WD Non Cab, MF 4708 2WD Non Cab 3, MF 4709 2WD Non Cab, MF 4710 2WD Non Cab, MF 1529, MF 8660 Dyna-VT T2, MF 8670, MF 8680, MF 8690, MF 8727, MF 8730, MF 8732, MF 8735, MF 9540 Tier 4 TI, MF 9560 Tier 4 TI</t>
+        </is>
+      </c>
+      <c r="D1009" s="11" t="inlineStr"/>
     </row>
     <row r="1010" ht="18.75" customHeight="1">
       <c r="A1010" s="3" t="inlineStr">
@@ -15820,9 +16924,17 @@
           <t>X825283286000</t>
         </is>
       </c>
-      <c r="B1010" s="11" t="n"/>
-      <c r="C1010" s="11" t="n"/>
-      <c r="D1010" s="11" t="n"/>
+      <c r="B1010" s="11" t="inlineStr">
+        <is>
+          <t>Fendt</t>
+        </is>
+      </c>
+      <c r="C1010" s="11" t="inlineStr">
+        <is>
+          <t>1038 Vario S4, 1042 Vario S4, 1046 Vario S4, 1050 Vario S4, 206 S, 207 S, 208 S, 209 S, 207 Vario, 208 Vario, 209 Vario, 210 Vario, 211 Vario, 207 F Vario S3, 208 F Vario S3, 209 F Vario S3, 210 F Vario S3, 211 F Vario S3, 209 P Vario S3, 210 P Vario S3, 211 P Vario S3, 209 P Vario, 210 P Vario, 211 P Vario, 207 S Vario S3, 208 S Vario S3, 209 S Vario S3, 210 S Vario S3, 211 S Vario S3, 207 V Vario S3, 208 V Vario S3, 209 V Vario S3, 210 V Vario S3, 211 V Vario S3, 207 VF Vario, 208 VF Vario, 209 VF Vario, 210 VF Vario, 211 VF Vario, 206 VF, 207 VF, 208 VF, 209 VF, 208 P, 209 P, 310 Vario S4, 311 Vario S4, 312 Vario S4, 313 Vario S4, 309 Vario, 310 Vario, 311 Vario, 312 Vario, FARMER 309 C, FARMER 303 LS, FARMER 304 LS, FARMER 305 LS, FARMER 306 LS, FARMER 307 LS, FARMER 308 LS, FARMER 309 LS, FARMER 310 LS, FARMER 311 LS, FARMER 307 LSA, FARMER 308 LSA, FARMER 309 LSA, FARMER 310 LSA, FARMER 311 LSA, FARMER 312 LSA, Farmer 307 C, Farmer 308 C, 309 Vario SCR, 310 Vario SCR, 311 Vario SCR, 312 Vario SCR, 313 Vario SCR, Farmer 409 Vario, Farmer 410 Vario, Farmer 411 Vario, Farmer 412 Vario, 411 Vario, 412 Vario, 413 Vario, 414 Vario, 415 Vario, TS 60, 512 Vario S4, 513 Vario S4, 514 Vario S4, 516 Vario S4, FAVORIT 816, FAVORIT 818, FAVORIT 822, FAVORIT 824, XYLON 520, XYLON 522, XYLON 524, 512 Vario SCR, 513 Vario SCR, 514 Vario SCR, 516 Vario SCR, 231 GT, F255 GT, F275 GT, 370 GT, 380 GTA TURBO, F345 GT, F360 GT, F365 GT, F370 GT, F380 GT, F390 GT, F395 GT, FARMER 102S, FARMER 103S, FARMER 104S, FARMER 105S, FARMER 106S, FARMER 108S, FARMER 250V, FARMER 260V, FARMER 270V, FARMER 275V/280V, FARMER 260P, FARMER 270P, FARMER 280P, FARMER 240S, FARMER 250S, FARMER 260S, FARMER 275S/280S, 714 Vario S4, 716 Vario S4, 718 Vario S4, 720 Vario S4, 722 Vario S4, 724 Vario S4, 712 Vario, 714 Vario, 716 Vario, 718 Vario, FAVORIT 509 C, FAVORIT 510 C, FAVORIT 511 C, FAVORIT 512 C, FAVORIT 514 C, FAVORIT 515 C, FAVORIT 600 LS, FAVORIT 610 LS, FAVORIT 611 LS, FAVORIT 614 LSA, FAVORIT 615 LSA, FAVORIT 611 LSA, FAVORIT 612 LSA, FAVORIT 711 VARIO, 716 Vario T2, Favorit 916 Vario, Favorit 920 Vario, Favorit 924 Vario, Favorit 926 Vario, 930 Vario TMS, 714 Vario SCR, 716 Vario SCR, 718 Vario SCR, 720 Vario SCR, 722 Vario SCR, 724 Vario SCR, 822 Vario S4, 824 Vario S4, 826 Vario S4, 828 Vario S4, 818 Vario, 820 Vario, 819 Vario SCR, 822 Vario SCR, 824 Vario SCR, 826 Vario SCR, 828 Vario SCR, 927 Vario S4, 930 Vario S4, 933 Vario S4, 936 Vario S4, 939 Vario S4, 930 Vario Gen6, 933 Vario Gen6, 936 Vario Gen6, 939 Vario Gen6, 942 Vario Gen6, 922 Vario, 924 Vario, 927 Vario, 930 Vario, 933 Vario, 936 Vario, 924 Vario SCR, 927 Vario SCR, 930 Vario SCR, 933 Vario SCR, 936 Vario SCR, 939 Vario SCR</t>
+        </is>
+      </c>
+      <c r="D1010" s="11" t="inlineStr"/>
     </row>
     <row r="1011" ht="18.75" customHeight="1">
       <c r="A1011" s="3" t="inlineStr">
@@ -15830,9 +16942,13 @@
           <t>D45080200</t>
         </is>
       </c>
-      <c r="B1011" s="11" t="n"/>
-      <c r="C1011" s="11" t="n"/>
-      <c r="D1011" s="11" t="n"/>
+      <c r="B1011" s="11" t="inlineStr"/>
+      <c r="C1011" s="11" t="inlineStr"/>
+      <c r="D1011" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="1012" ht="18.75" customHeight="1">
       <c r="A1012" s="3" t="inlineStr">
@@ -15840,17 +16956,33 @@
           <t>3405180M1</t>
         </is>
       </c>
-      <c r="B1012" s="11" t="n"/>
-      <c r="C1012" s="11" t="n"/>
-      <c r="D1012" s="11" t="n"/>
+      <c r="B1012" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C1012" s="11" t="inlineStr">
+        <is>
+          <t>206 VF, 207 VF, 208 VF, 209 VF, 208 P, 209 P, FARMER 309 C, FARMER 304 LS, FARMER 305 LS, FARMER 306 LS, FARMER 307 LS, FARMER 308 LS, FARMER 309 LS, FARMER 310 LS, FARMER 311 LS, FARMER 307 LSA, FARMER 308 LSA, FARMER 309 LSA, FARMER 310 LSA, FARMER 311 LSA, FARMER 312 LSA, Farmer 307 C, Farmer 308 C, Farmer 409 Vario, Farmer 410 Vario, Farmer 411 Vario, Farmer 412 Vario, FAVORIT 816, FAVORIT 818, FAVORIT 822, FAVORIT 824, XYLON 520, XYLON 522, XYLON 524, 231 GT, 370 GT, 380 GTA TURBO, F345 GT, F360 GT, F365 GT, F370 GT, F380 GT, FARMER 250V, FARMER 260V, FARMER 270V, FARMER 275V/280V, FARMER 260P, FARMER 270P, FARMER 280P, FARMER 240S, FARMER 250S, FARMER 260S, FARMER 275S/280S, FAVORIT 509 C, FAVORIT 510 C, FAVORIT 511 C, FAVORIT 512 C, FAVORIT 514 C, FAVORIT 515 C, FAVORIT 611 LSA, FAVORIT 612 LSA, FAVORIT 711 VARIO, 712 Vario, 714 Vario, 716 Vario T2, Favorit 916 Vario, Favorit 920 Vario, Favorit 924 Vario, Favorit 926 Vario, 930 Vario TMS, 8370P, 8400P, 9300R, 9470X, 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), 12130 (Serial No. JHBxxx001 to JBHxxx999), 1149 MT, 1154 MT, 1159 MT, 1165 MT, MF 354F 2WD, MF 354F 4WD, MF 364F 2WD, MF 364F 4WD, MF 394F 2WD, MF 394F 4WD, MF 364S 2WD, MF 364S 4WD, MF 374S 2WD, MF 374S 4WD, MF 384S 2WD, MF 384S 4WD, MF 394S 2WD, MF 394S 4WD, MF 354V 2WD, MF 354V 4WD, MF 364V 2WD, MF 364V 4WD, MF 374V 2WD, MF 374V 4WD, MF 3050 2WD, MF 3050 4WD, MF 3060 2WD, MF 3060 4WD, MF 3070 2WD, MF 3070 4WD, MF 3080 2WD, MF 3080 4WD, MF 3090 2WD, MF 3090 4WD, MF 3095 2WD, MF 3095 4WD, MF 3115 2WD, MF 3115 4WD, MF 3125 2WD, MF 3125 4WD, MF 3065 2WD, MF 3065 4WD, MF 3085 2WD, MF 3085 4WD, MF 3120 2WD, MF 3120 4WD, MF 3075 2WD, MF 3075 4WD, MF 3610 2WD, MF 3610 4WD, MF 3630 2WD, MF 3630 4WD, MF 3650 2WD, MF 3650 4WD, MF 3680 2WD, MF 3680 4WD, MF 3645 2WD, MF 3645 4WD, MF 3655 2WD, MF 3655 4WD, MF 3670 2WD, MF 3670 4WD, MF 3690 2WD, MF 3690 4WD, MF 3635 4WD, MF 294 2WD, MF 353 2WD, MF 353 4WD, MF 363 2WD, MF 363 4WD, MF 373 2WD, MF 373 4WD, MF 383 2WD, MF 383 4WD, MF 393 2WD, MF 393 4WD, MF 377 2WD, MF 377 4WD, MF 387 2WD, MF 387 4WD, MF 6110 2WD, MF 6110 4WD, MF 6120 2WD, MF 6120 4WD, MF 6130 2WD, MF 6130 4WD, MF 6140 2WD, MF 6140 4WD, MF 6150 2WD, MF 6150 4WD, MF 6160 2WD, MF 6160 4WD, MF 6170 2WD, MF 6170 4WD, MF 6180 2WD, MF 6180 4WD, MF 6190 2WD, MF 6190 4WD, MF 8170 4WD, MF 8110 2WD, MF 8110 4WD, MF 8120 2WD, MF 8120 4WD, MF 8130 2WD, MF 8130 4WD, MF 8140 2WD, MF 8140 4WD, MF 8150 2WD, MF 8150 4WD, MF 8160 2WD, MF 8160 4WD, MF 4315 2WD, MF 4315 4WD, MF 4325 2WD, MF 4325 4WD, MF 4335 2WD, MF 4335 4WD, MF 4345 2WD, MF 4345 4WD, MF 4355 2WD, MF 4355 4WD, MF 4360 2WD, MF 4360 4WD, MF 4365 2WD, MF 4365 4WD, MF 4370 2WD, MF 4370 4WD, MF 4215 2WD, MF 4215 4WD, MF 4220 2WD, MF 4220 4WD, MF 4225 2WD, MF 4225 4WD, MF 4235 2WD, MF 4235 4WD, MF 4240 2WD, MF 4245 2WD, MF 4245 4WD, MF 4255 2WD, MF 4255 4WD, MF 4260 2WD, MF 4260 4WD, MF 4265 2WD, MF 4265 4WD, MF 4270 2WD, MF 4270 4WD, MF 6290 2WD, MF 6290 4WD, MF 6280 2WD, MF 6280 4WD, MF 6270 2WD, MF 6270 4WD, MF 6265 2WD, MF 6265 4WD, MF 6260 2WD, MF 6260 4WD, MF 6255 2WD, MF 6255 4WD, MF 6245 2WD, MF 6245 4WD, MF 6235 2WD, MF 6235 4WD, MF 8260 4WD, MF 8250 2WD, MF 8250 4WD, MF 8280 4WD, MF 8270 4WD, MF 8260 2WD, MF 8240 2WD, MF 8240 4WD, MF 8220 2WD, MF 8220 4WD, MF 8210 2WD, MF 8210 4WD, 6465 Dyna-6, 6475 Dyna-6, MF 6480 T3 Agco Power, MF 6497 T2 Agco Power, MF 6499 T2 Agco Power, MF 6465 T2 Perkins, MF 6475 T2 Perkins, MF 6480 T2 Perkins, MF 6490 T2 Agco Power, MF 6495 T2 Agco Power, MF 6485 T2 Agco Power, MF 6445 T2 Agco Power, MF 6455 T2 Perkins, MF 6460 T2 Perkins, MF 6470 T2 Perkins, MF 6497 XTRA, MF 6499 XTRA, 6485, MF 6490 T3 Agco Power, MF 6495 T3 Agco Power, MF 6470 T3 Agco Power, MF 6460 T3 Agco Power, 6465, MF 6475 T3 Agco Power, MF 6480 T3 Perkins, MF 6445 T3 Perkins, MF 6455 T3 Perkins, MF 6497 T3 Agco Power, MF 6499 T3 Agco Power, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7465, MF 7475, MF 7480, MF 7485, MF 7490, MF 7495, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 8450, MF 8460, MF 8470, MF 8480, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 3630, MF 3640, MF 3650, MF 3630 XTRA, MF 3640 XTRA, MF 3650 XTRA, MF 3615, MF 3625, MF 3635, MF 3645, MF 2225, MF 2235, MF 2430, MF 2435, MF 2440, MF 2210, MF 2220, MF 2230, MF 8650 T3 / T2, MF 8660 T3 DYNA VT, MF 8670 T3 / T2 DYNA VT, MF 8680 T3 DYNA VT, MF 8690 T3 / T2 DYNA VT, MF 5709 S Dyna-4, MF 5709 S Dyna-6, MF 5608 Dyna-4, MF 5609 Dyna-4, MF 5610 Dyna-4, MF 5611 Dyna-4, MF 5611 Dyna-6, MF 5612 Dyna-4, MF 5612 Dyna-6, MF 5613 Dyna-4, MF 5613 Dyna-6, MF 6612 Dyna-4, MF 6613 Dyna-6, MF 6613 Dyna-4, MF 6614 Dyna-VT, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-VT, MF 6615 Dyna-6, MF 6616 Dyna-VT, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-VT, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-VT, MF 7616 Dyna-6, MF 7618 Dyna-VT, MF 7618 Dyna-6, MF 7619 Dyna-VT, MF 7619 Dyna-6, MF 7620 Dyna-VT, MF 7620 Dyna-6, MF 7622 Dyna-VT, MF 7622 Dyna-6, MF 7624 Dyna-VT, MF 7624 Dyna-6, MF 7626 Dyna-6, MF 5709 SL Dyna-4, MF 5710 SL Dyna-4, MF 5710 SL Dyna-6, MF 5711 SL Dyna-4, MF 5711 SL Dyna-6, MF 5712 SL Dyna-4, MF 5712 SL Dyna-6, MF 5713 SL Dyna-4, MF 5713 SL Dyna-6, MF 6712 S Dyna-4, MF 6713 S Dyna-4, MF 6714 S Dyna-4 T4F, MF 6715 S Dyna-4 T4F, MF 6713 S Dyna-6, MF 6713 S Dyna-VT, MF 6714 S Dyna-6, MF 6714 S Dyna-VT, MF 6715 S Dyna-6 T4F, MF 6715 S Dyna-VT, MF 6716 S Dyna-6 T4F, MF 6716 S Dyna-VT T4F, MF 6718 S Dyna-6, MF 6718 S Dyna-VT, MF 6714 S Dyna-6 T4F, MF 6714 S Dyna-VT T4F, MF 7719 Dyna-6, MF 7715 DYNA-4, MF 7716 Dyna-6, MF 7714 Dyna-4, MF 7715 Dyna-4, MF 7726 Dyna-VT, MF6713 S Dyna-6 T5, MF 6713 S Dyna-VT T5, MF 6714 S Dyna-6 T5, MF 6714 S Dyna-VT T5, MF 6715 S Dyna-6 T5, MF 6715 S Dyna-VT T5, MF 6716 S Dyna-6 T5, MF 6716 S Dyna-VT T5, MF 6718 S Dyna-6 T5, MF 6718 S Dyna-VT T5, MF 7714 S Dyna-4, MF 7719 S Dyna-VT T5, MF 7714 S Dyna-4 T5, MF 7715 S Dyna-VT T5, MF 7715 S Dyna-6 T5, MF 7716 S Dyna-VT T5, MF 7716 S Dyna-6 T5, MF 7718 S Dyna-VT T5, MF 7718 S Dyna-6 T5, MF 8737 S, MF 8727 S Dyna-VT, MF 8730 S Dyna-VT, MF 8732 S Dyna-VT, MF 8735 S Dyna-VT, MF 8737 S Dyna-VT, MF 8740 S Dyna-VT, MF 5465 Dyna-4, MF 5475 Dyna-4, MF 5460 T3 SISU, MF 5445, MF 5455, 5460, 5465, MF 5425, MF 5435, MF 5470 T3, MF 5480 T3, MF 5465 T3, MF 5475 T3, MF 5460 SISU, MF 5445 T3, MF 5455 T3, MF 5410 T3, MF 5420 T3, MF 5430 T3, MF 5440 T3, MF 5450 T3, MF 2150 CE, MF 2160 CE, MF 2170CE, MF 185 SII, MF 190CE, MF 2140 CE, MF8727, MF8730, MF8732, MF8735, MF 8737 MR, MF 375 2WD, MF 375 4WD, MF 390 2WD, MF 390 4WD, MF 398 2WD, MF 398 4WD, MF 399 2WD, MF 399 4WD, MF 365 2WD, MF 365 4WD, MF 390T 2WD, MF 390T 4WD, MF 362 2WD, MF 372 N 2WD, MF 372 N 4WD, MF 382 N 4WD, MF 362 N 2WD, MF 362 N 4WD, MF 342 2WD, MF 352 2WD, MF 7274, MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7272, MF 3625 V 4WD, MF 3635 V 4WD, MF 3625 S 4WD, MF 3635 S 4WD, MF 3625 F 4WD, MF 3635 F 4WD, MF 3625 GE 4WD, MF 3635 GE 4WD, S232 T3, S262 T3, S292 T3 / T2, S322 T3, S352 T3 / T2, No longer used Refer to 11652, No longer used Refer to 11647, No longer used Refer to 11648, No longer used Refer to 11649, No longer used Refer to 11650, No longer used Refer to 11651, T195 (replaced by J3591), T210 (replaced by J3592), T230 (replaced by J3593), T250 (replaced by J3594), N101, S233, S263, S293, S323, S353, S294, S374, S324 SmartTouch MR19, S394 SmartTouch MR19</t>
+        </is>
+      </c>
+      <c r="D1012" s="11" t="inlineStr"/>
     </row>
     <row r="1013" ht="18.75" customHeight="1">
       <c r="A1013" s="4" t="n">
         <v>72420641</v>
       </c>
-      <c r="B1013" s="11" t="n"/>
-      <c r="C1013" s="11" t="n"/>
-      <c r="D1013" s="11" t="n"/>
+      <c r="B1013" s="11" t="inlineStr">
+        <is>
+          <t>Challenger, Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C1013" s="11" t="inlineStr">
+        <is>
+          <t>RG900, RG1100, RG1300, RG1100B, RG1300B, RG700, RG700B, RG1100C, 7460/7660, MT835C, MT755C, MT455D, MT465D, MT555D Dyna-6, MT565D Dyna-6, MT575D Dyna-6, MT585D Dyna-6, MT555D CVT, MT565D CVT, MT575D CVT, MT585D CVT, MT515D Dyna-4, MT535D Dyna-6, MT545D Dyna-6, MT525D Dyna-VT, MT535D Dyna-VT, MT545D Dyna-VT, MT575E CVT, MT525E Dyna-6, MT545E Dyna-6, MT525E Dyna-VT, MT545E Dyna-VT, MT545B Dyna-6, MT525B Dyna-6, MT525B Dyna-CVT, MT545B Dyna-CVT, MT565B Dyna-CVT T3 CAT, MT575B Dyna-CVT T3 CAT, MT555B Dyna-6 T3 CAT, MT565B Dyna-6 T3 CAT, MT575B Dyna-6 T3 CAT, MT525B Dyna-6 T3 CAT, MT545B Dyna-6 T3 CAT, MT525B Dyna-CVT T3 CAT, MT545B Dyna-CVT T3 CAT, MT595B Dyna-CVT T3 SISU , MT645D T4I, MT655D T4I, MT665D T4I / T2, MT675D T4I, MT685D T4I / T2, MT665E, MT645C, MT655C T3 CVT, MT665C T3 / T2 CVT, MT675C T3 CVT, MTS855C, MTS865C, MTS875C, MTS965C, MTS965E, MTS975E, MT955E, MT965E, MT975E, MT945C , MT955C , MT965C , 712 Vario, 712 Vario T2, 714 Vario T2, 716 Vario T2, 815 Vario, 817 Vario, 818 Vario, Favorit 916 Vario, Favorit 920 Vario, Favorit 924 Vario, Favorit 926 Vario, 930 Vario TMS, 714 Vario SCR, 716 Vario SCR, 718 Vario SCR, 720 Vario SCR, 722 Vario SCR, 724 Vario SCR, 820 Vario, 822 Vario SCR, 824 Vario SCR, 828 Vario SCR, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7465 T3, MF 7475 T3, MF 7480 T3, MF 7499, MF 6614 Dyna-VT, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-VT, MF 6615 Dyna-6, MF 6616 Dyna-VT, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-VT, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-VT, MF 7616 Dyna-6, MF 7618 Dyna-VT, MF 7618 Dyna-6, MF 7619 Dyna-VT, MF 7619 Dyna-6, MF 7620 Dyna-VT, MF 7620 Dyna-6, MF 7622 Dyna-VT, MF 7622 Dyna-6, MF 7624 Dyna-VT, MF 7624 Dyna-6, MF 6715 S Dyna-4 T4F, MF 6714 S Dyna-VT, MF 6715 S Dyna-VT, MF 6716 S Dyna-6 T4F, MF 6716 S Dyna-VT T4F, MF 7719 Dyna-6, MF 7720 Dyna-6, MF 7722 Dyna-6, MF 7724 Dyna-6, MF 7726 Dyna-6, MF 7720 Dyna-VT, MF 7722 Dyna-VT, MF 7724 Dyna-VT, MF 7716 Dyna-VT, MF 7718 Dyna-VT, MF 7719 Dyna-VT, MF 7726 Dyna-VT, MF 8660 Dyna-VT T2, MF 8670, MF 8680, MF 8690, MF 8727, MF 8730, MF 8732, MF 8735</t>
+        </is>
+      </c>
+      <c r="D1013" s="11" t="inlineStr"/>
     </row>
     <row r="1014" ht="18.75" customHeight="1">
       <c r="A1014" s="3" t="inlineStr">
@@ -15858,25 +16990,57 @@
           <t>X825283480000</t>
         </is>
       </c>
-      <c r="B1014" s="11" t="n"/>
-      <c r="C1014" s="11" t="n"/>
-      <c r="D1014" s="11" t="n"/>
+      <c r="B1014" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson, Valtra</t>
+        </is>
+      </c>
+      <c r="C1014" s="11" t="inlineStr">
+        <is>
+          <t>309 Vario, 310 Vario, 311 Vario, 312 Vario, 309 Vario SCR, 310 Vario SCR, 311 Vario SCR, 312 Vario SCR, 313 Vario SCR, 411 Vario, 412 Vario, 413 Vario, 414 Vario, 415 Vario, 512 Vario SCR, 513 Vario SCR, 514 Vario SCR, 516 Vario SCR, 712 Vario, 714 Vario, 716 Vario, 718 Vario, FAVORIT 711 VARIO, 716 Vario T2, Favorit 916 Vario, Favorit 920 Vario, Favorit 924 Vario, Favorit 926 Vario, 930 Vario TMS, 714 Vario SCR, 716 Vario SCR, 718 Vario SCR, 720 Vario SCR, 722 Vario SCR, 724 Vario SCR, 818 Vario, 820 Vario, 819 Vario SCR, 822 Vario SCR, 824 Vario SCR, 826 Vario SCR, 828 Vario SCR, 922 Vario, 924 Vario, 927 Vario, 930 Vario, 933 Vario, 936 Vario, 924 Vario SCR, 927 Vario SCR, 930 Vario SCR, 933 Vario SCR, 936 Vario SCR, 939 Vario SCR, Katana 65, 1149 MT, 1154 MT, 1159 MT, 1165 MT, 6465 Dyna-6, 6475 Dyna-6, MF 6480 T3 Agco Power, MF 6497 T2 Agco Power, MF 6499 T2 Agco Power, MF 6465 T2 Perkins, MF 6475 T2 Perkins, MF 6480 T2 Perkins, MF 6490 T2 Agco Power, MF 6495 T2 Agco Power, MF 6485 T2 Agco Power, MF 6445 T2 Agco Power, MF 6455 T2 Perkins, MF 6460 T2 Perkins, MF 6470 T2 Perkins, MF 6497 XTRA, 6485, MF 6490 T3 Agco Power, MF 6495 T3 Agco Power, MF 6470 T3 Agco Power, MF 6460 T3 Agco Power, 6465, MF 6475 T3 Agco Power, MF 6480 T3 Perkins, MF 6455 T3 Perkins, MF 6497 T3 Agco Power, MF 6499 T3 Agco Power, MF 7465 T3 SISU, MF 7475 T3 SISU, MF 7480 T3 SISU, MF 7465, MF 7475, MF 7480, MF 7485, MF 7490, MF 7495, MF 7485 T3, MF 7490 T3, MF 7495 T3, MF 7497, MF 7499, MF 8450, MF 8460, MF 8470, MF 8480, MF 8450 XTRA, MF 8460 XTRA, MF 8470 XTRA, MF 8480 XTRA, MF 6613 Dyna-6, MF 6614 Dyna-VT, MF 6614 Dyna-6, MF 6615 Dyna-4, MF 6615 Dyna-VT, MF 6615 Dyna-6, MF 6616 Dyna-VT, MF 6616 Dyna-6, MF 7614 Dyna-4, MF 7615 Dyna-VT, MF 7615 Dyna-6, MF 7615 Dyna-4, MF 7616 Dyna-VT, MF 7616 Dyna-6, MF 7618 Dyna-VT, MF 7618 Dyna-6, MF 7619 Dyna-VT, MF 7619 Dyna-6, MF 7620 Dyna-VT, MF 7620 Dyna-6, MF 7622 Dyna-VT, MF 7622 Dyna-6, MF 7624 Dyna-VT, MF 7624 Dyna-6, MF 7626 Dyna-6, MF 6715 S Dyna-4 T4F, MF 6713 S Dyna-6, MF 6714 S Dyna-6, MF 6714 S Dyna-VT, MF 6715 S Dyna-VT, MF 6716 S Dyna-6 T4F, MF 6716 S Dyna-VT T4F, MF 6718 S Dyna-6, MF 6718 S Dyna-VT, MF 6714 S Dyna-6 T4F, MF 6714 S Dyna-VT T4F, MF 7719 Dyna-6, MF 7716 Dyna-6, MF 7726 Dyna-VT, MF 8737 S, MF8727, MF8730, MF8732, MF8735, N121H, N141H, N111eH, N101H, N91C, N91H, N101C, N111, N121LS, N141LS, N101, N111ELS, N122V, N142V, N122D, N142D, N113H3, N113H5, N123H3, N123H5, N143V, N163V, N143D, N163D, N143H3, N103.4H3, N103.4H5, N123V, N123D, N93H3, N103H3, N103H5, N93H5, N82H, N92H, S233, S263, S293, S323, S353, S294, S374, T131C, T161C, T171C, T121H, T131H, T151EH, T161H, T171H, T191H, T121C, T161LS, T171LS, T191LS, T132V, T152V, T162EV, T172V, T182V, T202V, T132D, T152D, T162D, T172D, T182D, T202D, T193H, T213V, T183D, T203D</t>
+        </is>
+      </c>
+      <c r="D1014" s="11" t="inlineStr"/>
     </row>
     <row r="1015" ht="18.75" customHeight="1">
       <c r="A1015" s="4" t="n">
         <v>71149895</v>
       </c>
-      <c r="B1015" s="11" t="n"/>
-      <c r="C1015" s="11" t="n"/>
-      <c r="D1015" s="11" t="n"/>
+      <c r="B1015" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C1015" s="11" t="inlineStr">
+        <is>
+          <t>IDEAL 7, IDEAL 8, 9300R, 9390R, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF IDEAL 7, MF IDEAL 8</t>
+        </is>
+      </c>
+      <c r="D1015" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="1016" ht="18.75" customHeight="1">
       <c r="A1016" s="4" t="n">
         <v>70937300</v>
       </c>
-      <c r="B1016" s="11" t="n"/>
-      <c r="C1016" s="11" t="n"/>
-      <c r="D1016" s="11" t="n"/>
+      <c r="B1016" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C1016" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795</t>
+        </is>
+      </c>
+      <c r="D1016" s="11" t="inlineStr">
+        <is>
+          <t>Пусто</t>
+        </is>
+      </c>
     </row>
     <row r="1017" ht="18.75" customHeight="1">
       <c r="A1017" s="3" t="inlineStr">
@@ -15884,9 +17048,17 @@
           <t>LA344375101</t>
         </is>
       </c>
-      <c r="B1017" s="11" t="n"/>
-      <c r="C1017" s="11" t="n"/>
-      <c r="D1017" s="11" t="n"/>
+      <c r="B1017" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C1017" s="11" t="inlineStr">
+        <is>
+          <t>Cutting table FF 7,0m, MF 7265 (2009-2011), MF 7345 S MCS (2011-2014), MF 7347 S MCS (2012-2014), MF 7360 T4I (2012), MF 7360 PL T4I (2012), MF 7370 T4I (2012), MF 7347 S (2012-2014), MF 7360 T4I (2013-2014), MF 7360 PL T4I (2013-2014), MF 7370 T4I (2013-2014), MF 7360 PLI T4I (2013-2014), MF 7345 S (09/14 - 08/17), MF 7345 S MCS (09/14 - 08/17), MF 7347 S (09/14 - 08/17), MF 7347 S MCS (09/14 - 08/17), MF 7360 T4F (2015-2017), MF 7360 PL T4F (2015-2017), MF 7360 PLI T4F (2015-2017), MF 7370 T4F (2015-2017), MF 7370 PL (09/14 - 08/17), MF 7345 S T4F (2018-2021), MF 7347 S T4F (2018-2021), MF 7360 T4F (2018-2021), MF 7360 PL/PLI T4F (2018-2021), MF 7370 T4F (2018-2021), MF 7347 S ST5 (2021-9999), MF 7370 ST5 (2021-9999), MF 7247 S (2008-2011), MF 7245 S (2006-2011), MF 7244 (2006-2011), MF 7245 (2006-2011), MF 7246 (2006-2011), MF 7260 (2005-2011), MF 7270 (2005-2011), MF 7370 PLI (2017), MF Activa S 7345 MCS, MF Activa S 7347 MCS, MF Beta 7360, MF Beta 7370 PL, MF Beta 7370 PLI</t>
+        </is>
+      </c>
+      <c r="D1017" s="11" t="inlineStr"/>
     </row>
     <row r="1018" ht="18.75" customHeight="1">
       <c r="A1018" s="3" t="inlineStr">
@@ -15894,9 +17066,17 @@
           <t>329488M91</t>
         </is>
       </c>
-      <c r="B1018" s="11" t="n"/>
-      <c r="C1018" s="11" t="n"/>
-      <c r="D1018" s="11" t="n"/>
+      <c r="B1018" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C1018" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, Cutting table PF 5,5m (18'), 9470X, MF 7274, MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7256, MF 7272</t>
+        </is>
+      </c>
+      <c r="D1018" s="11" t="inlineStr"/>
     </row>
     <row r="1019" ht="18.75" customHeight="1">
       <c r="A1019" s="3" t="inlineStr">
@@ -15904,9 +17084,17 @@
           <t>D42351400</t>
         </is>
       </c>
-      <c r="B1019" s="11" t="n"/>
-      <c r="C1019" s="11" t="n"/>
-      <c r="D1019" s="11" t="n"/>
+      <c r="B1019" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C1019" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, 9470X, MF 7274, MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7256, MF 7272</t>
+        </is>
+      </c>
+      <c r="D1019" s="11" t="inlineStr"/>
     </row>
     <row r="1020" ht="18.75" customHeight="1">
       <c r="A1020" s="3" t="inlineStr">
@@ -15914,33 +17102,49 @@
           <t>Y85712</t>
         </is>
       </c>
-      <c r="B1020" s="11" t="n"/>
-      <c r="C1020" s="11" t="n"/>
-      <c r="D1020" s="11" t="n"/>
+      <c r="B1020" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C1020" s="11" t="inlineStr">
+        <is>
+          <t>IDEAL 7, IDEAL 8, IDEAL 9, 9300R, 9390R, MF 9895, MF 9695, MF 9795, MF 185 SII, MF IDEAL 7, MF IDEAL 8, MF IDEAL 9</t>
+        </is>
+      </c>
+      <c r="D1020" s="11" t="inlineStr"/>
     </row>
     <row r="1021" ht="18.75" customHeight="1">
       <c r="A1021" s="4" t="n">
         <v>70913682</v>
       </c>
-      <c r="B1021" s="11" t="n"/>
-      <c r="C1021" s="11" t="n"/>
-      <c r="D1021" s="11" t="n"/>
+      <c r="B1021" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C1021" s="11" t="inlineStr">
+        <is>
+          <t>9300R, 9390R, 990 (Serial No. JHBxxx001 to JBHxxx999), 1270 (Serial No. JHBxxx001 to JBHxxx999), 1290 XD (Serial No. JHBxxx001 to JBHxxx999), MF 9540, MF 9560, MF 9690, MF 9790, MF 9895, MF 9695, MF 9795, MF 185 SII, MF 190CE, MF 186CE, MF 187CE, MF 375 4WD, MF 390 2WD</t>
+        </is>
+      </c>
+      <c r="D1021" s="11" t="inlineStr"/>
     </row>
     <row r="1022" ht="18.75" customHeight="1">
       <c r="A1022" s="4" t="n">
         <v>70919104</v>
       </c>
-      <c r="B1022" s="11" t="n"/>
-      <c r="C1022" s="11" t="n"/>
-      <c r="D1022" s="11" t="n"/>
+      <c r="B1022" s="11" t="inlineStr"/>
+      <c r="C1022" s="11" t="inlineStr"/>
+      <c r="D1022" s="11" t="inlineStr"/>
     </row>
     <row r="1023" ht="18.75" customHeight="1">
       <c r="A1023" s="4" t="n">
         <v>70919103</v>
       </c>
-      <c r="B1023" s="11" t="n"/>
-      <c r="C1023" s="11" t="n"/>
-      <c r="D1023" s="11" t="n"/>
+      <c r="B1023" s="11" t="inlineStr"/>
+      <c r="C1023" s="11" t="inlineStr"/>
+      <c r="D1023" s="11" t="inlineStr"/>
     </row>
     <row r="1024" ht="18.75" customHeight="1">
       <c r="A1024" s="3" t="inlineStr">
@@ -15948,9 +17152,17 @@
           <t>329260M91</t>
         </is>
       </c>
-      <c r="B1024" s="11" t="n"/>
-      <c r="C1024" s="11" t="n"/>
-      <c r="D1024" s="11" t="n"/>
+      <c r="B1024" s="11" t="inlineStr">
+        <is>
+          <t>Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C1024" s="11" t="inlineStr">
+        <is>
+          <t>MF 9690, MF 9790, MF 9895, MF 185 SII, MF 190CE, MF 187CE</t>
+        </is>
+      </c>
+      <c r="D1024" s="11" t="inlineStr"/>
     </row>
     <row r="1025" ht="18.75" customHeight="1">
       <c r="A1025" s="3" t="inlineStr">
@@ -15958,9 +17170,17 @@
           <t>D42363100</t>
         </is>
       </c>
-      <c r="B1025" s="11" t="n"/>
-      <c r="C1025" s="11" t="n"/>
-      <c r="D1025" s="11" t="n"/>
+      <c r="B1025" s="11" t="inlineStr">
+        <is>
+          <t>Fendt, Massey Ferguson</t>
+        </is>
+      </c>
+      <c r="C1025" s="11" t="inlineStr">
+        <is>
+          <t>8370P, 8400P, Cutting table PF 5,5m (18'), 9470X, MF 7274, MF 7280 (09/08 - 03/13), MF 7282 (09/08 - 03/13), MF 7278, MF 7256, MF 7272</t>
+        </is>
+      </c>
+      <c r="D1025" s="11" t="inlineStr"/>
     </row>
     <row r="1026" ht="18.75" customHeight="1">
       <c r="A1026" s="3" t="inlineStr">
